--- a/resources/Forms/Excel/Big Sheet.xlsx
+++ b/resources/Forms/Excel/Big Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie_Take2/FootieTake2/resources/Forms/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8795B9-AD42-474B-A0FC-6582522942EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49D080F-A753-3D40-AD45-0515E65724E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="500" windowWidth="35440" windowHeight="18640" activeTab="1" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
+    <workbookView xWindow="2760" yWindow="500" windowWidth="35440" windowHeight="18640" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Ranking" sheetId="5" r:id="rId1"/>
@@ -1364,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88DB2AD-0B7A-2B40-B11D-A4AE4E9DB3F2}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10681,10 +10681,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536C4378-6AA3-D34E-B8EC-6B4414E01E1A}">
   <dimension ref="A1:CL121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BM1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BS1" sqref="BS1"/>
-      <selection pane="bottomLeft" activeCell="CF120" sqref="CF120"/>
+      <selection pane="bottomLeft" activeCell="L109" sqref="L109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/resources/Forms/Excel/Big Sheet.xlsx
+++ b/resources/Forms/Excel/Big Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie/FootieTake2/resources/Forms/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCA96C2-D8F3-C942-9698-2C6113121DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452BE90F-F2E8-2C4B-BC67-0F1A7C4FE0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
   </bookViews>
@@ -1041,7 +1041,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1049,15 +1049,15 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>13424</xdr:rowOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A60F1632-08B6-AA99-2D8A-BAE2D4C9AC83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E325C25C-5D99-A073-FD91-30D1685BFE18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1073,8 +1073,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="853440" y="19507200"/>
-          <a:ext cx="6746240" cy="15659824"/>
+          <a:off x="0" y="19507200"/>
+          <a:ext cx="7599680" cy="13536930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2619,12 +2619,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A17:D17"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A32:D32"/>
@@ -2632,6 +2626,12 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3524,12 +3524,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -3537,6 +3531,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4414,12 +4414,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -4427,6 +4421,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5314,12 +5314,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -5327,6 +5321,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C76" xr:uid="{912C664E-C133-1E4F-9640-4A25EB9EF25D}">
@@ -6210,12 +6210,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -6223,6 +6217,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{B20B3CE4-DCB9-4E4A-AC39-D9DA073FCC61}">
@@ -7090,12 +7090,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -7103,6 +7097,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7980,12 +7980,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -7993,6 +7987,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8874,12 +8874,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -8887,6 +8881,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C74" xr:uid="{F68D3FFC-EF79-CC40-8F53-8BF21A5E1341}">
@@ -9773,12 +9773,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -9786,6 +9780,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{11A7353F-6A05-F048-B4B5-2330C623E382}">
@@ -10669,6 +10669,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -10676,12 +10682,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{79F4B324-FC19-7044-8ECD-3029BC735257}">
@@ -10698,9 +10698,9 @@
   <dimension ref="A1:CL125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BS1" sqref="BS1"/>
-      <selection pane="bottomLeft" activeCell="B97" sqref="B97"/>
+      <selection pane="bottomLeft" activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -43236,12 +43236,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="CH1:CK1"/>
     <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="AY1:BB1"/>
@@ -43249,6 +43243,12 @@
     <mergeCell ref="BM1:BP1"/>
     <mergeCell ref="BT1:BW1"/>
     <mergeCell ref="CA1:CD1"/>
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AD1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
@@ -44113,12 +44113,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -44126,6 +44120,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47599,12 +47599,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -47612,6 +47606,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67:C73 B66 B1:C65" xr:uid="{156C7248-1706-4E17-9BB6-079B78DEF479}">
@@ -48495,12 +48495,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -48508,6 +48502,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{05F05F3A-89C6-E74F-BB5C-B82EDA718869}">
@@ -49391,12 +49391,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -49404,6 +49398,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{A2199F60-9E4F-6445-90E3-92673D510A9D}">
@@ -50287,6 +50287,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -50294,12 +50300,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{2B53EE05-D1D3-374E-8836-2425C3E2B4A5}">
@@ -51189,6 +51189,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -51196,12 +51202,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C75" xr:uid="{A6BA8386-7538-B943-BC89-6C717665472C}">
@@ -52085,6 +52085,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -52092,12 +52098,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{CBEDE9B1-CCD8-024F-8FF6-52E83D09DD5F}">
@@ -52664,18 +52664,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="B64:E64"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="B46:E46"/>
     <mergeCell ref="B52:E52"/>
     <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -53553,6 +53553,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -53560,12 +53566,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{9D4EDCA2-2FFE-E64B-A34E-466DD99F6343}">
@@ -54449,6 +54449,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -54456,12 +54462,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -55339,12 +55339,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -55352,6 +55346,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{8427FA4B-D7DC-C74F-B6C6-02A04CEA1479}">
@@ -56238,12 +56238,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -56251,6 +56245,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{8A242A5A-737B-3248-9203-1E18FA7E8CAD}">
@@ -57134,6 +57134,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -57141,12 +57147,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -58024,6 +58024,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -58031,12 +58037,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -59140,12 +59140,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -59153,6 +59147,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{98289B19-A16E-8E48-AC84-DA2AC3E66DBF}">
@@ -60036,6 +60036,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -60043,12 +60049,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -60926,12 +60926,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -60939,6 +60933,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{F2D3BCCF-F868-974E-AEC9-AB88E8DBE8B7}">
@@ -61822,12 +61822,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -61835,6 +61829,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{85A9722B-955B-CF41-A6F3-38FDC4B48A7A}">
@@ -62717,12 +62717,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -62730,6 +62724,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{A72D56DF-9BC0-2E49-9D2A-B8E721479EEF}">

--- a/resources/Forms/Excel/Big Sheet.xlsx
+++ b/resources/Forms/Excel/Big Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie/FootieTake2/resources/Forms/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452BE90F-F2E8-2C4B-BC67-0F1A7C4FE0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832C0C56-8265-B24B-9007-EF93E83133BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
   </bookViews>
@@ -1037,55 +1037,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E325C25C-5D99-A073-FD91-30D1685BFE18}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="19507200"/>
-          <a:ext cx="7599680" cy="13536930"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2619,6 +2570,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A17:D17"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A32:D32"/>
@@ -2626,12 +2583,6 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3524,6 +3475,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -3531,12 +3488,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4414,6 +4365,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -4421,12 +4378,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5314,6 +5265,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -5321,12 +5278,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C76" xr:uid="{912C664E-C133-1E4F-9640-4A25EB9EF25D}">
@@ -6210,6 +6161,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -6217,12 +6174,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{B20B3CE4-DCB9-4E4A-AC39-D9DA073FCC61}">
@@ -7090,6 +7041,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -7097,12 +7054,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7980,6 +7931,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -7987,12 +7944,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8874,6 +8825,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -8881,12 +8838,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C74" xr:uid="{F68D3FFC-EF79-CC40-8F53-8BF21A5E1341}">
@@ -9773,6 +9724,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -9780,12 +9737,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{11A7353F-6A05-F048-B4B5-2330C623E382}">
@@ -10669,12 +10620,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -10682,6 +10627,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{79F4B324-FC19-7044-8ECD-3029BC735257}">
@@ -10698,7 +10649,7 @@
   <dimension ref="A1:CL125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BS1" sqref="BS1"/>
       <selection pane="bottomLeft" activeCell="A97" sqref="A97"/>
     </sheetView>
@@ -10711,7 +10662,7 @@
     <col min="5" max="5" width="10.83203125"/>
     <col min="6" max="6" width="7.33203125" style="4" customWidth="1"/>
     <col min="7" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" style="4" customWidth="1"/>
     <col min="10" max="10" width="4.83203125" style="4" customWidth="1"/>
     <col min="11" max="11" width="4.1640625" style="4" customWidth="1"/>
@@ -43236,6 +43187,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="CH1:CK1"/>
     <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="AY1:BB1"/>
@@ -43243,12 +43200,6 @@
     <mergeCell ref="BM1:BP1"/>
     <mergeCell ref="BT1:BW1"/>
     <mergeCell ref="CA1:CD1"/>
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AD1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
@@ -43258,7 +43209,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -44113,6 +44063,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -44120,12 +44076,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47599,6 +47549,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -47606,12 +47562,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67:C73 B66 B1:C65" xr:uid="{156C7248-1706-4E17-9BB6-079B78DEF479}">
@@ -48495,6 +48445,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -48502,12 +48458,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{05F05F3A-89C6-E74F-BB5C-B82EDA718869}">
@@ -49391,6 +49341,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -49398,12 +49354,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{A2199F60-9E4F-6445-90E3-92673D510A9D}">
@@ -50287,12 +50237,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -50300,6 +50244,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{2B53EE05-D1D3-374E-8836-2425C3E2B4A5}">
@@ -51189,12 +51139,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -51202,6 +51146,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C75" xr:uid="{A6BA8386-7538-B943-BC89-6C717665472C}">
@@ -52085,12 +52035,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -52098,6 +52042,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{CBEDE9B1-CCD8-024F-8FF6-52E83D09DD5F}">
@@ -52664,18 +52614,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B58:E58"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B58:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -53553,12 +53503,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -53566,6 +53510,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{9D4EDCA2-2FFE-E64B-A34E-466DD99F6343}">
@@ -54449,12 +54399,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -54462,6 +54406,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -55339,6 +55289,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -55346,12 +55302,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{8427FA4B-D7DC-C74F-B6C6-02A04CEA1479}">
@@ -56238,6 +56188,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -56245,12 +56201,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{8A242A5A-737B-3248-9203-1E18FA7E8CAD}">
@@ -57134,12 +57084,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -57147,6 +57091,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -58024,12 +57974,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -58037,6 +57981,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -59140,6 +59090,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -59147,12 +59103,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{98289B19-A16E-8E48-AC84-DA2AC3E66DBF}">
@@ -60036,12 +59986,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -60049,6 +59993,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -60926,6 +60876,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -60933,12 +60889,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{F2D3BCCF-F868-974E-AEC9-AB88E8DBE8B7}">
@@ -61822,6 +61772,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -61829,12 +61785,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{85A9722B-955B-CF41-A6F3-38FDC4B48A7A}">
@@ -62717,6 +62667,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -62724,12 +62680,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{A72D56DF-9BC0-2E49-9D2A-B8E721479EEF}">

--- a/resources/Forms/Excel/Big Sheet.xlsx
+++ b/resources/Forms/Excel/Big Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie/FootieTake2/resources/Forms/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E4922B-30FC-C043-B0FC-66AE9CA6F32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC2CE49-7557-DA42-B8C9-DA8B6D8FBFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1960" yWindow="1700" windowWidth="25440" windowHeight="14720" tabRatio="800" activeTab="1" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
   </bookViews>
@@ -1062,17 +1062,17 @@
       <xdr:rowOff>203199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>538480</xdr:colOff>
-      <xdr:row>389</xdr:row>
-      <xdr:rowOff>43130</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>408</xdr:row>
+      <xdr:rowOff>192456</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{577E26D6-631C-B876-9249-4E501A43454F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{515AF3ED-AFF3-CCB1-D3F1-C2A6B4606C43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1089,7 +1089,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="19507199"/>
-          <a:ext cx="8158480" cy="59580731"/>
+          <a:ext cx="8199120" cy="63590857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2667,6 +2667,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A17:D17"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A32:D32"/>
@@ -2674,12 +2680,6 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3605,6 +3605,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -3612,12 +3618,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4528,6 +4528,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -4535,12 +4541,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5461,6 +5461,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -5468,12 +5474,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C76" xr:uid="{912C664E-C133-1E4F-9640-4A25EB9EF25D}">
@@ -6390,6 +6390,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -6397,12 +6403,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{B20B3CE4-DCB9-4E4A-AC39-D9DA073FCC61}">
@@ -7303,6 +7303,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -7310,12 +7316,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8226,6 +8226,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -8233,12 +8239,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9153,6 +9153,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -9160,12 +9166,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C74" xr:uid="{F68D3FFC-EF79-CC40-8F53-8BF21A5E1341}">
@@ -10085,6 +10085,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -10092,12 +10098,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{11A7353F-6A05-F048-B4B5-2330C623E382}">
@@ -11014,12 +11014,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -11027,6 +11021,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{79F4B324-FC19-7044-8ECD-3029BC735257}">
@@ -43581,6 +43581,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="CH1:CK1"/>
     <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="AY1:BB1"/>
@@ -43588,12 +43594,6 @@
     <mergeCell ref="BM1:BP1"/>
     <mergeCell ref="BT1:BW1"/>
     <mergeCell ref="CA1:CD1"/>
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AD1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
@@ -44491,6 +44491,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -44498,12 +44504,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -48109,6 +48109,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -48116,12 +48122,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67:C73 B66 B1:C65" xr:uid="{156C7248-1706-4E17-9BB6-079B78DEF479}">
@@ -49038,6 +49038,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -49045,12 +49051,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{05F05F3A-89C6-E74F-BB5C-B82EDA718869}">
@@ -49967,6 +49967,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -49974,12 +49980,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{A2199F60-9E4F-6445-90E3-92673D510A9D}">
@@ -50896,12 +50896,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -50909,6 +50903,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{2B53EE05-D1D3-374E-8836-2425C3E2B4A5}">
@@ -51831,12 +51831,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -51844,6 +51838,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C75" xr:uid="{A6BA8386-7538-B943-BC89-6C717665472C}">
@@ -52760,12 +52760,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -52773,6 +52767,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{CBEDE9B1-CCD8-024F-8FF6-52E83D09DD5F}">
@@ -53339,18 +53339,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B58:E58"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B58:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -54261,12 +54261,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -54274,6 +54268,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{9D4EDCA2-2FFE-E64B-A34E-466DD99F6343}">
@@ -55190,12 +55190,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -55203,6 +55197,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -56113,6 +56113,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -56120,12 +56126,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{8427FA4B-D7DC-C74F-B6C6-02A04CEA1479}">
@@ -57045,6 +57045,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -57052,12 +57058,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{8A242A5A-737B-3248-9203-1E18FA7E8CAD}">
@@ -57974,12 +57974,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -57987,6 +57981,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -58897,12 +58897,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -58910,6 +58904,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -60046,6 +60046,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -60053,12 +60059,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{98289B19-A16E-8E48-AC84-DA2AC3E66DBF}">
@@ -60975,12 +60975,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -60988,6 +60982,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -61898,6 +61898,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -61905,12 +61911,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{F2D3BCCF-F868-974E-AEC9-AB88E8DBE8B7}">
@@ -62827,6 +62827,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -62834,12 +62840,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{85A9722B-955B-CF41-A6F3-38FDC4B48A7A}">
@@ -63756,6 +63756,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -63763,12 +63769,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{A72D56DF-9BC0-2E49-9D2A-B8E721479EEF}">

--- a/resources/Forms/Excel/Big Sheet.xlsx
+++ b/resources/Forms/Excel/Big Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie/FootieTake2/resources/Forms/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie_Take2/FootieTake2/resources/Forms/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC2CE49-7557-DA42-B8C9-DA8B6D8FBFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6470DAA4-9514-C344-B76F-005250332E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1960" yWindow="1700" windowWidth="25440" windowHeight="14720" tabRatio="800" activeTab="1" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3998" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3998" uniqueCount="114">
   <si>
     <t>Rank</t>
   </si>
@@ -387,25 +387,31 @@
     <t>Nikki W</t>
   </si>
   <si>
-    <t>2nd</t>
+    <t>29th</t>
   </si>
   <si>
-    <t>6th</t>
+    <t>7th</t>
+  </si>
+  <si>
+    <t>11th</t>
+  </si>
+  <si>
+    <t>30th</t>
+  </si>
+  <si>
+    <t>5th</t>
   </si>
   <si>
     <t>9th</t>
   </si>
   <si>
-    <t>14th</t>
+    <t>15th</t>
   </si>
   <si>
-    <t>18th</t>
+    <t>22nd</t>
   </si>
   <si>
-    <t>24th</t>
-  </si>
-  <si>
-    <t>29th</t>
+    <t>28th</t>
   </si>
 </sst>
 </file>
@@ -1013,17 +1019,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>626534</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>87222</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>198156</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19A51612-9EC2-FE3A-1E87-1407427529E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1A9A595-FBFE-E345-0006-5CB3612DA889}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1040,7 +1046,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2556933" y="0"/>
-          <a:ext cx="4817534" cy="18172022"/>
+          <a:ext cx="5816600" cy="21940556"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1059,20 +1065,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>203199</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>10160</xdr:colOff>
-      <xdr:row>408</xdr:row>
-      <xdr:rowOff>192456</xdr:rowOff>
+      <xdr:colOff>314960</xdr:colOff>
+      <xdr:row>381</xdr:row>
+      <xdr:rowOff>159970</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{515AF3ED-AFF3-CCB1-D3F1-C2A6B4606C43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{536B7A50-C0EB-39E1-0C1A-D2481E330116}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1088,8 +1094,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="19507199"/>
-          <a:ext cx="8199120" cy="63590857"/>
+          <a:off x="0" y="19304000"/>
+          <a:ext cx="8503920" cy="58275170"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1400,7 +1406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88DB2AD-0B7A-2B40-B11D-A4AE4E9DB3F2}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -1436,7 +1442,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>'Andy B'!D75</f>
@@ -1444,12 +1450,12 @@
       </c>
       <c r="C3" s="15">
         <f>'Andy B'!E75</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>'Evan A'!D75</f>
@@ -1457,46 +1463,46 @@
       </c>
       <c r="C4" s="15">
         <f>'Evan A'!E75</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="str">
+        <f>'Keith G'!D76</f>
+        <v>Keith G</v>
+      </c>
+      <c r="C5" s="15">
+        <f>'Keith G'!E76</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="2" t="str">
         <f>'James W'!D75</f>
         <v>James W</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="2">
         <f>'James W'!E75</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <f>'Keith G'!D76</f>
-        <v>Keith G</v>
-      </c>
-      <c r="C6" s="15">
-        <f>'Keith G'!E76</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f>'Dawn G'!D75</f>
-        <v>Dawn G</v>
+        <f>'Gabriel B'!D75</f>
+        <v>Gabriel B</v>
       </c>
       <c r="C7" s="15">
-        <f>'Dawn G'!E75</f>
-        <v>12</v>
+        <f>'Gabriel B'!E75</f>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1509,7 +1515,7 @@
       </c>
       <c r="C8" s="15">
         <f>'Alison S'!E75</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1517,38 +1523,38 @@
         <v>106</v>
       </c>
       <c r="B9" s="2" t="str">
+        <f>'Bernie R'!D75</f>
+        <v>Bernie R</v>
+      </c>
+      <c r="C9" s="2">
+        <f>'Bernie R'!E75</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>'Dawn G'!D75</f>
+        <v>Dawn G</v>
+      </c>
+      <c r="C10" s="15">
+        <f>'Dawn G'!E75</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="2" t="str">
         <f>'Rob TH'!D75</f>
         <v>Rob TH</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C11" s="2">
         <f>'Rob TH'!E75</f>
         <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="2" t="str">
-        <f>'Liz W'!D75</f>
-        <v>Liz W</v>
-      </c>
-      <c r="C10" s="15">
-        <f>'Liz W'!E75</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="2" t="str">
-        <f>'John B'!D75</f>
-        <v>John B</v>
-      </c>
-      <c r="C11" s="15">
-        <f>'John B'!E75</f>
-        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1556,11 +1562,11 @@
         <v>107</v>
       </c>
       <c r="B12" s="2" t="str">
-        <f>'Gabriel B'!D75</f>
-        <v>Gabriel B</v>
+        <f>'Liz W'!D75</f>
+        <v>Liz W</v>
       </c>
       <c r="C12" s="15">
-        <f>'Gabriel B'!E75</f>
+        <f>'Liz W'!E75</f>
         <v>11</v>
       </c>
     </row>
@@ -1569,11 +1575,11 @@
         <v>107</v>
       </c>
       <c r="B13" s="2" t="str">
-        <f>'Bernie R'!D75</f>
-        <v>Bernie R</v>
-      </c>
-      <c r="C13" s="2">
-        <f>'Bernie R'!E75</f>
+        <f>'John B'!D75</f>
+        <v>John B</v>
+      </c>
+      <c r="C13" s="15">
+        <f>'John B'!E75</f>
         <v>11</v>
       </c>
     </row>
@@ -1592,72 +1598,72 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" s="2" t="str">
+        <f>'Alice D'!D75</f>
+        <v>Alice D</v>
+      </c>
+      <c r="C15" s="15">
+        <f>'Alice D'!E75</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="2" t="str">
         <f>'Freddie J'!D75</f>
         <v>Freddie J</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C16" s="15">
         <f>'Freddie J'!E75</f>
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="2" t="str">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="2" t="str">
         <f>'Jacques Chi'!D75</f>
         <v>Jacques Chi</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C17" s="15">
         <f>'Jacques Chi'!E75</f>
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="2" t="str">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="2" t="str">
         <f>'Derek b'!D75</f>
         <v>Derek B</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2">
         <f>'Derek b'!E75</f>
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="2" t="str">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="2" t="str">
         <f>'Arthur T'!D75</f>
         <v>Arthur T</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C19" s="15">
         <f>'Arthur T'!E75</f>
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B19" s="13" t="str">
-        <f>'Stuart L'!D75</f>
-        <v>Stuart L</v>
-      </c>
-      <c r="C19" s="16">
-        <f>'Stuart L'!E75</f>
-        <v>9</v>
-      </c>
-    </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B20" s="2" t="str">
         <f>'Nikki W'!D75</f>
@@ -1665,12 +1671,12 @@
       </c>
       <c r="C20" s="2">
         <f>'Nikki W'!E75</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B21" s="13" t="str">
         <f>'Marjorie L'!D75</f>
@@ -1678,77 +1684,77 @@
       </c>
       <c r="C21" s="16">
         <f>'Marjorie L'!E75</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B22" s="2" t="str">
+        <f>'Robert L'!D75</f>
+        <v>Robert L</v>
+      </c>
+      <c r="C22" s="15">
+        <f>'Robert L'!E75</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="13" t="str">
+        <f>'Stuart L'!D75</f>
+        <v>Stuart L</v>
+      </c>
+      <c r="C23" s="16">
+        <f>'Stuart L'!E75</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="2" t="str">
         <f>'Dave B'!D75</f>
         <v>Dave B</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C24" s="15">
         <f>'Dave B'!E75</f>
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="2" t="str">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="2" t="str">
         <f>'Mother B'!D75</f>
         <v>Mother B</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C25" s="2">
         <f>'Mother B'!E75</f>
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="13" t="str">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="13" t="str">
         <f>'Barbara L'!D75</f>
         <v>Barbara L</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C26" s="15">
         <f>'Barbara L'!E75</f>
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" s="2" t="str">
-        <f>Claire!D75</f>
-        <v>Claire</v>
-      </c>
-      <c r="C25" s="15">
-        <f>Claire!E75</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="2" t="str">
-        <f>'Robert L'!D75</f>
-        <v>Robert L</v>
-      </c>
-      <c r="C26" s="15">
-        <f>'Robert L'!E75</f>
-        <v>8</v>
-      </c>
-    </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B27" s="2" t="str">
         <f>'Martin L'!D75</f>
@@ -1756,12 +1762,12 @@
       </c>
       <c r="C27" s="15">
         <f>'Martin L'!E75</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B28" s="2" t="str">
         <f>'Nathan W'!D63</f>
@@ -1769,25 +1775,25 @@
       </c>
       <c r="C28" s="2">
         <f>'Nathan W'!E63</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B29" s="2" t="str">
-        <f>'Alice D'!D75</f>
-        <v>Alice D</v>
+        <f>Claire!D75</f>
+        <v>Claire</v>
       </c>
       <c r="C29" s="15">
-        <f>'Alice D'!E75</f>
+        <f>Claire!E75</f>
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B30" s="2" t="str">
         <f>'Annaka G-S'!D75</f>
@@ -1795,12 +1801,12 @@
       </c>
       <c r="C30" s="15">
         <f>'Annaka G-S'!E75</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B31" s="2" t="str">
         <f>Hino!D75</f>
@@ -1813,7 +1819,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B32" s="39" t="str">
         <f>'Cathy G'!D75</f>
@@ -1839,7 +1845,7 @@
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2080,7 +2086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="58" t="s">
         <v>9</v>
       </c>
@@ -2088,7 +2094,7 @@
       <c r="C17" s="59"/>
       <c r="D17" s="60"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
         <v>53</v>
       </c>
@@ -2101,8 +2107,11 @@
       <c r="D18" s="32" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="27" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
         <v>79</v>
       </c>
@@ -2115,8 +2124,11 @@
       <c r="D19" s="32" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
         <v>57</v>
       </c>
@@ -2130,7 +2142,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
         <v>59</v>
       </c>
@@ -2144,7 +2156,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="58" t="s">
         <v>10</v>
       </c>
@@ -2152,7 +2164,7 @@
       <c r="C22" s="59"/>
       <c r="D22" s="60"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="32" t="s">
         <v>36</v>
       </c>
@@ -2166,7 +2178,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="32" t="s">
         <v>29</v>
       </c>
@@ -2180,7 +2192,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="32" t="s">
         <v>32</v>
       </c>
@@ -2194,7 +2206,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="32" t="s">
         <v>97</v>
       </c>
@@ -2208,7 +2220,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="58" t="s">
         <v>11</v>
       </c>
@@ -2216,7 +2228,7 @@
       <c r="C27" s="59"/>
       <c r="D27" s="60"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="32" t="s">
         <v>98</v>
       </c>
@@ -2230,7 +2242,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="32" t="s">
         <v>42</v>
       </c>
@@ -2244,7 +2256,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="32" t="s">
         <v>43</v>
       </c>
@@ -2258,7 +2270,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="32" t="s">
         <v>63</v>
       </c>
@@ -2272,7 +2284,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="58" t="s">
         <v>12</v>
       </c>
@@ -2662,7 +2674,7 @@
       </c>
       <c r="E63">
         <f>SUM(E2:E61)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2690,7 +2702,7 @@
   <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2976,6 +2988,9 @@
       <c r="D22" s="27" t="s">
         <v>54</v>
       </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
@@ -2989,6 +3004,9 @@
       </c>
       <c r="D23" s="27" t="s">
         <v>56</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -3594,7 +3612,7 @@
       </c>
       <c r="E75">
         <f>SUM(E2:E73)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -3628,7 +3646,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3914,6 +3932,9 @@
       <c r="D22" s="6" t="s">
         <v>54</v>
       </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
@@ -3927,6 +3948,9 @@
       </c>
       <c r="D23" s="6" t="s">
         <v>56</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -4523,7 +4547,7 @@
       </c>
       <c r="E75">
         <f>SUM(E2:E73)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4551,7 +4575,7 @@
   <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4837,6 +4861,9 @@
       <c r="D22" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -4850,6 +4877,9 @@
       </c>
       <c r="D23" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -5490,7 +5520,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5776,6 +5806,9 @@
       <c r="D22" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -5789,6 +5822,9 @@
       </c>
       <c r="D23" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -6419,7 +6455,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6705,6 +6741,9 @@
       <c r="D22" s="20" t="s">
         <v>54</v>
       </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
@@ -6718,6 +6757,9 @@
       </c>
       <c r="D23" s="20" t="s">
         <v>56</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -7298,7 +7340,7 @@
       </c>
       <c r="E75">
         <f>SUM(E2:E73)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -7326,7 +7368,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7612,6 +7654,9 @@
       <c r="D22" s="20" t="s">
         <v>54</v>
       </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
@@ -7625,6 +7670,9 @@
       </c>
       <c r="D23" s="20" t="s">
         <v>56</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -8249,7 +8297,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8535,6 +8583,9 @@
       <c r="D22" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -8548,6 +8599,9 @@
       </c>
       <c r="D23" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -9148,7 +9202,7 @@
       </c>
       <c r="E75">
         <f>SUM(E2:E73)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -9182,7 +9236,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9471,6 +9525,9 @@
       <c r="D22" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -9484,6 +9541,9 @@
       </c>
       <c r="D23" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -10080,7 +10140,7 @@
       </c>
       <c r="E75">
         <f>SUM(E2:E73)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -10114,7 +10174,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView zoomScale="106" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10400,6 +10460,9 @@
       <c r="D22" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -10413,6 +10476,9 @@
       </c>
       <c r="D23" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -11009,7 +11075,7 @@
       </c>
       <c r="E75">
         <f>SUM(E2:E73)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -11043,9 +11109,9 @@
   <dimension ref="A1:CL125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BS1" sqref="BS1"/>
-      <selection pane="bottomLeft" activeCell="A97" sqref="A97"/>
+      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11391,7 +11457,7 @@
       </c>
       <c r="AH2" s="3">
         <f>'Keith G'!E22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>18</v>
@@ -11684,7 +11750,7 @@
       </c>
       <c r="AH3" s="3">
         <f>'Keith G'!E23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="3" t="str">
@@ -17053,7 +17119,7 @@
       </c>
       <c r="AH22" s="3">
         <f>'Gabriel B'!E22</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ22" s="2" t="s">
         <v>23</v>
@@ -20405,7 +20471,7 @@
       </c>
       <c r="AH34" s="3">
         <f>'Robert L'!E22</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ34" s="2" t="s">
         <v>26</v>
@@ -23527,7 +23593,7 @@
       </c>
       <c r="AH46" s="3">
         <f>'Annaka G-S'!E22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ46" s="2" t="s">
         <v>82</v>
@@ -28731,7 +28797,7 @@
       </c>
       <c r="AH66" s="3">
         <f>'Andy B'!E22</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ66" s="2" t="s">
         <v>87</v>
@@ -29771,7 +29837,7 @@
       </c>
       <c r="AH70" s="34">
         <f>'Alison S'!E22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ70" s="35" t="s">
         <v>88</v>
@@ -30813,7 +30879,7 @@
       </c>
       <c r="AH74" s="34">
         <f>'Evan A'!E22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ74" s="35" t="s">
         <v>89</v>
@@ -31083,7 +31149,7 @@
       </c>
       <c r="AH75" s="34">
         <f>'Evan A'!E23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ75" s="35"/>
       <c r="AK75" s="34" t="str">
@@ -33165,7 +33231,7 @@
       </c>
       <c r="AH83" s="34">
         <f>'Alice D'!E23</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ83" s="35"/>
       <c r="AK83" s="34" t="str">
@@ -36015,7 +36081,7 @@
       </c>
       <c r="AH94" s="36">
         <f>'Marjorie L'!E22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ94" s="35" t="s">
         <v>94</v>
@@ -36969,7 +37035,7 @@
       </c>
       <c r="AH98" s="36">
         <f>'Martin L'!E22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ98" s="35" t="s">
         <v>95</v>
@@ -37923,7 +37989,7 @@
       </c>
       <c r="AH102" s="34">
         <f>'Nathan W'!E18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ102" s="35" t="s">
         <v>99</v>
@@ -38877,7 +38943,7 @@
       </c>
       <c r="AH106" s="34">
         <f>'Bernie R'!E22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ106" s="35" t="s">
         <v>100</v>
@@ -39126,7 +39192,7 @@
       </c>
       <c r="AH107" s="34">
         <f>'Bernie R'!E23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ107" s="35"/>
       <c r="AK107" s="34" t="str">
@@ -41739,7 +41805,7 @@
       </c>
       <c r="AH118" s="38">
         <f>'James W'!E22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ118" s="39" t="s">
         <v>103</v>
@@ -42693,7 +42759,7 @@
       </c>
       <c r="AH122" s="38">
         <f>'Nikki W'!E22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ122" s="39" t="s">
         <v>104</v>
@@ -43609,10 +43675,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B30D3E2-4207-4320-9584-D4FBBBB31830}">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -43814,7 +43880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>47</v>
       </c>
@@ -43831,7 +43897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>49</v>
       </c>
@@ -43848,7 +43914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>51</v>
       </c>
@@ -43865,11 +43931,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="48" t="s">
         <v>9</v>
       </c>
@@ -43877,7 +43943,7 @@
       <c r="C21" s="48"/>
       <c r="D21" s="48"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>53</v>
       </c>
@@ -43890,8 +43956,11 @@
       <c r="D22" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>79</v>
       </c>
@@ -43904,8 +43973,11 @@
       <c r="D23" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>57</v>
       </c>
@@ -43919,7 +43991,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>59</v>
       </c>
@@ -43932,15 +44004,12 @@
       <c r="D25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="48" t="s">
         <v>10</v>
       </c>
@@ -43948,7 +44017,7 @@
       <c r="C27" s="48"/>
       <c r="D27" s="48"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>36</v>
       </c>
@@ -43962,7 +44031,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
@@ -43976,7 +44045,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
@@ -43990,7 +44059,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>61</v>
       </c>
@@ -44004,7 +44073,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="D32" s="4"/>
     </row>
@@ -44514,7 +44583,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44792,6 +44861,9 @@
       <c r="D22" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -44805,6 +44877,9 @@
       </c>
       <c r="D23" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -45413,7 +45488,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45691,6 +45766,9 @@
       <c r="D22" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -45704,6 +45782,9 @@
       </c>
       <c r="D23" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -46312,7 +46393,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -46590,6 +46671,9 @@
       <c r="D22" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -46603,6 +46687,9 @@
       </c>
       <c r="D23" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -47211,7 +47298,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -47497,6 +47584,9 @@
       <c r="D22" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -47510,6 +47600,9 @@
       </c>
       <c r="D23" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -48104,7 +48197,7 @@
       </c>
       <c r="E75">
         <f>SUM(E2:E73)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -48138,7 +48231,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -48424,6 +48517,9 @@
       <c r="D22" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -48437,6 +48533,9 @@
       </c>
       <c r="D23" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -49067,7 +49166,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -49353,6 +49452,9 @@
       <c r="D22" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -49366,6 +49468,9 @@
       </c>
       <c r="D23" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -49996,7 +50101,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -50282,6 +50387,9 @@
       <c r="D22" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -50295,6 +50403,9 @@
       </c>
       <c r="D23" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -50891,7 +51002,7 @@
       </c>
       <c r="E75">
         <f>SUM(E2:E73)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -50925,7 +51036,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -51211,6 +51322,9 @@
       <c r="D22" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -51224,6 +51338,9 @@
       </c>
       <c r="D23" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -51860,7 +51977,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -52146,6 +52263,9 @@
       <c r="D22" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -52159,6 +52279,9 @@
       </c>
       <c r="D23" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -53361,7 +53484,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -53647,6 +53770,9 @@
       <c r="D22" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -53660,6 +53786,9 @@
       </c>
       <c r="D23" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -54256,7 +54385,7 @@
       </c>
       <c r="E75">
         <f>SUM(E2:E73)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -54290,7 +54419,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -54576,6 +54705,9 @@
       <c r="D22" s="20" t="s">
         <v>54</v>
       </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
@@ -54589,6 +54721,9 @@
       </c>
       <c r="D23" s="20" t="s">
         <v>56</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -55213,7 +55348,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView zoomScale="108" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -55499,6 +55634,9 @@
       <c r="D22" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -55512,6 +55650,9 @@
       </c>
       <c r="D23" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -56142,7 +56283,7 @@
   <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -56431,6 +56572,9 @@
       <c r="D22" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -56444,6 +56588,9 @@
       </c>
       <c r="D23" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -57040,7 +57187,7 @@
       </c>
       <c r="E76">
         <f>SUM(E1:E73)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -57074,7 +57221,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -57360,6 +57507,9 @@
       <c r="D22" s="6" t="s">
         <v>54</v>
       </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
@@ -57373,6 +57523,9 @@
       </c>
       <c r="D23" s="6" t="s">
         <v>56</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -57997,7 +58150,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -58283,6 +58436,9 @@
       <c r="D22" s="6" t="s">
         <v>54</v>
       </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
@@ -58296,6 +58452,9 @@
       </c>
       <c r="D23" s="6" t="s">
         <v>56</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -59146,7 +59305,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -59432,6 +59591,9 @@
       <c r="D22" s="38" t="s">
         <v>54</v>
       </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="38" t="s">
@@ -59445,6 +59607,9 @@
       </c>
       <c r="D23" s="38" t="s">
         <v>56</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -60041,7 +60206,7 @@
       </c>
       <c r="E75">
         <f>SUM(E2:E73)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -60075,7 +60240,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -60361,6 +60526,9 @@
       <c r="D22" s="43" t="s">
         <v>54</v>
       </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="41" t="s">
@@ -60374,6 +60542,9 @@
       </c>
       <c r="D23" s="43" t="s">
         <v>56</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -60970,7 +61141,7 @@
       </c>
       <c r="E75">
         <f>SUM(E2:E73)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -60998,7 +61169,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -61284,6 +61455,9 @@
       <c r="D22" s="38" t="s">
         <v>54</v>
       </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="38" t="s">
@@ -61297,6 +61471,9 @@
       </c>
       <c r="D23" s="38" t="s">
         <v>56</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -61927,7 +62104,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -62213,6 +62390,9 @@
       <c r="D22" s="38" t="s">
         <v>54</v>
       </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="38" t="s">
@@ -62226,6 +62406,9 @@
       </c>
       <c r="D23" s="38" t="s">
         <v>56</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -62855,8 +63038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780CC646-0316-9E4F-A9F1-38ADA5D36D46}">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -63142,6 +63325,9 @@
       <c r="D22" s="34" t="s">
         <v>54</v>
       </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="34" t="s">
@@ -63155,6 +63341,9 @@
       </c>
       <c r="D23" s="34" t="s">
         <v>56</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -63751,7 +63940,7 @@
       </c>
       <c r="E75">
         <f>SUM(E2:E73)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Forms/Excel/Big Sheet.xlsx
+++ b/resources/Forms/Excel/Big Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie/FootieTake2/resources/Forms/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF5B648-EB7E-1242-9648-AD5672B594E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E010E94D-EED7-704C-9E6E-2F5824CB77A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="1920" windowWidth="26820" windowHeight="14720" tabRatio="800" firstSheet="21" activeTab="34" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
+    <workbookView xWindow="860" yWindow="1920" windowWidth="26820" windowHeight="14720" tabRatio="800" activeTab="1" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Ranking" sheetId="5" r:id="rId1"/>
@@ -396,31 +396,31 @@
     <t>3rd</t>
   </si>
   <si>
-    <t>6th</t>
-  </si>
-  <si>
     <t>7th</t>
-  </si>
-  <si>
-    <t>12th</t>
   </si>
   <si>
     <t>14th</t>
   </si>
   <si>
-    <t>19th</t>
-  </si>
-  <si>
     <t>22nd</t>
-  </si>
-  <si>
-    <t>26th</t>
   </si>
   <si>
     <t>30th</t>
   </si>
   <si>
     <t>31st</t>
+  </si>
+  <si>
+    <t>9th</t>
+  </si>
+  <si>
+    <t>16th</t>
+  </si>
+  <si>
+    <t>20th</t>
+  </si>
+  <si>
+    <t>23rd</t>
   </si>
 </sst>
 </file>
@@ -1029,54 +1029,86 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>107143</xdr:rowOff>
+      <xdr:colOff>829734</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>40904</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8DBF080-9456-2A45-B49D-97715B3A400C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC9FB2B2-E269-D1BB-F439-C11C6EA8958C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="2552700" y="0"/>
-          <a:ext cx="4762500" cy="17988743"/>
+          <a:off x="2556933" y="0"/>
+          <a:ext cx="5020734" cy="18938504"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>203199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>81280</xdr:colOff>
+      <xdr:row>377</xdr:row>
+      <xdr:rowOff>162928</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96E1FF95-7FED-93C2-CF49-F5CEE9290DA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="19507199"/>
+          <a:ext cx="8270240" cy="57262129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1383,7 +1415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88DB2AD-0B7A-2B40-B11D-A4AE4E9DB3F2}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="150" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -1471,189 +1503,189 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>'Alice D'!D75</f>
+        <v>Alice D</v>
+      </c>
+      <c r="C7" s="15">
+        <f>'Alice D'!E75</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B8" s="2" t="str">
         <f>'Dawn G'!D75</f>
         <v>Dawn G</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C8" s="15">
         <f>'Dawn G'!E75</f>
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="2" t="str">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>'Bernie R'!D75</f>
+        <v>Bernie R</v>
+      </c>
+      <c r="C9" s="2">
+        <f>'Bernie R'!E75</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="2" t="str">
         <f>'Evan A'!D75</f>
         <v>Evan A</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C10" s="15">
         <f>'Evan A'!E75</f>
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="2" t="str">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="2" t="str">
         <f>'Gabriel B'!D75</f>
         <v>Gabriel B</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C11" s="15">
         <f>'Gabriel B'!E75</f>
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="2" t="str">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="2" t="str">
         <f>'Alison S'!D75</f>
         <v>Alison SoWC</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C12" s="15">
         <f>'Alison S'!E75</f>
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="2" t="str">
-        <f>'Bernie R'!D75</f>
-        <v>Bernie R</v>
-      </c>
-      <c r="C11" s="2">
-        <f>'Bernie R'!E75</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="2" t="str">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="2" t="str">
         <f>'Rob TH'!D75</f>
         <v>Rob TH</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C13" s="2">
         <f>'Rob TH'!E75</f>
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="2" t="str">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="13" t="str">
+        <f>'Barbara L'!D75</f>
+        <v>Barbara L</v>
+      </c>
+      <c r="C14" s="15">
+        <f>'Barbara L'!E75</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="2" t="str">
         <f>'Liz W'!D75</f>
         <v>Liz W</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C15" s="15">
         <f>'Liz W'!E75</f>
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="2" t="str">
-        <f>'Alice D'!D75</f>
-        <v>Alice D</v>
-      </c>
-      <c r="C14" s="15">
-        <f>'Alice D'!E75</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="2" t="str">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>'Nathan W'!D63</f>
+        <v>Nathan W</v>
+      </c>
+      <c r="C16" s="2">
+        <f>'Nathan W'!E63</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="2" t="str">
         <f>'Jacques Chi'!D75</f>
         <v>Jacques Chi</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C17" s="15">
         <f>'Jacques Chi'!E75</f>
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="13" t="str">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="13" t="str">
         <f>'Marjorie L'!D75</f>
         <v>Marjorie L</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C18" s="16">
         <f>'Marjorie L'!E75</f>
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="2" t="str">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="2" t="str">
         <f>'Derek b'!D75</f>
         <v>Derek B</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C19" s="2">
         <f>'Derek b'!E75</f>
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B18" s="2" t="str">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="2" t="str">
         <f>'John B'!D75</f>
         <v>John B</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C20" s="15">
         <f>'John B'!E75</f>
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="2" t="str">
-        <f>'Nathan W'!D63</f>
-        <v>Nathan W</v>
-      </c>
-      <c r="C19" s="2">
-        <f>'Nathan W'!E63</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" s="13" t="str">
-        <f>'Barbara L'!D75</f>
-        <v>Barbara L</v>
-      </c>
-      <c r="C20" s="15">
-        <f>'Barbara L'!E75</f>
-        <v>17</v>
-      </c>
-    </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B21" s="2" t="str">
         <f>'Freddie J'!D75</f>
@@ -1666,7 +1698,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B22" s="2" t="str">
         <f>'Mother B'!D75</f>
@@ -1679,7 +1711,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>'Arthur T'!D75</f>
@@ -1692,7 +1724,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B24" s="2" t="str">
         <f>'Nikki W'!D75</f>
@@ -1705,7 +1737,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B25" s="2" t="str">
         <f>'Robert L'!D75</f>
@@ -1718,7 +1750,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B26" s="2" t="str">
         <f>'Dave B'!D75</f>
@@ -1731,7 +1763,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B27" s="2" t="str">
         <f>'Martin L'!D75</f>
@@ -1783,7 +1815,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B31" s="2" t="str">
         <f>Claire!D75</f>
@@ -1796,7 +1828,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B32" s="39" t="str">
         <f>'Annaka G-S'!D75</f>
@@ -2671,12 +2703,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A17:D17"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A32:D32"/>
@@ -2684,6 +2710,12 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3630,12 +3662,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -3643,6 +3669,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4574,12 +4606,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -4587,6 +4613,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5528,12 +5560,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -5541,6 +5567,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C76" xr:uid="{912C664E-C133-1E4F-9640-4A25EB9EF25D}">
@@ -6478,12 +6510,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -6491,6 +6517,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{B20B3CE4-DCB9-4E4A-AC39-D9DA073FCC61}">
@@ -7412,12 +7444,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -7425,6 +7451,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8356,12 +8388,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -8369,6 +8395,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9304,12 +9336,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -9317,6 +9343,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C74" xr:uid="{F68D3FFC-EF79-CC40-8F53-8BF21A5E1341}">
@@ -10257,12 +10289,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -10270,6 +10296,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{11A7353F-6A05-F048-B4B5-2330C623E382}">
@@ -11207,6 +11239,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -11214,12 +11252,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{79F4B324-FC19-7044-8ECD-3029BC735257}">
@@ -11235,10 +11267,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536C4378-6AA3-D34E-B8EC-6B4414E01E1A}">
   <dimension ref="A1:CL125"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BS1" sqref="BS1"/>
-      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
+      <selection pane="bottomLeft" activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -43774,12 +43806,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="CH1:CK1"/>
     <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="AY1:BB1"/>
@@ -43787,6 +43813,12 @@
     <mergeCell ref="BM1:BP1"/>
     <mergeCell ref="BT1:BW1"/>
     <mergeCell ref="CA1:CD1"/>
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AD1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
@@ -43796,6 +43828,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -44701,12 +44734,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -44714,6 +44741,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -48403,12 +48436,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -48416,6 +48443,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67:C73 B66 B1:C65" xr:uid="{156C7248-1706-4E17-9BB6-079B78DEF479}">
@@ -49353,12 +49386,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -49366,6 +49393,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{05F05F3A-89C6-E74F-BB5C-B82EDA718869}">
@@ -50303,12 +50336,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -50316,6 +50343,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{A2199F60-9E4F-6445-90E3-92673D510A9D}">
@@ -51253,6 +51286,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -51260,12 +51299,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{2B53EE05-D1D3-374E-8836-2425C3E2B4A5}">
@@ -52209,6 +52242,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -52216,12 +52255,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C75" xr:uid="{A6BA8386-7538-B943-BC89-6C717665472C}">
@@ -53159,6 +53192,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -53166,12 +53205,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{CBEDE9B1-CCD8-024F-8FF6-52E83D09DD5F}">
@@ -53738,18 +53771,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="B64:E64"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="B46:E46"/>
     <mergeCell ref="B52:E52"/>
     <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -54681,6 +54714,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -54688,12 +54727,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{9D4EDCA2-2FFE-E64B-A34E-466DD99F6343}">
@@ -55631,6 +55664,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -55638,12 +55677,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -56575,12 +56608,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -56588,6 +56615,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{8427FA4B-D7DC-C74F-B6C6-02A04CEA1479}">
@@ -57528,12 +57561,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -57541,6 +57568,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{8A242A5A-737B-3248-9203-1E18FA7E8CAD}">
@@ -58478,6 +58511,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -58485,12 +58524,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -58500,7 +58533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E506C07-E1F0-1F4C-80AB-1380E3BF677F}">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -59422,6 +59455,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -59429,12 +59468,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -60592,12 +60625,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -60605,6 +60632,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{98289B19-A16E-8E48-AC84-DA2AC3E66DBF}">
@@ -61542,6 +61575,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -61549,12 +61588,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -62486,12 +62519,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -62499,6 +62526,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{F2D3BCCF-F868-974E-AEC9-AB88E8DBE8B7}">
@@ -63436,12 +63469,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -63449,6 +63476,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{85A9722B-955B-CF41-A6F3-38FDC4B48A7A}">
@@ -64386,12 +64419,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -64399,6 +64426,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{A72D56DF-9BC0-2E49-9D2A-B8E721479EEF}">

--- a/resources/Forms/Excel/Big Sheet.xlsx
+++ b/resources/Forms/Excel/Big Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie/FootieTake2/resources/Forms/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie_Take2/FootieTake2/resources/Forms/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212C9AFE-A375-534C-B524-AD379BFB6D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37375DD-90E6-3143-BE2B-890EB6E553F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="1920" windowWidth="26820" windowHeight="14720" tabRatio="800" activeTab="1" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
   </bookViews>
@@ -1070,21 +1070,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>203199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>378</xdr:row>
-      <xdr:rowOff>30076</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>484</xdr:row>
+      <xdr:rowOff>22530</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84FC92FC-A123-7883-EF70-74B391CE07DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B4DDD9-0E7D-3E7D-6489-2C3139107067}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1100,8 +1100,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="19507200"/>
-          <a:ext cx="8280400" cy="57332476"/>
+          <a:off x="0" y="19507199"/>
+          <a:ext cx="9458960" cy="78864131"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2703,12 +2703,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A17:D17"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A32:D32"/>
@@ -2716,6 +2710,12 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3665,12 +3665,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -3678,6 +3672,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4612,12 +4612,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -4625,6 +4619,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5569,12 +5569,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -5582,6 +5576,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C76" xr:uid="{912C664E-C133-1E4F-9640-4A25EB9EF25D}">
@@ -6522,12 +6522,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -6535,6 +6529,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{B20B3CE4-DCB9-4E4A-AC39-D9DA073FCC61}">
@@ -7459,12 +7459,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -7472,6 +7466,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8406,12 +8406,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -8419,6 +8413,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9357,12 +9357,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -9370,6 +9364,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C74" xr:uid="{F68D3FFC-EF79-CC40-8F53-8BF21A5E1341}">
@@ -10313,12 +10313,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -10326,6 +10320,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{11A7353F-6A05-F048-B4B5-2330C623E382}">
@@ -11266,6 +11266,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -11273,12 +11279,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{79F4B324-FC19-7044-8ECD-3029BC735257}">
@@ -11295,7 +11295,7 @@
   <dimension ref="A1:CL125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BS1" sqref="BS1"/>
       <selection pane="bottomLeft" activeCell="A97" sqref="A97"/>
     </sheetView>
@@ -43833,12 +43833,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="CH1:CK1"/>
     <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="AY1:BB1"/>
@@ -43846,6 +43840,12 @@
     <mergeCell ref="BM1:BP1"/>
     <mergeCell ref="BT1:BW1"/>
     <mergeCell ref="CA1:CD1"/>
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AD1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
@@ -44764,12 +44764,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -44777,6 +44771,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -48478,12 +48478,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -48491,6 +48485,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67:C73 B66 B1:C65" xr:uid="{156C7248-1706-4E17-9BB6-079B78DEF479}">
@@ -49431,12 +49431,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -49444,6 +49438,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{05F05F3A-89C6-E74F-BB5C-B82EDA718869}">
@@ -50384,12 +50384,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -50397,6 +50391,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{A2199F60-9E4F-6445-90E3-92673D510A9D}">
@@ -51337,6 +51337,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -51344,12 +51350,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{2B53EE05-D1D3-374E-8836-2425C3E2B4A5}">
@@ -52296,6 +52296,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -52303,12 +52309,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C75" xr:uid="{A6BA8386-7538-B943-BC89-6C717665472C}">
@@ -53249,6 +53249,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -53256,12 +53262,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{CBEDE9B1-CCD8-024F-8FF6-52E83D09DD5F}">
@@ -53828,18 +53828,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="B64:E64"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="B46:E46"/>
     <mergeCell ref="B52:E52"/>
     <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -54774,6 +54774,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -54781,12 +54787,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{9D4EDCA2-2FFE-E64B-A34E-466DD99F6343}">
@@ -55727,6 +55727,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -55734,12 +55740,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -56674,12 +56674,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -56687,6 +56681,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{8427FA4B-D7DC-C74F-B6C6-02A04CEA1479}">
@@ -57630,12 +57630,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -57643,6 +57637,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{8A242A5A-737B-3248-9203-1E18FA7E8CAD}">
@@ -58583,6 +58583,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -58590,12 +58596,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -59530,6 +59530,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -59537,12 +59543,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -60703,12 +60703,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -60716,6 +60710,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{98289B19-A16E-8E48-AC84-DA2AC3E66DBF}">
@@ -61656,6 +61656,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -61663,12 +61669,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -62603,12 +62603,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -62616,6 +62610,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{F2D3BCCF-F868-974E-AEC9-AB88E8DBE8B7}">
@@ -63556,12 +63556,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -63569,6 +63563,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{85A9722B-955B-CF41-A6F3-38FDC4B48A7A}">
@@ -64509,12 +64509,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -64522,6 +64516,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{A72D56DF-9BC0-2E49-9D2A-B8E721479EEF}">

--- a/resources/Forms/Excel/Big Sheet.xlsx
+++ b/resources/Forms/Excel/Big Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie/FootieTake2/resources/Forms/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6CEA70-4E95-F949-986C-1E7E8FA8CABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F02F445-23E2-A742-AE48-A797F0184A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="1920" windowWidth="26820" windowHeight="14720" tabRatio="800" activeTab="1" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
   </bookViews>
@@ -800,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -924,6 +924,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -985,16 +986,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1111,21 +1108,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>203199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>411</xdr:row>
-      <xdr:rowOff>13560</xdr:rowOff>
+      <xdr:colOff>568960</xdr:colOff>
+      <xdr:row>408</xdr:row>
+      <xdr:rowOff>124248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6227D1C4-3906-E291-A46F-3F3C285713B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88C72F68-4267-F577-0D00-F86B22F15D0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1141,8 +1138,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="19507199"/>
-          <a:ext cx="8798560" cy="64021561"/>
+          <a:off x="0" y="19303999"/>
+          <a:ext cx="8757920" cy="63725849"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1898,12 +1895,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="64"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
@@ -1923,12 +1920,12 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
@@ -1982,12 +1979,12 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="63"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
@@ -2058,12 +2055,12 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="64"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
@@ -2134,12 +2131,12 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="63"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="64"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
@@ -2210,12 +2207,12 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="32" t="s">
@@ -2286,12 +2283,12 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="63"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="64"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="32" t="s">
@@ -2359,12 +2356,12 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="63"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="64"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="32" t="s">
@@ -2423,12 +2420,12 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="61" t="s">
+      <c r="A37" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="63"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="64"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="32" t="s">
@@ -2487,12 +2484,12 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="61" t="s">
+      <c r="A42" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="63"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="64"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="32" t="s">
@@ -2551,12 +2548,12 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="61" t="s">
+      <c r="A47" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="63"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="64"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="32" t="s">
@@ -2615,12 +2612,12 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="61" t="s">
+      <c r="A52" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B52" s="62"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="63"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="64"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="32" t="s">
@@ -2679,12 +2676,12 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="61" t="s">
+      <c r="A57" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B57" s="62"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="63"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="64"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="32" t="s">
@@ -2753,12 +2750,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A17:D17"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A32:D32"/>
@@ -2766,6 +2757,12 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2782,12 +2779,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="67"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
@@ -2813,12 +2810,12 @@
       <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="67"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -2878,12 +2875,12 @@
       <c r="D8" s="31"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
@@ -2960,12 +2957,12 @@
       <c r="D14" s="31"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="67"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
@@ -3042,12 +3039,12 @@
       <c r="D20" s="31"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="66"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="67"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
@@ -3124,12 +3121,12 @@
       <c r="D26" s="31"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="66"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="67"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
@@ -3206,12 +3203,12 @@
       <c r="D32" s="31"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="66"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="67"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
@@ -3285,12 +3282,12 @@
       <c r="D38" s="31"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="64" t="s">
+      <c r="A39" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="66"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="67"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="25" t="s">
@@ -3355,12 +3352,12 @@
       <c r="D44" s="31"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="64" t="s">
+      <c r="A45" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="66"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="67"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
@@ -3425,12 +3422,12 @@
       <c r="D50" s="31"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="64" t="s">
+      <c r="A51" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="66"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="67"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="25" t="s">
@@ -3495,12 +3492,12 @@
       <c r="D56" s="31"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="64" t="s">
+      <c r="A57" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="65"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="66"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="67"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="25" t="s">
@@ -3565,12 +3562,12 @@
       <c r="D62" s="31"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="64" t="s">
+      <c r="A63" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="65"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="66"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="67"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="25" t="s">
@@ -3635,12 +3632,12 @@
       <c r="D68" s="31"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="64" t="s">
+      <c r="A69" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="65"/>
-      <c r="C69" s="65"/>
-      <c r="D69" s="66"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="67"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="25" t="s">
@@ -3724,12 +3721,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -3737,6 +3728,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3753,12 +3750,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="69"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="70"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -3784,12 +3781,12 @@
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="70"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -3849,12 +3846,12 @@
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="70"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -3931,12 +3928,12 @@
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
@@ -4013,12 +4010,12 @@
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="69"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="70"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
@@ -4095,12 +4092,12 @@
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="67" t="s">
+      <c r="A27" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="69"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="70"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
@@ -4177,12 +4174,12 @@
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="67" t="s">
+      <c r="A33" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="69"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="70"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
@@ -4256,12 +4253,12 @@
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="68"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="69"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="70"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
@@ -4326,12 +4323,12 @@
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="67" t="s">
+      <c r="A45" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="68"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="69"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="70"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
@@ -4396,12 +4393,12 @@
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="67" t="s">
+      <c r="A51" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="68"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="69"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="70"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
@@ -4466,12 +4463,12 @@
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="67" t="s">
+      <c r="A57" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="68"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="69"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="70"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
@@ -4536,12 +4533,12 @@
       <c r="D62" s="8"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="67" t="s">
+      <c r="A63" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="68"/>
-      <c r="C63" s="68"/>
-      <c r="D63" s="69"/>
+      <c r="B63" s="69"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="70"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
@@ -4606,12 +4603,12 @@
       <c r="D68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="67" t="s">
+      <c r="A69" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="68"/>
-      <c r="C69" s="68"/>
-      <c r="D69" s="69"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="70"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
@@ -4680,12 +4677,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -4693,6 +4684,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4709,12 +4706,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -4740,12 +4737,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -4805,12 +4802,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -4887,12 +4884,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -4969,12 +4966,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -5051,12 +5048,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -5133,12 +5130,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -5212,12 +5209,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -5282,12 +5279,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -5352,12 +5349,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -5422,12 +5419,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -5492,12 +5489,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="51" t="s">
+      <c r="A63" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -5562,12 +5559,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -5646,12 +5643,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -5659,6 +5650,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C76" xr:uid="{912C664E-C133-1E4F-9640-4A25EB9EF25D}">
@@ -5681,12 +5678,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -5712,12 +5709,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -5777,12 +5774,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -5859,12 +5856,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -5941,12 +5938,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -6023,12 +6020,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -6105,12 +6102,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -6184,12 +6181,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -6254,12 +6251,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -6324,12 +6321,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -6394,12 +6391,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -6464,12 +6461,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="51" t="s">
+      <c r="A63" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -6534,12 +6531,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -6608,12 +6605,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -6621,6 +6612,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{B20B3CE4-DCB9-4E4A-AC39-D9DA073FCC61}">
@@ -6643,12 +6640,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="72"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="73"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
@@ -6674,12 +6671,12 @@
       <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
@@ -6739,12 +6736,12 @@
       <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="72"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
@@ -6821,12 +6818,12 @@
       <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
@@ -6903,12 +6900,12 @@
       <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="73"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
@@ -6985,12 +6982,12 @@
       <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="72"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="73"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
@@ -7067,12 +7064,12 @@
       <c r="D32" s="21"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="72"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="73"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
@@ -7146,12 +7143,12 @@
       <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="70" t="s">
+      <c r="A39" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="71"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="72"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="73"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
@@ -7216,12 +7213,12 @@
       <c r="D44" s="21"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="70" t="s">
+      <c r="A45" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="71"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="72"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="73"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
@@ -7286,12 +7283,12 @@
       <c r="D50" s="21"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="70" t="s">
+      <c r="A51" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="71"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="72"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="73"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
@@ -7352,12 +7349,12 @@
       <c r="D56" s="21"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="70" t="s">
+      <c r="A57" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="71"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="72"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="73"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
@@ -7422,12 +7419,12 @@
       <c r="D62" s="21"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="70" t="s">
+      <c r="A63" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="71"/>
-      <c r="C63" s="71"/>
-      <c r="D63" s="72"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="73"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
@@ -7492,12 +7489,12 @@
       <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="70" t="s">
+      <c r="A69" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="71"/>
-      <c r="C69" s="71"/>
-      <c r="D69" s="72"/>
+      <c r="B69" s="72"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="73"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
@@ -7566,12 +7563,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -7579,6 +7570,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7595,12 +7592,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="73"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="74"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
@@ -7626,12 +7623,12 @@
       <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="73"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="74"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
@@ -7691,12 +7688,12 @@
       <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="73"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="74"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
@@ -7773,12 +7770,12 @@
       <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="73"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="74"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
@@ -7855,12 +7852,12 @@
       <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="73"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="74"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
@@ -7937,12 +7934,12 @@
       <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="73"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="74"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
@@ -8019,12 +8016,12 @@
       <c r="D32" s="21"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="73"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="74"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
@@ -8098,12 +8095,12 @@
       <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="70" t="s">
+      <c r="A39" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="71"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="73"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="74"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
@@ -8168,12 +8165,12 @@
       <c r="D44" s="21"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="70" t="s">
+      <c r="A45" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="71"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="73"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="74"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
@@ -8238,12 +8235,12 @@
       <c r="D50" s="21"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="70" t="s">
+      <c r="A51" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="71"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="73"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="74"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
@@ -8308,12 +8305,12 @@
       <c r="D56" s="21"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="70" t="s">
+      <c r="A57" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="71"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="73"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="74"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
@@ -8378,12 +8375,12 @@
       <c r="D62" s="21"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="70" t="s">
+      <c r="A63" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="71"/>
-      <c r="C63" s="71"/>
-      <c r="D63" s="73"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="74"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
@@ -8448,12 +8445,12 @@
       <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="70" t="s">
+      <c r="A69" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="71"/>
-      <c r="C69" s="71"/>
-      <c r="D69" s="73"/>
+      <c r="B69" s="72"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="74"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
@@ -8522,12 +8519,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -8535,6 +8526,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8551,12 +8548,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -8582,12 +8579,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -8647,12 +8644,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -8729,12 +8726,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -8811,12 +8808,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -8893,12 +8890,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -8975,12 +8972,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -9054,12 +9051,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -9124,12 +9121,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -9194,12 +9191,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -9264,12 +9261,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -9334,12 +9331,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="51" t="s">
+      <c r="A63" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -9404,12 +9401,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -9482,12 +9479,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -9495,6 +9486,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C74" xr:uid="{F68D3FFC-EF79-CC40-8F53-8BF21A5E1341}">
@@ -9520,12 +9517,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -9551,12 +9548,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -9616,12 +9613,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -9698,12 +9695,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -9780,12 +9777,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -9862,12 +9859,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -9944,12 +9941,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -10023,12 +10020,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -10093,12 +10090,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -10163,12 +10160,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -10233,12 +10230,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -10303,12 +10300,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="51" t="s">
+      <c r="A63" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -10373,12 +10370,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -10447,12 +10444,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -10460,6 +10451,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{11A7353F-6A05-F048-B4B5-2330C623E382}">
@@ -10482,12 +10479,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -10513,12 +10510,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -10578,12 +10575,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -10660,12 +10657,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -10742,12 +10739,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -10824,12 +10821,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -10906,12 +10903,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -10985,12 +10982,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -11055,12 +11052,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -11125,12 +11122,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -11195,12 +11192,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -11265,12 +11262,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="51" t="s">
+      <c r="A63" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -11335,12 +11332,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -11409,6 +11406,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -11416,12 +11419,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{79F4B324-FC19-7044-8ECD-3029BC735257}">
@@ -11438,9 +11435,9 @@
   <dimension ref="A1:CL125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BS1" sqref="BS1"/>
-      <selection pane="bottomLeft" activeCell="A97" sqref="A97"/>
+      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11518,156 +11515,156 @@
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
       <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="P1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
       <c r="T1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="51" t="s">
+      <c r="W1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
       <c r="AA1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AC1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AD1" s="51" t="s">
+      <c r="AD1" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
       <c r="AH1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AJ1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AK1" s="51" t="s">
+      <c r="AK1" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
       <c r="AO1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AQ1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AR1" s="51" t="s">
+      <c r="AR1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="AS1" s="51"/>
-      <c r="AT1" s="51"/>
-      <c r="AU1" s="51"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="52"/>
+      <c r="AU1" s="52"/>
       <c r="AV1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AX1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="51" t="s">
+      <c r="AY1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="AZ1" s="51"/>
-      <c r="BA1" s="51"/>
-      <c r="BB1" s="51"/>
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="52"/>
+      <c r="BB1" s="52"/>
       <c r="BC1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="BE1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BF1" s="52" t="s">
+      <c r="BF1" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="BG1" s="52"/>
-      <c r="BH1" s="52"/>
-      <c r="BI1" s="52"/>
+      <c r="BG1" s="53"/>
+      <c r="BH1" s="53"/>
+      <c r="BI1" s="53"/>
       <c r="BJ1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="BL1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BM1" s="51" t="s">
+      <c r="BM1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="BN1" s="51"/>
-      <c r="BO1" s="51"/>
-      <c r="BP1" s="51"/>
+      <c r="BN1" s="52"/>
+      <c r="BO1" s="52"/>
+      <c r="BP1" s="52"/>
       <c r="BQ1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="BS1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BT1" s="51" t="s">
+      <c r="BT1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="BU1" s="51"/>
-      <c r="BV1" s="51"/>
-      <c r="BW1" s="51"/>
+      <c r="BU1" s="52"/>
+      <c r="BV1" s="52"/>
+      <c r="BW1" s="52"/>
       <c r="BX1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="BZ1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="CA1" s="51" t="s">
+      <c r="CA1" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="CB1" s="51"/>
-      <c r="CC1" s="51"/>
-      <c r="CD1" s="51"/>
+      <c r="CB1" s="52"/>
+      <c r="CC1" s="52"/>
+      <c r="CD1" s="52"/>
       <c r="CE1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="CG1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="CH1" s="51" t="s">
+      <c r="CH1" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="CI1" s="51"/>
-      <c r="CJ1" s="51"/>
-      <c r="CK1" s="51"/>
+      <c r="CI1" s="52"/>
+      <c r="CJ1" s="52"/>
+      <c r="CK1" s="52"/>
       <c r="CL1" s="1" t="s">
         <v>2</v>
       </c>
@@ -12396,7 +12393,7 @@
         <f>'Keith G'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV4" s="74">
+      <c r="AV4" s="3">
         <f>'Keith G'!E36</f>
         <v>1</v>
       </c>
@@ -13530,7 +13527,7 @@
         <f>'Stuart L'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV8" s="74">
+      <c r="AV8" s="3">
         <f>'Stuart L'!E36</f>
         <v>1</v>
       </c>
@@ -14662,7 +14659,7 @@
         <f>'Barbara L'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV12" s="74">
+      <c r="AV12" s="3">
         <f>'Barbara L'!E36</f>
         <v>1</v>
       </c>
@@ -15794,7 +15791,7 @@
         <f>'Freddie J'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV16" s="74">
+      <c r="AV16" s="3">
         <f>'Freddie J'!E36</f>
         <v>3</v>
       </c>
@@ -16928,7 +16925,7 @@
         <f>'Mandy B'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV20" s="74">
+      <c r="AV20" s="3">
         <f>'Mandy B'!E36</f>
         <v>0</v>
       </c>
@@ -18060,7 +18057,7 @@
         <f>'Gabriel B'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV24" s="74">
+      <c r="AV24" s="3">
         <f>'Gabriel B'!E36</f>
         <v>3</v>
       </c>
@@ -19192,7 +19189,7 @@
         <f>'John B'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV28" s="74">
+      <c r="AV28" s="3">
         <f>'John B'!E36</f>
         <v>0</v>
       </c>
@@ -20326,7 +20323,7 @@
         <f>'Dawn G'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV32" s="74">
+      <c r="AV32" s="3">
         <f>'Dawn G'!E36</f>
         <v>2</v>
       </c>
@@ -21366,7 +21363,7 @@
         <f>'Robert L'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV36" s="48">
+      <c r="AV36" s="76">
         <f>'Robert L'!E36</f>
         <v>3</v>
       </c>
@@ -22406,7 +22403,7 @@
         <f>'Jacques Chi'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV40" s="74">
+      <c r="AV40" s="3">
         <f>'Jacques Chi'!E36</f>
         <v>2</v>
       </c>
@@ -23448,7 +23445,7 @@
         <f>'Dave B'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV44" s="74">
+      <c r="AV44" s="3">
         <f>'Dave B'!E36</f>
         <v>1</v>
       </c>
@@ -24488,7 +24485,7 @@
         <f>'Annaka G-S'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV48" s="74">
+      <c r="AV48" s="3">
         <f>'Annaka G-S'!E36</f>
         <v>1</v>
       </c>
@@ -25528,7 +25525,7 @@
         <f>Claire!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV52" s="74">
+      <c r="AV52" s="3">
         <f>Claire!E36</f>
         <v>0</v>
       </c>
@@ -26570,7 +26567,7 @@
         <f>Hino!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV56" s="48">
+      <c r="AV56" s="76">
         <f>Hino!E36</f>
         <v>2</v>
       </c>
@@ -27610,7 +27607,7 @@
         <f>'Cathy G'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV60" s="74">
+      <c r="AV60" s="3">
         <f>'Cathy G'!E36</f>
         <v>2</v>
       </c>
@@ -28650,7 +28647,7 @@
         <f>'Arthur T'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV64" s="74">
+      <c r="AV64" s="3">
         <f>'Arthur T'!E36</f>
         <v>1</v>
       </c>
@@ -29692,7 +29689,7 @@
         <f>'Andy B'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV68" s="74">
+      <c r="AV68" s="3">
         <f>'Andy B'!E36</f>
         <v>0</v>
       </c>
@@ -30732,7 +30729,7 @@
         <f>'Alison S'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV72" s="75">
+      <c r="AV72" s="34">
         <f>'Alison S'!E36</f>
         <v>1</v>
       </c>
@@ -31772,7 +31769,7 @@
         <f>'Evan A'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV76" s="49">
+      <c r="AV76" s="75">
         <f>'Evan A'!E36</f>
         <v>0</v>
       </c>
@@ -32814,7 +32811,7 @@
         <f>'Rob TH'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV80" s="75">
+      <c r="AV80" s="34">
         <f>'Rob TH'!E36</f>
         <v>0</v>
       </c>
@@ -33854,7 +33851,7 @@
         <f>'Alice D'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV84" s="75">
+      <c r="AV84" s="34">
         <f>'Alice D'!E36</f>
         <v>3</v>
       </c>
@@ -34894,7 +34891,7 @@
         <f>'Liz W'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV88" s="75">
+      <c r="AV88" s="34">
         <f>'Liz W'!E36</f>
         <v>2</v>
       </c>
@@ -35936,7 +35933,7 @@
         <f>'Keith W'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV92" s="75">
+      <c r="AV92" s="34">
         <f>'Keith W'!E36</f>
         <v>2</v>
       </c>
@@ -36932,7 +36929,7 @@
         <f>'Marjorie L'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV96" s="75">
+      <c r="AV96" s="34">
         <f>'Marjorie L'!E36</f>
         <v>0</v>
       </c>
@@ -37886,7 +37883,7 @@
         <f>'Martin L'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV100" s="75">
+      <c r="AV100" s="34">
         <f>'Martin L'!E36</f>
         <v>0</v>
       </c>
@@ -38840,7 +38837,7 @@
         <f>'Nathan W'!D30</f>
         <v>Denmark</v>
       </c>
-      <c r="AV104" s="75">
+      <c r="AV104" s="34">
         <f>'Nathan W'!E30</f>
         <v>3</v>
       </c>
@@ -39794,7 +39791,7 @@
         <f>'Bernie R'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV108" s="75">
+      <c r="AV108" s="34">
         <f>'Bernie R'!E36</f>
         <v>3</v>
       </c>
@@ -40748,7 +40745,7 @@
         <f>'Derek b'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV112" s="76">
+      <c r="AV112" s="38">
         <f>'Derek b'!E36</f>
         <v>1</v>
       </c>
@@ -41702,7 +41699,7 @@
         <f>'Mother B'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV116" s="76">
+      <c r="AV116" s="38">
         <f>'Mother B'!E36</f>
         <v>0</v>
       </c>
@@ -42656,7 +42653,7 @@
         <f>'James W'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV120" s="76">
+      <c r="AV120" s="38">
         <f>'James W'!E36</f>
         <v>0</v>
       </c>
@@ -43610,7 +43607,7 @@
         <f>'Nikki W'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV124" s="76">
+      <c r="AV124" s="38">
         <f>'Nikki W'!E36</f>
         <v>3</v>
       </c>
@@ -43976,12 +43973,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="CH1:CK1"/>
     <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="AY1:BB1"/>
@@ -43989,6 +43980,12 @@
     <mergeCell ref="BM1:BP1"/>
     <mergeCell ref="BT1:BW1"/>
     <mergeCell ref="CA1:CD1"/>
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AD1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
@@ -44013,12 +44010,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -44042,12 +44039,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -44105,12 +44102,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -44185,12 +44182,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -44265,12 +44262,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -44345,12 +44342,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -44425,12 +44422,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -44502,12 +44499,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -44570,12 +44567,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -44638,12 +44635,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -44706,12 +44703,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -44774,12 +44771,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="51" t="s">
+      <c r="A63" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -44842,12 +44839,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -44916,12 +44913,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -44929,6 +44920,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44945,12 +44942,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -44974,12 +44971,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -45037,12 +45034,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -45117,12 +45114,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -45197,12 +45194,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -45277,12 +45274,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -45357,12 +45354,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -45434,12 +45431,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -45502,12 +45499,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -45570,12 +45567,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -45638,12 +45635,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -45706,12 +45703,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="51" t="s">
+      <c r="A63" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -45774,12 +45771,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -45877,12 +45874,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -45906,12 +45903,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -45969,12 +45966,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -46049,12 +46046,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -46129,12 +46126,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -46209,12 +46206,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -46289,12 +46286,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -46366,12 +46363,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -46434,12 +46431,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -46502,12 +46499,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -46570,12 +46567,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -46638,12 +46635,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="51" t="s">
+      <c r="A63" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -46706,12 +46703,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -46809,12 +46806,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -46838,12 +46835,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -46901,12 +46898,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -46981,12 +46978,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -47061,12 +47058,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -47141,12 +47138,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -47221,12 +47218,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -47298,12 +47295,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -47366,12 +47363,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -47434,12 +47431,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -47502,12 +47499,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -47570,12 +47567,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="51" t="s">
+      <c r="A63" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -47638,12 +47635,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -47741,12 +47738,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -47772,12 +47769,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -47837,12 +47834,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -47919,12 +47916,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -48001,12 +47998,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -48083,12 +48080,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -48165,12 +48162,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -48244,12 +48241,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -48314,12 +48311,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -48384,12 +48381,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -48454,12 +48451,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -48524,12 +48521,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="51" t="s">
+      <c r="A63" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -48592,12 +48589,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -48666,12 +48663,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -48679,6 +48670,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67:C73 B66 B1:C65" xr:uid="{156C7248-1706-4E17-9BB6-079B78DEF479}">
@@ -48701,12 +48698,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -48732,12 +48729,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -48797,12 +48794,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -48879,12 +48876,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -48961,12 +48958,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -49043,12 +49040,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -49125,12 +49122,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -49204,12 +49201,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -49274,12 +49271,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -49344,12 +49341,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -49414,12 +49411,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -49484,12 +49481,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="51" t="s">
+      <c r="A63" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -49554,12 +49551,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -49628,12 +49625,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -49641,6 +49632,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{05F05F3A-89C6-E74F-BB5C-B82EDA718869}">
@@ -49663,12 +49660,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -49694,12 +49691,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -49759,12 +49756,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -49841,12 +49838,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -49923,12 +49920,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -50005,12 +50002,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -50087,12 +50084,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -50166,12 +50163,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -50236,12 +50233,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -50306,12 +50303,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -50376,12 +50373,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -50446,12 +50443,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="51" t="s">
+      <c r="A63" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -50516,12 +50513,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -50590,12 +50587,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -50603,6 +50594,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{A2199F60-9E4F-6445-90E3-92673D510A9D}">
@@ -50625,12 +50622,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -50656,12 +50653,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -50721,12 +50718,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -50803,12 +50800,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -50885,12 +50882,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -50967,12 +50964,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -51049,12 +51046,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -51128,12 +51125,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -51198,12 +51195,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -51268,12 +51265,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -51338,12 +51335,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -51408,12 +51405,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="51" t="s">
+      <c r="A63" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -51478,12 +51475,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -51552,6 +51549,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -51559,12 +51562,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{2B53EE05-D1D3-374E-8836-2425C3E2B4A5}">
@@ -51587,12 +51584,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -51618,12 +51615,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -51683,12 +51680,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -51765,12 +51762,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -51847,12 +51844,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -51929,12 +51926,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -52011,12 +52008,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -52090,12 +52087,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -52160,12 +52157,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -52230,12 +52227,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -52300,12 +52297,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -52370,12 +52367,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="51" t="s">
+      <c r="A63" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -52440,12 +52437,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -52520,6 +52517,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -52527,12 +52530,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C75" xr:uid="{A6BA8386-7538-B943-BC89-6C717665472C}">
@@ -52555,12 +52552,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -52586,12 +52583,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -52651,12 +52648,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -52733,12 +52730,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -52815,12 +52812,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -52897,12 +52894,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -52979,12 +52976,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -53058,12 +53055,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -53128,12 +53125,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -53198,12 +53195,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -53268,12 +53265,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -53338,12 +53335,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="51" t="s">
+      <c r="A63" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -53408,12 +53405,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -53482,6 +53479,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -53489,12 +53492,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{CBEDE9B1-CCD8-024F-8FF6-52E83D09DD5F}">
@@ -53524,12 +53521,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
@@ -53542,12 +53539,12 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
@@ -53580,12 +53577,12 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
@@ -53628,12 +53625,12 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
@@ -53676,12 +53673,12 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
@@ -53724,12 +53721,12 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
@@ -53772,12 +53769,12 @@
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
@@ -53820,12 +53817,12 @@
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
@@ -53868,12 +53865,12 @@
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
@@ -53916,12 +53913,12 @@
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
@@ -53964,12 +53961,12 @@
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="51" t="s">
+      <c r="B58" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
@@ -54012,12 +54009,12 @@
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="51" t="s">
+      <c r="B64" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
@@ -54061,18 +54058,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="B64:E64"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="B46:E46"/>
     <mergeCell ref="B52:E52"/>
     <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -54089,12 +54086,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -54120,12 +54117,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -54185,12 +54182,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -54267,12 +54264,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -54349,12 +54346,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -54431,12 +54428,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -54513,12 +54510,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -54592,12 +54589,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -54662,12 +54659,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -54732,12 +54729,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -54802,12 +54799,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -54872,12 +54869,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="51" t="s">
+      <c r="A63" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -54942,12 +54939,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -55016,6 +55013,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -55023,12 +55026,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{9D4EDCA2-2FFE-E64B-A34E-466DD99F6343}">
@@ -55051,12 +55048,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="73"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="74"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
@@ -55082,12 +55079,12 @@
       <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="73"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="74"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
@@ -55147,12 +55144,12 @@
       <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="73"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="74"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
@@ -55229,12 +55226,12 @@
       <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="73"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="74"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
@@ -55311,12 +55308,12 @@
       <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="73"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="74"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
@@ -55393,12 +55390,12 @@
       <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="73"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="74"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
@@ -55475,12 +55472,12 @@
       <c r="D32" s="21"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="73"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="74"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
@@ -55554,12 +55551,12 @@
       <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="70" t="s">
+      <c r="A39" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="71"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="73"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="74"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
@@ -55624,12 +55621,12 @@
       <c r="D44" s="21"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="70" t="s">
+      <c r="A45" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="71"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="73"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="74"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
@@ -55694,12 +55691,12 @@
       <c r="D50" s="21"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="70" t="s">
+      <c r="A51" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="71"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="73"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="74"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
@@ -55764,12 +55761,12 @@
       <c r="D56" s="21"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="70" t="s">
+      <c r="A57" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="71"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="73"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="74"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
@@ -55834,12 +55831,12 @@
       <c r="D62" s="21"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="70" t="s">
+      <c r="A63" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="71"/>
-      <c r="C63" s="71"/>
-      <c r="D63" s="73"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="74"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
@@ -55904,12 +55901,12 @@
       <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="70" t="s">
+      <c r="A69" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="71"/>
-      <c r="C69" s="71"/>
-      <c r="D69" s="73"/>
+      <c r="B69" s="72"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="74"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
@@ -55978,6 +55975,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -55985,12 +55988,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -56007,12 +56004,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -56038,12 +56035,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -56103,12 +56100,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -56185,12 +56182,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -56267,12 +56264,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -56349,12 +56346,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -56431,12 +56428,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -56510,12 +56507,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -56580,12 +56577,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -56650,12 +56647,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -56720,12 +56717,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -56790,12 +56787,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="51" t="s">
+      <c r="A63" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -56860,12 +56857,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -56934,12 +56931,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -56947,6 +56938,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{8427FA4B-D7DC-C74F-B6C6-02A04CEA1479}">
@@ -56972,12 +56969,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -57003,12 +57000,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -57068,12 +57065,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -57150,12 +57147,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -57232,12 +57229,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -57314,12 +57311,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -57396,12 +57393,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -57475,12 +57472,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -57545,12 +57542,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -57615,12 +57612,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -57685,12 +57682,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -57755,12 +57752,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="51" t="s">
+      <c r="A63" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -57825,12 +57822,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -57899,12 +57896,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -57912,6 +57903,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{8A242A5A-737B-3248-9203-1E18FA7E8CAD}">
@@ -57934,12 +57931,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="69"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="70"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -57965,12 +57962,12 @@
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="70"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -58030,12 +58027,12 @@
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="70"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -58112,12 +58109,12 @@
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
@@ -58194,12 +58191,12 @@
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="69"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="70"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
@@ -58276,12 +58273,12 @@
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="67" t="s">
+      <c r="A27" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="69"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="70"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
@@ -58358,12 +58355,12 @@
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="67" t="s">
+      <c r="A33" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="69"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="70"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
@@ -58437,12 +58434,12 @@
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="68"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="69"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="70"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
@@ -58507,12 +58504,12 @@
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="67" t="s">
+      <c r="A45" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="68"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="69"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="70"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
@@ -58577,12 +58574,12 @@
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="67" t="s">
+      <c r="A51" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="68"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="69"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="70"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
@@ -58647,12 +58644,12 @@
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="67" t="s">
+      <c r="A57" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="68"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="69"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="70"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
@@ -58717,12 +58714,12 @@
       <c r="D62" s="8"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="67" t="s">
+      <c r="A63" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="68"/>
-      <c r="C63" s="68"/>
-      <c r="D63" s="69"/>
+      <c r="B63" s="69"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="70"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
@@ -58787,12 +58784,12 @@
       <c r="D68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="67" t="s">
+      <c r="A69" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="68"/>
-      <c r="C69" s="68"/>
-      <c r="D69" s="69"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="70"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
@@ -58861,6 +58858,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -58868,12 +58871,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -58890,12 +58887,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="69"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="70"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -58921,12 +58918,12 @@
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -58986,12 +58983,12 @@
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -59068,12 +59065,12 @@
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
@@ -59150,12 +59147,12 @@
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
@@ -59232,12 +59229,12 @@
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="67" t="s">
+      <c r="A27" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
@@ -59314,12 +59311,12 @@
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="67" t="s">
+      <c r="A33" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
@@ -59393,12 +59390,12 @@
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
@@ -59463,12 +59460,12 @@
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="67" t="s">
+      <c r="A45" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="69"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
@@ -59533,12 +59530,12 @@
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="67" t="s">
+      <c r="A51" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="68"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="69"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="70"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
@@ -59603,12 +59600,12 @@
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="67" t="s">
+      <c r="A57" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="68"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="69"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="70"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
@@ -59673,12 +59670,12 @@
       <c r="D62" s="8"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="67" t="s">
+      <c r="A63" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="69"/>
-      <c r="C63" s="69"/>
-      <c r="D63" s="69"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="70"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
@@ -59743,12 +59740,12 @@
       <c r="D68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="67" t="s">
+      <c r="A69" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="69"/>
-      <c r="C69" s="69"/>
-      <c r="D69" s="69"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="70"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
@@ -59817,6 +59814,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -59824,12 +59827,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -59851,12 +59848,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
@@ -59871,12 +59868,12 @@
       <c r="E4" s="3"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
@@ -59891,12 +59888,12 @@
       <c r="E8" s="3"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
@@ -59911,12 +59908,12 @@
       <c r="E12" s="3"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
@@ -59931,20 +59928,20 @@
       <c r="E16" s="3"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
@@ -59959,12 +59956,12 @@
       <c r="E21" s="3"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
@@ -59979,20 +59976,20 @@
       <c r="E25" s="3"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
@@ -60001,12 +59998,12 @@
       <c r="E29" s="3"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
@@ -60015,12 +60012,12 @@
       <c r="E32" s="3"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="3"/>
@@ -60029,12 +60026,12 @@
       <c r="E35" s="3"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="3"/>
@@ -60072,12 +60069,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
@@ -60103,12 +60100,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
@@ -60168,12 +60165,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
@@ -60250,12 +60247,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
@@ -60332,12 +60329,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="s">
@@ -60414,12 +60411,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="38" t="s">
@@ -60496,12 +60493,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="38" t="s">
@@ -60575,12 +60572,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="38" t="s">
@@ -60645,12 +60642,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="55" t="s">
+      <c r="A45" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="38" t="s">
@@ -60715,12 +60712,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="55" t="s">
+      <c r="A51" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="55"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="38" t="s">
@@ -60785,12 +60782,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="55" t="s">
+      <c r="A57" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="55"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="38" t="s">
@@ -60855,12 +60852,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="55" t="s">
+      <c r="A63" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="55"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="55"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="38" t="s">
@@ -60925,12 +60922,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="55" t="s">
+      <c r="A69" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="55"/>
-      <c r="C69" s="55"/>
-      <c r="D69" s="55"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="38" t="s">
@@ -60999,12 +60996,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -61012,6 +61003,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{98289B19-A16E-8E48-AC84-DA2AC3E66DBF}">
@@ -61034,12 +61031,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
@@ -61065,12 +61062,12 @@
       <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="59"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">
@@ -61130,12 +61127,12 @@
       <c r="D8" s="44"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="41" t="s">
@@ -61212,12 +61209,12 @@
       <c r="D14" s="44"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="59"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
@@ -61294,12 +61291,12 @@
       <c r="D20" s="44"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="59"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="41" t="s">
@@ -61376,12 +61373,12 @@
       <c r="D26" s="44"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="59"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="41" t="s">
@@ -61458,12 +61455,12 @@
       <c r="D32" s="44"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="59"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="41" t="s">
@@ -61537,12 +61534,12 @@
       <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="56" t="s">
+      <c r="A39" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="58"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="59"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="41" t="s">
@@ -61607,12 +61604,12 @@
       <c r="D44" s="44"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="58"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="59"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="41" t="s">
@@ -61677,12 +61674,12 @@
       <c r="D50" s="44"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="56" t="s">
+      <c r="A51" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="58"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="59"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="41" t="s">
@@ -61747,12 +61744,12 @@
       <c r="D56" s="44"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="56" t="s">
+      <c r="A57" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="57"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="58"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="59"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="41" t="s">
@@ -61817,12 +61814,12 @@
       <c r="D62" s="44"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="56" t="s">
+      <c r="A63" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="57"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="58"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="59"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="41" t="s">
@@ -61887,12 +61884,12 @@
       <c r="D68" s="44"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="56" t="s">
+      <c r="A69" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="57"/>
-      <c r="C69" s="57"/>
-      <c r="D69" s="58"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="59"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="41" t="s">
@@ -61961,6 +61958,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -61968,12 +61971,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -61990,12 +61987,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
@@ -62021,12 +62018,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
@@ -62086,12 +62083,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
@@ -62168,12 +62165,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
@@ -62250,12 +62247,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="s">
@@ -62332,12 +62329,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="38" t="s">
@@ -62414,12 +62411,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="38" t="s">
@@ -62493,12 +62490,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="59" t="s">
+      <c r="A39" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="38" t="s">
@@ -62563,12 +62560,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="59" t="s">
+      <c r="A45" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="38" t="s">
@@ -62633,12 +62630,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="59" t="s">
+      <c r="A51" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="38" t="s">
@@ -62703,12 +62700,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="59" t="s">
+      <c r="A57" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="38" t="s">
@@ -62773,12 +62770,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="59" t="s">
+      <c r="A63" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="60"/>
+      <c r="D63" s="60"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="38" t="s">
@@ -62843,12 +62840,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="59" t="s">
+      <c r="A69" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="59"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="59"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="60"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="38" t="s">
@@ -62917,12 +62914,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -62930,6 +62921,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{F2D3BCCF-F868-974E-AEC9-AB88E8DBE8B7}">
@@ -62952,12 +62949,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
@@ -62983,12 +62980,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
@@ -63048,12 +63045,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
@@ -63130,12 +63127,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
@@ -63212,12 +63209,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="s">
@@ -63294,12 +63291,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="38" t="s">
@@ -63376,12 +63373,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="38" t="s">
@@ -63455,12 +63452,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="59" t="s">
+      <c r="A39" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="38" t="s">
@@ -63525,12 +63522,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="59" t="s">
+      <c r="A45" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="38" t="s">
@@ -63595,12 +63592,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="59" t="s">
+      <c r="A51" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="38" t="s">
@@ -63665,12 +63662,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="59" t="s">
+      <c r="A57" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="38" t="s">
@@ -63735,12 +63732,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="59" t="s">
+      <c r="A63" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="60"/>
+      <c r="D63" s="60"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="38" t="s">
@@ -63805,12 +63802,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="59" t="s">
+      <c r="A69" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="59"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="59"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="60"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="38" t="s">
@@ -63879,12 +63876,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -63892,6 +63883,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{85A9722B-955B-CF41-A6F3-38FDC4B48A7A}">
@@ -63914,12 +63911,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
@@ -63945,12 +63942,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
@@ -64010,12 +64007,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
@@ -64092,12 +64089,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
@@ -64174,12 +64171,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="34" t="s">
@@ -64256,12 +64253,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="34" t="s">
@@ -64338,12 +64335,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="60" t="s">
+      <c r="A33" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="34" t="s">
@@ -64409,7 +64406,7 @@
       <c r="D37" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="77" t="s">
+      <c r="E37" s="51" t="s">
         <v>111</v>
       </c>
     </row>
@@ -64420,12 +64417,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="60" t="s">
+      <c r="A39" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="34" t="s">
@@ -64490,12 +64487,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="60" t="s">
+      <c r="A45" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="34" t="s">
@@ -64560,12 +64557,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="60" t="s">
+      <c r="A51" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="60"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="61"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="34" t="s">
@@ -64630,12 +64627,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="60" t="s">
+      <c r="A57" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="60"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="61"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="34" t="s">
@@ -64700,12 +64697,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="60" t="s">
+      <c r="A63" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="60"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="60"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="61"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="34" t="s">
@@ -64770,12 +64767,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="60" t="s">
+      <c r="A69" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="60"/>
-      <c r="C69" s="60"/>
-      <c r="D69" s="60"/>
+      <c r="B69" s="61"/>
+      <c r="C69" s="61"/>
+      <c r="D69" s="61"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="34" t="s">
@@ -64844,12 +64841,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -64857,6 +64848,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{A72D56DF-9BC0-2E49-9D2A-B8E721479EEF}">

--- a/resources/Forms/Excel/Big Sheet.xlsx
+++ b/resources/Forms/Excel/Big Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie/FootieTake2/resources/Forms/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie_Take2/FootieTake2/resources/Forms/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C8F8A4-CF28-7942-B36D-FB4AA8EE386F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C189C22E-0636-5F48-BB0E-B9E478EA74B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="1920" windowWidth="26820" windowHeight="14720" tabRatio="800" activeTab="1" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
+    <workbookView xWindow="-25320" yWindow="1480" windowWidth="25600" windowHeight="14720" tabRatio="800" activeTab="1" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Ranking" sheetId="5" r:id="rId1"/>
@@ -433,7 +433,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -480,6 +480,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -963,19 +970,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1094,21 +1101,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>203199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>650240</xdr:colOff>
-      <xdr:row>412</xdr:row>
-      <xdr:rowOff>106072</xdr:rowOff>
+      <xdr:colOff>436880</xdr:colOff>
+      <xdr:row>411</xdr:row>
+      <xdr:rowOff>156738</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEC5AB7D-838E-6508-B9DE-D49E7EA52F56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D81EB305-2AB4-0DBF-91A5-6E4DA37E3F51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1124,8 +1131,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="19507200"/>
-          <a:ext cx="8839200" cy="64317272"/>
+          <a:off x="0" y="19507199"/>
+          <a:ext cx="8625840" cy="64164739"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2739,12 +2746,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A17:D17"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A32:D32"/>
@@ -2752,6 +2753,12 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3713,12 +3720,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -3726,6 +3727,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4672,12 +4679,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -4685,6 +4686,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5641,12 +5648,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -5654,6 +5655,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C76" xr:uid="{912C664E-C133-1E4F-9640-4A25EB9EF25D}">
@@ -6606,12 +6613,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -6619,6 +6620,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{B20B3CE4-DCB9-4E4A-AC39-D9DA073FCC61}">
@@ -7567,12 +7574,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -7580,6 +7581,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8526,12 +8533,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -8539,6 +8540,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9489,12 +9496,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -9502,6 +9503,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C74" xr:uid="{F68D3FFC-EF79-CC40-8F53-8BF21A5E1341}">
@@ -10457,12 +10464,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -10470,6 +10471,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{11A7353F-6A05-F048-B4B5-2330C623E382}">
@@ -11422,6 +11429,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -11429,12 +11442,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{79F4B324-FC19-7044-8ECD-3029BC735257}">
@@ -11451,7 +11458,7 @@
   <dimension ref="A1:CL125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BS1" sqref="BS1"/>
       <selection pane="bottomLeft" activeCell="A97" sqref="A97"/>
     </sheetView>
@@ -11494,7 +11501,7 @@
     <col min="45" max="45" width="4" style="4" customWidth="1"/>
     <col min="46" max="46" width="3.5" style="4" customWidth="1"/>
     <col min="47" max="47" width="11.5" style="4" customWidth="1"/>
-    <col min="48" max="48" width="5.83203125" style="75" customWidth="1"/>
+    <col min="48" max="48" width="5.83203125" style="4" customWidth="1"/>
     <col min="51" max="51" width="10.83203125" style="4"/>
     <col min="52" max="53" width="3.1640625" style="4" customWidth="1"/>
     <col min="54" max="54" width="10.83203125" style="4"/>
@@ -11609,7 +11616,7 @@
       <c r="AS1" s="48"/>
       <c r="AT1" s="48"/>
       <c r="AU1" s="48"/>
-      <c r="AV1" s="71" t="s">
+      <c r="AV1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AX1" s="5" t="s">
@@ -11843,7 +11850,7 @@
         <f>'Keith G'!D34</f>
         <v>Australia</v>
       </c>
-      <c r="AV2" s="72">
+      <c r="AV2" s="3">
         <f>'Keith G'!E34</f>
         <v>3</v>
       </c>
@@ -11866,7 +11873,7 @@
         <f>'Keith G'!D40</f>
         <v>Costa Rica</v>
       </c>
-      <c r="BC2" s="3">
+      <c r="BC2" s="71">
         <f>'Keith G'!E40</f>
         <v>0</v>
       </c>
@@ -12132,7 +12139,7 @@
         <f>'Keith G'!D35</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="AV3" s="72">
+      <c r="AV3" s="3">
         <f>'Keith G'!E35</f>
         <v>3</v>
       </c>
@@ -12153,7 +12160,7 @@
         <f>'Keith G'!D41</f>
         <v>Morocco</v>
       </c>
-      <c r="BC3" s="3">
+      <c r="BC3" s="71">
         <f>'Keith G'!E41</f>
         <v>0</v>
       </c>
@@ -12409,7 +12416,7 @@
         <f>'Keith G'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV4" s="72">
+      <c r="AV4" s="3">
         <f>'Keith G'!E36</f>
         <v>1</v>
       </c>
@@ -12430,7 +12437,7 @@
         <f>'Keith G'!D42</f>
         <v>Canada</v>
       </c>
-      <c r="BC4" s="3">
+      <c r="BC4" s="71">
         <f>'Keith G'!E42</f>
         <v>0</v>
       </c>
@@ -12688,7 +12695,7 @@
         <f>'Keith G'!D37</f>
         <v>Mexico</v>
       </c>
-      <c r="AV5" s="72">
+      <c r="AV5" s="3">
         <f>'Keith G'!E37</f>
         <v>2</v>
       </c>
@@ -12709,7 +12716,7 @@
         <f>'Keith G'!D43</f>
         <v>Germany</v>
       </c>
-      <c r="BC5" s="3">
+      <c r="BC5" s="71">
         <f>'Keith G'!E43</f>
         <v>0</v>
       </c>
@@ -12975,7 +12982,7 @@
         <f>'Stuart L'!D34</f>
         <v>Australia</v>
       </c>
-      <c r="AV6" s="72">
+      <c r="AV6" s="3">
         <f>'Stuart L'!E34</f>
         <v>0</v>
       </c>
@@ -12998,7 +13005,7 @@
         <f>'Stuart L'!D40</f>
         <v>Costa Rica</v>
       </c>
-      <c r="BC6" s="18">
+      <c r="BC6" s="72">
         <f>'Stuart L'!E40</f>
         <v>0</v>
       </c>
@@ -13264,7 +13271,7 @@
         <f>'Stuart L'!D35</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="AV7" s="72">
+      <c r="AV7" s="3">
         <f>'Stuart L'!E35</f>
         <v>2</v>
       </c>
@@ -13285,7 +13292,7 @@
         <f>'Stuart L'!D41</f>
         <v>Morocco</v>
       </c>
-      <c r="BC7" s="18">
+      <c r="BC7" s="72">
         <f>'Stuart L'!E41</f>
         <v>0</v>
       </c>
@@ -13543,7 +13550,7 @@
         <f>'Stuart L'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV8" s="72">
+      <c r="AV8" s="3">
         <f>'Stuart L'!E36</f>
         <v>1</v>
       </c>
@@ -13564,7 +13571,7 @@
         <f>'Stuart L'!D42</f>
         <v>Canada</v>
       </c>
-      <c r="BC8" s="18">
+      <c r="BC8" s="72">
         <f>'Stuart L'!E42</f>
         <v>0</v>
       </c>
@@ -13820,7 +13827,7 @@
         <f>'Stuart L'!D37</f>
         <v>Mexico</v>
       </c>
-      <c r="AV9" s="72">
+      <c r="AV9" s="3">
         <f>'Stuart L'!E37</f>
         <v>2</v>
       </c>
@@ -13841,7 +13848,7 @@
         <f>'Stuart L'!D43</f>
         <v>Germany</v>
       </c>
-      <c r="BC9" s="18">
+      <c r="BC9" s="72">
         <f>'Stuart L'!E43</f>
         <v>0</v>
       </c>
@@ -14107,7 +14114,7 @@
         <f>'Barbara L'!D34</f>
         <v>Australia</v>
       </c>
-      <c r="AV10" s="72">
+      <c r="AV10" s="3">
         <f>'Barbara L'!E34</f>
         <v>0</v>
       </c>
@@ -14130,7 +14137,7 @@
         <f>'Barbara L'!D40</f>
         <v>Costa Rica</v>
       </c>
-      <c r="BC10" s="18">
+      <c r="BC10" s="72">
         <f>'Barbara L'!E40</f>
         <v>0</v>
       </c>
@@ -14398,7 +14405,7 @@
         <f>'Barbara L'!D35</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="AV11" s="72">
+      <c r="AV11" s="3">
         <f>'Barbara L'!E35</f>
         <v>3</v>
       </c>
@@ -14419,7 +14426,7 @@
         <f>'Barbara L'!D41</f>
         <v>Morocco</v>
       </c>
-      <c r="BC11" s="18">
+      <c r="BC11" s="72">
         <f>'Barbara L'!E41</f>
         <v>0</v>
       </c>
@@ -14675,7 +14682,7 @@
         <f>'Barbara L'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV12" s="72">
+      <c r="AV12" s="3">
         <f>'Barbara L'!E36</f>
         <v>1</v>
       </c>
@@ -14696,7 +14703,7 @@
         <f>'Barbara L'!D42</f>
         <v>Canada</v>
       </c>
-      <c r="BC12" s="18">
+      <c r="BC12" s="72">
         <f>'Barbara L'!E42</f>
         <v>0</v>
       </c>
@@ -14952,7 +14959,7 @@
         <f>'Barbara L'!D37</f>
         <v>Mexico</v>
       </c>
-      <c r="AV13" s="72">
+      <c r="AV13" s="3">
         <f>'Barbara L'!E37</f>
         <v>2</v>
       </c>
@@ -14973,7 +14980,7 @@
         <f>'Barbara L'!D43</f>
         <v>Germany</v>
       </c>
-      <c r="BC13" s="18">
+      <c r="BC13" s="72">
         <f>'Barbara L'!E43</f>
         <v>0</v>
       </c>
@@ -15241,7 +15248,7 @@
         <f>'Freddie J'!D34</f>
         <v>Australia</v>
       </c>
-      <c r="AV14" s="72">
+      <c r="AV14" s="3">
         <f>'Freddie J'!E34</f>
         <v>0</v>
       </c>
@@ -15264,7 +15271,7 @@
         <f>'Freddie J'!D40</f>
         <v>Costa Rica</v>
       </c>
-      <c r="BC14" s="3">
+      <c r="BC14" s="71">
         <f>'Freddie J'!E40</f>
         <v>0</v>
       </c>
@@ -15530,7 +15537,7 @@
         <f>'Freddie J'!D35</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="AV15" s="72">
+      <c r="AV15" s="3">
         <f>'Freddie J'!E35</f>
         <v>2</v>
       </c>
@@ -15551,7 +15558,7 @@
         <f>'Freddie J'!D41</f>
         <v>Morocco</v>
       </c>
-      <c r="BC15" s="3">
+      <c r="BC15" s="71">
         <f>'Freddie J'!E41</f>
         <v>0</v>
       </c>
@@ -15807,7 +15814,7 @@
         <f>'Freddie J'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV16" s="72">
+      <c r="AV16" s="3">
         <f>'Freddie J'!E36</f>
         <v>3</v>
       </c>
@@ -15828,7 +15835,7 @@
         <f>'Freddie J'!D42</f>
         <v>Canada</v>
       </c>
-      <c r="BC16" s="3">
+      <c r="BC16" s="71">
         <f>'Freddie J'!E42</f>
         <v>0</v>
       </c>
@@ -16086,7 +16093,7 @@
         <f>'Freddie J'!D37</f>
         <v>Mexico</v>
       </c>
-      <c r="AV17" s="72">
+      <c r="AV17" s="3">
         <f>'Freddie J'!E37</f>
         <v>2</v>
       </c>
@@ -16107,7 +16114,7 @@
         <f>'Freddie J'!D43</f>
         <v>Germany</v>
       </c>
-      <c r="BC17" s="3">
+      <c r="BC17" s="71">
         <f>'Freddie J'!E43</f>
         <v>0</v>
       </c>
@@ -16373,7 +16380,7 @@
         <f>'Mandy B'!D34</f>
         <v>Australia</v>
       </c>
-      <c r="AV18" s="72">
+      <c r="AV18" s="3">
         <f>'Mandy B'!E34</f>
         <v>1</v>
       </c>
@@ -16396,7 +16403,7 @@
         <f>'Mandy B'!D40</f>
         <v>Costa Rica</v>
       </c>
-      <c r="BC18" s="3">
+      <c r="BC18" s="71">
         <f>'Mandy B'!E40</f>
         <v>0</v>
       </c>
@@ -16662,7 +16669,7 @@
         <f>'Mandy B'!D35</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="AV19" s="72">
+      <c r="AV19" s="3">
         <f>'Mandy B'!E35</f>
         <v>3</v>
       </c>
@@ -16683,7 +16690,7 @@
         <f>'Mandy B'!D41</f>
         <v>Morocco</v>
       </c>
-      <c r="BC19" s="3">
+      <c r="BC19" s="71">
         <f>'Mandy B'!E41</f>
         <v>0</v>
       </c>
@@ -16941,7 +16948,7 @@
         <f>'Mandy B'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV20" s="72">
+      <c r="AV20" s="3">
         <f>'Mandy B'!E36</f>
         <v>0</v>
       </c>
@@ -16962,7 +16969,7 @@
         <f>'Mandy B'!D42</f>
         <v>Canada</v>
       </c>
-      <c r="BC20" s="3">
+      <c r="BC20" s="71">
         <f>'Mandy B'!E42</f>
         <v>0</v>
       </c>
@@ -17218,7 +17225,7 @@
         <f>'Mandy B'!D37</f>
         <v>Mexico</v>
       </c>
-      <c r="AV21" s="72">
+      <c r="AV21" s="3">
         <f>'Mandy B'!E37</f>
         <v>1</v>
       </c>
@@ -17239,7 +17246,7 @@
         <f>'Mandy B'!D43</f>
         <v>Germany</v>
       </c>
-      <c r="BC21" s="3">
+      <c r="BC21" s="71">
         <f>'Mandy B'!E43</f>
         <v>0</v>
       </c>
@@ -17505,7 +17512,7 @@
         <f>'Gabriel B'!D34</f>
         <v>Australia</v>
       </c>
-      <c r="AV22" s="72">
+      <c r="AV22" s="3">
         <f>'Gabriel B'!E34</f>
         <v>0</v>
       </c>
@@ -17528,7 +17535,7 @@
         <f>'Gabriel B'!D40</f>
         <v>Costa Rica</v>
       </c>
-      <c r="BC22" s="3">
+      <c r="BC22" s="71">
         <f>'Gabriel B'!E40</f>
         <v>0</v>
       </c>
@@ -17796,7 +17803,7 @@
         <f>'Gabriel B'!D35</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="AV23" s="72">
+      <c r="AV23" s="3">
         <f>'Gabriel B'!E35</f>
         <v>2</v>
       </c>
@@ -17817,7 +17824,7 @@
         <f>'Gabriel B'!D41</f>
         <v>Morocco</v>
       </c>
-      <c r="BC23" s="3">
+      <c r="BC23" s="71">
         <f>'Gabriel B'!E41</f>
         <v>0</v>
       </c>
@@ -18073,7 +18080,7 @@
         <f>'Gabriel B'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV24" s="72">
+      <c r="AV24" s="3">
         <f>'Gabriel B'!E36</f>
         <v>3</v>
       </c>
@@ -18094,7 +18101,7 @@
         <f>'Gabriel B'!D42</f>
         <v>Canada</v>
       </c>
-      <c r="BC24" s="3">
+      <c r="BC24" s="71">
         <f>'Gabriel B'!E42</f>
         <v>0</v>
       </c>
@@ -18350,7 +18357,7 @@
         <f>'Gabriel B'!D37</f>
         <v>Mexico</v>
       </c>
-      <c r="AV25" s="72">
+      <c r="AV25" s="3">
         <f>'Gabriel B'!E37</f>
         <v>1</v>
       </c>
@@ -18371,7 +18378,7 @@
         <f>'Gabriel B'!D43</f>
         <v>Germany</v>
       </c>
-      <c r="BC25" s="3">
+      <c r="BC25" s="71">
         <f>'Gabriel B'!E43</f>
         <v>0</v>
       </c>
@@ -18639,7 +18646,7 @@
         <f>'John B'!D34</f>
         <v>Australia</v>
       </c>
-      <c r="AV26" s="72">
+      <c r="AV26" s="3">
         <f>'John B'!E34</f>
         <v>1</v>
       </c>
@@ -18662,7 +18669,7 @@
         <f>'John B'!D40</f>
         <v>Costa Rica</v>
       </c>
-      <c r="BC26" s="3">
+      <c r="BC26" s="71">
         <f>'John B'!E40</f>
         <v>0</v>
       </c>
@@ -18928,7 +18935,7 @@
         <f>'John B'!D35</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="AV27" s="72">
+      <c r="AV27" s="3">
         <f>'John B'!E35</f>
         <v>2</v>
       </c>
@@ -18949,7 +18956,7 @@
         <f>'John B'!D41</f>
         <v>Morocco</v>
       </c>
-      <c r="BC27" s="3">
+      <c r="BC27" s="71">
         <f>'John B'!E41</f>
         <v>0</v>
       </c>
@@ -19205,7 +19212,7 @@
         <f>'John B'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV28" s="72">
+      <c r="AV28" s="3">
         <f>'John B'!E36</f>
         <v>0</v>
       </c>
@@ -19226,7 +19233,7 @@
         <f>'John B'!D42</f>
         <v>Canada</v>
       </c>
-      <c r="BC28" s="3">
+      <c r="BC28" s="71">
         <f>'John B'!E42</f>
         <v>0</v>
       </c>
@@ -19484,7 +19491,7 @@
         <f>'John B'!D37</f>
         <v>Mexico</v>
       </c>
-      <c r="AV29" s="72">
+      <c r="AV29" s="3">
         <f>'John B'!E37</f>
         <v>2</v>
       </c>
@@ -19505,7 +19512,7 @@
         <f>'John B'!D43</f>
         <v>Germany</v>
       </c>
-      <c r="BC29" s="3">
+      <c r="BC29" s="71">
         <f>'John B'!E43</f>
         <v>0</v>
       </c>
@@ -19771,7 +19778,7 @@
         <f>'Dawn G'!D34</f>
         <v>Australia</v>
       </c>
-      <c r="AV30" s="72">
+      <c r="AV30" s="3">
         <f>'Dawn G'!E34</f>
         <v>0</v>
       </c>
@@ -19794,7 +19801,7 @@
         <f>'Dawn G'!D40</f>
         <v>Costa Rica</v>
       </c>
-      <c r="BC30" s="3">
+      <c r="BC30" s="71">
         <f>'Dawn G'!E40</f>
         <v>0</v>
       </c>
@@ -20060,7 +20067,7 @@
         <f>'Dawn G'!D35</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="AV31" s="72">
+      <c r="AV31" s="3">
         <f>'Dawn G'!E35</f>
         <v>3</v>
       </c>
@@ -20081,7 +20088,7 @@
         <f>'Dawn G'!D41</f>
         <v>Morocco</v>
       </c>
-      <c r="BC31" s="3">
+      <c r="BC31" s="71">
         <f>'Dawn G'!E41</f>
         <v>0</v>
       </c>
@@ -20339,7 +20346,7 @@
         <f>'Dawn G'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV32" s="72">
+      <c r="AV32" s="3">
         <f>'Dawn G'!E36</f>
         <v>2</v>
       </c>
@@ -20360,7 +20367,7 @@
         <f>'Dawn G'!D42</f>
         <v>Canada</v>
       </c>
-      <c r="BC32" s="3">
+      <c r="BC32" s="71">
         <f>'Dawn G'!E42</f>
         <v>0</v>
       </c>
@@ -20593,7 +20600,7 @@
         <f>'Dawn G'!D37</f>
         <v>Mexico</v>
       </c>
-      <c r="AV33" s="72">
+      <c r="AV33" s="3">
         <f>'Dawn G'!E37</f>
         <v>0</v>
       </c>
@@ -20614,7 +20621,7 @@
         <f>'Dawn G'!D43</f>
         <v>Germany</v>
       </c>
-      <c r="BC33" s="3">
+      <c r="BC33" s="71">
         <f>'Dawn G'!E43</f>
         <v>0</v>
       </c>
@@ -20857,7 +20864,7 @@
         <f>'Robert L'!D34</f>
         <v>Australia</v>
       </c>
-      <c r="AV34" s="72">
+      <c r="AV34" s="3">
         <f>'Robert L'!E34</f>
         <v>2</v>
       </c>
@@ -20880,7 +20887,7 @@
         <f>'Robert L'!D40</f>
         <v>Costa Rica</v>
       </c>
-      <c r="BC34" s="3">
+      <c r="BC34" s="71">
         <f>'Robert L'!E40</f>
         <v>0</v>
       </c>
@@ -21125,7 +21132,7 @@
         <f>'Robert L'!D35</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="AV35" s="72">
+      <c r="AV35" s="3">
         <f>'Robert L'!E35</f>
         <v>2</v>
       </c>
@@ -21146,7 +21153,7 @@
         <f>'Robert L'!D41</f>
         <v>Morocco</v>
       </c>
-      <c r="BC35" s="3">
+      <c r="BC35" s="71">
         <f>'Robert L'!E41</f>
         <v>0</v>
       </c>
@@ -21379,7 +21386,7 @@
         <f>'Robert L'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV36" s="72">
+      <c r="AV36" s="3">
         <f>'Robert L'!E36</f>
         <v>3</v>
       </c>
@@ -21400,7 +21407,7 @@
         <f>'Robert L'!D42</f>
         <v>Canada</v>
       </c>
-      <c r="BC36" s="3">
+      <c r="BC36" s="71">
         <f>'Robert L'!E42</f>
         <v>0</v>
       </c>
@@ -21633,7 +21640,7 @@
         <f>'Robert L'!D37</f>
         <v>Mexico</v>
       </c>
-      <c r="AV37" s="72">
+      <c r="AV37" s="3">
         <f>'Robert L'!E37</f>
         <v>1</v>
       </c>
@@ -21654,7 +21661,7 @@
         <f>'Robert L'!D43</f>
         <v>Germany</v>
       </c>
-      <c r="BC37" s="3">
+      <c r="BC37" s="71">
         <f>'Robert L'!E43</f>
         <v>0</v>
       </c>
@@ -21899,7 +21906,7 @@
         <f>'Jacques Chi'!D34</f>
         <v>Australia</v>
       </c>
-      <c r="AV38" s="72">
+      <c r="AV38" s="3">
         <f>'Jacques Chi'!E34</f>
         <v>1</v>
       </c>
@@ -21922,7 +21929,7 @@
         <f>'Jacques Chi'!D40</f>
         <v>Costa Rica</v>
       </c>
-      <c r="BC38" s="3">
+      <c r="BC38" s="71">
         <f>'Jacques Chi'!E40</f>
         <v>0</v>
       </c>
@@ -22165,7 +22172,7 @@
         <f>'Jacques Chi'!D35</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="AV39" s="72">
+      <c r="AV39" s="3">
         <f>'Jacques Chi'!E35</f>
         <v>2</v>
       </c>
@@ -22186,7 +22193,7 @@
         <f>'Jacques Chi'!D41</f>
         <v>Morocco</v>
       </c>
-      <c r="BC39" s="3">
+      <c r="BC39" s="71">
         <f>'Jacques Chi'!E41</f>
         <v>0</v>
       </c>
@@ -22419,7 +22426,7 @@
         <f>'Jacques Chi'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV40" s="72">
+      <c r="AV40" s="3">
         <f>'Jacques Chi'!E36</f>
         <v>2</v>
       </c>
@@ -22440,7 +22447,7 @@
         <f>'Jacques Chi'!D42</f>
         <v>Canada</v>
       </c>
-      <c r="BC40" s="3">
+      <c r="BC40" s="71">
         <f>'Jacques Chi'!E42</f>
         <v>0</v>
       </c>
@@ -22675,7 +22682,7 @@
         <f>'Jacques Chi'!D37</f>
         <v>Mexico</v>
       </c>
-      <c r="AV41" s="72">
+      <c r="AV41" s="3">
         <f>'Jacques Chi'!E37</f>
         <v>0</v>
       </c>
@@ -22696,7 +22703,7 @@
         <f>'Jacques Chi'!D43</f>
         <v>Germany</v>
       </c>
-      <c r="BC41" s="3">
+      <c r="BC41" s="71">
         <f>'Jacques Chi'!E43</f>
         <v>0</v>
       </c>
@@ -22939,7 +22946,7 @@
         <f>'Dave B'!D34</f>
         <v>Australia</v>
       </c>
-      <c r="AV42" s="72">
+      <c r="AV42" s="3">
         <f>'Dave B'!E34</f>
         <v>3</v>
       </c>
@@ -22962,7 +22969,7 @@
         <f>'Dave B'!D40</f>
         <v>Costa Rica</v>
       </c>
-      <c r="BC42" s="3">
+      <c r="BC42" s="71">
         <f>'Dave B'!E40</f>
         <v>0</v>
       </c>
@@ -23205,7 +23212,7 @@
         <f>'Dave B'!D35</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="AV43" s="72">
+      <c r="AV43" s="3">
         <f>'Dave B'!E35</f>
         <v>0</v>
       </c>
@@ -23226,7 +23233,7 @@
         <f>'Dave B'!D41</f>
         <v>Morocco</v>
       </c>
-      <c r="BC43" s="3">
+      <c r="BC43" s="71">
         <f>'Dave B'!E41</f>
         <v>0</v>
       </c>
@@ -23461,7 +23468,7 @@
         <f>'Dave B'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV44" s="72">
+      <c r="AV44" s="3">
         <f>'Dave B'!E36</f>
         <v>1</v>
       </c>
@@ -23482,7 +23489,7 @@
         <f>'Dave B'!D42</f>
         <v>Canada</v>
       </c>
-      <c r="BC44" s="3">
+      <c r="BC44" s="71">
         <f>'Dave B'!E42</f>
         <v>0</v>
       </c>
@@ -23715,7 +23722,7 @@
         <f>'Dave B'!D37</f>
         <v>Mexico</v>
       </c>
-      <c r="AV45" s="72">
+      <c r="AV45" s="3">
         <f>'Dave B'!E37</f>
         <v>2</v>
       </c>
@@ -23736,7 +23743,7 @@
         <f>'Dave B'!D43</f>
         <v>Germany</v>
       </c>
-      <c r="BC45" s="3">
+      <c r="BC45" s="71">
         <f>'Dave B'!E43</f>
         <v>0</v>
       </c>
@@ -23979,7 +23986,7 @@
         <f>'Annaka G-S'!D34</f>
         <v>Australia</v>
       </c>
-      <c r="AV46" s="72">
+      <c r="AV46" s="3">
         <f>'Annaka G-S'!E34</f>
         <v>0</v>
       </c>
@@ -24002,7 +24009,7 @@
         <f>'Dave B'!D40</f>
         <v>Costa Rica</v>
       </c>
-      <c r="BC46" s="3">
+      <c r="BC46" s="71">
         <f>'Dave B'!E40</f>
         <v>0</v>
       </c>
@@ -24247,7 +24254,7 @@
         <f>'Annaka G-S'!D35</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="AV47" s="72">
+      <c r="AV47" s="3">
         <f>'Annaka G-S'!E35</f>
         <v>0</v>
       </c>
@@ -24268,7 +24275,7 @@
         <f>'Dave B'!D41</f>
         <v>Morocco</v>
       </c>
-      <c r="BC47" s="3">
+      <c r="BC47" s="71">
         <f>'Dave B'!E41</f>
         <v>0</v>
       </c>
@@ -24501,7 +24508,7 @@
         <f>'Annaka G-S'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV48" s="72">
+      <c r="AV48" s="3">
         <f>'Annaka G-S'!E36</f>
         <v>1</v>
       </c>
@@ -24522,7 +24529,7 @@
         <f>'Dave B'!D42</f>
         <v>Canada</v>
       </c>
-      <c r="BC48" s="3">
+      <c r="BC48" s="71">
         <f>'Dave B'!E42</f>
         <v>0</v>
       </c>
@@ -24755,7 +24762,7 @@
         <f>'Annaka G-S'!D37</f>
         <v>Mexico</v>
       </c>
-      <c r="AV49" s="72">
+      <c r="AV49" s="3">
         <f>'Annaka G-S'!E37</f>
         <v>0</v>
       </c>
@@ -24776,7 +24783,7 @@
         <f>'Dave B'!D43</f>
         <v>Germany</v>
       </c>
-      <c r="BC49" s="3">
+      <c r="BC49" s="71">
         <f>'Dave B'!E43</f>
         <v>0</v>
       </c>
@@ -25021,7 +25028,7 @@
         <f>Claire!D34</f>
         <v>Australia</v>
       </c>
-      <c r="AV50" s="72">
+      <c r="AV50" s="3">
         <f>Claire!E34</f>
         <v>3</v>
       </c>
@@ -25044,7 +25051,7 @@
         <f>Claire!D40</f>
         <v>Costa Rica</v>
       </c>
-      <c r="BC50" s="3">
+      <c r="BC50" s="71">
         <f>Claire!E40</f>
         <v>0</v>
       </c>
@@ -25287,7 +25294,7 @@
         <f>Claire!D35</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="AV51" s="72">
+      <c r="AV51" s="3">
         <f>Claire!E35</f>
         <v>2</v>
       </c>
@@ -25308,7 +25315,7 @@
         <f>Claire!D41</f>
         <v>Morocco</v>
       </c>
-      <c r="BC51" s="3">
+      <c r="BC51" s="71">
         <f>Claire!E41</f>
         <v>0</v>
       </c>
@@ -25541,7 +25548,7 @@
         <f>Claire!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV52" s="72">
+      <c r="AV52" s="3">
         <f>Claire!E36</f>
         <v>0</v>
       </c>
@@ -25562,7 +25569,7 @@
         <f>Claire!D42</f>
         <v>Canada</v>
       </c>
-      <c r="BC52" s="3">
+      <c r="BC52" s="71">
         <f>Claire!E42</f>
         <v>0</v>
       </c>
@@ -25797,7 +25804,7 @@
         <f>Claire!D37</f>
         <v>Mexico</v>
       </c>
-      <c r="AV53" s="72">
+      <c r="AV53" s="3">
         <f>Claire!E37</f>
         <v>1</v>
       </c>
@@ -25818,7 +25825,7 @@
         <f>Claire!D43</f>
         <v>Germany</v>
       </c>
-      <c r="BC53" s="3">
+      <c r="BC53" s="71">
         <f>Claire!E43</f>
         <v>0</v>
       </c>
@@ -26061,7 +26068,7 @@
         <f>Hino!D34</f>
         <v>Australia</v>
       </c>
-      <c r="AV54" s="72">
+      <c r="AV54" s="3">
         <f>Hino!E34</f>
         <v>0</v>
       </c>
@@ -26084,7 +26091,7 @@
         <f>Hino!D40</f>
         <v>Costa Rica</v>
       </c>
-      <c r="BC54" s="3">
+      <c r="BC54" s="71">
         <f>Hino!E40</f>
         <v>0</v>
       </c>
@@ -26327,7 +26334,7 @@
         <f>Hino!D35</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="AV55" s="72">
+      <c r="AV55" s="3">
         <f>Hino!E35</f>
         <v>2</v>
       </c>
@@ -26348,7 +26355,7 @@
         <f>Hino!D41</f>
         <v>Morocco</v>
       </c>
-      <c r="BC55" s="3">
+      <c r="BC55" s="71">
         <f>Hino!E41</f>
         <v>0</v>
       </c>
@@ -26583,7 +26590,7 @@
         <f>Hino!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV56" s="72">
+      <c r="AV56" s="3">
         <f>Hino!E36</f>
         <v>2</v>
       </c>
@@ -26604,7 +26611,7 @@
         <f>Hino!D42</f>
         <v>Canada</v>
       </c>
-      <c r="BC56" s="3">
+      <c r="BC56" s="71">
         <f>Hino!E42</f>
         <v>0</v>
       </c>
@@ -26837,7 +26844,7 @@
         <f>Hino!D37</f>
         <v>Mexico</v>
       </c>
-      <c r="AV57" s="72">
+      <c r="AV57" s="3">
         <f>Hino!E37</f>
         <v>0</v>
       </c>
@@ -26858,7 +26865,7 @@
         <f>Hino!D43</f>
         <v>Germany</v>
       </c>
-      <c r="BC57" s="3">
+      <c r="BC57" s="71">
         <f>Hino!E43</f>
         <v>0</v>
       </c>
@@ -27101,7 +27108,7 @@
         <f>'Cathy G'!D34</f>
         <v>Australia</v>
       </c>
-      <c r="AV58" s="72">
+      <c r="AV58" s="3">
         <f>'Cathy G'!E34</f>
         <v>0</v>
       </c>
@@ -27124,7 +27131,7 @@
         <f>'Cathy G'!D40</f>
         <v>Costa Rica</v>
       </c>
-      <c r="BC58" s="3">
+      <c r="BC58" s="71">
         <f>'Cathy G'!E40</f>
         <v>0</v>
       </c>
@@ -27369,7 +27376,7 @@
         <f>'Cathy G'!D35</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="AV59" s="72">
+      <c r="AV59" s="3">
         <f>'Cathy G'!E35</f>
         <v>2</v>
       </c>
@@ -27390,7 +27397,7 @@
         <f>'Cathy G'!D41</f>
         <v>Morocco</v>
       </c>
-      <c r="BC59" s="3">
+      <c r="BC59" s="71">
         <f>'Cathy G'!E41</f>
         <v>0</v>
       </c>
@@ -27623,7 +27630,7 @@
         <f>'Cathy G'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV60" s="72">
+      <c r="AV60" s="3">
         <f>'Cathy G'!E36</f>
         <v>2</v>
       </c>
@@ -27644,7 +27651,7 @@
         <f>'Cathy G'!D42</f>
         <v>Canada</v>
       </c>
-      <c r="BC60" s="3">
+      <c r="BC60" s="71">
         <f>'Cathy G'!E42</f>
         <v>0</v>
       </c>
@@ -27877,7 +27884,7 @@
         <f>'Cathy G'!D37</f>
         <v>Mexico</v>
       </c>
-      <c r="AV61" s="72">
+      <c r="AV61" s="3">
         <f>'Cathy G'!E37</f>
         <v>0</v>
       </c>
@@ -27898,7 +27905,7 @@
         <f>'Cathy G'!D43</f>
         <v>Germany</v>
       </c>
-      <c r="BC61" s="3">
+      <c r="BC61" s="71">
         <f>'Cathy G'!E43</f>
         <v>0</v>
       </c>
@@ -28143,7 +28150,7 @@
         <f>'Arthur T'!D34</f>
         <v>Australia</v>
       </c>
-      <c r="AV62" s="72">
+      <c r="AV62" s="3">
         <f>'Arthur T'!E34</f>
         <v>0</v>
       </c>
@@ -28166,7 +28173,7 @@
         <f>'Arthur T'!D40</f>
         <v>Costa Rica</v>
       </c>
-      <c r="BC62" s="3">
+      <c r="BC62" s="71">
         <f>'Arthur T'!E40</f>
         <v>0</v>
       </c>
@@ -28409,7 +28416,7 @@
         <f>'Arthur T'!D35</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="AV63" s="72">
+      <c r="AV63" s="3">
         <f>'Arthur T'!E35</f>
         <v>1</v>
       </c>
@@ -28430,7 +28437,7 @@
         <f>'Arthur T'!D41</f>
         <v>Morocco</v>
       </c>
-      <c r="BC63" s="3">
+      <c r="BC63" s="71">
         <f>'Arthur T'!E41</f>
         <v>0</v>
       </c>
@@ -28663,7 +28670,7 @@
         <f>'Arthur T'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV64" s="72">
+      <c r="AV64" s="3">
         <f>'Arthur T'!E36</f>
         <v>1</v>
       </c>
@@ -28684,7 +28691,7 @@
         <f>'Arthur T'!D42</f>
         <v>Canada</v>
       </c>
-      <c r="BC64" s="3">
+      <c r="BC64" s="71">
         <f>'Arthur T'!E42</f>
         <v>0</v>
       </c>
@@ -28919,7 +28926,7 @@
         <f>'Arthur T'!D37</f>
         <v>Mexico</v>
       </c>
-      <c r="AV65" s="72">
+      <c r="AV65" s="3">
         <f>'Arthur T'!E37</f>
         <v>3</v>
       </c>
@@ -28940,7 +28947,7 @@
         <f>'Arthur T'!D43</f>
         <v>Germany</v>
       </c>
-      <c r="BC65" s="3">
+      <c r="BC65" s="71">
         <f>'Arthur T'!E43</f>
         <v>0</v>
       </c>
@@ -29183,7 +29190,7 @@
         <f>'Andy B'!D34</f>
         <v>Australia</v>
       </c>
-      <c r="AV66" s="72">
+      <c r="AV66" s="3">
         <f>'Andy B'!E34</f>
         <v>0</v>
       </c>
@@ -29206,7 +29213,7 @@
         <f>'Andy B'!D40</f>
         <v>Costa Rica</v>
       </c>
-      <c r="BC66" s="3">
+      <c r="BC66" s="71">
         <f>'Andy B'!E40</f>
         <v>0</v>
       </c>
@@ -29449,7 +29456,7 @@
         <f>'Andy B'!D35</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="AV67" s="72">
+      <c r="AV67" s="3">
         <f>'Andy B'!E35</f>
         <v>2</v>
       </c>
@@ -29470,7 +29477,7 @@
         <f>'Andy B'!D41</f>
         <v>Morocco</v>
       </c>
-      <c r="BC67" s="3">
+      <c r="BC67" s="71">
         <f>'Andy B'!E41</f>
         <v>0</v>
       </c>
@@ -29705,7 +29712,7 @@
         <f>'Andy B'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV68" s="72">
+      <c r="AV68" s="3">
         <f>'Andy B'!E36</f>
         <v>0</v>
       </c>
@@ -29726,7 +29733,7 @@
         <f>'Andy B'!D42</f>
         <v>Canada</v>
       </c>
-      <c r="BC68" s="3">
+      <c r="BC68" s="71">
         <f>'Andy B'!E42</f>
         <v>0</v>
       </c>
@@ -29959,7 +29966,7 @@
         <f>'Andy B'!D37</f>
         <v>Mexico</v>
       </c>
-      <c r="AV69" s="72">
+      <c r="AV69" s="3">
         <f>'Andy B'!E37</f>
         <v>1</v>
       </c>
@@ -29980,7 +29987,7 @@
         <f>'Andy B'!D43</f>
         <v>Germany</v>
       </c>
-      <c r="BC69" s="3">
+      <c r="BC69" s="71">
         <f>'Andy B'!E43</f>
         <v>0</v>
       </c>
@@ -30223,7 +30230,7 @@
         <f>'Alison S'!D34</f>
         <v>Australia</v>
       </c>
-      <c r="AV70" s="73">
+      <c r="AV70" s="34">
         <f>'Alison S'!E34</f>
         <v>3</v>
       </c>
@@ -30246,7 +30253,7 @@
         <f>'Alison S'!D40</f>
         <v>Costa Rica</v>
       </c>
-      <c r="BC70" s="34">
+      <c r="BC70" s="73">
         <f>'Alison S'!E40</f>
         <v>0</v>
       </c>
@@ -30491,7 +30498,7 @@
         <f>'Alison S'!D35</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="AV71" s="73">
+      <c r="AV71" s="34">
         <f>'Alison S'!E35</f>
         <v>0</v>
       </c>
@@ -30512,7 +30519,7 @@
         <f>'Alison S'!D41</f>
         <v>Morocco</v>
       </c>
-      <c r="BC71" s="34">
+      <c r="BC71" s="73">
         <f>'Alison S'!E41</f>
         <v>0</v>
       </c>
@@ -30745,7 +30752,7 @@
         <f>'Alison S'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV72" s="73">
+      <c r="AV72" s="34">
         <f>'Alison S'!E36</f>
         <v>1</v>
       </c>
@@ -30766,7 +30773,7 @@
         <f>'Alison S'!D42</f>
         <v>Canada</v>
       </c>
-      <c r="BC72" s="34">
+      <c r="BC72" s="73">
         <f>'Alison S'!E42</f>
         <v>0</v>
       </c>
@@ -30999,7 +31006,7 @@
         <f>'Alison S'!D37</f>
         <v>Mexico</v>
       </c>
-      <c r="AV73" s="73">
+      <c r="AV73" s="34">
         <f>'Alison S'!E37</f>
         <v>2</v>
       </c>
@@ -31020,7 +31027,7 @@
         <f>'Alison S'!D43</f>
         <v>Germany</v>
       </c>
-      <c r="BC73" s="34">
+      <c r="BC73" s="73">
         <f>'Alison S'!E43</f>
         <v>0</v>
       </c>
@@ -31265,7 +31272,7 @@
         <f>'Evan A'!D34</f>
         <v>Australia</v>
       </c>
-      <c r="AV74" s="73">
+      <c r="AV74" s="34">
         <f>'Evan A'!E34</f>
         <v>1</v>
       </c>
@@ -31288,7 +31295,7 @@
         <f>'Evan A'!D40</f>
         <v>Costa Rica</v>
       </c>
-      <c r="BC74" s="34">
+      <c r="BC74" s="73">
         <f>'Evan A'!E40</f>
         <v>0</v>
       </c>
@@ -31531,7 +31538,7 @@
         <f>'Evan A'!D35</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="AV75" s="73">
+      <c r="AV75" s="34">
         <f>'Evan A'!E35</f>
         <v>3</v>
       </c>
@@ -31552,7 +31559,7 @@
         <f>'Evan A'!D41</f>
         <v>Morocco</v>
       </c>
-      <c r="BC75" s="34">
+      <c r="BC75" s="73">
         <f>'Evan A'!E41</f>
         <v>0</v>
       </c>
@@ -31785,7 +31792,7 @@
         <f>'Evan A'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV76" s="73">
+      <c r="AV76" s="34">
         <f>'Evan A'!E36</f>
         <v>0</v>
       </c>
@@ -31806,7 +31813,7 @@
         <f>'Evan A'!D42</f>
         <v>Canada</v>
       </c>
-      <c r="BC76" s="34">
+      <c r="BC76" s="73">
         <f>'Evan A'!E42</f>
         <v>0</v>
       </c>
@@ -32041,7 +32048,7 @@
         <f>'Evan A'!D37</f>
         <v>Mexico</v>
       </c>
-      <c r="AV77" s="73">
+      <c r="AV77" s="34">
         <f>'Evan A'!E37</f>
         <v>2</v>
       </c>
@@ -32062,7 +32069,7 @@
         <f>'Evan A'!D43</f>
         <v>Germany</v>
       </c>
-      <c r="BC77" s="34">
+      <c r="BC77" s="73">
         <f>'Evan A'!E43</f>
         <v>0</v>
       </c>
@@ -32305,7 +32312,7 @@
         <f>'Rob TH'!D34</f>
         <v>Australia</v>
       </c>
-      <c r="AV78" s="73">
+      <c r="AV78" s="34">
         <f>'Rob TH'!E34</f>
         <v>1</v>
       </c>
@@ -32328,7 +32335,7 @@
         <f>'Rob TH'!D40</f>
         <v>Costa Rica</v>
       </c>
-      <c r="BC78" s="34">
+      <c r="BC78" s="73">
         <f>'Rob TH'!E40</f>
         <v>0</v>
       </c>
@@ -32571,7 +32578,7 @@
         <f>'Rob TH'!D35</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="AV79" s="73">
+      <c r="AV79" s="34">
         <f>'Rob TH'!E35</f>
         <v>2</v>
       </c>
@@ -32592,7 +32599,7 @@
         <f>'Rob TH'!D41</f>
         <v>Morocco</v>
       </c>
-      <c r="BC79" s="34">
+      <c r="BC79" s="73">
         <f>'Rob TH'!E41</f>
         <v>0</v>
       </c>
@@ -32827,7 +32834,7 @@
         <f>'Rob TH'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV80" s="73">
+      <c r="AV80" s="34">
         <f>'Rob TH'!E36</f>
         <v>0</v>
       </c>
@@ -32848,7 +32855,7 @@
         <f>'Rob TH'!D42</f>
         <v>Canada</v>
       </c>
-      <c r="BC80" s="34">
+      <c r="BC80" s="73">
         <f>'Rob TH'!E42</f>
         <v>0</v>
       </c>
@@ -33081,7 +33088,7 @@
         <f>'Rob TH'!D37</f>
         <v>Mexico</v>
       </c>
-      <c r="AV81" s="73">
+      <c r="AV81" s="34">
         <f>'Rob TH'!E37</f>
         <v>0</v>
       </c>
@@ -33102,7 +33109,7 @@
         <f>'Rob TH'!D43</f>
         <v>Germany</v>
       </c>
-      <c r="BC81" s="34">
+      <c r="BC81" s="73">
         <f>'Rob TH'!E43</f>
         <v>0</v>
       </c>
@@ -33345,7 +33352,7 @@
         <f>'Alice D'!D34</f>
         <v>Australia</v>
       </c>
-      <c r="AV82" s="73">
+      <c r="AV82" s="34">
         <f>'Alice D'!E34</f>
         <v>3</v>
       </c>
@@ -33368,7 +33375,7 @@
         <f>'Alice D'!D40</f>
         <v>Costa Rica</v>
       </c>
-      <c r="BC82" s="34">
+      <c r="BC82" s="73">
         <f>'Alice D'!E40</f>
         <v>0</v>
       </c>
@@ -33613,7 +33620,7 @@
         <f>'Alice D'!D35</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="AV83" s="73">
+      <c r="AV83" s="34">
         <f>'Alice D'!E35</f>
         <v>0</v>
       </c>
@@ -33634,7 +33641,7 @@
         <f>'Alice D'!D41</f>
         <v>Morocco</v>
       </c>
-      <c r="BC83" s="34">
+      <c r="BC83" s="73">
         <f>'Alice D'!E41</f>
         <v>0</v>
       </c>
@@ -33867,7 +33874,7 @@
         <f>'Alice D'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV84" s="73">
+      <c r="AV84" s="34">
         <f>'Alice D'!E36</f>
         <v>3</v>
       </c>
@@ -33888,7 +33895,7 @@
         <f>'Alice D'!D42</f>
         <v>Canada</v>
       </c>
-      <c r="BC84" s="34">
+      <c r="BC84" s="73">
         <f>'Alice D'!E42</f>
         <v>0</v>
       </c>
@@ -34121,7 +34128,7 @@
         <f>'Alice D'!D37</f>
         <v>Mexico</v>
       </c>
-      <c r="AV85" s="73">
+      <c r="AV85" s="34">
         <f>'Alice D'!E37</f>
         <v>2</v>
       </c>
@@ -34142,7 +34149,7 @@
         <f>'Alice D'!D43</f>
         <v>Germany</v>
       </c>
-      <c r="BC85" s="34">
+      <c r="BC85" s="73">
         <f>'Alice D'!E43</f>
         <v>0</v>
       </c>
@@ -34387,7 +34394,7 @@
         <f>'Liz W'!D34</f>
         <v>Australia</v>
       </c>
-      <c r="AV86" s="73">
+      <c r="AV86" s="34">
         <f>'Liz W'!E34</f>
         <v>0</v>
       </c>
@@ -34410,7 +34417,7 @@
         <f>'Liz W'!D40</f>
         <v>Costa Rica</v>
       </c>
-      <c r="BC86" s="34">
+      <c r="BC86" s="73">
         <f>'Liz W'!E40</f>
         <v>0</v>
       </c>
@@ -34653,7 +34660,7 @@
         <f>'Liz W'!D35</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="AV87" s="73">
+      <c r="AV87" s="34">
         <f>'Liz W'!E35</f>
         <v>2</v>
       </c>
@@ -34674,7 +34681,7 @@
         <f>'Liz W'!D41</f>
         <v>Morocco</v>
       </c>
-      <c r="BC87" s="34">
+      <c r="BC87" s="73">
         <f>'Liz W'!E41</f>
         <v>0</v>
       </c>
@@ -34907,7 +34914,7 @@
         <f>'Liz W'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV88" s="73">
+      <c r="AV88" s="34">
         <f>'Liz W'!E36</f>
         <v>2</v>
       </c>
@@ -34928,7 +34935,7 @@
         <f>'Liz W'!D42</f>
         <v>Canada</v>
       </c>
-      <c r="BC88" s="34">
+      <c r="BC88" s="73">
         <f>'Liz W'!E42</f>
         <v>0</v>
       </c>
@@ -35163,7 +35170,7 @@
         <f>'Liz W'!D37</f>
         <v>Mexico</v>
       </c>
-      <c r="AV89" s="73">
+      <c r="AV89" s="34">
         <f>'Liz W'!E37</f>
         <v>0</v>
       </c>
@@ -35184,7 +35191,7 @@
         <f>'Liz W'!D43</f>
         <v>Germany</v>
       </c>
-      <c r="BC89" s="34">
+      <c r="BC89" s="73">
         <f>'Liz W'!E43</f>
         <v>0</v>
       </c>
@@ -35427,7 +35434,7 @@
         <f>'Keith W'!D34</f>
         <v>Australia</v>
       </c>
-      <c r="AV90" s="73">
+      <c r="AV90" s="34">
         <f>'Keith W'!E34</f>
         <v>3</v>
       </c>
@@ -35450,7 +35457,7 @@
         <f>'Keith W'!D40</f>
         <v>Costa Rica</v>
       </c>
-      <c r="BC90" s="34">
+      <c r="BC90" s="73">
         <f>'Keith W'!E40</f>
         <v>0</v>
       </c>
@@ -35693,7 +35700,7 @@
         <f>'Keith W'!D35</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="AV91" s="73">
+      <c r="AV91" s="34">
         <f>'Keith W'!E35</f>
         <v>2</v>
       </c>
@@ -35714,7 +35721,7 @@
         <f>'Keith W'!D41</f>
         <v>Morocco</v>
       </c>
-      <c r="BC91" s="34">
+      <c r="BC91" s="73">
         <f>'Keith W'!E41</f>
         <v>0</v>
       </c>
@@ -35949,7 +35956,7 @@
         <f>'Keith W'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV92" s="73">
+      <c r="AV92" s="34">
         <f>'Keith W'!E36</f>
         <v>2</v>
       </c>
@@ -35970,7 +35977,7 @@
         <f>'Keith W'!D42</f>
         <v>Canada</v>
       </c>
-      <c r="BC92" s="34">
+      <c r="BC92" s="73">
         <f>'Keith W'!E42</f>
         <v>0</v>
       </c>
@@ -36203,7 +36210,7 @@
         <f>'Keith W'!D37</f>
         <v>Mexico</v>
       </c>
-      <c r="AV93" s="73">
+      <c r="AV93" s="34">
         <f>'Keith W'!E37</f>
         <v>2</v>
       </c>
@@ -36224,7 +36231,7 @@
         <f>'Keith W'!D43</f>
         <v>Germany</v>
       </c>
-      <c r="BC93" s="34">
+      <c r="BC93" s="73">
         <f>'Keith W'!E43</f>
         <v>0</v>
       </c>
@@ -36467,7 +36474,7 @@
         <f>'Marjorie L'!D34</f>
         <v>Australia</v>
       </c>
-      <c r="AV94" s="73">
+      <c r="AV94" s="34">
         <f>'Marjorie L'!E34</f>
         <v>0</v>
       </c>
@@ -36490,7 +36497,7 @@
         <f>'Marjorie L'!D40</f>
         <v>Costa Rica</v>
       </c>
-      <c r="BC94" s="36">
+      <c r="BC94" s="74">
         <f>'Marjorie L'!E40</f>
         <v>0</v>
       </c>
@@ -36712,7 +36719,7 @@
         <f>'Marjorie L'!D35</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="AV95" s="73">
+      <c r="AV95" s="34">
         <f>'Marjorie L'!E35</f>
         <v>3</v>
       </c>
@@ -36733,7 +36740,7 @@
         <f>'Marjorie L'!D41</f>
         <v>Morocco</v>
       </c>
-      <c r="BC95" s="36">
+      <c r="BC95" s="74">
         <f>'Marjorie L'!E41</f>
         <v>0</v>
       </c>
@@ -36945,7 +36952,7 @@
         <f>'Marjorie L'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV96" s="73">
+      <c r="AV96" s="34">
         <f>'Marjorie L'!E36</f>
         <v>0</v>
       </c>
@@ -36966,7 +36973,7 @@
         <f>'Marjorie L'!D42</f>
         <v>Canada</v>
       </c>
-      <c r="BC96" s="36">
+      <c r="BC96" s="74">
         <f>'Marjorie L'!E42</f>
         <v>0</v>
       </c>
@@ -37178,7 +37185,7 @@
         <f>'Marjorie L'!D37</f>
         <v>Mexico</v>
       </c>
-      <c r="AV97" s="73">
+      <c r="AV97" s="34">
         <f>'Marjorie L'!E37</f>
         <v>3</v>
       </c>
@@ -37199,7 +37206,7 @@
         <f>'Marjorie L'!D43</f>
         <v>Germany</v>
       </c>
-      <c r="BC97" s="36">
+      <c r="BC97" s="74">
         <f>'Marjorie L'!E43</f>
         <v>0</v>
       </c>
@@ -37421,7 +37428,7 @@
         <f>'Martin L'!D34</f>
         <v>Australia</v>
       </c>
-      <c r="AV98" s="73">
+      <c r="AV98" s="34">
         <f>'Martin L'!E34</f>
         <v>0</v>
       </c>
@@ -37444,7 +37451,7 @@
         <f>'Martin L'!D40</f>
         <v>Costa Rica</v>
       </c>
-      <c r="BC98" s="36">
+      <c r="BC98" s="74">
         <f>'Martin L'!E40</f>
         <v>0</v>
       </c>
@@ -37666,7 +37673,7 @@
         <f>'Martin L'!D35</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="AV99" s="73">
+      <c r="AV99" s="34">
         <f>'Martin L'!E35</f>
         <v>1</v>
       </c>
@@ -37687,7 +37694,7 @@
         <f>'Martin L'!D41</f>
         <v>Morocco</v>
       </c>
-      <c r="BC99" s="36">
+      <c r="BC99" s="74">
         <f>'Martin L'!E41</f>
         <v>0</v>
       </c>
@@ -37899,7 +37906,7 @@
         <f>'Martin L'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV100" s="73">
+      <c r="AV100" s="34">
         <f>'Martin L'!E36</f>
         <v>0</v>
       </c>
@@ -37920,7 +37927,7 @@
         <f>'Martin L'!D42</f>
         <v>Canada</v>
       </c>
-      <c r="BC100" s="36">
+      <c r="BC100" s="74">
         <f>'Martin L'!E42</f>
         <v>0</v>
       </c>
@@ -38132,7 +38139,7 @@
         <f>'Martin L'!D37</f>
         <v>Mexico</v>
       </c>
-      <c r="AV101" s="73">
+      <c r="AV101" s="34">
         <f>'Martin L'!E37</f>
         <v>1</v>
       </c>
@@ -38153,7 +38160,7 @@
         <f>'Martin L'!D43</f>
         <v>Germany</v>
       </c>
-      <c r="BC101" s="36">
+      <c r="BC101" s="74">
         <f>'Martin L'!E43</f>
         <v>0</v>
       </c>
@@ -38375,7 +38382,7 @@
         <f>'Nathan W'!D28</f>
         <v>Australia</v>
       </c>
-      <c r="AV102" s="73">
+      <c r="AV102" s="34">
         <f>'Nathan W'!E28</f>
         <v>0</v>
       </c>
@@ -38398,7 +38405,7 @@
         <f>'Nathan W'!D33</f>
         <v>Costa Rica</v>
       </c>
-      <c r="BC102" s="34">
+      <c r="BC102" s="73">
         <f>'Nathan W'!E33</f>
         <v>0</v>
       </c>
@@ -38620,7 +38627,7 @@
         <f>'Nathan W'!D29</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="AV103" s="73">
+      <c r="AV103" s="34">
         <f>'Nathan W'!E29</f>
         <v>2</v>
       </c>
@@ -38641,7 +38648,7 @@
         <f>'Nathan W'!D34</f>
         <v>Morocco</v>
       </c>
-      <c r="BC103" s="34">
+      <c r="BC103" s="73">
         <f>'Nathan W'!E34</f>
         <v>0</v>
       </c>
@@ -38853,7 +38860,7 @@
         <f>'Nathan W'!D30</f>
         <v>Denmark</v>
       </c>
-      <c r="AV104" s="73">
+      <c r="AV104" s="34">
         <f>'Nathan W'!E30</f>
         <v>3</v>
       </c>
@@ -38874,7 +38881,7 @@
         <f>'Nathan W'!D35</f>
         <v>Canada</v>
       </c>
-      <c r="BC104" s="34">
+      <c r="BC104" s="73">
         <f>'Nathan W'!E35</f>
         <v>0</v>
       </c>
@@ -39086,7 +39093,7 @@
         <f>'Nathan W'!D31</f>
         <v>Mexico</v>
       </c>
-      <c r="AV105" s="73">
+      <c r="AV105" s="34">
         <f>'Nathan W'!E31</f>
         <v>1</v>
       </c>
@@ -39107,7 +39114,7 @@
         <f>'Nathan W'!D36</f>
         <v>Germany</v>
       </c>
-      <c r="BC105" s="34">
+      <c r="BC105" s="73">
         <f>'Nathan W'!E36</f>
         <v>0</v>
       </c>
@@ -39329,7 +39336,7 @@
         <f>'Bernie R'!D34</f>
         <v>Australia</v>
       </c>
-      <c r="AV106" s="73">
+      <c r="AV106" s="34">
         <f>'Bernie R'!E34</f>
         <v>0</v>
       </c>
@@ -39352,7 +39359,7 @@
         <f>'Bernie R'!D40</f>
         <v>Costa Rica</v>
       </c>
-      <c r="BC106" s="34">
+      <c r="BC106" s="73">
         <f>'Bernie R'!E40</f>
         <v>0</v>
       </c>
@@ -39574,7 +39581,7 @@
         <f>'Bernie R'!D35</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="AV107" s="73">
+      <c r="AV107" s="34">
         <f>'Bernie R'!E35</f>
         <v>3</v>
       </c>
@@ -39595,7 +39602,7 @@
         <f>'Bernie R'!D41</f>
         <v>Morocco</v>
       </c>
-      <c r="BC107" s="34">
+      <c r="BC107" s="73">
         <f>'Bernie R'!E41</f>
         <v>0</v>
       </c>
@@ -39807,7 +39814,7 @@
         <f>'Bernie R'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV108" s="73">
+      <c r="AV108" s="34">
         <f>'Bernie R'!E36</f>
         <v>3</v>
       </c>
@@ -39828,7 +39835,7 @@
         <f>'Bernie R'!D42</f>
         <v>Canada</v>
       </c>
-      <c r="BC108" s="34">
+      <c r="BC108" s="73">
         <f>'Bernie R'!E42</f>
         <v>0</v>
       </c>
@@ -40040,7 +40047,7 @@
         <f>'Bernie R'!D37</f>
         <v>Mexico</v>
       </c>
-      <c r="AV109" s="73">
+      <c r="AV109" s="34">
         <f>'Bernie R'!E37</f>
         <v>2</v>
       </c>
@@ -40061,7 +40068,7 @@
         <f>'Bernie R'!D43</f>
         <v>Germany</v>
       </c>
-      <c r="BC109" s="34">
+      <c r="BC109" s="73">
         <f>'Bernie R'!E43</f>
         <v>0</v>
       </c>
@@ -40283,7 +40290,7 @@
         <f>'Derek b'!D34</f>
         <v>Australia</v>
       </c>
-      <c r="AV110" s="74">
+      <c r="AV110" s="38">
         <f>'Derek b'!E34</f>
         <v>3</v>
       </c>
@@ -40306,7 +40313,7 @@
         <f>'Derek b'!D40</f>
         <v>Costa Rica</v>
       </c>
-      <c r="BC110" s="38">
+      <c r="BC110" s="75">
         <f>'Derek b'!E40</f>
         <v>0</v>
       </c>
@@ -40528,7 +40535,7 @@
         <f>'Derek b'!D35</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="AV111" s="74">
+      <c r="AV111" s="38">
         <f>'Derek b'!E35</f>
         <v>3</v>
       </c>
@@ -40549,7 +40556,7 @@
         <f>'Derek b'!D41</f>
         <v>Morocco</v>
       </c>
-      <c r="BC111" s="38">
+      <c r="BC111" s="75">
         <f>'Derek b'!E41</f>
         <v>0</v>
       </c>
@@ -40761,7 +40768,7 @@
         <f>'Derek b'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV112" s="74">
+      <c r="AV112" s="38">
         <f>'Derek b'!E36</f>
         <v>1</v>
       </c>
@@ -40782,7 +40789,7 @@
         <f>'Derek b'!D42</f>
         <v>Canada</v>
       </c>
-      <c r="BC112" s="38">
+      <c r="BC112" s="75">
         <f>'Derek b'!E42</f>
         <v>0</v>
       </c>
@@ -40994,7 +41001,7 @@
         <f>'Derek b'!D37</f>
         <v>Mexico</v>
       </c>
-      <c r="AV113" s="74">
+      <c r="AV113" s="38">
         <f>'Derek b'!E37</f>
         <v>2</v>
       </c>
@@ -41015,7 +41022,7 @@
         <f>'Derek b'!D43</f>
         <v>Germany</v>
       </c>
-      <c r="BC113" s="38">
+      <c r="BC113" s="75">
         <f>'Derek b'!E43</f>
         <v>0</v>
       </c>
@@ -41237,7 +41244,7 @@
         <f>'Mother B'!D34</f>
         <v>Australia</v>
       </c>
-      <c r="AV114" s="74">
+      <c r="AV114" s="38">
         <f>'Mother B'!E34</f>
         <v>0</v>
       </c>
@@ -41260,7 +41267,7 @@
         <f>'Mother B'!D40</f>
         <v>Costa Rica</v>
       </c>
-      <c r="BC114" s="38">
+      <c r="BC114" s="75">
         <f>'Mother B'!E40</f>
         <v>0</v>
       </c>
@@ -41482,7 +41489,7 @@
         <f>'Mother B'!D35</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="AV115" s="74">
+      <c r="AV115" s="38">
         <f>'Mother B'!E35</f>
         <v>3</v>
       </c>
@@ -41503,7 +41510,7 @@
         <f>'Mother B'!D41</f>
         <v>Morocco</v>
       </c>
-      <c r="BC115" s="38">
+      <c r="BC115" s="75">
         <f>'Mother B'!E41</f>
         <v>0</v>
       </c>
@@ -41715,7 +41722,7 @@
         <f>'Mother B'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV116" s="74">
+      <c r="AV116" s="38">
         <f>'Mother B'!E36</f>
         <v>0</v>
       </c>
@@ -41736,7 +41743,7 @@
         <f>'Mother B'!D42</f>
         <v>Canada</v>
       </c>
-      <c r="BC116" s="38">
+      <c r="BC116" s="75">
         <f>'Mother B'!E42</f>
         <v>0</v>
       </c>
@@ -41948,7 +41955,7 @@
         <f>'Mother B'!D37</f>
         <v>Mexico</v>
       </c>
-      <c r="AV117" s="74">
+      <c r="AV117" s="38">
         <f>'Mother B'!E37</f>
         <v>0</v>
       </c>
@@ -41969,7 +41976,7 @@
         <f>'Mother B'!D43</f>
         <v>Germany</v>
       </c>
-      <c r="BC117" s="38">
+      <c r="BC117" s="75">
         <f>'Mother B'!E43</f>
         <v>0</v>
       </c>
@@ -42191,7 +42198,7 @@
         <f>'James W'!D34</f>
         <v>Australia</v>
       </c>
-      <c r="AV118" s="74">
+      <c r="AV118" s="38">
         <f>'James W'!E34</f>
         <v>0</v>
       </c>
@@ -42214,7 +42221,7 @@
         <f>'James W'!D40</f>
         <v>Costa Rica</v>
       </c>
-      <c r="BC118" s="38">
+      <c r="BC118" s="75">
         <f>'James W'!E40</f>
         <v>0</v>
       </c>
@@ -42436,7 +42443,7 @@
         <f>'James W'!D35</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="AV119" s="74">
+      <c r="AV119" s="38">
         <f>'James W'!E35</f>
         <v>2</v>
       </c>
@@ -42457,7 +42464,7 @@
         <f>'James W'!D41</f>
         <v>Morocco</v>
       </c>
-      <c r="BC119" s="38">
+      <c r="BC119" s="75">
         <f>'James W'!E41</f>
         <v>0</v>
       </c>
@@ -42669,7 +42676,7 @@
         <f>'James W'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV120" s="74">
+      <c r="AV120" s="38">
         <f>'James W'!E36</f>
         <v>0</v>
       </c>
@@ -42690,7 +42697,7 @@
         <f>'James W'!D42</f>
         <v>Canada</v>
       </c>
-      <c r="BC120" s="38">
+      <c r="BC120" s="75">
         <f>'James W'!E42</f>
         <v>0</v>
       </c>
@@ -42902,7 +42909,7 @@
         <f>'James W'!D37</f>
         <v>Mexico</v>
       </c>
-      <c r="AV121" s="74">
+      <c r="AV121" s="38">
         <f>'James W'!E37</f>
         <v>1</v>
       </c>
@@ -42923,7 +42930,7 @@
         <f>'James W'!D43</f>
         <v>Germany</v>
       </c>
-      <c r="BC121" s="38">
+      <c r="BC121" s="75">
         <f>'James W'!E43</f>
         <v>0</v>
       </c>
@@ -43145,7 +43152,7 @@
         <f>'Nikki W'!D34</f>
         <v>Australia</v>
       </c>
-      <c r="AV122" s="74">
+      <c r="AV122" s="38">
         <f>'Nikki W'!E34</f>
         <v>0</v>
       </c>
@@ -43168,7 +43175,7 @@
         <f>'Nikki W'!D40</f>
         <v>Costa Rica</v>
       </c>
-      <c r="BC122" s="38">
+      <c r="BC122" s="75">
         <f>'Nikki W'!E40</f>
         <v>0</v>
       </c>
@@ -43390,7 +43397,7 @@
         <f>'Nikki W'!D35</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="AV123" s="74">
+      <c r="AV123" s="38">
         <f>'Nikki W'!E35</f>
         <v>3</v>
       </c>
@@ -43411,7 +43418,7 @@
         <f>'Nikki W'!D41</f>
         <v>Morocco</v>
       </c>
-      <c r="BC123" s="38">
+      <c r="BC123" s="75">
         <f>'Nikki W'!E41</f>
         <v>0</v>
       </c>
@@ -43623,7 +43630,7 @@
         <f>'Nikki W'!D36</f>
         <v>Denmark</v>
       </c>
-      <c r="AV124" s="74">
+      <c r="AV124" s="38">
         <f>'Nikki W'!E36</f>
         <v>3</v>
       </c>
@@ -43644,7 +43651,7 @@
         <f>'Nikki W'!D42</f>
         <v>Canada</v>
       </c>
-      <c r="BC124" s="38">
+      <c r="BC124" s="75">
         <f>'Nikki W'!E42</f>
         <v>0</v>
       </c>
@@ -43856,7 +43863,7 @@
         <f>'Nikki W'!D37</f>
         <v>Mexico</v>
       </c>
-      <c r="AV125" s="74">
+      <c r="AV125" s="38">
         <f>'Nikki W'!E37</f>
         <v>2</v>
       </c>
@@ -43877,7 +43884,7 @@
         <f>'Nikki W'!D43</f>
         <v>Germany</v>
       </c>
-      <c r="BC125" s="38">
+      <c r="BC125" s="75">
         <f>'Nikki W'!E43</f>
         <v>0</v>
       </c>
@@ -43989,12 +43996,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="CH1:CK1"/>
     <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="AY1:BB1"/>
@@ -44002,6 +44003,12 @@
     <mergeCell ref="BM1:BP1"/>
     <mergeCell ref="BT1:BW1"/>
     <mergeCell ref="CA1:CD1"/>
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AD1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
@@ -44932,12 +44939,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -44945,6 +44946,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -48694,12 +48701,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -48707,6 +48708,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67:C73 B66 B1:C65" xr:uid="{156C7248-1706-4E17-9BB6-079B78DEF479}">
@@ -49659,12 +49666,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -49672,6 +49673,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{05F05F3A-89C6-E74F-BB5C-B82EDA718869}">
@@ -50624,12 +50631,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -50637,6 +50638,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{A2199F60-9E4F-6445-90E3-92673D510A9D}">
@@ -51589,6 +51596,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -51596,12 +51609,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{2B53EE05-D1D3-374E-8836-2425C3E2B4A5}">
@@ -52560,6 +52567,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -52567,12 +52580,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C75" xr:uid="{A6BA8386-7538-B943-BC89-6C717665472C}">
@@ -53525,6 +53532,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -53532,12 +53545,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{CBEDE9B1-CCD8-024F-8FF6-52E83D09DD5F}">
@@ -54104,18 +54111,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="B64:E64"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="B46:E46"/>
     <mergeCell ref="B52:E52"/>
     <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -55062,6 +55069,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -55069,12 +55082,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{9D4EDCA2-2FFE-E64B-A34E-466DD99F6343}">
@@ -56027,6 +56034,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -56034,12 +56047,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -56986,12 +56993,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -56999,6 +57000,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{8427FA4B-D7DC-C74F-B6C6-02A04CEA1479}">
@@ -57954,12 +57961,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -57967,6 +57968,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{8A242A5A-737B-3248-9203-1E18FA7E8CAD}">
@@ -58919,6 +58926,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -58926,12 +58939,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -59878,6 +59885,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -59885,12 +59898,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -61063,12 +61070,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -61076,6 +61077,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{98289B19-A16E-8E48-AC84-DA2AC3E66DBF}">
@@ -62028,6 +62035,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -62035,12 +62048,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -62987,12 +62994,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -63000,6 +63001,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{F2D3BCCF-F868-974E-AEC9-AB88E8DBE8B7}">
@@ -63952,12 +63959,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -63965,6 +63966,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{85A9722B-955B-CF41-A6F3-38FDC4B48A7A}">
@@ -64917,12 +64924,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -64930,6 +64931,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{A72D56DF-9BC0-2E49-9D2A-B8E721479EEF}">

--- a/resources/Forms/Excel/Big Sheet.xlsx
+++ b/resources/Forms/Excel/Big Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie/FootieTake2/resources/Forms/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D9BD29-6676-514D-BA23-514CC7BD6C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A03707-F970-E64B-B5D9-D01E0CDA5951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="1920" windowWidth="26820" windowHeight="14720" tabRatio="800" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
+    <workbookView xWindow="860" yWindow="1920" windowWidth="26820" windowHeight="14720" tabRatio="800" activeTab="1" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Ranking" sheetId="5" r:id="rId1"/>
@@ -800,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1009,18 +1009,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1137,21 +1125,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>203199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>528320</xdr:colOff>
-      <xdr:row>401</xdr:row>
-      <xdr:rowOff>99762</xdr:rowOff>
+      <xdr:colOff>701040</xdr:colOff>
+      <xdr:row>407</xdr:row>
+      <xdr:rowOff>110500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CED4259-7C10-DEA0-2262-43C1FF87ED55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AB7C0E7-0B53-E246-8E4B-9A721144EA4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1167,8 +1155,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="19507200"/>
-          <a:ext cx="8717280" cy="62075762"/>
+          <a:off x="0" y="19507199"/>
+          <a:ext cx="8890000" cy="63305701"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1479,7 +1467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88DB2AD-0B7A-2B40-B11D-A4AE4E9DB3F2}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScale="150" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -2803,6 +2791,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A17:D17"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A32:D32"/>
@@ -2810,12 +2804,6 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3798,6 +3786,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -3805,12 +3799,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4778,6 +4766,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -4785,12 +4779,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5768,6 +5756,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -5775,12 +5769,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C76" xr:uid="{912C664E-C133-1E4F-9640-4A25EB9EF25D}">
@@ -6754,6 +6742,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -6761,12 +6755,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{B20B3CE4-DCB9-4E4A-AC39-D9DA073FCC61}">
@@ -7736,6 +7724,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -7743,12 +7737,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8716,6 +8704,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -8723,12 +8717,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9700,6 +9688,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -9707,12 +9701,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C74" xr:uid="{F68D3FFC-EF79-CC40-8F53-8BF21A5E1341}">
@@ -10689,6 +10677,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -10696,12 +10690,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{11A7353F-6A05-F048-B4B5-2330C623E382}">
@@ -11675,12 +11663,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -11688,6 +11670,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{79F4B324-FC19-7044-8ECD-3029BC735257}">
@@ -11703,8 +11691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536C4378-6AA3-D34E-B8EC-6B4414E01E1A}">
   <dimension ref="A1:CL125"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BS1" sqref="BS1"/>
       <selection pane="bottomLeft" activeCell="A97" sqref="A97"/>
     </sheetView>
@@ -12704,7 +12692,7 @@
         <f>'Keith G'!D48</f>
         <v>Switzerland</v>
       </c>
-      <c r="BJ4" s="81">
+      <c r="BJ4" s="3">
         <f>'Keith G'!E48</f>
         <v>2</v>
       </c>
@@ -13838,7 +13826,7 @@
         <f>'Stuart L'!D48</f>
         <v>Switzerland</v>
       </c>
-      <c r="BJ8" s="82">
+      <c r="BJ8" s="18">
         <f>'Stuart L'!E48</f>
         <v>1</v>
       </c>
@@ -14970,7 +14958,7 @@
         <f>'Barbara L'!D48</f>
         <v>Switzerland</v>
       </c>
-      <c r="BJ12" s="82">
+      <c r="BJ12" s="18">
         <f>'Barbara L'!E48</f>
         <v>2</v>
       </c>
@@ -16102,7 +16090,7 @@
         <f>'Freddie J'!D48</f>
         <v>Switzerland</v>
       </c>
-      <c r="BJ16" s="81">
+      <c r="BJ16" s="3">
         <f>'Freddie J'!E48</f>
         <v>2</v>
       </c>
@@ -17236,7 +17224,7 @@
         <f>'Mandy B'!D48</f>
         <v>Switzerland</v>
       </c>
-      <c r="BJ20" s="81">
+      <c r="BJ20" s="3">
         <f>'Mandy B'!E48</f>
         <v>2</v>
       </c>
@@ -18368,7 +18356,7 @@
         <f>'Gabriel B'!D48</f>
         <v>Switzerland</v>
       </c>
-      <c r="BJ24" s="81">
+      <c r="BJ24" s="3">
         <f>'Gabriel B'!E48</f>
         <v>2</v>
       </c>
@@ -19500,7 +19488,7 @@
         <f>'John B'!D48</f>
         <v>Switzerland</v>
       </c>
-      <c r="BJ28" s="81">
+      <c r="BJ28" s="3">
         <f>'John B'!E48</f>
         <v>1</v>
       </c>
@@ -20634,7 +20622,7 @@
         <f>'Dawn G'!D48</f>
         <v>Switzerland</v>
       </c>
-      <c r="BJ32" s="81">
+      <c r="BJ32" s="3">
         <f>'Dawn G'!E48</f>
         <v>1</v>
       </c>
@@ -21420,7 +21408,7 @@
         <f>'Robert L'!D47</f>
         <v>Ghana</v>
       </c>
-      <c r="BJ35" s="81">
+      <c r="BJ35" s="3">
         <f>'Robert L'!E47</f>
         <v>0</v>
       </c>
@@ -21674,7 +21662,7 @@
         <f>'Robert L'!D48</f>
         <v>Switzerland</v>
       </c>
-      <c r="BJ36" s="48">
+      <c r="BJ36" s="81">
         <f>'Robert L'!E48</f>
         <v>1</v>
       </c>
@@ -22714,7 +22702,7 @@
         <f>'Jacques Chi'!D48</f>
         <v>Switzerland</v>
       </c>
-      <c r="BJ40" s="81">
+      <c r="BJ40" s="3">
         <f>'Jacques Chi'!E48</f>
         <v>2</v>
       </c>
@@ -23500,7 +23488,7 @@
         <f>'Dave B'!D47</f>
         <v>Ghana</v>
       </c>
-      <c r="BJ43" s="81">
+      <c r="BJ43" s="3">
         <f>'Dave B'!E47</f>
         <v>0</v>
       </c>
@@ -23756,7 +23744,7 @@
         <f>'Dave B'!D48</f>
         <v>Switzerland</v>
       </c>
-      <c r="BJ44" s="81">
+      <c r="BJ44" s="3">
         <f>'Dave B'!E48</f>
         <v>2</v>
       </c>
@@ -24796,7 +24784,7 @@
         <f>'Annaka G-S'!D48</f>
         <v>Switzerland</v>
       </c>
-      <c r="BJ48" s="81">
+      <c r="BJ48" s="3">
         <f>'Annaka G-S'!E48</f>
         <v>0</v>
       </c>
@@ -25836,7 +25824,7 @@
         <f>Claire!D48</f>
         <v>Switzerland</v>
       </c>
-      <c r="BJ52" s="81">
+      <c r="BJ52" s="3">
         <f>Claire!E48</f>
         <v>1</v>
       </c>
@@ -26878,7 +26866,7 @@
         <f>Hino!D48</f>
         <v>Switzerland</v>
       </c>
-      <c r="BJ56" s="81">
+      <c r="BJ56" s="3">
         <f>Hino!E48</f>
         <v>1</v>
       </c>
@@ -27918,7 +27906,7 @@
         <f>'Cathy G'!D48</f>
         <v>Switzerland</v>
       </c>
-      <c r="BJ60" s="81">
+      <c r="BJ60" s="3">
         <f>'Cathy G'!E48</f>
         <v>1</v>
       </c>
@@ -28958,7 +28946,7 @@
         <f>'Arthur T'!D48</f>
         <v>Switzerland</v>
       </c>
-      <c r="BJ64" s="81">
+      <c r="BJ64" s="3">
         <f>'Arthur T'!E48</f>
         <v>1</v>
       </c>
@@ -30000,7 +29988,7 @@
         <f>'Andy B'!D48</f>
         <v>Switzerland</v>
       </c>
-      <c r="BJ68" s="81">
+      <c r="BJ68" s="3">
         <f>'Andy B'!E48</f>
         <v>2</v>
       </c>
@@ -31040,7 +31028,7 @@
         <f>'Alison S'!D48</f>
         <v>Switzerland</v>
       </c>
-      <c r="BJ72" s="83">
+      <c r="BJ72" s="34">
         <f>'Alison S'!E48</f>
         <v>2</v>
       </c>
@@ -32080,7 +32068,7 @@
         <f>'Evan A'!D48</f>
         <v>Switzerland</v>
       </c>
-      <c r="BJ76" s="83">
+      <c r="BJ76" s="34">
         <f>'Evan A'!E48</f>
         <v>1</v>
       </c>
@@ -33122,7 +33110,7 @@
         <f>'Rob TH'!D48</f>
         <v>Switzerland</v>
       </c>
-      <c r="BJ80" s="83">
+      <c r="BJ80" s="34">
         <f>'Rob TH'!E48</f>
         <v>0</v>
       </c>
@@ -34162,7 +34150,7 @@
         <f>'Alice D'!D48</f>
         <v>Switzerland</v>
       </c>
-      <c r="BJ84" s="83">
+      <c r="BJ84" s="34">
         <f>'Alice D'!E48</f>
         <v>1</v>
       </c>
@@ -35202,7 +35190,7 @@
         <f>'Liz W'!D48</f>
         <v>Switzerland</v>
       </c>
-      <c r="BJ88" s="83">
+      <c r="BJ88" s="34">
         <f>'Liz W'!E48</f>
         <v>2</v>
       </c>
@@ -36244,7 +36232,7 @@
         <f>'Keith W'!D48</f>
         <v>Switzerland</v>
       </c>
-      <c r="BJ92" s="83">
+      <c r="BJ92" s="34">
         <f>'Keith W'!E48</f>
         <v>2</v>
       </c>
@@ -37240,7 +37228,7 @@
         <f>'Marjorie L'!D48</f>
         <v>Switzerland</v>
       </c>
-      <c r="BJ96" s="84">
+      <c r="BJ96" s="36">
         <f>'Marjorie L'!E48</f>
         <v>2</v>
       </c>
@@ -38194,7 +38182,7 @@
         <f>'Martin L'!D48</f>
         <v>Switzerland</v>
       </c>
-      <c r="BJ100" s="84">
+      <c r="BJ100" s="36">
         <f>'Martin L'!E48</f>
         <v>1</v>
       </c>
@@ -39148,7 +39136,7 @@
         <f>'Nathan W'!D40</f>
         <v>Switzerland</v>
       </c>
-      <c r="BJ104" s="83">
+      <c r="BJ104" s="34">
         <f>'Nathan W'!E40</f>
         <v>1</v>
       </c>
@@ -40102,7 +40090,7 @@
         <f>'Bernie R'!D48</f>
         <v>Switzerland</v>
       </c>
-      <c r="BJ108" s="83">
+      <c r="BJ108" s="34">
         <f>'Bernie R'!E48</f>
         <v>1</v>
       </c>
@@ -41056,7 +41044,7 @@
         <f>'Derek b'!D48</f>
         <v>Switzerland</v>
       </c>
-      <c r="BJ112" s="85">
+      <c r="BJ112" s="38">
         <f>'Derek b'!E48</f>
         <v>1</v>
       </c>
@@ -42010,7 +41998,7 @@
         <f>'Mother B'!D48</f>
         <v>Switzerland</v>
       </c>
-      <c r="BJ116" s="85">
+      <c r="BJ116" s="38">
         <f>'Mother B'!E48</f>
         <v>2</v>
       </c>
@@ -42964,7 +42952,7 @@
         <f>'James W'!D48</f>
         <v>Switzerland</v>
       </c>
-      <c r="BJ120" s="85">
+      <c r="BJ120" s="38">
         <f>'James W'!E48</f>
         <v>1</v>
       </c>
@@ -43918,7 +43906,7 @@
         <f>'Nikki W'!D48</f>
         <v>Switzerland</v>
       </c>
-      <c r="BJ124" s="85">
+      <c r="BJ124" s="38">
         <f>'Nikki W'!E48</f>
         <v>1</v>
       </c>
@@ -44242,6 +44230,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="CH1:CK1"/>
     <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="AY1:BB1"/>
@@ -44249,12 +44243,6 @@
     <mergeCell ref="BM1:BP1"/>
     <mergeCell ref="BT1:BW1"/>
     <mergeCell ref="CA1:CD1"/>
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AD1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -45206,6 +45194,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -45213,12 +45207,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -49052,6 +49040,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -49059,12 +49053,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67:C73 B66 B1:C65" xr:uid="{156C7248-1706-4E17-9BB6-079B78DEF479}">
@@ -50038,6 +50026,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -50045,12 +50039,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{05F05F3A-89C6-E74F-BB5C-B82EDA718869}">
@@ -51024,6 +51012,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -51031,12 +51025,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{A2199F60-9E4F-6445-90E3-92673D510A9D}">
@@ -52010,12 +51998,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -52023,6 +52005,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{2B53EE05-D1D3-374E-8836-2425C3E2B4A5}">
@@ -53002,12 +52990,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -53015,6 +52997,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C75" xr:uid="{A6BA8386-7538-B943-BC89-6C717665472C}">
@@ -53988,12 +53976,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -54001,6 +53983,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{CBEDE9B1-CCD8-024F-8FF6-52E83D09DD5F}">
@@ -54567,18 +54555,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B58:E58"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B58:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -55546,12 +55534,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -55559,6 +55541,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{9D4EDCA2-2FFE-E64B-A34E-466DD99F6343}">
@@ -56532,12 +56520,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -56545,6 +56527,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -57512,6 +57500,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -57519,12 +57513,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{8427FA4B-D7DC-C74F-B6C6-02A04CEA1479}">
@@ -58501,6 +58489,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -58508,12 +58502,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{8A242A5A-737B-3248-9203-1E18FA7E8CAD}">
@@ -59487,12 +59475,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -59500,6 +59482,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -60467,12 +60455,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -60480,6 +60462,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -61673,6 +61661,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -61680,12 +61674,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{98289B19-A16E-8E48-AC84-DA2AC3E66DBF}">
@@ -62659,12 +62647,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -62672,6 +62654,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -63639,6 +63627,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -63646,12 +63640,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{F2D3BCCF-F868-974E-AEC9-AB88E8DBE8B7}">
@@ -64625,6 +64613,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -64632,12 +64626,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{85A9722B-955B-CF41-A6F3-38FDC4B48A7A}">
@@ -65611,6 +65599,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -65618,12 +65612,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{A72D56DF-9BC0-2E49-9D2A-B8E721479EEF}">

--- a/resources/Forms/Excel/Big Sheet.xlsx
+++ b/resources/Forms/Excel/Big Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie/FootieTake2/resources/Forms/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie_Take2/FootieTake2/resources/Forms/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DEEDEE-79CE-1A43-9CC5-D1B510DA77C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AF3887-6DE8-DC45-9375-435A07CA7A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="1920" windowWidth="26820" windowHeight="14720" tabRatio="800" activeTab="1" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
   </bookViews>
@@ -442,7 +442,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -489,6 +489,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -796,7 +803,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -972,25 +979,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1153,21 +1154,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>203199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>410</xdr:row>
-      <xdr:rowOff>15540</xdr:rowOff>
+      <xdr:colOff>467360</xdr:colOff>
+      <xdr:row>407</xdr:row>
+      <xdr:rowOff>49592</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BFCF757-89E6-65BC-3AF4-64F8F6440AD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEDC032-6B79-6542-62C9-C6F72C35543D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1183,8 +1184,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="19507200"/>
-          <a:ext cx="8707120" cy="63820340"/>
+          <a:off x="0" y="19303999"/>
+          <a:ext cx="8656320" cy="63447993"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2834,12 +2835,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A17:D17"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A32:D32"/>
@@ -2847,6 +2842,12 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3844,12 +3845,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -3857,6 +3852,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4839,12 +4840,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -4852,6 +4847,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5844,12 +5845,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -5857,6 +5852,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C76" xr:uid="{912C664E-C133-1E4F-9640-4A25EB9EF25D}">
@@ -6845,12 +6846,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -6858,6 +6853,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{B20B3CE4-DCB9-4E4A-AC39-D9DA073FCC61}">
@@ -6873,7 +6874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E206143-2F21-5044-9E67-05C5CD7127D9}">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
@@ -7842,12 +7843,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -7855,6 +7850,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8837,12 +8838,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -8850,6 +8845,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9836,12 +9837,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -9849,6 +9844,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C74" xr:uid="{F68D3FFC-EF79-CC40-8F53-8BF21A5E1341}">
@@ -10840,12 +10841,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -10853,6 +10848,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{11A7353F-6A05-F048-B4B5-2330C623E382}">
@@ -11841,6 +11842,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -11848,12 +11855,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{79F4B324-FC19-7044-8ECD-3029BC735257}">
@@ -11870,9 +11871,9 @@
   <dimension ref="A1:CL125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BS1" sqref="BS1"/>
-      <selection pane="bottomLeft" activeCell="A97" sqref="A97"/>
+      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11928,7 +11929,7 @@
     <col min="66" max="66" width="2.6640625" style="4" customWidth="1"/>
     <col min="67" max="67" width="3.1640625" style="4" customWidth="1"/>
     <col min="68" max="68" width="12.33203125" style="4" customWidth="1"/>
-    <col min="69" max="69" width="5.6640625" style="77" customWidth="1"/>
+    <col min="69" max="69" width="5.6640625" style="4" customWidth="1"/>
     <col min="72" max="72" width="11.33203125" style="4" customWidth="1"/>
     <col min="73" max="73" width="3.33203125" style="4" customWidth="1"/>
     <col min="74" max="74" width="3.5" style="4" customWidth="1"/>
@@ -12064,7 +12065,7 @@
       <c r="BN1" s="48"/>
       <c r="BO1" s="48"/>
       <c r="BP1" s="48"/>
-      <c r="BQ1" s="71" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="BS1" s="5" t="s">
@@ -12331,7 +12332,7 @@
         <f>'Keith G'!D52</f>
         <v>Sengal</v>
       </c>
-      <c r="BQ2" s="72">
+      <c r="BQ2" s="3">
         <f>'Keith G'!E52</f>
         <v>0</v>
       </c>
@@ -12354,7 +12355,7 @@
         <f>'Keith G'!D58</f>
         <v>Denmark</v>
       </c>
-      <c r="BX2" s="3">
+      <c r="BX2" s="71">
         <f>'Keith G'!E58</f>
         <v>0</v>
       </c>
@@ -12614,7 +12615,7 @@
         <f>'Keith G'!D53</f>
         <v>Qatar</v>
       </c>
-      <c r="BQ3" s="72">
+      <c r="BQ3" s="3">
         <f>'Keith G'!E53</f>
         <v>2</v>
       </c>
@@ -12635,7 +12636,7 @@
         <f>'Keith G'!D59</f>
         <v>France</v>
       </c>
-      <c r="BX3" s="3">
+      <c r="BX3" s="71">
         <f>'Keith G'!E59</f>
         <v>0</v>
       </c>
@@ -12891,7 +12892,7 @@
         <f>'Keith G'!D54</f>
         <v>England</v>
       </c>
-      <c r="BQ4" s="72">
+      <c r="BQ4" s="3">
         <f>'Keith G'!E54</f>
         <v>1</v>
       </c>
@@ -12912,7 +12913,7 @@
         <f>'Keith G'!D60</f>
         <v>Argentina</v>
       </c>
-      <c r="BX4" s="3">
+      <c r="BX4" s="71">
         <f>'Keith G'!E60</f>
         <v>0</v>
       </c>
@@ -13170,7 +13171,7 @@
         <f>'Keith G'!D55</f>
         <v>United States</v>
       </c>
-      <c r="BQ5" s="72">
+      <c r="BQ5" s="3">
         <f>'Keith G'!E55</f>
         <v>2</v>
       </c>
@@ -13191,7 +13192,7 @@
         <f>'Keith G'!D61</f>
         <v>Mexico</v>
       </c>
-      <c r="BX5" s="3">
+      <c r="BX5" s="71">
         <f>'Keith G'!E61</f>
         <v>0</v>
       </c>
@@ -13463,7 +13464,7 @@
         <f>'Stuart L'!D52</f>
         <v>Sengal</v>
       </c>
-      <c r="BQ6" s="73">
+      <c r="BQ6" s="18">
         <f>'Stuart L'!E52</f>
         <v>0</v>
       </c>
@@ -13486,7 +13487,7 @@
         <f>'Stuart L'!D58</f>
         <v>Denmark</v>
       </c>
-      <c r="BX6" s="18">
+      <c r="BX6" s="72">
         <f>'Stuart L'!E58</f>
         <v>0</v>
       </c>
@@ -13746,7 +13747,7 @@
         <f>'Stuart L'!D53</f>
         <v>Qatar</v>
       </c>
-      <c r="BQ7" s="73">
+      <c r="BQ7" s="18">
         <f>'Stuart L'!E53</f>
         <v>2</v>
       </c>
@@ -13767,7 +13768,7 @@
         <f>'Stuart L'!D59</f>
         <v>France</v>
       </c>
-      <c r="BX7" s="18">
+      <c r="BX7" s="72">
         <f>'Stuart L'!E59</f>
         <v>0</v>
       </c>
@@ -14025,7 +14026,7 @@
         <f>'Stuart L'!D54</f>
         <v>England</v>
       </c>
-      <c r="BQ8" s="73">
+      <c r="BQ8" s="18">
         <f>'Stuart L'!E54</f>
         <v>2</v>
       </c>
@@ -14046,7 +14047,7 @@
         <f>'Stuart L'!D60</f>
         <v>Argentina</v>
       </c>
-      <c r="BX8" s="18">
+      <c r="BX8" s="72">
         <f>'Stuart L'!E60</f>
         <v>0</v>
       </c>
@@ -14302,7 +14303,7 @@
         <f>'Stuart L'!D55</f>
         <v>United States</v>
       </c>
-      <c r="BQ9" s="73">
+      <c r="BQ9" s="18">
         <f>'Stuart L'!E55</f>
         <v>2</v>
       </c>
@@ -14323,7 +14324,7 @@
         <f>'Stuart L'!D61</f>
         <v>Mexico</v>
       </c>
-      <c r="BX9" s="18">
+      <c r="BX9" s="72">
         <f>'Stuart L'!E61</f>
         <v>0</v>
       </c>
@@ -14595,7 +14596,7 @@
         <f>'Barbara L'!D52</f>
         <v>Sengal</v>
       </c>
-      <c r="BQ10" s="73">
+      <c r="BQ10" s="18">
         <f>'Barbara L'!E52</f>
         <v>3</v>
       </c>
@@ -14618,7 +14619,7 @@
         <f>'Barbara L'!D58</f>
         <v>Denmark</v>
       </c>
-      <c r="BX10" s="18">
+      <c r="BX10" s="72">
         <f>'Barbara L'!E58</f>
         <v>0</v>
       </c>
@@ -14880,7 +14881,7 @@
         <f>'Barbara L'!D53</f>
         <v>Qatar</v>
       </c>
-      <c r="BQ11" s="73">
+      <c r="BQ11" s="18">
         <f>'Barbara L'!E53</f>
         <v>2</v>
       </c>
@@ -14901,7 +14902,7 @@
         <f>'Barbara L'!D59</f>
         <v>France</v>
       </c>
-      <c r="BX11" s="18">
+      <c r="BX11" s="72">
         <f>'Barbara L'!E59</f>
         <v>0</v>
       </c>
@@ -15157,7 +15158,7 @@
         <f>'Barbara L'!D54</f>
         <v>England</v>
       </c>
-      <c r="BQ12" s="73">
+      <c r="BQ12" s="18">
         <f>'Barbara L'!E54</f>
         <v>2</v>
       </c>
@@ -15178,7 +15179,7 @@
         <f>'Barbara L'!D60</f>
         <v>Argentina</v>
       </c>
-      <c r="BX12" s="18">
+      <c r="BX12" s="72">
         <f>'Barbara L'!E60</f>
         <v>0</v>
       </c>
@@ -15434,7 +15435,7 @@
         <f>'Barbara L'!D55</f>
         <v>United States</v>
       </c>
-      <c r="BQ13" s="73">
+      <c r="BQ13" s="18">
         <f>'Barbara L'!E55</f>
         <v>2</v>
       </c>
@@ -15455,7 +15456,7 @@
         <f>'Barbara L'!D61</f>
         <v>Mexico</v>
       </c>
-      <c r="BX13" s="18">
+      <c r="BX13" s="72">
         <f>'Barbara L'!E61</f>
         <v>0</v>
       </c>
@@ -15729,7 +15730,7 @@
         <f>'Freddie J'!D52</f>
         <v>Sengal</v>
       </c>
-      <c r="BQ14" s="72">
+      <c r="BQ14" s="3">
         <f>'Freddie J'!E52</f>
         <v>1</v>
       </c>
@@ -15752,7 +15753,7 @@
         <f>'Freddie J'!D58</f>
         <v>Denmark</v>
       </c>
-      <c r="BX14" s="3">
+      <c r="BX14" s="71">
         <f>'Freddie J'!E58</f>
         <v>0</v>
       </c>
@@ -16012,7 +16013,7 @@
         <f>'Freddie J'!D53</f>
         <v>Qatar</v>
       </c>
-      <c r="BQ15" s="72">
+      <c r="BQ15" s="3">
         <f>'Freddie J'!E53</f>
         <v>2</v>
       </c>
@@ -16033,7 +16034,7 @@
         <f>'Freddie J'!D59</f>
         <v>France</v>
       </c>
-      <c r="BX15" s="3">
+      <c r="BX15" s="71">
         <f>'Freddie J'!E59</f>
         <v>0</v>
       </c>
@@ -16289,7 +16290,7 @@
         <f>'Freddie J'!D54</f>
         <v>England</v>
       </c>
-      <c r="BQ16" s="72">
+      <c r="BQ16" s="3">
         <f>'Freddie J'!E54</f>
         <v>0</v>
       </c>
@@ -16310,7 +16311,7 @@
         <f>'Freddie J'!D60</f>
         <v>Argentina</v>
       </c>
-      <c r="BX16" s="3">
+      <c r="BX16" s="71">
         <f>'Freddie J'!E60</f>
         <v>0</v>
       </c>
@@ -16568,7 +16569,7 @@
         <f>'Freddie J'!D55</f>
         <v>United States</v>
       </c>
-      <c r="BQ17" s="72">
+      <c r="BQ17" s="3">
         <f>'Freddie J'!E55</f>
         <v>2</v>
       </c>
@@ -16589,7 +16590,7 @@
         <f>'Freddie J'!D61</f>
         <v>Mexico</v>
       </c>
-      <c r="BX17" s="3">
+      <c r="BX17" s="71">
         <f>'Freddie J'!E61</f>
         <v>0</v>
       </c>
@@ -16861,7 +16862,7 @@
         <f>'Mandy B'!D52</f>
         <v>Senegal</v>
       </c>
-      <c r="BQ18" s="72">
+      <c r="BQ18" s="3">
         <f>'Mandy B'!E52</f>
         <v>3</v>
       </c>
@@ -16884,7 +16885,7 @@
         <f>'Mandy B'!D58</f>
         <v>Denmark</v>
       </c>
-      <c r="BX18" s="3">
+      <c r="BX18" s="71">
         <f>'Mandy B'!E58</f>
         <v>0</v>
       </c>
@@ -17144,7 +17145,7 @@
         <f>'Mandy B'!D53</f>
         <v>Qatar</v>
       </c>
-      <c r="BQ19" s="72">
+      <c r="BQ19" s="3">
         <f>'Mandy B'!E53</f>
         <v>3</v>
       </c>
@@ -17165,7 +17166,7 @@
         <f>'Mandy B'!D59</f>
         <v>France</v>
       </c>
-      <c r="BX19" s="3">
+      <c r="BX19" s="71">
         <f>'Mandy B'!E59</f>
         <v>0</v>
       </c>
@@ -17423,7 +17424,7 @@
         <f>'Mandy B'!D54</f>
         <v>England</v>
       </c>
-      <c r="BQ20" s="72">
+      <c r="BQ20" s="3">
         <f>'Mandy B'!E54</f>
         <v>2</v>
       </c>
@@ -17444,7 +17445,7 @@
         <f>'Mandy B'!D60</f>
         <v>Argentina</v>
       </c>
-      <c r="BX20" s="3">
+      <c r="BX20" s="71">
         <f>'Mandy B'!E60</f>
         <v>0</v>
       </c>
@@ -17700,7 +17701,7 @@
         <f>'Mandy B'!D55</f>
         <v>United States</v>
       </c>
-      <c r="BQ21" s="72">
+      <c r="BQ21" s="3">
         <f>'Mandy B'!E55</f>
         <v>2</v>
       </c>
@@ -17721,7 +17722,7 @@
         <f>'Mandy B'!D61</f>
         <v>Mexico</v>
       </c>
-      <c r="BX21" s="3">
+      <c r="BX21" s="71">
         <f>'Mandy B'!E61</f>
         <v>0</v>
       </c>
@@ -17993,7 +17994,7 @@
         <f>'Gabriel B'!D52</f>
         <v>Sengal</v>
       </c>
-      <c r="BQ22" s="72">
+      <c r="BQ22" s="3">
         <f>'Gabriel B'!E52</f>
         <v>0</v>
       </c>
@@ -18016,7 +18017,7 @@
         <f>'Gabriel B'!D58</f>
         <v>Denmark</v>
       </c>
-      <c r="BX22" s="3">
+      <c r="BX22" s="71">
         <f>'Gabriel B'!E58</f>
         <v>0</v>
       </c>
@@ -18278,7 +18279,7 @@
         <f>'Gabriel B'!D53</f>
         <v>Qatar</v>
       </c>
-      <c r="BQ23" s="72">
+      <c r="BQ23" s="3">
         <f>'Gabriel B'!E53</f>
         <v>2</v>
       </c>
@@ -18299,7 +18300,7 @@
         <f>'Gabriel B'!D59</f>
         <v>France</v>
       </c>
-      <c r="BX23" s="3">
+      <c r="BX23" s="71">
         <f>'Gabriel B'!E59</f>
         <v>0</v>
       </c>
@@ -18555,7 +18556,7 @@
         <f>'Gabriel B'!D54</f>
         <v>England</v>
       </c>
-      <c r="BQ24" s="72">
+      <c r="BQ24" s="3">
         <f>'Gabriel B'!E54</f>
         <v>0</v>
       </c>
@@ -18576,7 +18577,7 @@
         <f>'Gabriel B'!D60</f>
         <v>Argentina</v>
       </c>
-      <c r="BX24" s="3">
+      <c r="BX24" s="71">
         <f>'Gabriel B'!E60</f>
         <v>0</v>
       </c>
@@ -18832,7 +18833,7 @@
         <f>'Gabriel B'!D55</f>
         <v>United States</v>
       </c>
-      <c r="BQ25" s="72">
+      <c r="BQ25" s="3">
         <f>'Gabriel B'!E55</f>
         <v>1</v>
       </c>
@@ -18853,7 +18854,7 @@
         <f>'Gabriel B'!D61</f>
         <v>Mexico</v>
       </c>
-      <c r="BX25" s="3">
+      <c r="BX25" s="71">
         <f>'Gabriel B'!E61</f>
         <v>0</v>
       </c>
@@ -19127,7 +19128,7 @@
         <f>'John B'!D52</f>
         <v>Sengal</v>
       </c>
-      <c r="BQ26" s="72">
+      <c r="BQ26" s="3">
         <f>'John B'!E52</f>
         <v>0</v>
       </c>
@@ -19150,7 +19151,7 @@
         <f>'John B'!D58</f>
         <v>Denmark</v>
       </c>
-      <c r="BX26" s="3">
+      <c r="BX26" s="71">
         <f>'John B'!E58</f>
         <v>0</v>
       </c>
@@ -19410,7 +19411,7 @@
         <f>'John B'!D53</f>
         <v>Qatar</v>
       </c>
-      <c r="BQ27" s="72">
+      <c r="BQ27" s="3">
         <f>'John B'!E53</f>
         <v>2</v>
       </c>
@@ -19431,7 +19432,7 @@
         <f>'John B'!D59</f>
         <v>France</v>
       </c>
-      <c r="BX27" s="3">
+      <c r="BX27" s="71">
         <f>'John B'!E59</f>
         <v>0</v>
       </c>
@@ -19687,7 +19688,7 @@
         <f>'John B'!D54</f>
         <v>England</v>
       </c>
-      <c r="BQ28" s="72">
+      <c r="BQ28" s="3">
         <f>'John B'!E54</f>
         <v>2</v>
       </c>
@@ -19708,7 +19709,7 @@
         <f>'John B'!D60</f>
         <v>Argentina</v>
       </c>
-      <c r="BX28" s="3">
+      <c r="BX28" s="71">
         <f>'John B'!E60</f>
         <v>0</v>
       </c>
@@ -19966,7 +19967,7 @@
         <f>'John B'!D55</f>
         <v>United States</v>
       </c>
-      <c r="BQ29" s="72">
+      <c r="BQ29" s="3">
         <f>'John B'!E55</f>
         <v>2</v>
       </c>
@@ -19987,7 +19988,7 @@
         <f>'John B'!D61</f>
         <v>Mexico</v>
       </c>
-      <c r="BX29" s="3">
+      <c r="BX29" s="71">
         <f>'John B'!E61</f>
         <v>0</v>
       </c>
@@ -20259,7 +20260,7 @@
         <f>'Dawn G'!D52</f>
         <v>Sengal</v>
       </c>
-      <c r="BQ30" s="72">
+      <c r="BQ30" s="3">
         <f>'Dawn G'!E52</f>
         <v>0</v>
       </c>
@@ -20282,7 +20283,7 @@
         <f>'Dawn G'!D58</f>
         <v>Denmark</v>
       </c>
-      <c r="BX30" s="3">
+      <c r="BX30" s="71">
         <f>'Dawn G'!E58</f>
         <v>0</v>
       </c>
@@ -20542,7 +20543,7 @@
         <f>'Dawn G'!D53</f>
         <v>Qatar</v>
       </c>
-      <c r="BQ31" s="72">
+      <c r="BQ31" s="3">
         <f>'Dawn G'!E53</f>
         <v>2</v>
       </c>
@@ -20563,7 +20564,7 @@
         <f>'Dawn G'!D59</f>
         <v>France</v>
       </c>
-      <c r="BX31" s="3">
+      <c r="BX31" s="71">
         <f>'Dawn G'!E59</f>
         <v>0</v>
       </c>
@@ -20821,7 +20822,7 @@
         <f>'Dawn G'!D54</f>
         <v>England</v>
       </c>
-      <c r="BQ32" s="72">
+      <c r="BQ32" s="3">
         <f>'Dawn G'!E54</f>
         <v>1</v>
       </c>
@@ -20842,7 +20843,7 @@
         <f>'Dawn G'!D60</f>
         <v>Argentina</v>
       </c>
-      <c r="BX32" s="3">
+      <c r="BX32" s="71">
         <f>'Dawn G'!E60</f>
         <v>0</v>
       </c>
@@ -21075,7 +21076,7 @@
         <f>'Dawn G'!D55</f>
         <v>United States</v>
       </c>
-      <c r="BQ33" s="72">
+      <c r="BQ33" s="3">
         <f>'Dawn G'!E55</f>
         <v>3</v>
       </c>
@@ -21096,7 +21097,7 @@
         <f>'Dawn G'!D61</f>
         <v>Mexico</v>
       </c>
-      <c r="BX33" s="3">
+      <c r="BX33" s="71">
         <f>'Dawn G'!E61</f>
         <v>0</v>
       </c>
@@ -21345,7 +21346,7 @@
         <f>'Robert L'!D52</f>
         <v>Sengal</v>
       </c>
-      <c r="BQ34" s="72">
+      <c r="BQ34" s="3">
         <f>'Robert L'!E52</f>
         <v>1</v>
       </c>
@@ -21368,7 +21369,7 @@
         <f>'Robert L'!D58</f>
         <v>Denmark</v>
       </c>
-      <c r="BX34" s="3">
+      <c r="BX34" s="71">
         <f>'Robert L'!E58</f>
         <v>0</v>
       </c>
@@ -21607,7 +21608,7 @@
         <f>'Robert L'!D53</f>
         <v>Qatar</v>
       </c>
-      <c r="BQ35" s="72">
+      <c r="BQ35" s="3">
         <f>'Robert L'!E53</f>
         <v>3</v>
       </c>
@@ -21628,7 +21629,7 @@
         <f>'Robert L'!D59</f>
         <v>France</v>
       </c>
-      <c r="BX35" s="3">
+      <c r="BX35" s="71">
         <f>'Robert L'!E59</f>
         <v>0</v>
       </c>
@@ -21861,7 +21862,7 @@
         <f>'Robert L'!D54</f>
         <v>England</v>
       </c>
-      <c r="BQ36" s="72">
+      <c r="BQ36" s="3">
         <f>'Robert L'!E54</f>
         <v>1</v>
       </c>
@@ -21882,7 +21883,7 @@
         <f>'Robert L'!D60</f>
         <v>Argentina</v>
       </c>
-      <c r="BX36" s="3">
+      <c r="BX36" s="71">
         <f>'Robert L'!E60</f>
         <v>0</v>
       </c>
@@ -22115,7 +22116,7 @@
         <f>'Robert L'!D55</f>
         <v>United States</v>
       </c>
-      <c r="BQ37" s="72">
+      <c r="BQ37" s="3">
         <f>'Robert L'!E55</f>
         <v>1</v>
       </c>
@@ -22136,7 +22137,7 @@
         <f>'Robert L'!D61</f>
         <v>Mexico</v>
       </c>
-      <c r="BX37" s="3">
+      <c r="BX37" s="71">
         <f>'Robert L'!E61</f>
         <v>0</v>
       </c>
@@ -22387,7 +22388,7 @@
         <f>'Jacques Chi'!D52</f>
         <v>Sengal</v>
       </c>
-      <c r="BQ38" s="72">
+      <c r="BQ38" s="3">
         <f>'Jacques Chi'!E52</f>
         <v>0</v>
       </c>
@@ -22410,7 +22411,7 @@
         <f>'Jacques Chi'!D58</f>
         <v>Denmark</v>
       </c>
-      <c r="BX38" s="3">
+      <c r="BX38" s="71">
         <f>'Jacques Chi'!E58</f>
         <v>0</v>
       </c>
@@ -22647,7 +22648,7 @@
         <f>'Jacques Chi'!D53</f>
         <v>Qatar</v>
       </c>
-      <c r="BQ39" s="72">
+      <c r="BQ39" s="3">
         <f>'Jacques Chi'!E53</f>
         <v>3</v>
       </c>
@@ -22668,7 +22669,7 @@
         <f>'Jacques Chi'!D59</f>
         <v>France</v>
       </c>
-      <c r="BX39" s="3">
+      <c r="BX39" s="71">
         <f>'Jacques Chi'!E59</f>
         <v>0</v>
       </c>
@@ -22901,7 +22902,7 @@
         <f>'Jacques Chi'!D54</f>
         <v>England</v>
       </c>
-      <c r="BQ40" s="72">
+      <c r="BQ40" s="3">
         <f>'Jacques Chi'!E54</f>
         <v>0</v>
       </c>
@@ -22922,7 +22923,7 @@
         <f>'Jacques Chi'!D60</f>
         <v>Argentina</v>
       </c>
-      <c r="BX40" s="3">
+      <c r="BX40" s="71">
         <f>'Jacques Chi'!E60</f>
         <v>0</v>
       </c>
@@ -23157,7 +23158,7 @@
         <f>'Jacques Chi'!D55</f>
         <v>United States</v>
       </c>
-      <c r="BQ41" s="72">
+      <c r="BQ41" s="3">
         <f>'Jacques Chi'!E55</f>
         <v>2</v>
       </c>
@@ -23178,7 +23179,7 @@
         <f>'Jacques Chi'!D61</f>
         <v>Mexico</v>
       </c>
-      <c r="BX41" s="3">
+      <c r="BX41" s="71">
         <f>'Jacques Chi'!E61</f>
         <v>0</v>
       </c>
@@ -23427,7 +23428,7 @@
         <f>'Dave B'!D52</f>
         <v>Sengal</v>
       </c>
-      <c r="BQ42" s="72">
+      <c r="BQ42" s="3">
         <f>'Dave B'!E52</f>
         <v>3</v>
       </c>
@@ -23450,7 +23451,7 @@
         <f>'Dave B'!D58</f>
         <v>Denmark</v>
       </c>
-      <c r="BX42" s="3">
+      <c r="BX42" s="71">
         <f>'Dave B'!E58</f>
         <v>0</v>
       </c>
@@ -23687,7 +23688,7 @@
         <f>'Dave B'!D53</f>
         <v>Qatar</v>
       </c>
-      <c r="BQ43" s="72">
+      <c r="BQ43" s="3">
         <f>'Dave B'!E53</f>
         <v>3</v>
       </c>
@@ -23708,7 +23709,7 @@
         <f>'Dave B'!D59</f>
         <v>France</v>
       </c>
-      <c r="BX43" s="3">
+      <c r="BX43" s="71">
         <f>'Dave B'!E59</f>
         <v>0</v>
       </c>
@@ -23943,7 +23944,7 @@
         <f>'Dave B'!D54</f>
         <v>England</v>
       </c>
-      <c r="BQ44" s="72">
+      <c r="BQ44" s="3">
         <f>'Dave B'!E54</f>
         <v>1</v>
       </c>
@@ -23964,7 +23965,7 @@
         <f>'Dave B'!D60</f>
         <v>Argentina</v>
       </c>
-      <c r="BX44" s="3">
+      <c r="BX44" s="71">
         <f>'Dave B'!E60</f>
         <v>0</v>
       </c>
@@ -24197,7 +24198,7 @@
         <f>'Dave B'!D55</f>
         <v>United States</v>
       </c>
-      <c r="BQ45" s="72">
+      <c r="BQ45" s="3">
         <f>'Dave B'!E55</f>
         <v>3</v>
       </c>
@@ -24218,7 +24219,7 @@
         <f>'Dave B'!D61</f>
         <v>Mexico</v>
       </c>
-      <c r="BX45" s="3">
+      <c r="BX45" s="71">
         <f>'Dave B'!E61</f>
         <v>0</v>
       </c>
@@ -24467,7 +24468,7 @@
         <f>'Annaka G-S'!D52</f>
         <v>Sengal</v>
       </c>
-      <c r="BQ46" s="72">
+      <c r="BQ46" s="3">
         <f>'Annaka G-S'!E52</f>
         <v>0</v>
       </c>
@@ -24490,7 +24491,7 @@
         <f>'Annaka G-S'!D58</f>
         <v>Denmark</v>
       </c>
-      <c r="BX46" s="3">
+      <c r="BX46" s="71">
         <f>'Annaka G-S'!E58</f>
         <v>0</v>
       </c>
@@ -24729,7 +24730,7 @@
         <f>'Annaka G-S'!D53</f>
         <v>Qatar</v>
       </c>
-      <c r="BQ47" s="72">
+      <c r="BQ47" s="3">
         <f>'Annaka G-S'!E53</f>
         <v>0</v>
       </c>
@@ -24750,7 +24751,7 @@
         <f>'Annaka G-S'!D59</f>
         <v>France</v>
       </c>
-      <c r="BX47" s="3">
+      <c r="BX47" s="71">
         <f>'Annaka G-S'!E59</f>
         <v>0</v>
       </c>
@@ -24983,7 +24984,7 @@
         <f>'Annaka G-S'!D54</f>
         <v>England</v>
       </c>
-      <c r="BQ48" s="72">
+      <c r="BQ48" s="3">
         <f>'Annaka G-S'!E54</f>
         <v>1</v>
       </c>
@@ -25004,7 +25005,7 @@
         <f>'Annaka G-S'!D60</f>
         <v>Argentina</v>
       </c>
-      <c r="BX48" s="3">
+      <c r="BX48" s="71">
         <f>'Annaka G-S'!E60</f>
         <v>0</v>
       </c>
@@ -25237,7 +25238,7 @@
         <f>'Annaka G-S'!D55</f>
         <v>United States</v>
       </c>
-      <c r="BQ49" s="72">
+      <c r="BQ49" s="3">
         <f>'Annaka G-S'!E55</f>
         <v>0</v>
       </c>
@@ -25258,7 +25259,7 @@
         <f>'Annaka G-S'!D61</f>
         <v>Mexico</v>
       </c>
-      <c r="BX49" s="3">
+      <c r="BX49" s="71">
         <f>'Annaka G-S'!E61</f>
         <v>0</v>
       </c>
@@ -25509,7 +25510,7 @@
         <f>Claire!D52</f>
         <v>Sengal</v>
       </c>
-      <c r="BQ50" s="72">
+      <c r="BQ50" s="3">
         <f>Claire!E52</f>
         <v>0</v>
       </c>
@@ -25532,7 +25533,7 @@
         <f>Claire!D58</f>
         <v>Denmark</v>
       </c>
-      <c r="BX50" s="3">
+      <c r="BX50" s="71">
         <f>Claire!E58</f>
         <v>0</v>
       </c>
@@ -25769,7 +25770,7 @@
         <f>Claire!D53</f>
         <v>Qatar</v>
       </c>
-      <c r="BQ51" s="72">
+      <c r="BQ51" s="3">
         <f>Claire!E53</f>
         <v>3</v>
       </c>
@@ -25790,7 +25791,7 @@
         <f>Claire!D59</f>
         <v>France</v>
       </c>
-      <c r="BX51" s="3">
+      <c r="BX51" s="71">
         <f>Claire!E59</f>
         <v>0</v>
       </c>
@@ -26023,7 +26024,7 @@
         <f>Claire!D54</f>
         <v>England</v>
       </c>
-      <c r="BQ52" s="72">
+      <c r="BQ52" s="3">
         <f>Claire!E54</f>
         <v>2</v>
       </c>
@@ -26044,7 +26045,7 @@
         <f>Claire!D60</f>
         <v>Argentina</v>
       </c>
-      <c r="BX52" s="3">
+      <c r="BX52" s="71">
         <f>Claire!E60</f>
         <v>0</v>
       </c>
@@ -26279,7 +26280,7 @@
         <f>Claire!D55</f>
         <v>United States</v>
       </c>
-      <c r="BQ53" s="72">
+      <c r="BQ53" s="3">
         <f>Claire!E55</f>
         <v>0</v>
       </c>
@@ -26300,7 +26301,7 @@
         <f>Claire!D61</f>
         <v>Mexico</v>
       </c>
-      <c r="BX53" s="3">
+      <c r="BX53" s="71">
         <f>Claire!E61</f>
         <v>0</v>
       </c>
@@ -26549,7 +26550,7 @@
         <f>Hino!D52</f>
         <v>Sengal</v>
       </c>
-      <c r="BQ54" s="72">
+      <c r="BQ54" s="3">
         <f>Hino!E52</f>
         <v>0</v>
       </c>
@@ -26572,7 +26573,7 @@
         <f>Hino!D58</f>
         <v>Denmark</v>
       </c>
-      <c r="BX54" s="3">
+      <c r="BX54" s="71">
         <f>Hino!E58</f>
         <v>0</v>
       </c>
@@ -26809,7 +26810,7 @@
         <f>Hino!D53</f>
         <v>Qatar</v>
       </c>
-      <c r="BQ55" s="72">
+      <c r="BQ55" s="3">
         <f>Hino!E53</f>
         <v>3</v>
       </c>
@@ -26830,7 +26831,7 @@
         <f>Hino!D59</f>
         <v>France</v>
       </c>
-      <c r="BX55" s="3">
+      <c r="BX55" s="71">
         <f>Hino!E59</f>
         <v>0</v>
       </c>
@@ -27065,7 +27066,7 @@
         <f>Hino!D54</f>
         <v>England</v>
       </c>
-      <c r="BQ56" s="72">
+      <c r="BQ56" s="3">
         <f>Hino!E54</f>
         <v>2</v>
       </c>
@@ -27086,7 +27087,7 @@
         <f>Hino!D60</f>
         <v>Argentina</v>
       </c>
-      <c r="BX56" s="3">
+      <c r="BX56" s="71">
         <f>Hino!E60</f>
         <v>0</v>
       </c>
@@ -27319,7 +27320,7 @@
         <f>Hino!D55</f>
         <v>United States</v>
       </c>
-      <c r="BQ57" s="72">
+      <c r="BQ57" s="3">
         <f>Hino!E55</f>
         <v>2</v>
       </c>
@@ -27340,7 +27341,7 @@
         <f>Hino!D61</f>
         <v>Mexico</v>
       </c>
-      <c r="BX57" s="3">
+      <c r="BX57" s="71">
         <f>Hino!E61</f>
         <v>0</v>
       </c>
@@ -27589,7 +27590,7 @@
         <f>'Cathy G'!D52</f>
         <v>Sengal</v>
       </c>
-      <c r="BQ58" s="72">
+      <c r="BQ58" s="3">
         <f>'Cathy G'!E52</f>
         <v>0</v>
       </c>
@@ -27612,7 +27613,7 @@
         <f>'Cathy G'!D58</f>
         <v>Denmark</v>
       </c>
-      <c r="BX58" s="3">
+      <c r="BX58" s="71">
         <f>'Cathy G'!E58</f>
         <v>0</v>
       </c>
@@ -27851,7 +27852,7 @@
         <f>'Cathy G'!D53</f>
         <v>Qatar</v>
       </c>
-      <c r="BQ59" s="72">
+      <c r="BQ59" s="3">
         <f>'Cathy G'!E53</f>
         <v>3</v>
       </c>
@@ -27872,7 +27873,7 @@
         <f>'Cathy G'!D59</f>
         <v>France</v>
       </c>
-      <c r="BX59" s="3">
+      <c r="BX59" s="71">
         <f>'Cathy G'!E59</f>
         <v>0</v>
       </c>
@@ -28105,7 +28106,7 @@
         <f>'Cathy G'!D54</f>
         <v>England</v>
       </c>
-      <c r="BQ60" s="72">
+      <c r="BQ60" s="3">
         <f>'Cathy G'!E54</f>
         <v>2</v>
       </c>
@@ -28126,7 +28127,7 @@
         <f>'Cathy G'!D60</f>
         <v>Argentina</v>
       </c>
-      <c r="BX60" s="3">
+      <c r="BX60" s="71">
         <f>'Cathy G'!E60</f>
         <v>0</v>
       </c>
@@ -28359,7 +28360,7 @@
         <f>'Cathy G'!D55</f>
         <v>United States</v>
       </c>
-      <c r="BQ61" s="72">
+      <c r="BQ61" s="3">
         <f>'Cathy G'!E55</f>
         <v>2</v>
       </c>
@@ -28380,7 +28381,7 @@
         <f>'Cathy G'!D61</f>
         <v>Mexico</v>
       </c>
-      <c r="BX61" s="3">
+      <c r="BX61" s="71">
         <f>'Cathy G'!E61</f>
         <v>0</v>
       </c>
@@ -28631,7 +28632,7 @@
         <f>'Arthur T'!D52</f>
         <v>Sengal</v>
       </c>
-      <c r="BQ62" s="72">
+      <c r="BQ62" s="3">
         <f>'Arthur T'!E52</f>
         <v>0</v>
       </c>
@@ -28654,7 +28655,7 @@
         <f>'Arthur T'!D58</f>
         <v>Denmark</v>
       </c>
-      <c r="BX62" s="3">
+      <c r="BX62" s="71">
         <f>'Arthur T'!E58</f>
         <v>0</v>
       </c>
@@ -28891,7 +28892,7 @@
         <f>'Arthur T'!D53</f>
         <v>Qatar</v>
       </c>
-      <c r="BQ63" s="72">
+      <c r="BQ63" s="3">
         <f>'Arthur T'!E53</f>
         <v>3</v>
       </c>
@@ -28912,7 +28913,7 @@
         <f>'Arthur T'!D59</f>
         <v>France</v>
       </c>
-      <c r="BX63" s="3">
+      <c r="BX63" s="71">
         <f>'Arthur T'!E59</f>
         <v>0</v>
       </c>
@@ -29145,7 +29146,7 @@
         <f>'Arthur T'!D54</f>
         <v>England</v>
       </c>
-      <c r="BQ64" s="72">
+      <c r="BQ64" s="3">
         <f>'Arthur T'!E54</f>
         <v>1</v>
       </c>
@@ -29166,7 +29167,7 @@
         <f>'Arthur T'!D60</f>
         <v>Argentina</v>
       </c>
-      <c r="BX64" s="3">
+      <c r="BX64" s="71">
         <f>'Arthur T'!E60</f>
         <v>0</v>
       </c>
@@ -29401,7 +29402,7 @@
         <f>'Arthur T'!D55</f>
         <v>United States</v>
       </c>
-      <c r="BQ65" s="72">
+      <c r="BQ65" s="3">
         <f>'Arthur T'!E55</f>
         <v>0</v>
       </c>
@@ -29422,7 +29423,7 @@
         <f>'Arthur T'!D61</f>
         <v>Mexico</v>
       </c>
-      <c r="BX65" s="3">
+      <c r="BX65" s="71">
         <f>'Arthur T'!E61</f>
         <v>0</v>
       </c>
@@ -29671,7 +29672,7 @@
         <f>'Andy B'!D52</f>
         <v>Sengal</v>
       </c>
-      <c r="BQ66" s="72">
+      <c r="BQ66" s="3">
         <f>'Andy B'!E52</f>
         <v>0</v>
       </c>
@@ -29694,7 +29695,7 @@
         <f>'Andy B'!D58</f>
         <v>Denmark</v>
       </c>
-      <c r="BX66" s="3">
+      <c r="BX66" s="71">
         <f>'Andy B'!E58</f>
         <v>0</v>
       </c>
@@ -29931,7 +29932,7 @@
         <f>'Andy B'!D53</f>
         <v>Qatar</v>
       </c>
-      <c r="BQ67" s="72">
+      <c r="BQ67" s="3">
         <f>'Andy B'!E53</f>
         <v>2</v>
       </c>
@@ -29952,7 +29953,7 @@
         <f>'Andy B'!D59</f>
         <v>France</v>
       </c>
-      <c r="BX67" s="3">
+      <c r="BX67" s="71">
         <f>'Andy B'!E59</f>
         <v>0</v>
       </c>
@@ -30187,7 +30188,7 @@
         <f>'Andy B'!D54</f>
         <v>England</v>
       </c>
-      <c r="BQ68" s="72">
+      <c r="BQ68" s="3">
         <f>'Andy B'!E54</f>
         <v>1</v>
       </c>
@@ -30208,7 +30209,7 @@
         <f>'Andy B'!D60</f>
         <v>Argentina</v>
       </c>
-      <c r="BX68" s="3">
+      <c r="BX68" s="71">
         <f>'Andy B'!E60</f>
         <v>0</v>
       </c>
@@ -30441,7 +30442,7 @@
         <f>'Andy B'!D55</f>
         <v>United States</v>
       </c>
-      <c r="BQ69" s="72">
+      <c r="BQ69" s="3">
         <f>'Andy B'!E55</f>
         <v>1</v>
       </c>
@@ -30462,7 +30463,7 @@
         <f>'Andy B'!D61</f>
         <v>Mexico</v>
       </c>
-      <c r="BX69" s="3">
+      <c r="BX69" s="71">
         <f>'Andy B'!E61</f>
         <v>0</v>
       </c>
@@ -30711,7 +30712,7 @@
         <f>'Alison S'!D52</f>
         <v>Sengal</v>
       </c>
-      <c r="BQ70" s="74">
+      <c r="BQ70" s="34">
         <f>'Alison S'!E52</f>
         <v>0</v>
       </c>
@@ -30734,7 +30735,7 @@
         <f>'Alison S'!D58</f>
         <v>Denmark</v>
       </c>
-      <c r="BX70" s="34">
+      <c r="BX70" s="73">
         <f>'Alison S'!E58</f>
         <v>0</v>
       </c>
@@ -30973,7 +30974,7 @@
         <f>'Alison S'!D53</f>
         <v>Qatar</v>
       </c>
-      <c r="BQ71" s="74">
+      <c r="BQ71" s="34">
         <f>'Alison S'!E53</f>
         <v>3</v>
       </c>
@@ -30994,7 +30995,7 @@
         <f>'Alison S'!D59</f>
         <v>France</v>
       </c>
-      <c r="BX71" s="34">
+      <c r="BX71" s="73">
         <f>'Alison S'!E59</f>
         <v>0</v>
       </c>
@@ -31227,7 +31228,7 @@
         <f>'Alison S'!D54</f>
         <v>England</v>
       </c>
-      <c r="BQ72" s="74">
+      <c r="BQ72" s="34">
         <f>'Alison S'!E54</f>
         <v>2</v>
       </c>
@@ -31248,7 +31249,7 @@
         <f>'Alison S'!D60</f>
         <v>Argentina</v>
       </c>
-      <c r="BX72" s="34">
+      <c r="BX72" s="73">
         <f>'Alison S'!E60</f>
         <v>0</v>
       </c>
@@ -31481,7 +31482,7 @@
         <f>'Alison S'!D55</f>
         <v>United States</v>
       </c>
-      <c r="BQ73" s="74">
+      <c r="BQ73" s="34">
         <f>'Alison S'!E55</f>
         <v>3</v>
       </c>
@@ -31502,7 +31503,7 @@
         <f>'Alison S'!D61</f>
         <v>Mexico</v>
       </c>
-      <c r="BX73" s="34">
+      <c r="BX73" s="73">
         <f>'Alison S'!E61</f>
         <v>0</v>
       </c>
@@ -31753,7 +31754,7 @@
         <f>'Evan A'!D52</f>
         <v>Senegal</v>
       </c>
-      <c r="BQ74" s="74">
+      <c r="BQ74" s="34">
         <f>'Evan A'!E52</f>
         <v>0</v>
       </c>
@@ -31776,7 +31777,7 @@
         <f>'Evan A'!D58</f>
         <v>Denmark</v>
       </c>
-      <c r="BX74" s="34">
+      <c r="BX74" s="73">
         <f>'Evan A'!E58</f>
         <v>0</v>
       </c>
@@ -32013,7 +32014,7 @@
         <f>'Evan A'!D53</f>
         <v>Qatar</v>
       </c>
-      <c r="BQ75" s="74">
+      <c r="BQ75" s="34">
         <f>'Evan A'!E53</f>
         <v>3</v>
       </c>
@@ -32034,7 +32035,7 @@
         <f>'Evan A'!D59</f>
         <v>France</v>
       </c>
-      <c r="BX75" s="34">
+      <c r="BX75" s="73">
         <f>'Evan A'!E59</f>
         <v>0</v>
       </c>
@@ -32267,7 +32268,7 @@
         <f>'Evan A'!D54</f>
         <v>England</v>
       </c>
-      <c r="BQ76" s="74">
+      <c r="BQ76" s="34">
         <f>'Evan A'!E54</f>
         <v>2</v>
       </c>
@@ -32288,7 +32289,7 @@
         <f>'Evan A'!D60</f>
         <v>Argentina</v>
       </c>
-      <c r="BX76" s="34">
+      <c r="BX76" s="73">
         <f>'Evan A'!E60</f>
         <v>0</v>
       </c>
@@ -32523,7 +32524,7 @@
         <f>'Evan A'!D55</f>
         <v>United States</v>
       </c>
-      <c r="BQ77" s="74">
+      <c r="BQ77" s="34">
         <f>'Evan A'!E55</f>
         <v>1</v>
       </c>
@@ -32544,7 +32545,7 @@
         <f>'Evan A'!D61</f>
         <v>Mexico</v>
       </c>
-      <c r="BX77" s="34">
+      <c r="BX77" s="73">
         <f>'Evan A'!E61</f>
         <v>0</v>
       </c>
@@ -32793,7 +32794,7 @@
         <f>'Rob TH'!D52</f>
         <v>Sengal</v>
       </c>
-      <c r="BQ78" s="74">
+      <c r="BQ78" s="34">
         <f>'Rob TH'!E52</f>
         <v>3</v>
       </c>
@@ -32816,7 +32817,7 @@
         <f>'Rob TH'!D58</f>
         <v>Denmark</v>
       </c>
-      <c r="BX78" s="34">
+      <c r="BX78" s="73">
         <f>'Rob TH'!E58</f>
         <v>0</v>
       </c>
@@ -33053,7 +33054,7 @@
         <f>'Rob TH'!D53</f>
         <v>Qatar</v>
       </c>
-      <c r="BQ79" s="74">
+      <c r="BQ79" s="34">
         <f>'Rob TH'!E53</f>
         <v>2</v>
       </c>
@@ -33074,7 +33075,7 @@
         <f>'Rob TH'!D59</f>
         <v>France</v>
       </c>
-      <c r="BX79" s="34">
+      <c r="BX79" s="73">
         <f>'Rob TH'!E59</f>
         <v>0</v>
       </c>
@@ -33309,7 +33310,7 @@
         <f>'Rob TH'!D54</f>
         <v>England</v>
       </c>
-      <c r="BQ80" s="74">
+      <c r="BQ80" s="34">
         <f>'Rob TH'!E54</f>
         <v>2</v>
       </c>
@@ -33330,7 +33331,7 @@
         <f>'Rob TH'!D60</f>
         <v>Argentina</v>
       </c>
-      <c r="BX80" s="34">
+      <c r="BX80" s="73">
         <f>'Rob TH'!E60</f>
         <v>0</v>
       </c>
@@ -33563,7 +33564,7 @@
         <f>'Rob TH'!D55</f>
         <v>United States</v>
       </c>
-      <c r="BQ81" s="74">
+      <c r="BQ81" s="34">
         <f>'Rob TH'!E55</f>
         <v>2</v>
       </c>
@@ -33584,7 +33585,7 @@
         <f>'Rob TH'!D61</f>
         <v>Mexico</v>
       </c>
-      <c r="BX81" s="34">
+      <c r="BX81" s="73">
         <f>'Rob TH'!E61</f>
         <v>0</v>
       </c>
@@ -33833,7 +33834,7 @@
         <f>'Alice D'!D52</f>
         <v>Sengal</v>
       </c>
-      <c r="BQ82" s="74">
+      <c r="BQ82" s="34">
         <f>'Alice D'!E52</f>
         <v>0</v>
       </c>
@@ -33856,7 +33857,7 @@
         <f>'Alice D'!D58</f>
         <v>Denmark</v>
       </c>
-      <c r="BX82" s="34">
+      <c r="BX82" s="73">
         <f>'Alice D'!E58</f>
         <v>0</v>
       </c>
@@ -34095,7 +34096,7 @@
         <f>'Alice D'!D53</f>
         <v>Qatar</v>
       </c>
-      <c r="BQ83" s="74">
+      <c r="BQ83" s="34">
         <f>'Alice D'!E53</f>
         <v>3</v>
       </c>
@@ -34116,7 +34117,7 @@
         <f>'Alice D'!D59</f>
         <v>France</v>
       </c>
-      <c r="BX83" s="34">
+      <c r="BX83" s="73">
         <f>'Alice D'!E59</f>
         <v>0</v>
       </c>
@@ -34349,7 +34350,7 @@
         <f>'Alice D'!D54</f>
         <v>England</v>
       </c>
-      <c r="BQ84" s="74">
+      <c r="BQ84" s="34">
         <f>'Alice D'!E54</f>
         <v>2</v>
       </c>
@@ -34370,7 +34371,7 @@
         <f>'Alice D'!D60</f>
         <v>Argentina</v>
       </c>
-      <c r="BX84" s="34">
+      <c r="BX84" s="73">
         <f>'Alice D'!E60</f>
         <v>0</v>
       </c>
@@ -34603,7 +34604,7 @@
         <f>'Alice D'!D55</f>
         <v>United States</v>
       </c>
-      <c r="BQ85" s="74">
+      <c r="BQ85" s="34">
         <f>'Alice D'!E55</f>
         <v>0</v>
       </c>
@@ -34624,7 +34625,7 @@
         <f>'Alice D'!D61</f>
         <v>Mexico</v>
       </c>
-      <c r="BX85" s="34">
+      <c r="BX85" s="73">
         <f>'Alice D'!E61</f>
         <v>0</v>
       </c>
@@ -34875,7 +34876,7 @@
         <f>'Liz W'!D52</f>
         <v>Sengal</v>
       </c>
-      <c r="BQ86" s="74">
+      <c r="BQ86" s="34">
         <f>'Liz W'!E52</f>
         <v>0</v>
       </c>
@@ -34898,7 +34899,7 @@
         <f>'Liz W'!D58</f>
         <v>Denmark</v>
       </c>
-      <c r="BX86" s="34">
+      <c r="BX86" s="73">
         <f>'Liz W'!E58</f>
         <v>0</v>
       </c>
@@ -35135,7 +35136,7 @@
         <f>'Liz W'!D53</f>
         <v>Qatar</v>
       </c>
-      <c r="BQ87" s="74">
+      <c r="BQ87" s="34">
         <f>'Liz W'!E53</f>
         <v>3</v>
       </c>
@@ -35156,7 +35157,7 @@
         <f>'Liz W'!D59</f>
         <v>France</v>
       </c>
-      <c r="BX87" s="34">
+      <c r="BX87" s="73">
         <f>'Liz W'!E59</f>
         <v>0</v>
       </c>
@@ -35389,7 +35390,7 @@
         <f>'Liz W'!D54</f>
         <v>England</v>
       </c>
-      <c r="BQ88" s="74">
+      <c r="BQ88" s="34">
         <f>'Liz W'!E54</f>
         <v>1</v>
       </c>
@@ -35410,7 +35411,7 @@
         <f>'Liz W'!D60</f>
         <v>Argentina</v>
       </c>
-      <c r="BX88" s="34">
+      <c r="BX88" s="73">
         <f>'Liz W'!E60</f>
         <v>0</v>
       </c>
@@ -35645,7 +35646,7 @@
         <f>'Liz W'!D55</f>
         <v>United States</v>
       </c>
-      <c r="BQ89" s="74">
+      <c r="BQ89" s="34">
         <f>'Liz W'!E55</f>
         <v>2</v>
       </c>
@@ -35666,7 +35667,7 @@
         <f>'Liz W'!D61</f>
         <v>Mexico</v>
       </c>
-      <c r="BX89" s="34">
+      <c r="BX89" s="73">
         <f>'Liz W'!E61</f>
         <v>0</v>
       </c>
@@ -35915,7 +35916,7 @@
         <f>'Keith W'!D52</f>
         <v>Sengal</v>
       </c>
-      <c r="BQ90" s="74">
+      <c r="BQ90" s="34">
         <f>'Keith W'!E52</f>
         <v>3</v>
       </c>
@@ -35938,7 +35939,7 @@
         <f>'Keith W'!D58</f>
         <v>Denmark</v>
       </c>
-      <c r="BX90" s="34">
+      <c r="BX90" s="73">
         <f>'Keith W'!E58</f>
         <v>0</v>
       </c>
@@ -36175,7 +36176,7 @@
         <f>'Keith W'!D53</f>
         <v>Qatar</v>
       </c>
-      <c r="BQ91" s="74">
+      <c r="BQ91" s="34">
         <f>'Keith W'!E53</f>
         <v>2</v>
       </c>
@@ -36196,7 +36197,7 @@
         <f>'Keith W'!D59</f>
         <v>France</v>
       </c>
-      <c r="BX91" s="34">
+      <c r="BX91" s="73">
         <f>'Keith W'!E59</f>
         <v>0</v>
       </c>
@@ -36431,7 +36432,7 @@
         <f>'Keith W'!D54</f>
         <v>England</v>
       </c>
-      <c r="BQ92" s="74">
+      <c r="BQ92" s="34">
         <f>'Keith W'!E54</f>
         <v>2</v>
       </c>
@@ -36452,7 +36453,7 @@
         <f>'Keith W'!D60</f>
         <v>Argentina</v>
       </c>
-      <c r="BX92" s="34">
+      <c r="BX92" s="73">
         <f>'Keith W'!E60</f>
         <v>0</v>
       </c>
@@ -36685,7 +36686,7 @@
         <f>'Keith W'!D55</f>
         <v>United States</v>
       </c>
-      <c r="BQ93" s="74">
+      <c r="BQ93" s="34">
         <f>'Keith W'!E55</f>
         <v>2</v>
       </c>
@@ -36706,7 +36707,7 @@
         <f>'Keith W'!D61</f>
         <v>Mexico</v>
       </c>
-      <c r="BX93" s="34">
+      <c r="BX93" s="73">
         <f>'Keith W'!E61</f>
         <v>0</v>
       </c>
@@ -36955,7 +36956,7 @@
         <f>'Marjorie L'!D52</f>
         <v>Sengal</v>
       </c>
-      <c r="BQ94" s="75">
+      <c r="BQ94" s="36">
         <f>'Marjorie L'!E52</f>
         <v>0</v>
       </c>
@@ -36978,7 +36979,7 @@
         <f>'Marjorie L'!D58</f>
         <v>Denmark</v>
       </c>
-      <c r="BX94" s="36">
+      <c r="BX94" s="74">
         <f>'Marjorie L'!E58</f>
         <v>0</v>
       </c>
@@ -37194,7 +37195,7 @@
         <f>'Marjorie L'!D53</f>
         <v>Qatar</v>
       </c>
-      <c r="BQ95" s="75">
+      <c r="BQ95" s="36">
         <f>'Marjorie L'!E53</f>
         <v>2</v>
       </c>
@@ -37215,7 +37216,7 @@
         <f>'Marjorie L'!D59</f>
         <v>France</v>
       </c>
-      <c r="BX95" s="36">
+      <c r="BX95" s="74">
         <f>'Marjorie L'!E59</f>
         <v>0</v>
       </c>
@@ -37427,7 +37428,7 @@
         <f>'Marjorie L'!D54</f>
         <v>England</v>
       </c>
-      <c r="BQ96" s="75">
+      <c r="BQ96" s="36">
         <f>'Marjorie L'!E54</f>
         <v>1</v>
       </c>
@@ -37448,7 +37449,7 @@
         <f>'Marjorie L'!D60</f>
         <v>Argentina</v>
       </c>
-      <c r="BX96" s="36">
+      <c r="BX96" s="74">
         <f>'Marjorie L'!E60</f>
         <v>0</v>
       </c>
@@ -37660,7 +37661,7 @@
         <f>'Marjorie L'!D55</f>
         <v>United States</v>
       </c>
-      <c r="BQ97" s="75">
+      <c r="BQ97" s="36">
         <f>'Marjorie L'!E55</f>
         <v>0</v>
       </c>
@@ -37681,7 +37682,7 @@
         <f>'Marjorie L'!D61</f>
         <v>Mexico</v>
       </c>
-      <c r="BX97" s="36">
+      <c r="BX97" s="74">
         <f>'Marjorie L'!E61</f>
         <v>0</v>
       </c>
@@ -37909,7 +37910,7 @@
         <f>'Martin L'!D52</f>
         <v>Sengal</v>
       </c>
-      <c r="BQ98" s="75">
+      <c r="BQ98" s="36">
         <f>'Martin L'!E52</f>
         <v>0</v>
       </c>
@@ -37932,7 +37933,7 @@
         <f>'Martin L'!D58</f>
         <v>Denmark</v>
       </c>
-      <c r="BX98" s="36">
+      <c r="BX98" s="74">
         <f>'Martin L'!E58</f>
         <v>0</v>
       </c>
@@ -38148,7 +38149,7 @@
         <f>'Martin L'!D53</f>
         <v>Qatar</v>
       </c>
-      <c r="BQ99" s="75">
+      <c r="BQ99" s="36">
         <f>'Martin L'!E53</f>
         <v>1</v>
       </c>
@@ -38169,7 +38170,7 @@
         <f>'Martin L'!D59</f>
         <v>France</v>
       </c>
-      <c r="BX99" s="36">
+      <c r="BX99" s="74">
         <f>'Martin L'!E59</f>
         <v>0</v>
       </c>
@@ -38381,7 +38382,7 @@
         <f>'Martin L'!D54</f>
         <v>England</v>
       </c>
-      <c r="BQ100" s="75">
+      <c r="BQ100" s="36">
         <f>'Martin L'!E54</f>
         <v>2</v>
       </c>
@@ -38402,7 +38403,7 @@
         <f>'Martin L'!D60</f>
         <v>Argentina</v>
       </c>
-      <c r="BX100" s="36">
+      <c r="BX100" s="74">
         <f>'Martin L'!E60</f>
         <v>0</v>
       </c>
@@ -38614,7 +38615,7 @@
         <f>'Martin L'!D55</f>
         <v>United States</v>
       </c>
-      <c r="BQ101" s="75">
+      <c r="BQ101" s="36">
         <f>'Martin L'!E55</f>
         <v>1</v>
       </c>
@@ -38635,7 +38636,7 @@
         <f>'Martin L'!D61</f>
         <v>Mexico</v>
       </c>
-      <c r="BX101" s="36">
+      <c r="BX101" s="74">
         <f>'Martin L'!E61</f>
         <v>0</v>
       </c>
@@ -38863,7 +38864,7 @@
         <f>'Nathan W'!D43</f>
         <v>Sengal</v>
       </c>
-      <c r="BQ102" s="74">
+      <c r="BQ102" s="34">
         <f>'Nathan W'!E43</f>
         <v>3</v>
       </c>
@@ -38886,7 +38887,7 @@
         <f>'Nathan W'!D48</f>
         <v>Denmark</v>
       </c>
-      <c r="BX102" s="34">
+      <c r="BX102" s="73">
         <f>'Nathan W'!E48</f>
         <v>0</v>
       </c>
@@ -39102,7 +39103,7 @@
         <f>'Nathan W'!D44</f>
         <v>Qatar</v>
       </c>
-      <c r="BQ103" s="74">
+      <c r="BQ103" s="34">
         <f>'Nathan W'!E44</f>
         <v>1</v>
       </c>
@@ -39123,7 +39124,7 @@
         <f>'Nathan W'!D49</f>
         <v>France</v>
       </c>
-      <c r="BX103" s="34">
+      <c r="BX103" s="73">
         <f>'Nathan W'!E49</f>
         <v>0</v>
       </c>
@@ -39335,7 +39336,7 @@
         <f>'Nathan W'!D45</f>
         <v>England</v>
       </c>
-      <c r="BQ104" s="74">
+      <c r="BQ104" s="34">
         <f>'Nathan W'!E45</f>
         <v>1</v>
       </c>
@@ -39356,7 +39357,7 @@
         <f>'Nathan W'!D50</f>
         <v>Argentina</v>
       </c>
-      <c r="BX104" s="34">
+      <c r="BX104" s="73">
         <f>'Nathan W'!E50</f>
         <v>0</v>
       </c>
@@ -39568,7 +39569,7 @@
         <f>'Nathan W'!D46</f>
         <v>United States</v>
       </c>
-      <c r="BQ105" s="74">
+      <c r="BQ105" s="34">
         <f>'Nathan W'!E46</f>
         <v>1</v>
       </c>
@@ -39589,7 +39590,7 @@
         <f>'Nathan W'!D51</f>
         <v>Mexico</v>
       </c>
-      <c r="BX105" s="34">
+      <c r="BX105" s="73">
         <f>'Nathan W'!E51</f>
         <v>0</v>
       </c>
@@ -39817,7 +39818,7 @@
         <f>'Bernie R'!D52</f>
         <v>Sengal</v>
       </c>
-      <c r="BQ106" s="74">
+      <c r="BQ106" s="34">
         <f>'Bernie R'!E52</f>
         <v>0</v>
       </c>
@@ -39840,7 +39841,7 @@
         <f>'Bernie R'!D58</f>
         <v>Denmark</v>
       </c>
-      <c r="BX106" s="34">
+      <c r="BX106" s="73">
         <f>'Bernie R'!E58</f>
         <v>0</v>
       </c>
@@ -40056,7 +40057,7 @@
         <f>'Bernie R'!D53</f>
         <v>Qatar</v>
       </c>
-      <c r="BQ107" s="74">
+      <c r="BQ107" s="34">
         <f>'Bernie R'!E53</f>
         <v>3</v>
       </c>
@@ -40077,7 +40078,7 @@
         <f>'Bernie R'!D59</f>
         <v>France</v>
       </c>
-      <c r="BX107" s="34">
+      <c r="BX107" s="73">
         <f>'Bernie R'!E59</f>
         <v>0</v>
       </c>
@@ -40289,7 +40290,7 @@
         <f>'Bernie R'!D54</f>
         <v>England</v>
       </c>
-      <c r="BQ108" s="74">
+      <c r="BQ108" s="34">
         <f>'Bernie R'!E54</f>
         <v>1</v>
       </c>
@@ -40310,7 +40311,7 @@
         <f>'Bernie R'!D60</f>
         <v>Argentina</v>
       </c>
-      <c r="BX108" s="34">
+      <c r="BX108" s="73">
         <f>'Bernie R'!E60</f>
         <v>0</v>
       </c>
@@ -40522,7 +40523,7 @@
         <f>'Bernie R'!D55</f>
         <v>United States</v>
       </c>
-      <c r="BQ109" s="74">
+      <c r="BQ109" s="34">
         <f>'Bernie R'!E55</f>
         <v>2</v>
       </c>
@@ -40543,7 +40544,7 @@
         <f>'Bernie R'!D61</f>
         <v>Mexico</v>
       </c>
-      <c r="BX109" s="34">
+      <c r="BX109" s="73">
         <f>'Bernie R'!E61</f>
         <v>0</v>
       </c>
@@ -40771,7 +40772,7 @@
         <f>'Derek b'!D52</f>
         <v>Sengal</v>
       </c>
-      <c r="BQ110" s="76">
+      <c r="BQ110" s="38">
         <f>'Derek b'!E52</f>
         <v>0</v>
       </c>
@@ -40794,7 +40795,7 @@
         <f>'Derek b'!D58</f>
         <v>Denmark</v>
       </c>
-      <c r="BX110" s="38">
+      <c r="BX110" s="75">
         <f>'Derek b'!E58</f>
         <v>0</v>
       </c>
@@ -41010,7 +41011,7 @@
         <f>'Derek b'!D53</f>
         <v>Qatar</v>
       </c>
-      <c r="BQ111" s="76">
+      <c r="BQ111" s="38">
         <f>'Derek b'!E53</f>
         <v>2</v>
       </c>
@@ -41031,7 +41032,7 @@
         <f>'Derek b'!D59</f>
         <v>France</v>
       </c>
-      <c r="BX111" s="38">
+      <c r="BX111" s="75">
         <f>'Derek b'!E59</f>
         <v>0</v>
       </c>
@@ -41243,7 +41244,7 @@
         <f>'Derek b'!D54</f>
         <v>England</v>
       </c>
-      <c r="BQ112" s="76">
+      <c r="BQ112" s="38">
         <f>'Derek b'!E54</f>
         <v>1</v>
       </c>
@@ -41264,7 +41265,7 @@
         <f>'Derek b'!D60</f>
         <v>Argentina</v>
       </c>
-      <c r="BX112" s="38">
+      <c r="BX112" s="75">
         <f>'Derek b'!E60</f>
         <v>0</v>
       </c>
@@ -41476,7 +41477,7 @@
         <f>'Derek b'!D55</f>
         <v>United States</v>
       </c>
-      <c r="BQ113" s="76">
+      <c r="BQ113" s="38">
         <f>'Derek b'!E55</f>
         <v>1</v>
       </c>
@@ -41497,7 +41498,7 @@
         <f>'Derek b'!D61</f>
         <v>Mexico</v>
       </c>
-      <c r="BX113" s="38">
+      <c r="BX113" s="75">
         <f>'Derek b'!E61</f>
         <v>0</v>
       </c>
@@ -41725,7 +41726,7 @@
         <f>'Mother B'!D52</f>
         <v>Sengal</v>
       </c>
-      <c r="BQ114" s="76">
+      <c r="BQ114" s="38">
         <f>'Mother B'!E52</f>
         <v>0</v>
       </c>
@@ -41748,7 +41749,7 @@
         <f>'Mother B'!D58</f>
         <v>Denmark</v>
       </c>
-      <c r="BX114" s="38">
+      <c r="BX114" s="75">
         <f>'Mother B'!E58</f>
         <v>0</v>
       </c>
@@ -41964,7 +41965,7 @@
         <f>'Mother B'!D53</f>
         <v>Qatar</v>
       </c>
-      <c r="BQ115" s="76">
+      <c r="BQ115" s="38">
         <f>'Mother B'!E53</f>
         <v>1</v>
       </c>
@@ -41985,7 +41986,7 @@
         <f>'Mother B'!D59</f>
         <v>France</v>
       </c>
-      <c r="BX115" s="38">
+      <c r="BX115" s="75">
         <f>'Mother B'!E59</f>
         <v>0</v>
       </c>
@@ -42197,7 +42198,7 @@
         <f>'Mother B'!D54</f>
         <v>England</v>
       </c>
-      <c r="BQ116" s="76">
+      <c r="BQ116" s="38">
         <f>'Mother B'!E54</f>
         <v>0</v>
       </c>
@@ -42218,7 +42219,7 @@
         <f>'Mother B'!D60</f>
         <v>Argentina</v>
       </c>
-      <c r="BX116" s="38">
+      <c r="BX116" s="75">
         <f>'Mother B'!E60</f>
         <v>0</v>
       </c>
@@ -42430,7 +42431,7 @@
         <f>'Mother B'!D55</f>
         <v>United States</v>
       </c>
-      <c r="BQ117" s="76">
+      <c r="BQ117" s="38">
         <f>'Mother B'!E55</f>
         <v>1</v>
       </c>
@@ -42451,7 +42452,7 @@
         <f>'Mother B'!D61</f>
         <v>Mexico</v>
       </c>
-      <c r="BX117" s="38">
+      <c r="BX117" s="75">
         <f>'Mother B'!E61</f>
         <v>0</v>
       </c>
@@ -42679,7 +42680,7 @@
         <f>'James W'!D52</f>
         <v>Sengal</v>
       </c>
-      <c r="BQ118" s="76">
+      <c r="BQ118" s="38">
         <f>'James W'!E52</f>
         <v>1</v>
       </c>
@@ -42702,7 +42703,7 @@
         <f>'James W'!D58</f>
         <v>Denmark</v>
       </c>
-      <c r="BX118" s="38">
+      <c r="BX118" s="75">
         <f>'James W'!E58</f>
         <v>0</v>
       </c>
@@ -42918,7 +42919,7 @@
         <f>'James W'!D53</f>
         <v>Qatar</v>
       </c>
-      <c r="BQ119" s="76">
+      <c r="BQ119" s="38">
         <f>'James W'!E53</f>
         <v>2</v>
       </c>
@@ -42939,7 +42940,7 @@
         <f>'James W'!D59</f>
         <v>France</v>
       </c>
-      <c r="BX119" s="38">
+      <c r="BX119" s="75">
         <f>'James W'!E59</f>
         <v>0</v>
       </c>
@@ -43151,7 +43152,7 @@
         <f>'James W'!D54</f>
         <v>England</v>
       </c>
-      <c r="BQ120" s="76">
+      <c r="BQ120" s="38">
         <f>'James W'!E54</f>
         <v>0</v>
       </c>
@@ -43172,7 +43173,7 @@
         <f>'James W'!D60</f>
         <v>Argentina</v>
       </c>
-      <c r="BX120" s="38">
+      <c r="BX120" s="75">
         <f>'James W'!E60</f>
         <v>0</v>
       </c>
@@ -43384,7 +43385,7 @@
         <f>'James W'!D55</f>
         <v>United States</v>
       </c>
-      <c r="BQ121" s="76">
+      <c r="BQ121" s="38">
         <f>'James W'!E55</f>
         <v>1</v>
       </c>
@@ -43405,7 +43406,7 @@
         <f>'James W'!D61</f>
         <v>Mexico</v>
       </c>
-      <c r="BX121" s="38">
+      <c r="BX121" s="75">
         <f>'James W'!E61</f>
         <v>0</v>
       </c>
@@ -43633,7 +43634,7 @@
         <f>'Nikki W'!D52</f>
         <v>Sengal</v>
       </c>
-      <c r="BQ122" s="76">
+      <c r="BQ122" s="38">
         <f>'Nikki W'!E52</f>
         <v>0</v>
       </c>
@@ -43656,7 +43657,7 @@
         <f>'Nikki W'!D58</f>
         <v>Denmark</v>
       </c>
-      <c r="BX122" s="38">
+      <c r="BX122" s="75">
         <f>'Nikki W'!E58</f>
         <v>0</v>
       </c>
@@ -43872,7 +43873,7 @@
         <f>'Nikki W'!D53</f>
         <v>Qatar</v>
       </c>
-      <c r="BQ123" s="76">
+      <c r="BQ123" s="38">
         <f>'Nikki W'!E53</f>
         <v>2</v>
       </c>
@@ -43893,7 +43894,7 @@
         <f>'Nikki W'!D59</f>
         <v>France</v>
       </c>
-      <c r="BX123" s="38">
+      <c r="BX123" s="75">
         <f>'Nikki W'!E59</f>
         <v>0</v>
       </c>
@@ -44105,7 +44106,7 @@
         <f>'Nikki W'!D54</f>
         <v>England</v>
       </c>
-      <c r="BQ124" s="76">
+      <c r="BQ124" s="38">
         <f>'Nikki W'!E54</f>
         <v>2</v>
       </c>
@@ -44126,7 +44127,7 @@
         <f>'Nikki W'!D60</f>
         <v>Argentina</v>
       </c>
-      <c r="BX124" s="38">
+      <c r="BX124" s="75">
         <f>'Nikki W'!E60</f>
         <v>0</v>
       </c>
@@ -44338,7 +44339,7 @@
         <f>'Nikki W'!D55</f>
         <v>United States</v>
       </c>
-      <c r="BQ125" s="76">
+      <c r="BQ125" s="38">
         <f>'Nikki W'!E55</f>
         <v>2</v>
       </c>
@@ -44359,7 +44360,7 @@
         <f>'Nikki W'!D61</f>
         <v>Mexico</v>
       </c>
-      <c r="BX125" s="38">
+      <c r="BX125" s="75">
         <f>'Nikki W'!E61</f>
         <v>0</v>
       </c>
@@ -44408,12 +44409,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="CH1:CK1"/>
     <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="AY1:BB1"/>
@@ -44421,6 +44416,12 @@
     <mergeCell ref="BM1:BP1"/>
     <mergeCell ref="BT1:BW1"/>
     <mergeCell ref="CA1:CD1"/>
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AD1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -45387,12 +45388,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -45400,6 +45395,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -49293,12 +49294,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -49306,6 +49301,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67:C73 B66 B1:C65" xr:uid="{156C7248-1706-4E17-9BB6-079B78DEF479}">
@@ -50294,12 +50295,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -50307,6 +50302,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{05F05F3A-89C6-E74F-BB5C-B82EDA718869}">
@@ -51295,12 +51296,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -51308,6 +51303,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{A2199F60-9E4F-6445-90E3-92673D510A9D}">
@@ -52296,6 +52297,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -52303,12 +52310,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{2B53EE05-D1D3-374E-8836-2425C3E2B4A5}">
@@ -53303,6 +53304,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -53310,12 +53317,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C75" xr:uid="{A6BA8386-7538-B943-BC89-6C717665472C}">
@@ -54304,6 +54305,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -54311,12 +54318,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{CBEDE9B1-CCD8-024F-8FF6-52E83D09DD5F}">
@@ -54883,18 +54884,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="B64:E64"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="B46:E46"/>
     <mergeCell ref="B52:E52"/>
     <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -55877,6 +55878,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -55884,12 +55891,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{9D4EDCA2-2FFE-E64B-A34E-466DD99F6343}">
@@ -56878,6 +56879,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -56885,12 +56892,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -57873,12 +57874,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -57886,6 +57881,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{8427FA4B-D7DC-C74F-B6C6-02A04CEA1479}">
@@ -58877,12 +58878,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -58890,6 +58885,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{8A242A5A-737B-3248-9203-1E18FA7E8CAD}">
@@ -59878,6 +59879,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -59885,12 +59892,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -60873,6 +60874,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -60880,12 +60887,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -62094,12 +62095,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -62107,6 +62102,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{98289B19-A16E-8E48-AC84-DA2AC3E66DBF}">
@@ -63095,6 +63096,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -63102,12 +63109,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -64090,12 +64091,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -64103,6 +64098,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{F2D3BCCF-F868-974E-AEC9-AB88E8DBE8B7}">
@@ -65091,12 +65092,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -65104,6 +65099,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{85A9722B-955B-CF41-A6F3-38FDC4B48A7A}">
@@ -66092,12 +66093,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -66105,6 +66100,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{A72D56DF-9BC0-2E49-9D2A-B8E721479EEF}">

--- a/resources/Forms/Excel/Big Sheet.xlsx
+++ b/resources/Forms/Excel/Big Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie/FootieTake2/resources/Forms/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie_Take2/FootieTake2/resources/Forms/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4F5140-80E9-3E4E-A31F-B4D866334B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51C93E8-DE0A-2C43-928A-2FFF7EAD0F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="520" windowWidth="22620" windowHeight="15280" tabRatio="800" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
+    <workbookView xWindow="140" yWindow="520" windowWidth="22620" windowHeight="15280" tabRatio="800" activeTab="1" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Ranking" sheetId="5" r:id="rId1"/>
@@ -388,7 +388,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -435,6 +435,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -742,7 +749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -918,25 +925,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1002,50 +1003,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>838199</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>491066</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>185832</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14E8585C-28C7-DAC2-70E8-44D8E640D309}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2556932" y="0"/>
-          <a:ext cx="4682067" cy="17661032"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1060,16 +1017,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>419</xdr:row>
-      <xdr:rowOff>102986</xdr:rowOff>
+      <xdr:colOff>528320</xdr:colOff>
+      <xdr:row>403</xdr:row>
+      <xdr:rowOff>160042</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A828327A-F6BB-B73F-4129-E2BD47706207}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82EDFC83-F769-BA63-F447-7268DFEE35ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1086,7 +1043,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="19304000"/>
-          <a:ext cx="8798560" cy="65939786"/>
+          <a:ext cx="8717280" cy="62745642"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1397,7 +1354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88DB2AD-0B7A-2B40-B11D-A4AE4E9DB3F2}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="150" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -1420,7 +1377,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f>RANK(C2,($C$2:$C$32),0)</f>
+        <f t="shared" ref="A2:A32" si="0">RANK(C2,($C$2:$C$32),0)</f>
         <v>1</v>
       </c>
       <c r="B2" s="2" t="str">
@@ -1434,7 +1391,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <f>RANK(C3,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="str">
@@ -1448,7 +1405,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <f>RANK(C4,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="2" t="str">
@@ -1462,7 +1419,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <f>RANK(C5,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="2" t="str">
@@ -1476,7 +1433,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <f>RANK(C6,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="2" t="str">
@@ -1490,7 +1447,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <f>RANK(C7,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="2" t="str">
@@ -1504,7 +1461,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <f>RANK(C8,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="2" t="str">
@@ -1518,7 +1475,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <f>RANK(C9,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="2" t="str">
@@ -1532,7 +1489,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <f>RANK(C10,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="2" t="str">
@@ -1546,7 +1503,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <f>RANK(C11,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="2" t="str">
@@ -1560,7 +1517,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <f>RANK(C12,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="13" t="str">
@@ -1574,7 +1531,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <f>RANK(C13,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B13" s="2" t="str">
@@ -1588,7 +1545,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <f>RANK(C14,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="2" t="str">
@@ -1602,7 +1559,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <f>RANK(C15,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="2" t="str">
@@ -1616,7 +1573,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <f>RANK(C16,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B16" s="2" t="str">
@@ -1630,7 +1587,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <f>RANK(C17,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B17" s="2" t="str">
@@ -1644,7 +1601,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <f>RANK(C18,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="2" t="str">
@@ -1658,7 +1615,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <f>RANK(C19,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19" s="2" t="str">
@@ -1672,7 +1629,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <f>RANK(C20,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="2" t="str">
@@ -1686,7 +1643,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <f>RANK(C21,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" s="2" t="str">
@@ -1700,7 +1657,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <f>RANK(C22,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="2" t="str">
@@ -1714,7 +1671,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <f>RANK(C23,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23" s="2" t="str">
@@ -1728,7 +1685,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <f>RANK(C24,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="2" t="str">
@@ -1742,7 +1699,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <f>RANK(C25,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25" s="2" t="str">
@@ -1756,7 +1713,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <f>RANK(C26,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="2" t="str">
@@ -1770,7 +1727,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <f>RANK(C27,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27" s="13" t="str">
@@ -1784,7 +1741,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <f>RANK(C28,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="13" t="str">
@@ -1798,7 +1755,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <f>RANK(C29,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="2" t="str">
@@ -1812,7 +1769,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <f>RANK(C30,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="2" t="str">
@@ -1826,7 +1783,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <f>RANK(C31,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="2" t="str">
@@ -1840,7 +1797,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <f>RANK(C32,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="39" t="str">
@@ -2791,12 +2748,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A17:D17"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A32:D32"/>
@@ -2804,6 +2755,12 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3825,12 +3782,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -3838,6 +3789,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4844,12 +4801,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -4857,6 +4808,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5873,12 +5830,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -5886,6 +5837,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C76" xr:uid="{912C664E-C133-1E4F-9640-4A25EB9EF25D}">
@@ -6898,12 +6855,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -6911,6 +6862,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{B20B3CE4-DCB9-4E4A-AC39-D9DA073FCC61}">
@@ -7919,12 +7876,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -7932,6 +7883,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8938,12 +8895,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -8951,6 +8902,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9961,12 +9918,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -9974,6 +9925,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C74" xr:uid="{F68D3FFC-EF79-CC40-8F53-8BF21A5E1341}">
@@ -10989,12 +10946,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -11002,6 +10953,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{11A7353F-6A05-F048-B4B5-2330C623E382}">
@@ -12014,6 +11971,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -12021,12 +11984,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{79F4B324-FC19-7044-8ECD-3029BC735257}">
@@ -12042,8 +11999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536C4378-6AA3-D34E-B8EC-6B4414E01E1A}">
   <dimension ref="A1:CL125"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BS1" sqref="BS1"/>
       <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
     </sheetView>
@@ -12110,7 +12067,7 @@
     <col min="79" max="79" width="10.83203125" style="4"/>
     <col min="80" max="81" width="3" style="4" customWidth="1"/>
     <col min="82" max="82" width="10.83203125" style="4"/>
-    <col min="83" max="83" width="5.6640625" style="77" customWidth="1"/>
+    <col min="83" max="83" width="5.6640625" style="4" customWidth="1"/>
     <col min="85" max="85" width="10.83203125" style="24"/>
     <col min="86" max="86" width="13" style="4" customWidth="1"/>
     <col min="87" max="87" width="2.83203125" style="4" customWidth="1"/>
@@ -12261,7 +12218,7 @@
       <c r="CB1" s="48"/>
       <c r="CC1" s="48"/>
       <c r="CD1" s="48"/>
-      <c r="CE1" s="71" t="s">
+      <c r="CE1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="CG1" s="22" t="s">
@@ -12550,7 +12507,7 @@
         <f>'Keith G'!D64</f>
         <v>Belgium</v>
       </c>
-      <c r="CE2" s="72">
+      <c r="CE2" s="3">
         <f>'Keith G'!E64</f>
         <v>0</v>
       </c>
@@ -12573,7 +12530,7 @@
         <f>'Keith G'!D70</f>
         <v>Uraguay</v>
       </c>
-      <c r="CL2" s="3">
+      <c r="CL2" s="71">
         <f>'Keith G'!E70</f>
         <v>0</v>
       </c>
@@ -12829,7 +12786,7 @@
         <f>'Keith G'!D65</f>
         <v>Morocco</v>
       </c>
-      <c r="CE3" s="72">
+      <c r="CE3" s="3">
         <f>'Keith G'!E65</f>
         <v>0</v>
       </c>
@@ -12850,7 +12807,7 @@
         <f>'Keith G'!D71</f>
         <v>Portugal</v>
       </c>
-      <c r="CL3" s="3">
+      <c r="CL3" s="71">
         <f>'Keith G'!E71</f>
         <v>0</v>
       </c>
@@ -13106,7 +13063,7 @@
         <f>'Keith G'!D66</f>
         <v>Spain</v>
       </c>
-      <c r="CE4" s="72">
+      <c r="CE4" s="3">
         <f>'Keith G'!E66</f>
         <v>0</v>
       </c>
@@ -13127,7 +13084,7 @@
         <f>'Keith G'!D72</f>
         <v>Switzerland</v>
       </c>
-      <c r="CL4" s="3">
+      <c r="CL4" s="71">
         <f>'Keith G'!E72</f>
         <v>0</v>
       </c>
@@ -13385,7 +13342,7 @@
         <f>'Keith G'!D67</f>
         <v>Germany</v>
       </c>
-      <c r="CE5" s="72">
+      <c r="CE5" s="3">
         <f>'Keith G'!E67</f>
         <v>1</v>
       </c>
@@ -13406,7 +13363,7 @@
         <f>'Keith G'!D73</f>
         <v>Brazil</v>
       </c>
-      <c r="CL5" s="3">
+      <c r="CL5" s="71">
         <f>'Keith G'!E73</f>
         <v>0</v>
       </c>
@@ -13682,7 +13639,7 @@
         <f>'Stuart L'!D64</f>
         <v>Belgium</v>
       </c>
-      <c r="CE6" s="73">
+      <c r="CE6" s="18">
         <f>'Stuart L'!E64</f>
         <v>1</v>
       </c>
@@ -13705,7 +13662,7 @@
         <f>'Stuart L'!D70</f>
         <v>Uraguay</v>
       </c>
-      <c r="CL6" s="18">
+      <c r="CL6" s="72">
         <f>'Stuart L'!E70</f>
         <v>0</v>
       </c>
@@ -13961,7 +13918,7 @@
         <f>'Stuart L'!D65</f>
         <v>Morocco</v>
       </c>
-      <c r="CE7" s="73">
+      <c r="CE7" s="18">
         <f>'Stuart L'!E65</f>
         <v>0</v>
       </c>
@@ -13982,7 +13939,7 @@
         <f>'Stuart L'!D71</f>
         <v>Portugal</v>
       </c>
-      <c r="CL7" s="18">
+      <c r="CL7" s="72">
         <f>'Stuart L'!E71</f>
         <v>0</v>
       </c>
@@ -14240,7 +14197,7 @@
         <f>'Stuart L'!D66</f>
         <v>Spain</v>
       </c>
-      <c r="CE8" s="73">
+      <c r="CE8" s="18">
         <f>'Stuart L'!E66</f>
         <v>0</v>
       </c>
@@ -14261,7 +14218,7 @@
         <f>'Stuart L'!D72</f>
         <v>Switzerland</v>
       </c>
-      <c r="CL8" s="18">
+      <c r="CL8" s="72">
         <f>'Stuart L'!E72</f>
         <v>0</v>
       </c>
@@ -14517,7 +14474,7 @@
         <f>'Stuart L'!D67</f>
         <v>Germany</v>
       </c>
-      <c r="CE9" s="73">
+      <c r="CE9" s="18">
         <f>'Stuart L'!E67</f>
         <v>1</v>
       </c>
@@ -14538,7 +14495,7 @@
         <f>'Stuart L'!D73</f>
         <v>Brazil</v>
       </c>
-      <c r="CL9" s="18">
+      <c r="CL9" s="72">
         <f>'Stuart L'!E73</f>
         <v>0</v>
       </c>
@@ -14814,7 +14771,7 @@
         <f>'Barbara L'!D64</f>
         <v>Belgium</v>
       </c>
-      <c r="CE10" s="73">
+      <c r="CE10" s="18">
         <f>'Barbara L'!E64</f>
         <v>0</v>
       </c>
@@ -14837,7 +14794,7 @@
         <f>'Barbara L'!D70</f>
         <v>Uraguay</v>
       </c>
-      <c r="CL10" s="18">
+      <c r="CL10" s="72">
         <f>'Barbara L'!E70</f>
         <v>0</v>
       </c>
@@ -15095,7 +15052,7 @@
         <f>'Barbara L'!D65</f>
         <v>Morocco</v>
       </c>
-      <c r="CE11" s="73">
+      <c r="CE11" s="18">
         <f>'Barbara L'!E65</f>
         <v>0</v>
       </c>
@@ -15116,7 +15073,7 @@
         <f>'Barbara L'!D71</f>
         <v>Portugal</v>
       </c>
-      <c r="CL11" s="18">
+      <c r="CL11" s="72">
         <f>'Barbara L'!E71</f>
         <v>0</v>
       </c>
@@ -15372,7 +15329,7 @@
         <f>'Barbara L'!D66</f>
         <v>Spain</v>
       </c>
-      <c r="CE12" s="73">
+      <c r="CE12" s="18">
         <f>'Barbara L'!E66</f>
         <v>0</v>
       </c>
@@ -15393,7 +15350,7 @@
         <f>'Barbara L'!D72</f>
         <v>Switzerland</v>
       </c>
-      <c r="CL12" s="18">
+      <c r="CL12" s="72">
         <f>'Barbara L'!E72</f>
         <v>0</v>
       </c>
@@ -15649,7 +15606,7 @@
         <f>'Barbara L'!D67</f>
         <v>Germany</v>
       </c>
-      <c r="CE13" s="73">
+      <c r="CE13" s="18">
         <f>'Barbara L'!E67</f>
         <v>1</v>
       </c>
@@ -15670,7 +15627,7 @@
         <f>'Barbara L'!D73</f>
         <v>Brazil</v>
       </c>
-      <c r="CL13" s="18">
+      <c r="CL13" s="72">
         <f>'Barbara L'!E73</f>
         <v>0</v>
       </c>
@@ -15948,7 +15905,7 @@
         <f>'Freddie J'!D64</f>
         <v>Belgium</v>
       </c>
-      <c r="CE14" s="72">
+      <c r="CE14" s="3">
         <f>'Freddie J'!E64</f>
         <v>1</v>
       </c>
@@ -15971,7 +15928,7 @@
         <f>'Freddie J'!D70</f>
         <v>Uruguay</v>
       </c>
-      <c r="CL14" s="3">
+      <c r="CL14" s="71">
         <f>'Freddie J'!E70</f>
         <v>0</v>
       </c>
@@ -16227,7 +16184,7 @@
         <f>'Freddie J'!D65</f>
         <v>Morocco</v>
       </c>
-      <c r="CE15" s="72">
+      <c r="CE15" s="3">
         <f>'Freddie J'!E65</f>
         <v>0</v>
       </c>
@@ -16248,7 +16205,7 @@
         <f>'Freddie J'!D71</f>
         <v>Portugal</v>
       </c>
-      <c r="CL15" s="3">
+      <c r="CL15" s="71">
         <f>'Freddie J'!E71</f>
         <v>0</v>
       </c>
@@ -16504,7 +16461,7 @@
         <f>'Freddie J'!D66</f>
         <v>Spain</v>
       </c>
-      <c r="CE16" s="72">
+      <c r="CE16" s="3">
         <f>'Freddie J'!E66</f>
         <v>0</v>
       </c>
@@ -16525,7 +16482,7 @@
         <f>'Freddie J'!D72</f>
         <v>Switzerland</v>
       </c>
-      <c r="CL16" s="3">
+      <c r="CL16" s="71">
         <f>'Freddie J'!E72</f>
         <v>0</v>
       </c>
@@ -16783,7 +16740,7 @@
         <f>'Freddie J'!D67</f>
         <v>Germany</v>
       </c>
-      <c r="CE17" s="72">
+      <c r="CE17" s="3">
         <f>'Freddie J'!E67</f>
         <v>1</v>
       </c>
@@ -16804,7 +16761,7 @@
         <f>'Freddie J'!D73</f>
         <v>Brazil</v>
       </c>
-      <c r="CL17" s="3">
+      <c r="CL17" s="71">
         <f>'Freddie J'!E73</f>
         <v>0</v>
       </c>
@@ -17080,7 +17037,7 @@
         <f>'Mandy B'!D64</f>
         <v>Belgium</v>
       </c>
-      <c r="CE18" s="72">
+      <c r="CE18" s="3">
         <f>'Mandy B'!E64</f>
         <v>0</v>
       </c>
@@ -17103,7 +17060,7 @@
         <f>'Mandy B'!D70</f>
         <v>Uruguay</v>
       </c>
-      <c r="CL18" s="3">
+      <c r="CL18" s="71">
         <f>'Mandy B'!E70</f>
         <v>0</v>
       </c>
@@ -17359,7 +17316,7 @@
         <f>'Mandy B'!D65</f>
         <v>Morocco</v>
       </c>
-      <c r="CE19" s="72">
+      <c r="CE19" s="3">
         <f>'Mandy B'!E65</f>
         <v>0</v>
       </c>
@@ -17380,7 +17337,7 @@
         <f>'Mandy B'!D71</f>
         <v>Portugal</v>
       </c>
-      <c r="CL19" s="3">
+      <c r="CL19" s="71">
         <f>'Mandy B'!E71</f>
         <v>0</v>
       </c>
@@ -17638,7 +17595,7 @@
         <f>'Mandy B'!D66</f>
         <v>Spain</v>
       </c>
-      <c r="CE20" s="72">
+      <c r="CE20" s="3">
         <f>'Mandy B'!E66</f>
         <v>0</v>
       </c>
@@ -17659,7 +17616,7 @@
         <f>'Mandy B'!D72</f>
         <v>Switzerland</v>
       </c>
-      <c r="CL20" s="3">
+      <c r="CL20" s="71">
         <f>'Mandy B'!E72</f>
         <v>0</v>
       </c>
@@ -17915,7 +17872,7 @@
         <f>'Mandy B'!D67</f>
         <v>Germany</v>
       </c>
-      <c r="CE21" s="72">
+      <c r="CE21" s="3">
         <f>'Mandy B'!E67</f>
         <v>2</v>
       </c>
@@ -17936,7 +17893,7 @@
         <f>'Mandy B'!D73</f>
         <v>Brazil</v>
       </c>
-      <c r="CL21" s="3">
+      <c r="CL21" s="71">
         <f>'Mandy B'!E73</f>
         <v>0</v>
       </c>
@@ -18212,7 +18169,7 @@
         <f>'Gabriel B'!D64</f>
         <v>Belgium</v>
       </c>
-      <c r="CE22" s="72">
+      <c r="CE22" s="3">
         <f>'Gabriel B'!E64</f>
         <v>1</v>
       </c>
@@ -18235,7 +18192,7 @@
         <f>'Gabriel B'!D70</f>
         <v>Uruguay</v>
       </c>
-      <c r="CL22" s="3">
+      <c r="CL22" s="71">
         <f>'Gabriel B'!E70</f>
         <v>0</v>
       </c>
@@ -18493,7 +18450,7 @@
         <f>'Gabriel B'!D65</f>
         <v>Morocco</v>
       </c>
-      <c r="CE23" s="72">
+      <c r="CE23" s="3">
         <f>'Gabriel B'!E65</f>
         <v>3</v>
       </c>
@@ -18514,7 +18471,7 @@
         <f>'Gabriel B'!D71</f>
         <v>Portugal</v>
       </c>
-      <c r="CL23" s="3">
+      <c r="CL23" s="71">
         <f>'Gabriel B'!E71</f>
         <v>0</v>
       </c>
@@ -18770,7 +18727,7 @@
         <f>'Gabriel B'!D66</f>
         <v>Spain</v>
       </c>
-      <c r="CE24" s="72">
+      <c r="CE24" s="3">
         <f>'Gabriel B'!E66</f>
         <v>0</v>
       </c>
@@ -18791,7 +18748,7 @@
         <f>'Gabriel B'!D72</f>
         <v>Switzerland</v>
       </c>
-      <c r="CL24" s="3">
+      <c r="CL24" s="71">
         <f>'Gabriel B'!E72</f>
         <v>0</v>
       </c>
@@ -19047,7 +19004,7 @@
         <f>'Gabriel B'!D67</f>
         <v>Germany</v>
       </c>
-      <c r="CE25" s="72">
+      <c r="CE25" s="3">
         <f>'Gabriel B'!E67</f>
         <v>1</v>
       </c>
@@ -19068,7 +19025,7 @@
         <f>'Gabriel B'!D73</f>
         <v>Brazil</v>
       </c>
-      <c r="CL25" s="3">
+      <c r="CL25" s="71">
         <f>'Gabriel B'!E73</f>
         <v>0</v>
       </c>
@@ -19346,7 +19303,7 @@
         <f>'John B'!D64</f>
         <v>Belgium</v>
       </c>
-      <c r="CE26" s="72">
+      <c r="CE26" s="3">
         <f>'John B'!E64</f>
         <v>0</v>
       </c>
@@ -19369,7 +19326,7 @@
         <f>'John B'!D70</f>
         <v>Uruguay</v>
       </c>
-      <c r="CL26" s="3">
+      <c r="CL26" s="71">
         <f>'John B'!E70</f>
         <v>0</v>
       </c>
@@ -19625,7 +19582,7 @@
         <f>'John B'!D65</f>
         <v>Morocco</v>
       </c>
-      <c r="CE27" s="72">
+      <c r="CE27" s="3">
         <f>'John B'!E65</f>
         <v>0</v>
       </c>
@@ -19646,7 +19603,7 @@
         <f>'John B'!D71</f>
         <v>Portugal</v>
       </c>
-      <c r="CL27" s="3">
+      <c r="CL27" s="71">
         <f>'John B'!E71</f>
         <v>0</v>
       </c>
@@ -19902,7 +19859,7 @@
         <f>'John B'!D66</f>
         <v>Spain</v>
       </c>
-      <c r="CE28" s="72">
+      <c r="CE28" s="3">
         <f>'John B'!E66</f>
         <v>0</v>
       </c>
@@ -19923,7 +19880,7 @@
         <f>'John B'!D72</f>
         <v>Switzerland</v>
       </c>
-      <c r="CL28" s="3">
+      <c r="CL28" s="71">
         <f>'John B'!E72</f>
         <v>0</v>
       </c>
@@ -20181,7 +20138,7 @@
         <f>'John B'!D67</f>
         <v>Germany</v>
       </c>
-      <c r="CE29" s="72">
+      <c r="CE29" s="3">
         <f>'John B'!E67</f>
         <v>1</v>
       </c>
@@ -20202,7 +20159,7 @@
         <f>'John B'!D73</f>
         <v>Brazil</v>
       </c>
-      <c r="CL29" s="3">
+      <c r="CL29" s="71">
         <f>'John B'!E73</f>
         <v>0</v>
       </c>
@@ -20478,7 +20435,7 @@
         <f>'Dawn G'!D64</f>
         <v>Belgium</v>
       </c>
-      <c r="CE30" s="72">
+      <c r="CE30" s="3">
         <f>'Dawn G'!E64</f>
         <v>0</v>
       </c>
@@ -20501,7 +20458,7 @@
         <f>'Dawn G'!D70</f>
         <v>Uruguay</v>
       </c>
-      <c r="CL30" s="3">
+      <c r="CL30" s="71">
         <f>'Dawn G'!E70</f>
         <v>0</v>
       </c>
@@ -20757,7 +20714,7 @@
         <f>'Dawn G'!D65</f>
         <v>Morocco</v>
       </c>
-      <c r="CE31" s="72">
+      <c r="CE31" s="3">
         <f>'Dawn G'!E65</f>
         <v>3</v>
       </c>
@@ -20778,7 +20735,7 @@
         <f>'Dawn G'!D71</f>
         <v>Portugal</v>
       </c>
-      <c r="CL31" s="3">
+      <c r="CL31" s="71">
         <f>'Dawn G'!E71</f>
         <v>0</v>
       </c>
@@ -21036,7 +20993,7 @@
         <f>'Dawn G'!D66</f>
         <v>Spain</v>
       </c>
-      <c r="CE32" s="72">
+      <c r="CE32" s="3">
         <f>'Dawn G'!E66</f>
         <v>0</v>
       </c>
@@ -21057,7 +21014,7 @@
         <f>'Dawn G'!D72</f>
         <v>Switzerland</v>
       </c>
-      <c r="CL32" s="3">
+      <c r="CL32" s="71">
         <f>'Dawn G'!E72</f>
         <v>0</v>
       </c>
@@ -21290,7 +21247,7 @@
         <f>'Dawn G'!D67</f>
         <v>Germany</v>
       </c>
-      <c r="CE33" s="72">
+      <c r="CE33" s="3">
         <f>'Dawn G'!E67</f>
         <v>1</v>
       </c>
@@ -21311,7 +21268,7 @@
         <f>'Dawn G'!D73</f>
         <v>Brazil</v>
       </c>
-      <c r="CL33" s="3">
+      <c r="CL33" s="71">
         <f>'Dawn G'!E73</f>
         <v>0</v>
       </c>
@@ -21564,7 +21521,7 @@
         <f>'Robert L'!D64</f>
         <v>Belgium</v>
       </c>
-      <c r="CE34" s="72">
+      <c r="CE34" s="3">
         <f>'Robert L'!E64</f>
         <v>0</v>
       </c>
@@ -21587,7 +21544,7 @@
         <f>'Robert L'!D70</f>
         <v>Uruguay</v>
       </c>
-      <c r="CL34" s="3">
+      <c r="CL34" s="71">
         <f>'Robert L'!E70</f>
         <v>0</v>
       </c>
@@ -21822,7 +21779,7 @@
         <f>'Robert L'!D65</f>
         <v>Morocco</v>
       </c>
-      <c r="CE35" s="72">
+      <c r="CE35" s="3">
         <f>'Robert L'!E65</f>
         <v>0</v>
       </c>
@@ -21843,7 +21800,7 @@
         <f>'Robert L'!D71</f>
         <v>Portugal</v>
       </c>
-      <c r="CL35" s="3">
+      <c r="CL35" s="71">
         <f>'Robert L'!E71</f>
         <v>0</v>
       </c>
@@ -22076,7 +22033,7 @@
         <f>'Robert L'!D66</f>
         <v>Spain</v>
       </c>
-      <c r="CE36" s="72">
+      <c r="CE36" s="3">
         <f>'Robert L'!E66</f>
         <v>0</v>
       </c>
@@ -22097,7 +22054,7 @@
         <f>'Robert L'!D72</f>
         <v>Switzerland</v>
       </c>
-      <c r="CL36" s="3">
+      <c r="CL36" s="71">
         <f>'Robert L'!E72</f>
         <v>0</v>
       </c>
@@ -22330,7 +22287,7 @@
         <f>'Robert L'!D67</f>
         <v>Germany</v>
       </c>
-      <c r="CE37" s="72">
+      <c r="CE37" s="3">
         <f>'Robert L'!E67</f>
         <v>1</v>
       </c>
@@ -22351,7 +22308,7 @@
         <f>'Robert L'!D73</f>
         <v>Brazil</v>
       </c>
-      <c r="CL37" s="3">
+      <c r="CL37" s="71">
         <f>'Robert L'!E73</f>
         <v>0</v>
       </c>
@@ -22606,7 +22563,7 @@
         <f>'Jacques Chi'!D64</f>
         <v>Belgium</v>
       </c>
-      <c r="CE38" s="72">
+      <c r="CE38" s="3">
         <f>'Jacques Chi'!E64</f>
         <v>0</v>
       </c>
@@ -22629,7 +22586,7 @@
         <f>'Jacques Chi'!D70</f>
         <v>Uruguay</v>
       </c>
-      <c r="CL38" s="3">
+      <c r="CL38" s="71">
         <f>'Jacques Chi'!E70</f>
         <v>0</v>
       </c>
@@ -22862,7 +22819,7 @@
         <f>'Jacques Chi'!D65</f>
         <v>Morocco</v>
       </c>
-      <c r="CE39" s="72">
+      <c r="CE39" s="3">
         <f>'Jacques Chi'!E65</f>
         <v>0</v>
       </c>
@@ -22883,7 +22840,7 @@
         <f>'Jacques Chi'!D71</f>
         <v>Portugal</v>
       </c>
-      <c r="CL39" s="3">
+      <c r="CL39" s="71">
         <f>'Jacques Chi'!E71</f>
         <v>0</v>
       </c>
@@ -23116,7 +23073,7 @@
         <f>'Jacques Chi'!D66</f>
         <v>Spain</v>
       </c>
-      <c r="CE40" s="72">
+      <c r="CE40" s="3">
         <f>'Jacques Chi'!E66</f>
         <v>0</v>
       </c>
@@ -23137,7 +23094,7 @@
         <f>'Jacques Chi'!D72</f>
         <v>Switzerland</v>
       </c>
-      <c r="CL40" s="3">
+      <c r="CL40" s="71">
         <f>'Jacques Chi'!E72</f>
         <v>0</v>
       </c>
@@ -23372,7 +23329,7 @@
         <f>'Jacques Chi'!D67</f>
         <v>Germany</v>
       </c>
-      <c r="CE41" s="72">
+      <c r="CE41" s="3">
         <f>'Jacques Chi'!E67</f>
         <v>3</v>
       </c>
@@ -23393,7 +23350,7 @@
         <f>'Jacques Chi'!D73</f>
         <v>Brazil</v>
       </c>
-      <c r="CL41" s="3">
+      <c r="CL41" s="71">
         <f>'Jacques Chi'!E73</f>
         <v>0</v>
       </c>
@@ -23646,7 +23603,7 @@
         <f>'Dave B'!D64</f>
         <v>Belgium</v>
       </c>
-      <c r="CE42" s="72">
+      <c r="CE42" s="3">
         <f>'Dave B'!E64</f>
         <v>0</v>
       </c>
@@ -23669,7 +23626,7 @@
         <f>'Dave B'!D70</f>
         <v>Uruguay</v>
       </c>
-      <c r="CL42" s="3">
+      <c r="CL42" s="71">
         <f>'Dave B'!E70</f>
         <v>0</v>
       </c>
@@ -23902,7 +23859,7 @@
         <f>'Dave B'!D65</f>
         <v>Morocco</v>
       </c>
-      <c r="CE43" s="72">
+      <c r="CE43" s="3">
         <f>'Dave B'!E65</f>
         <v>0</v>
       </c>
@@ -23923,7 +23880,7 @@
         <f>'Dave B'!D71</f>
         <v>Portugal</v>
       </c>
-      <c r="CL43" s="3">
+      <c r="CL43" s="71">
         <f>'Dave B'!E71</f>
         <v>0</v>
       </c>
@@ -24158,7 +24115,7 @@
         <f>'Dave B'!D66</f>
         <v>Spain</v>
       </c>
-      <c r="CE44" s="72">
+      <c r="CE44" s="3">
         <f>'Dave B'!E66</f>
         <v>0</v>
       </c>
@@ -24179,7 +24136,7 @@
         <f>'Dave B'!D72</f>
         <v>Switzerland</v>
       </c>
-      <c r="CL44" s="3">
+      <c r="CL44" s="71">
         <f>'Dave B'!E72</f>
         <v>0</v>
       </c>
@@ -24412,7 +24369,7 @@
         <f>'Dave B'!D67</f>
         <v>Germany</v>
       </c>
-      <c r="CE45" s="72">
+      <c r="CE45" s="3">
         <f>'Dave B'!E67</f>
         <v>1</v>
       </c>
@@ -24433,7 +24390,7 @@
         <f>'Dave B'!D73</f>
         <v>Brazil</v>
       </c>
-      <c r="CL45" s="3">
+      <c r="CL45" s="71">
         <f>'Dave B'!E73</f>
         <v>0</v>
       </c>
@@ -24686,7 +24643,7 @@
         <f>'Annaka G-S'!D64</f>
         <v>Belgium</v>
       </c>
-      <c r="CE46" s="72">
+      <c r="CE46" s="3">
         <f>'Annaka G-S'!E64</f>
         <v>0</v>
       </c>
@@ -24709,7 +24666,7 @@
         <f>'Annaka G-S'!D70</f>
         <v>Uruguay</v>
       </c>
-      <c r="CL46" s="3">
+      <c r="CL46" s="71">
         <f>'Annaka G-S'!E70</f>
         <v>0</v>
       </c>
@@ -24944,7 +24901,7 @@
         <f>'Annaka G-S'!D65</f>
         <v>Morocco</v>
       </c>
-      <c r="CE47" s="72">
+      <c r="CE47" s="3">
         <f>'Annaka G-S'!E65</f>
         <v>2</v>
       </c>
@@ -24965,7 +24922,7 @@
         <f>'Annaka G-S'!D71</f>
         <v>Portugal</v>
       </c>
-      <c r="CL47" s="3">
+      <c r="CL47" s="71">
         <f>'Annaka G-S'!E71</f>
         <v>0</v>
       </c>
@@ -25198,7 +25155,7 @@
         <f>'Annaka G-S'!D66</f>
         <v>Spain</v>
       </c>
-      <c r="CE48" s="72">
+      <c r="CE48" s="3">
         <f>'Annaka G-S'!E66</f>
         <v>1</v>
       </c>
@@ -25219,7 +25176,7 @@
         <f>'Annaka G-S'!D72</f>
         <v>Switzerland</v>
       </c>
-      <c r="CL48" s="3">
+      <c r="CL48" s="71">
         <f>'Annaka G-S'!E72</f>
         <v>0</v>
       </c>
@@ -25452,7 +25409,7 @@
         <f>'Annaka G-S'!D67</f>
         <v>Germany</v>
       </c>
-      <c r="CE49" s="72">
+      <c r="CE49" s="3">
         <f>'Annaka G-S'!E67</f>
         <v>0</v>
       </c>
@@ -25473,7 +25430,7 @@
         <f>'Annaka G-S'!D73</f>
         <v>Brazil</v>
       </c>
-      <c r="CL49" s="3">
+      <c r="CL49" s="71">
         <f>'Annaka G-S'!E73</f>
         <v>0</v>
       </c>
@@ -25728,7 +25685,7 @@
         <f>Claire!D64</f>
         <v>Belgium</v>
       </c>
-      <c r="CE50" s="72">
+      <c r="CE50" s="3">
         <f>Claire!E64</f>
         <v>0</v>
       </c>
@@ -25751,7 +25708,7 @@
         <f>Claire!D70</f>
         <v>Uruguay</v>
       </c>
-      <c r="CL50" s="3">
+      <c r="CL50" s="71">
         <f>Claire!E70</f>
         <v>0</v>
       </c>
@@ -25984,7 +25941,7 @@
         <f>Claire!D65</f>
         <v>Morocco</v>
       </c>
-      <c r="CE51" s="72">
+      <c r="CE51" s="3">
         <f>Claire!E65</f>
         <v>2</v>
       </c>
@@ -26005,7 +25962,7 @@
         <f>Claire!D71</f>
         <v>Portugal</v>
       </c>
-      <c r="CL51" s="3">
+      <c r="CL51" s="71">
         <f>Claire!E71</f>
         <v>0</v>
       </c>
@@ -26238,7 +26195,7 @@
         <f>Claire!D66</f>
         <v>Spain</v>
       </c>
-      <c r="CE52" s="72">
+      <c r="CE52" s="3">
         <f>Claire!E66</f>
         <v>0</v>
       </c>
@@ -26259,7 +26216,7 @@
         <f>Claire!D72</f>
         <v>Switzerland</v>
       </c>
-      <c r="CL52" s="3">
+      <c r="CL52" s="71">
         <f>Claire!E72</f>
         <v>0</v>
       </c>
@@ -26494,7 +26451,7 @@
         <f>Claire!D67</f>
         <v>Germany</v>
       </c>
-      <c r="CE53" s="72">
+      <c r="CE53" s="3">
         <f>Claire!E67</f>
         <v>0</v>
       </c>
@@ -26515,7 +26472,7 @@
         <f>Claire!D73</f>
         <v>Brazil</v>
       </c>
-      <c r="CL53" s="3">
+      <c r="CL53" s="71">
         <f>Claire!E73</f>
         <v>0</v>
       </c>
@@ -26768,7 +26725,7 @@
         <f>Hino!D64</f>
         <v>Belgium</v>
       </c>
-      <c r="CE54" s="72">
+      <c r="CE54" s="3">
         <f>Hino!E64</f>
         <v>0</v>
       </c>
@@ -26791,7 +26748,7 @@
         <f>Hino!D70</f>
         <v>Uruguay</v>
       </c>
-      <c r="CL54" s="3">
+      <c r="CL54" s="71">
         <f>Hino!E70</f>
         <v>0</v>
       </c>
@@ -27024,7 +26981,7 @@
         <f>Hino!D65</f>
         <v>Morocco</v>
       </c>
-      <c r="CE55" s="72">
+      <c r="CE55" s="3">
         <f>Hino!E65</f>
         <v>2</v>
       </c>
@@ -27045,7 +27002,7 @@
         <f>Hino!D71</f>
         <v>Portugal</v>
       </c>
-      <c r="CL55" s="3">
+      <c r="CL55" s="71">
         <f>Hino!E71</f>
         <v>0</v>
       </c>
@@ -27280,7 +27237,7 @@
         <f>Hino!D66</f>
         <v>Spain</v>
       </c>
-      <c r="CE56" s="72">
+      <c r="CE56" s="3">
         <f>Hino!E66</f>
         <v>0</v>
       </c>
@@ -27301,7 +27258,7 @@
         <f>Hino!D72</f>
         <v>Switzerland</v>
       </c>
-      <c r="CL56" s="3">
+      <c r="CL56" s="71">
         <f>Hino!E72</f>
         <v>0</v>
       </c>
@@ -27534,7 +27491,7 @@
         <f>Hino!D67</f>
         <v>Germany</v>
       </c>
-      <c r="CE57" s="72">
+      <c r="CE57" s="3">
         <f>Hino!E67</f>
         <v>1</v>
       </c>
@@ -27555,7 +27512,7 @@
         <f>Hino!D73</f>
         <v>Brazil</v>
       </c>
-      <c r="CL57" s="3">
+      <c r="CL57" s="71">
         <f>Hino!E73</f>
         <v>0</v>
       </c>
@@ -27808,7 +27765,7 @@
         <f>'Cathy G'!D64</f>
         <v>Belgium</v>
       </c>
-      <c r="CE58" s="72">
+      <c r="CE58" s="3">
         <f>'Cathy G'!E64</f>
         <v>0</v>
       </c>
@@ -27831,7 +27788,7 @@
         <f>'Cathy G'!D70</f>
         <v>Uruguay</v>
       </c>
-      <c r="CL58" s="3">
+      <c r="CL58" s="71">
         <f>'Cathy G'!E70</f>
         <v>0</v>
       </c>
@@ -28066,7 +28023,7 @@
         <f>'Cathy G'!D65</f>
         <v>Morocco</v>
       </c>
-      <c r="CE59" s="72">
+      <c r="CE59" s="3">
         <f>'Cathy G'!E65</f>
         <v>2</v>
       </c>
@@ -28087,7 +28044,7 @@
         <f>'Cathy G'!D71</f>
         <v>Portugal</v>
       </c>
-      <c r="CL59" s="3">
+      <c r="CL59" s="71">
         <f>'Cathy G'!E71</f>
         <v>0</v>
       </c>
@@ -28320,7 +28277,7 @@
         <f>'Cathy G'!D66</f>
         <v>Spain</v>
       </c>
-      <c r="CE60" s="72">
+      <c r="CE60" s="3">
         <f>'Cathy G'!E66</f>
         <v>0</v>
       </c>
@@ -28341,7 +28298,7 @@
         <f>'Cathy G'!D72</f>
         <v>Switzerland</v>
       </c>
-      <c r="CL60" s="3">
+      <c r="CL60" s="71">
         <f>'Cathy G'!E72</f>
         <v>0</v>
       </c>
@@ -28574,7 +28531,7 @@
         <f>'Cathy G'!D67</f>
         <v>Germany</v>
       </c>
-      <c r="CE61" s="72">
+      <c r="CE61" s="3">
         <f>'Cathy G'!E67</f>
         <v>1</v>
       </c>
@@ -28595,7 +28552,7 @@
         <f>'Cathy G'!D73</f>
         <v>Brazil</v>
       </c>
-      <c r="CL61" s="3">
+      <c r="CL61" s="71">
         <f>'Cathy G'!E73</f>
         <v>0</v>
       </c>
@@ -28850,7 +28807,7 @@
         <f>'Arthur T'!D64</f>
         <v>Belgium</v>
       </c>
-      <c r="CE62" s="72">
+      <c r="CE62" s="3">
         <f>'Arthur T'!E64</f>
         <v>1</v>
       </c>
@@ -28873,7 +28830,7 @@
         <f>'Arthur T'!D70</f>
         <v>Uruguay</v>
       </c>
-      <c r="CL62" s="3">
+      <c r="CL62" s="71">
         <f>'Arthur T'!E70</f>
         <v>0</v>
       </c>
@@ -29106,7 +29063,7 @@
         <f>'Arthur T'!D65</f>
         <v>Morocco</v>
       </c>
-      <c r="CE63" s="72">
+      <c r="CE63" s="3">
         <f>'Arthur T'!E65</f>
         <v>0</v>
       </c>
@@ -29127,7 +29084,7 @@
         <f>'Arthur T'!D71</f>
         <v>Portugal</v>
       </c>
-      <c r="CL63" s="3">
+      <c r="CL63" s="71">
         <f>'Arthur T'!E71</f>
         <v>0</v>
       </c>
@@ -29360,7 +29317,7 @@
         <f>'Arthur T'!D66</f>
         <v>Spain</v>
       </c>
-      <c r="CE64" s="72">
+      <c r="CE64" s="3">
         <f>'Arthur T'!E66</f>
         <v>0</v>
       </c>
@@ -29381,7 +29338,7 @@
         <f>'Arthur T'!D72</f>
         <v>Switzerland</v>
       </c>
-      <c r="CL64" s="3">
+      <c r="CL64" s="71">
         <f>'Arthur T'!E72</f>
         <v>0</v>
       </c>
@@ -29616,7 +29573,7 @@
         <f>'Arthur T'!D67</f>
         <v>Germany</v>
       </c>
-      <c r="CE65" s="72">
+      <c r="CE65" s="3">
         <f>'Arthur T'!E67</f>
         <v>1</v>
       </c>
@@ -29637,7 +29594,7 @@
         <f>'Arthur T'!D73</f>
         <v>Brazil</v>
       </c>
-      <c r="CL65" s="3">
+      <c r="CL65" s="71">
         <f>'Arthur T'!E73</f>
         <v>0</v>
       </c>
@@ -29890,7 +29847,7 @@
         <f>'Andy B'!D64</f>
         <v>Belgium</v>
       </c>
-      <c r="CE66" s="72">
+      <c r="CE66" s="3">
         <f>'Andy B'!E64</f>
         <v>0</v>
       </c>
@@ -29913,7 +29870,7 @@
         <f>'Andy B'!D70</f>
         <v>Uruguay</v>
       </c>
-      <c r="CL66" s="3">
+      <c r="CL66" s="71">
         <f>'Andy B'!E70</f>
         <v>0</v>
       </c>
@@ -30146,7 +30103,7 @@
         <f>'Andy B'!D65</f>
         <v>Morocco</v>
       </c>
-      <c r="CE67" s="72">
+      <c r="CE67" s="3">
         <f>'Andy B'!E65</f>
         <v>1</v>
       </c>
@@ -30167,7 +30124,7 @@
         <f>'Andy B'!D71</f>
         <v>Portugal</v>
       </c>
-      <c r="CL67" s="3">
+      <c r="CL67" s="71">
         <f>'Andy B'!E71</f>
         <v>0</v>
       </c>
@@ -30402,7 +30359,7 @@
         <f>'Andy B'!D66</f>
         <v>Spain</v>
       </c>
-      <c r="CE68" s="72">
+      <c r="CE68" s="3">
         <f>'Andy B'!E66</f>
         <v>0</v>
       </c>
@@ -30423,7 +30380,7 @@
         <f>'Andy B'!D72</f>
         <v>Switzerland</v>
       </c>
-      <c r="CL68" s="3">
+      <c r="CL68" s="71">
         <f>'Andy B'!E72</f>
         <v>0</v>
       </c>
@@ -30656,7 +30613,7 @@
         <f>'Andy B'!D67</f>
         <v>Germany</v>
       </c>
-      <c r="CE69" s="72">
+      <c r="CE69" s="3">
         <f>'Andy B'!E67</f>
         <v>1</v>
       </c>
@@ -30677,7 +30634,7 @@
         <f>'Andy B'!D73</f>
         <v>Brazil</v>
       </c>
-      <c r="CL69" s="3">
+      <c r="CL69" s="71">
         <f>'Andy B'!E73</f>
         <v>0</v>
       </c>
@@ -30930,7 +30887,7 @@
         <f>'Alison S'!D64</f>
         <v>Belgium</v>
       </c>
-      <c r="CE70" s="74">
+      <c r="CE70" s="34">
         <f>'Alison S'!E64</f>
         <v>0</v>
       </c>
@@ -30953,7 +30910,7 @@
         <f>'Alison S'!D70</f>
         <v>Uruguay</v>
       </c>
-      <c r="CL70" s="34">
+      <c r="CL70" s="73">
         <f>'Alison S'!E70</f>
         <v>0</v>
       </c>
@@ -31188,7 +31145,7 @@
         <f>'Alison S'!D65</f>
         <v>Morocco</v>
       </c>
-      <c r="CE71" s="74">
+      <c r="CE71" s="34">
         <f>'Alison S'!E65</f>
         <v>3</v>
       </c>
@@ -31209,7 +31166,7 @@
         <f>'Alison S'!D71</f>
         <v>Portugal</v>
       </c>
-      <c r="CL71" s="34">
+      <c r="CL71" s="73">
         <f>'Alison S'!E71</f>
         <v>0</v>
       </c>
@@ -31442,7 +31399,7 @@
         <f>'Alison S'!D66</f>
         <v>Spain</v>
       </c>
-      <c r="CE72" s="74">
+      <c r="CE72" s="34">
         <f>'Alison S'!E66</f>
         <v>0</v>
       </c>
@@ -31463,7 +31420,7 @@
         <f>'Alison S'!D72</f>
         <v>Switzerland</v>
       </c>
-      <c r="CL72" s="34">
+      <c r="CL72" s="73">
         <f>'Alison S'!E72</f>
         <v>0</v>
       </c>
@@ -31696,7 +31653,7 @@
         <f>'Alison S'!D67</f>
         <v>Germany</v>
       </c>
-      <c r="CE73" s="74">
+      <c r="CE73" s="34">
         <f>'Alison S'!E67</f>
         <v>1</v>
       </c>
@@ -31717,7 +31674,7 @@
         <f>'Alison S'!D73</f>
         <v>Brazil</v>
       </c>
-      <c r="CL73" s="34">
+      <c r="CL73" s="73">
         <f>'Alison S'!E73</f>
         <v>0</v>
       </c>
@@ -31972,7 +31929,7 @@
         <f>'Evan A'!D64</f>
         <v>Belgium</v>
       </c>
-      <c r="CE74" s="74">
+      <c r="CE74" s="34">
         <f>'Evan A'!E64</f>
         <v>0</v>
       </c>
@@ -31995,7 +31952,7 @@
         <f>'Evan A'!D70</f>
         <v>Uruguay</v>
       </c>
-      <c r="CL74" s="34">
+      <c r="CL74" s="73">
         <f>'Evan A'!E70</f>
         <v>0</v>
       </c>
@@ -32228,7 +32185,7 @@
         <f>'Evan A'!D65</f>
         <v>Morocco</v>
       </c>
-      <c r="CE75" s="74">
+      <c r="CE75" s="34">
         <f>'Evan A'!E65</f>
         <v>1</v>
       </c>
@@ -32249,7 +32206,7 @@
         <f>'Evan A'!D71</f>
         <v>Portugal</v>
       </c>
-      <c r="CL75" s="34">
+      <c r="CL75" s="73">
         <f>'Evan A'!E71</f>
         <v>0</v>
       </c>
@@ -32482,7 +32439,7 @@
         <f>'Evan A'!D66</f>
         <v>Spain</v>
       </c>
-      <c r="CE76" s="74">
+      <c r="CE76" s="34">
         <f>'Evan A'!E66</f>
         <v>0</v>
       </c>
@@ -32503,7 +32460,7 @@
         <f>'Evan A'!D72</f>
         <v>Switzerland</v>
       </c>
-      <c r="CL76" s="34">
+      <c r="CL76" s="73">
         <f>'Evan A'!E72</f>
         <v>0</v>
       </c>
@@ -32738,7 +32695,7 @@
         <f>'Evan A'!D67</f>
         <v>Germany</v>
       </c>
-      <c r="CE77" s="74">
+      <c r="CE77" s="34">
         <f>'Evan A'!E67</f>
         <v>0</v>
       </c>
@@ -32759,7 +32716,7 @@
         <f>'Evan A'!D73</f>
         <v>Brazil</v>
       </c>
-      <c r="CL77" s="34">
+      <c r="CL77" s="73">
         <f>'Evan A'!E73</f>
         <v>0</v>
       </c>
@@ -33012,7 +32969,7 @@
         <f>'Rob TH'!D64</f>
         <v>Belgium</v>
       </c>
-      <c r="CE78" s="74">
+      <c r="CE78" s="34">
         <f>'Rob TH'!E64</f>
         <v>1</v>
       </c>
@@ -33035,7 +32992,7 @@
         <f>'Rob TH'!D70</f>
         <v>Uruguay</v>
       </c>
-      <c r="CL78" s="34">
+      <c r="CL78" s="73">
         <f>'Rob TH'!E70</f>
         <v>0</v>
       </c>
@@ -33268,7 +33225,7 @@
         <f>'Rob TH'!D65</f>
         <v>Morocco</v>
       </c>
-      <c r="CE79" s="74">
+      <c r="CE79" s="34">
         <f>'Rob TH'!E65</f>
         <v>0</v>
       </c>
@@ -33289,7 +33246,7 @@
         <f>'Rob TH'!D71</f>
         <v>Portugal</v>
       </c>
-      <c r="CL79" s="34">
+      <c r="CL79" s="73">
         <f>'Rob TH'!E71</f>
         <v>0</v>
       </c>
@@ -33524,7 +33481,7 @@
         <f>'Rob TH'!D66</f>
         <v>Spain</v>
       </c>
-      <c r="CE80" s="74">
+      <c r="CE80" s="34">
         <f>'Rob TH'!E66</f>
         <v>0</v>
       </c>
@@ -33545,7 +33502,7 @@
         <f>'Rob TH'!D72</f>
         <v>Switzerland</v>
       </c>
-      <c r="CL80" s="34">
+      <c r="CL80" s="73">
         <f>'Rob TH'!E72</f>
         <v>0</v>
       </c>
@@ -33778,7 +33735,7 @@
         <f>'Rob TH'!D67</f>
         <v>Germany</v>
       </c>
-      <c r="CE81" s="74">
+      <c r="CE81" s="34">
         <f>'Rob TH'!E67</f>
         <v>2</v>
       </c>
@@ -33799,7 +33756,7 @@
         <f>'Rob TH'!D73</f>
         <v>Brazil</v>
       </c>
-      <c r="CL81" s="34">
+      <c r="CL81" s="73">
         <f>'Rob TH'!E73</f>
         <v>0</v>
       </c>
@@ -34052,7 +34009,7 @@
         <f>'Alice D'!D64</f>
         <v>Belgium</v>
       </c>
-      <c r="CE82" s="74">
+      <c r="CE82" s="34">
         <f>'Alice D'!E64</f>
         <v>1</v>
       </c>
@@ -34075,7 +34032,7 @@
         <f>'Alice D'!D70</f>
         <v>Uruguay</v>
       </c>
-      <c r="CL82" s="34">
+      <c r="CL82" s="73">
         <f>'Alice D'!E70</f>
         <v>0</v>
       </c>
@@ -34310,7 +34267,7 @@
         <f>'Alice D'!D65</f>
         <v>Morocco</v>
       </c>
-      <c r="CE83" s="74">
+      <c r="CE83" s="34">
         <f>'Alice D'!E65</f>
         <v>0</v>
       </c>
@@ -34331,7 +34288,7 @@
         <f>'Alice D'!D71</f>
         <v>Portugal</v>
       </c>
-      <c r="CL83" s="34">
+      <c r="CL83" s="73">
         <f>'Alice D'!E71</f>
         <v>0</v>
       </c>
@@ -34564,7 +34521,7 @@
         <f>'Alice D'!D66</f>
         <v>Spain</v>
       </c>
-      <c r="CE84" s="74">
+      <c r="CE84" s="34">
         <f>'Alice D'!E66</f>
         <v>0</v>
       </c>
@@ -34585,7 +34542,7 @@
         <f>'Alice D'!D72</f>
         <v>Switzerland</v>
       </c>
-      <c r="CL84" s="34">
+      <c r="CL84" s="73">
         <f>'Alice D'!E72</f>
         <v>0</v>
       </c>
@@ -34818,7 +34775,7 @@
         <f>'Alice D'!D67</f>
         <v>Germany</v>
       </c>
-      <c r="CE85" s="74">
+      <c r="CE85" s="34">
         <f>'Alice D'!E67</f>
         <v>1</v>
       </c>
@@ -34839,7 +34796,7 @@
         <f>'Alice D'!D73</f>
         <v>Brazil</v>
       </c>
-      <c r="CL85" s="34">
+      <c r="CL85" s="73">
         <f>'Alice D'!E73</f>
         <v>0</v>
       </c>
@@ -35094,7 +35051,7 @@
         <f>'Liz W'!D64</f>
         <v>Belgium</v>
       </c>
-      <c r="CE86" s="74">
+      <c r="CE86" s="34">
         <f>'Liz W'!E64</f>
         <v>0</v>
       </c>
@@ -35117,7 +35074,7 @@
         <f>'Liz W'!D70</f>
         <v>Uruguay</v>
       </c>
-      <c r="CL86" s="34">
+      <c r="CL86" s="73">
         <f>'Liz W'!E70</f>
         <v>0</v>
       </c>
@@ -35350,7 +35307,7 @@
         <f>'Liz W'!D65</f>
         <v>Morocco</v>
       </c>
-      <c r="CE87" s="74">
+      <c r="CE87" s="34">
         <f>'Liz W'!E65</f>
         <v>0</v>
       </c>
@@ -35371,7 +35328,7 @@
         <f>'Liz W'!D71</f>
         <v>Portugal</v>
       </c>
-      <c r="CL87" s="34">
+      <c r="CL87" s="73">
         <f>'Liz W'!E71</f>
         <v>0</v>
       </c>
@@ -35604,7 +35561,7 @@
         <f>'Liz W'!D66</f>
         <v>Spain</v>
       </c>
-      <c r="CE88" s="74">
+      <c r="CE88" s="34">
         <f>'Liz W'!E66</f>
         <v>0</v>
       </c>
@@ -35625,7 +35582,7 @@
         <f>'Liz W'!D72</f>
         <v>Switzerland</v>
       </c>
-      <c r="CL88" s="34">
+      <c r="CL88" s="73">
         <f>'Liz W'!E72</f>
         <v>0</v>
       </c>
@@ -35860,7 +35817,7 @@
         <f>'Liz W'!D67</f>
         <v>Germany</v>
       </c>
-      <c r="CE89" s="74">
+      <c r="CE89" s="34">
         <f>'Liz W'!E67</f>
         <v>1</v>
       </c>
@@ -35881,7 +35838,7 @@
         <f>'Liz W'!D73</f>
         <v>Brazil</v>
       </c>
-      <c r="CL89" s="34">
+      <c r="CL89" s="73">
         <f>'Liz W'!E73</f>
         <v>0</v>
       </c>
@@ -36134,7 +36091,7 @@
         <f>'Keith W'!D64</f>
         <v>Belgium</v>
       </c>
-      <c r="CE90" s="74">
+      <c r="CE90" s="34">
         <f>'Keith W'!E64</f>
         <v>1</v>
       </c>
@@ -36157,7 +36114,7 @@
         <f>'Keith W'!D70</f>
         <v>Uruguay</v>
       </c>
-      <c r="CL90" s="34">
+      <c r="CL90" s="73">
         <f>'Keith W'!E70</f>
         <v>0</v>
       </c>
@@ -36390,7 +36347,7 @@
         <f>'Keith W'!D65</f>
         <v>Morocco</v>
       </c>
-      <c r="CE91" s="74">
+      <c r="CE91" s="34">
         <f>'Keith W'!E65</f>
         <v>0</v>
       </c>
@@ -36411,7 +36368,7 @@
         <f>'Keith W'!D71</f>
         <v>Portugal</v>
       </c>
-      <c r="CL91" s="34">
+      <c r="CL91" s="73">
         <f>'Keith W'!E71</f>
         <v>0</v>
       </c>
@@ -36646,7 +36603,7 @@
         <f>'Keith W'!D66</f>
         <v>Spain</v>
       </c>
-      <c r="CE92" s="74">
+      <c r="CE92" s="34">
         <f>'Keith W'!E66</f>
         <v>0</v>
       </c>
@@ -36667,7 +36624,7 @@
         <f>'Keith W'!D72</f>
         <v>Switzerland</v>
       </c>
-      <c r="CL92" s="34">
+      <c r="CL92" s="73">
         <f>'Keith W'!E72</f>
         <v>0</v>
       </c>
@@ -36900,7 +36857,7 @@
         <f>'Keith W'!D67</f>
         <v>Germany</v>
       </c>
-      <c r="CE93" s="74">
+      <c r="CE93" s="34">
         <f>'Keith W'!E67</f>
         <v>1</v>
       </c>
@@ -36921,7 +36878,7 @@
         <f>'Keith W'!D73</f>
         <v>Brazil</v>
       </c>
-      <c r="CL93" s="34">
+      <c r="CL93" s="73">
         <f>'Keith W'!E73</f>
         <v>0</v>
       </c>
@@ -37174,7 +37131,7 @@
         <f>'Marjorie L'!D64</f>
         <v>Belgium</v>
       </c>
-      <c r="CE94" s="75">
+      <c r="CE94" s="36">
         <f>'Marjorie L'!E64</f>
         <v>1</v>
       </c>
@@ -37197,7 +37154,7 @@
         <f>'Marjorie L'!D70</f>
         <v>Uraguay</v>
       </c>
-      <c r="CL94" s="36">
+      <c r="CL94" s="74">
         <f>'Marjorie L'!E70</f>
         <v>0</v>
       </c>
@@ -37409,7 +37366,7 @@
         <f>'Marjorie L'!D65</f>
         <v>Morocco</v>
       </c>
-      <c r="CE95" s="75">
+      <c r="CE95" s="36">
         <f>'Marjorie L'!E65</f>
         <v>0</v>
       </c>
@@ -37430,7 +37387,7 @@
         <f>'Marjorie L'!D71</f>
         <v>Portugal</v>
       </c>
-      <c r="CL95" s="36">
+      <c r="CL95" s="74">
         <f>'Marjorie L'!E71</f>
         <v>0</v>
       </c>
@@ -37642,7 +37599,7 @@
         <f>'Marjorie L'!D66</f>
         <v>Spain</v>
       </c>
-      <c r="CE96" s="75">
+      <c r="CE96" s="36">
         <f>'Marjorie L'!E66</f>
         <v>0</v>
       </c>
@@ -37663,7 +37620,7 @@
         <f>'Marjorie L'!D72</f>
         <v>Switzerland</v>
       </c>
-      <c r="CL96" s="36">
+      <c r="CL96" s="74">
         <f>'Marjorie L'!E72</f>
         <v>0</v>
       </c>
@@ -37875,7 +37832,7 @@
         <f>'Marjorie L'!D67</f>
         <v>Germany</v>
       </c>
-      <c r="CE97" s="75">
+      <c r="CE97" s="36">
         <f>'Marjorie L'!E67</f>
         <v>1</v>
       </c>
@@ -37896,7 +37853,7 @@
         <f>'Marjorie L'!D73</f>
         <v>Brazil</v>
       </c>
-      <c r="CL97" s="36">
+      <c r="CL97" s="74">
         <f>'Marjorie L'!E73</f>
         <v>0</v>
       </c>
@@ -38128,7 +38085,7 @@
         <f>'Martin L'!D64</f>
         <v>Belgium</v>
       </c>
-      <c r="CE98" s="75">
+      <c r="CE98" s="36">
         <f>'Martin L'!E64</f>
         <v>1</v>
       </c>
@@ -38151,7 +38108,7 @@
         <f>'Martin L'!D70</f>
         <v>Uraguay</v>
       </c>
-      <c r="CL98" s="36">
+      <c r="CL98" s="74">
         <f>'Martin L'!E70</f>
         <v>0</v>
       </c>
@@ -38363,7 +38320,7 @@
         <f>'Martin L'!D65</f>
         <v>Morocco</v>
       </c>
-      <c r="CE99" s="75">
+      <c r="CE99" s="36">
         <f>'Martin L'!E65</f>
         <v>0</v>
       </c>
@@ -38384,7 +38341,7 @@
         <f>'Martin L'!D71</f>
         <v>Portugal</v>
       </c>
-      <c r="CL99" s="36">
+      <c r="CL99" s="74">
         <f>'Martin L'!E71</f>
         <v>0</v>
       </c>
@@ -38596,7 +38553,7 @@
         <f>'Martin L'!D66</f>
         <v>Spain</v>
       </c>
-      <c r="CE100" s="75">
+      <c r="CE100" s="36">
         <f>'Martin L'!E66</f>
         <v>0</v>
       </c>
@@ -38617,7 +38574,7 @@
         <f>'Martin L'!D72</f>
         <v>Switzerland</v>
       </c>
-      <c r="CL100" s="36">
+      <c r="CL100" s="74">
         <f>'Martin L'!E72</f>
         <v>0</v>
       </c>
@@ -38829,7 +38786,7 @@
         <f>'Martin L'!D67</f>
         <v>Germany</v>
       </c>
-      <c r="CE101" s="75">
+      <c r="CE101" s="36">
         <f>'Martin L'!E67</f>
         <v>2</v>
       </c>
@@ -38850,7 +38807,7 @@
         <f>'Martin L'!D73</f>
         <v>Brazil</v>
       </c>
-      <c r="CL101" s="36">
+      <c r="CL101" s="74">
         <f>'Martin L'!E73</f>
         <v>0</v>
       </c>
@@ -39082,7 +39039,7 @@
         <f>'Nathan W'!D53</f>
         <v>Belgium</v>
       </c>
-      <c r="CE102" s="74">
+      <c r="CE102" s="34">
         <f>'Nathan W'!E53</f>
         <v>0</v>
       </c>
@@ -39105,7 +39062,7 @@
         <f>'Nathan W'!D58</f>
         <v>Uruguay</v>
       </c>
-      <c r="CL102" s="34">
+      <c r="CL102" s="73">
         <f>'Nathan W'!E58</f>
         <v>0</v>
       </c>
@@ -39317,7 +39274,7 @@
         <f>'Nathan W'!D54</f>
         <v>Morocco</v>
       </c>
-      <c r="CE103" s="74">
+      <c r="CE103" s="34">
         <f>'Nathan W'!E54</f>
         <v>0</v>
       </c>
@@ -39338,7 +39295,7 @@
         <f>'Nathan W'!D59</f>
         <v>Portugal</v>
       </c>
-      <c r="CL103" s="34">
+      <c r="CL103" s="73">
         <f>'Nathan W'!E59</f>
         <v>0</v>
       </c>
@@ -39550,7 +39507,7 @@
         <f>'Nathan W'!D55</f>
         <v>Spain</v>
       </c>
-      <c r="CE104" s="74">
+      <c r="CE104" s="34">
         <f>'Nathan W'!E55</f>
         <v>0</v>
       </c>
@@ -39571,7 +39528,7 @@
         <f>'Nathan W'!D60</f>
         <v>Switzerland</v>
       </c>
-      <c r="CL104" s="34">
+      <c r="CL104" s="73">
         <f>'Nathan W'!E60</f>
         <v>0</v>
       </c>
@@ -39783,7 +39740,7 @@
         <f>'Nathan W'!D56</f>
         <v>Germany</v>
       </c>
-      <c r="CE105" s="74">
+      <c r="CE105" s="34">
         <f>'Nathan W'!E56</f>
         <v>2</v>
       </c>
@@ -39804,7 +39761,7 @@
         <f>'Nathan W'!D61</f>
         <v>Brazil</v>
       </c>
-      <c r="CL105" s="34">
+      <c r="CL105" s="73">
         <f>'Nathan W'!E61</f>
         <v>0</v>
       </c>
@@ -40036,7 +39993,7 @@
         <f>'Bernie R'!D64</f>
         <v>Belgium</v>
       </c>
-      <c r="CE106" s="74">
+      <c r="CE106" s="34">
         <f>'Bernie R'!E64</f>
         <v>0</v>
       </c>
@@ -40059,7 +40016,7 @@
         <f>'Bernie R'!D70</f>
         <v>Uruguay</v>
       </c>
-      <c r="CL106" s="34">
+      <c r="CL106" s="73">
         <f>'Bernie R'!E70</f>
         <v>0</v>
       </c>
@@ -40271,7 +40228,7 @@
         <f>'Bernie R'!D65</f>
         <v>Morocco</v>
       </c>
-      <c r="CE107" s="74">
+      <c r="CE107" s="34">
         <f>'Bernie R'!E65</f>
         <v>0</v>
       </c>
@@ -40292,7 +40249,7 @@
         <f>'Bernie R'!D71</f>
         <v>Portugal</v>
       </c>
-      <c r="CL107" s="34">
+      <c r="CL107" s="73">
         <f>'Bernie R'!E71</f>
         <v>0</v>
       </c>
@@ -40504,7 +40461,7 @@
         <f>'Bernie R'!D66</f>
         <v>Spain</v>
       </c>
-      <c r="CE108" s="74">
+      <c r="CE108" s="34">
         <f>'Bernie R'!E66</f>
         <v>0</v>
       </c>
@@ -40525,7 +40482,7 @@
         <f>'Bernie R'!D72</f>
         <v>Switzerland</v>
       </c>
-      <c r="CL108" s="34">
+      <c r="CL108" s="73">
         <f>'Bernie R'!E72</f>
         <v>0</v>
       </c>
@@ -40737,7 +40694,7 @@
         <f>'Bernie R'!D67</f>
         <v>Germany</v>
       </c>
-      <c r="CE109" s="74">
+      <c r="CE109" s="34">
         <f>'Bernie R'!E67</f>
         <v>1</v>
       </c>
@@ -40758,7 +40715,7 @@
         <f>'Bernie R'!D73</f>
         <v>Brazil</v>
       </c>
-      <c r="CL109" s="34">
+      <c r="CL109" s="73">
         <f>'Bernie R'!E73</f>
         <v>0</v>
       </c>
@@ -40990,7 +40947,7 @@
         <f>'Derek b'!D64</f>
         <v>Belgium</v>
       </c>
-      <c r="CE110" s="76">
+      <c r="CE110" s="38">
         <f>'Derek b'!E64</f>
         <v>0</v>
       </c>
@@ -41013,7 +40970,7 @@
         <f>'Derek b'!D70</f>
         <v>Uruguay</v>
       </c>
-      <c r="CL110" s="38">
+      <c r="CL110" s="75">
         <f>'Derek b'!E70</f>
         <v>0</v>
       </c>
@@ -41225,7 +41182,7 @@
         <f>'Derek b'!D65</f>
         <v>Morocco</v>
       </c>
-      <c r="CE111" s="76">
+      <c r="CE111" s="38">
         <f>'Derek b'!E65</f>
         <v>0</v>
       </c>
@@ -41246,7 +41203,7 @@
         <f>'Derek b'!D71</f>
         <v>Portugal</v>
       </c>
-      <c r="CL111" s="38">
+      <c r="CL111" s="75">
         <f>'Derek b'!E71</f>
         <v>0</v>
       </c>
@@ -41458,7 +41415,7 @@
         <f>'Derek b'!D66</f>
         <v>Spain</v>
       </c>
-      <c r="CE112" s="76">
+      <c r="CE112" s="38">
         <f>'Derek b'!E66</f>
         <v>0</v>
       </c>
@@ -41479,7 +41436,7 @@
         <f>'Derek b'!D72</f>
         <v>Switzerland</v>
       </c>
-      <c r="CL112" s="38">
+      <c r="CL112" s="75">
         <f>'Derek b'!E72</f>
         <v>0</v>
       </c>
@@ -41691,7 +41648,7 @@
         <f>'Derek b'!D67</f>
         <v>Germany</v>
       </c>
-      <c r="CE113" s="76">
+      <c r="CE113" s="38">
         <f>'Derek b'!E67</f>
         <v>1</v>
       </c>
@@ -41712,7 +41669,7 @@
         <f>'Derek b'!D73</f>
         <v>Brazil</v>
       </c>
-      <c r="CL113" s="38">
+      <c r="CL113" s="75">
         <f>'Derek b'!E73</f>
         <v>0</v>
       </c>
@@ -41944,7 +41901,7 @@
         <f>'Mother B'!D64</f>
         <v>Belgium</v>
       </c>
-      <c r="CE114" s="76">
+      <c r="CE114" s="38">
         <f>'Mother B'!E64</f>
         <v>0</v>
       </c>
@@ -41967,7 +41924,7 @@
         <f>'Mother B'!D70</f>
         <v>Uruguay</v>
       </c>
-      <c r="CL114" s="38">
+      <c r="CL114" s="75">
         <f>'Mother B'!E70</f>
         <v>0</v>
       </c>
@@ -42179,7 +42136,7 @@
         <f>'Mother B'!D65</f>
         <v>Morocco</v>
       </c>
-      <c r="CE115" s="76">
+      <c r="CE115" s="38">
         <f>'Mother B'!E65</f>
         <v>0</v>
       </c>
@@ -42200,7 +42157,7 @@
         <f>'Mother B'!D71</f>
         <v>Portugal</v>
       </c>
-      <c r="CL115" s="38">
+      <c r="CL115" s="75">
         <f>'Mother B'!E71</f>
         <v>0</v>
       </c>
@@ -42412,7 +42369,7 @@
         <f>'Mother B'!D66</f>
         <v>Spain</v>
       </c>
-      <c r="CE116" s="76">
+      <c r="CE116" s="38">
         <f>'Mother B'!E66</f>
         <v>0</v>
       </c>
@@ -42433,7 +42390,7 @@
         <f>'Mother B'!D72</f>
         <v>Switzerland</v>
       </c>
-      <c r="CL116" s="38">
+      <c r="CL116" s="75">
         <f>'Mother B'!E72</f>
         <v>0</v>
       </c>
@@ -42645,7 +42602,7 @@
         <f>'Mother B'!D67</f>
         <v>Germany</v>
       </c>
-      <c r="CE117" s="76">
+      <c r="CE117" s="38">
         <f>'Mother B'!E67</f>
         <v>1</v>
       </c>
@@ -42666,7 +42623,7 @@
         <f>'Mother B'!D73</f>
         <v>Brazil</v>
       </c>
-      <c r="CL117" s="38">
+      <c r="CL117" s="75">
         <f>'Mother B'!E73</f>
         <v>0</v>
       </c>
@@ -42898,7 +42855,7 @@
         <f>'James W'!D64</f>
         <v>Belgium</v>
       </c>
-      <c r="CE118" s="76">
+      <c r="CE118" s="38">
         <f>'James W'!E64</f>
         <v>1</v>
       </c>
@@ -42921,7 +42878,7 @@
         <f>'James W'!D70</f>
         <v>Uruguay</v>
       </c>
-      <c r="CL118" s="38">
+      <c r="CL118" s="75">
         <f>'James W'!E70</f>
         <v>0</v>
       </c>
@@ -43133,7 +43090,7 @@
         <f>'James W'!D65</f>
         <v>Morocco</v>
       </c>
-      <c r="CE119" s="76">
+      <c r="CE119" s="38">
         <f>'James W'!E65</f>
         <v>0</v>
       </c>
@@ -43154,7 +43111,7 @@
         <f>'James W'!D71</f>
         <v>Portugal</v>
       </c>
-      <c r="CL119" s="38">
+      <c r="CL119" s="75">
         <f>'James W'!E71</f>
         <v>0</v>
       </c>
@@ -43366,7 +43323,7 @@
         <f>'James W'!D66</f>
         <v>Spain</v>
       </c>
-      <c r="CE120" s="76">
+      <c r="CE120" s="38">
         <f>'James W'!E66</f>
         <v>0</v>
       </c>
@@ -43387,7 +43344,7 @@
         <f>'James W'!D72</f>
         <v>Switzerland</v>
       </c>
-      <c r="CL120" s="38">
+      <c r="CL120" s="75">
         <f>'James W'!E72</f>
         <v>0</v>
       </c>
@@ -43599,7 +43556,7 @@
         <f>'James W'!D67</f>
         <v>Germany</v>
       </c>
-      <c r="CE121" s="76">
+      <c r="CE121" s="38">
         <f>'James W'!E67</f>
         <v>1</v>
       </c>
@@ -43620,7 +43577,7 @@
         <f>'James W'!D73</f>
         <v>Brazil</v>
       </c>
-      <c r="CL121" s="38">
+      <c r="CL121" s="75">
         <f>'James W'!E73</f>
         <v>0</v>
       </c>
@@ -43852,7 +43809,7 @@
         <f>'Nikki W'!D64</f>
         <v>Belgium</v>
       </c>
-      <c r="CE122" s="76">
+      <c r="CE122" s="38">
         <f>'Nikki W'!E64</f>
         <v>1</v>
       </c>
@@ -43875,7 +43832,7 @@
         <f>'Nikki W'!D70</f>
         <v>Uruguay</v>
       </c>
-      <c r="CL122" s="38">
+      <c r="CL122" s="75">
         <f>'Nikki W'!E70</f>
         <v>0</v>
       </c>
@@ -44087,7 +44044,7 @@
         <f>'Nikki W'!D65</f>
         <v>Morocco</v>
       </c>
-      <c r="CE123" s="76">
+      <c r="CE123" s="38">
         <f>'Nikki W'!E65</f>
         <v>0</v>
       </c>
@@ -44108,7 +44065,7 @@
         <f>'Nikki W'!D71</f>
         <v>Portugal</v>
       </c>
-      <c r="CL123" s="38">
+      <c r="CL123" s="75">
         <f>'Nikki W'!E71</f>
         <v>0</v>
       </c>
@@ -44320,7 +44277,7 @@
         <f>'Nikki W'!D66</f>
         <v>Spain</v>
       </c>
-      <c r="CE124" s="76">
+      <c r="CE124" s="38">
         <f>'Nikki W'!E66</f>
         <v>0</v>
       </c>
@@ -44341,7 +44298,7 @@
         <f>'Nikki W'!D72</f>
         <v>Switzerland</v>
       </c>
-      <c r="CL124" s="38">
+      <c r="CL124" s="75">
         <f>'Nikki W'!E72</f>
         <v>0</v>
       </c>
@@ -44553,7 +44510,7 @@
         <f>'Nikki W'!D67</f>
         <v>Germany</v>
       </c>
-      <c r="CE125" s="76">
+      <c r="CE125" s="38">
         <f>'Nikki W'!E67</f>
         <v>2</v>
       </c>
@@ -44574,19 +44531,13 @@
         <f>'Nikki W'!D73</f>
         <v>Brazil</v>
       </c>
-      <c r="CL125" s="38">
+      <c r="CL125" s="75">
         <f>'Nikki W'!E73</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="CH1:CK1"/>
     <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="AY1:BB1"/>
@@ -44594,6 +44545,12 @@
     <mergeCell ref="BM1:BP1"/>
     <mergeCell ref="BT1:BW1"/>
     <mergeCell ref="CA1:CD1"/>
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AD1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -45584,12 +45541,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -45597,6 +45548,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -49586,12 +49543,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -49599,6 +49550,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67:C73 B66 B1:C65" xr:uid="{156C7248-1706-4E17-9BB6-079B78DEF479}">
@@ -50611,12 +50568,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -50624,6 +50575,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{05F05F3A-89C6-E74F-BB5C-B82EDA718869}">
@@ -51636,12 +51593,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -51649,6 +51600,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{A2199F60-9E4F-6445-90E3-92673D510A9D}">
@@ -52661,6 +52618,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -52668,12 +52631,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{2B53EE05-D1D3-374E-8836-2425C3E2B4A5}">
@@ -53692,6 +53649,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -53699,12 +53662,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C75" xr:uid="{A6BA8386-7538-B943-BC89-6C717665472C}">
@@ -54717,6 +54674,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -54724,12 +54687,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{CBEDE9B1-CCD8-024F-8FF6-52E83D09DD5F}">
@@ -55296,18 +55253,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="B64:E64"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="B46:E46"/>
     <mergeCell ref="B52:E52"/>
     <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -56314,6 +56271,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -56321,12 +56284,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{9D4EDCA2-2FFE-E64B-A34E-466DD99F6343}">
@@ -57339,6 +57296,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -57346,12 +57309,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -58358,12 +58315,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -58371,6 +58322,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{8427FA4B-D7DC-C74F-B6C6-02A04CEA1479}">
@@ -59386,12 +59343,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -59399,6 +59350,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{8A242A5A-737B-3248-9203-1E18FA7E8CAD}">
@@ -60411,6 +60368,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -60418,12 +60381,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -61430,6 +61387,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -61437,12 +61400,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -62675,12 +62632,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -62688,6 +62639,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{98289B19-A16E-8E48-AC84-DA2AC3E66DBF}">
@@ -63700,6 +63657,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -63707,12 +63670,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -64719,12 +64676,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -64732,6 +64683,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{F2D3BCCF-F868-974E-AEC9-AB88E8DBE8B7}">
@@ -65744,12 +65701,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -65757,6 +65708,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{85A9722B-955B-CF41-A6F3-38FDC4B48A7A}">
@@ -66769,12 +66726,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -66782,6 +66733,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{A72D56DF-9BC0-2E49-9D2A-B8E721479EEF}">

--- a/resources/Forms/Excel/Big Sheet.xlsx
+++ b/resources/Forms/Excel/Big Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie_Take2/FootieTake2/resources/Forms/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie/FootieTake2/resources/Forms/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F288B0-AD8A-604C-9BA7-78123C521963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5398B459-3F2A-264D-8FE6-DB52280A4404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="500" windowWidth="37080" windowHeight="19480" tabRatio="800" firstSheet="2" activeTab="2" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" tabRatio="800" firstSheet="2" activeTab="2" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Ranking" sheetId="5" r:id="rId1"/>
@@ -461,7 +461,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -518,6 +518,13 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -825,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -946,10 +953,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -958,18 +975,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1010,13 +1024,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1088,17 +1097,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>804334</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>148294</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>550334</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>116730</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95065BB7-1F7D-C697-C44E-CA682C74E379}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A972E0BD-0EC8-213B-C4D4-271E5F1D00C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1115,7 +1124,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2556933" y="0"/>
-          <a:ext cx="4995334" cy="18842694"/>
+          <a:ext cx="5579534" cy="21046330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1133,21 +1142,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>206</xdr:row>
-      <xdr:rowOff>8512</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>107424</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B07F451D-A6F9-CCA7-F4B2-9667CD8446BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D184A16-A780-9613-3DDC-A2EF7F856F94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1163,8 +1172,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10972800"/>
-          <a:ext cx="11798300" cy="30894912"/>
+          <a:off x="0" y="10566400"/>
+          <a:ext cx="9740900" cy="25507424"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1475,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88DB2AD-0B7A-2B40-B11D-A4AE4E9DB3F2}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A17" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1507,13 +1516,13 @@
       </c>
       <c r="C2" s="15">
         <f>'Keith W'!E99</f>
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>'Alison S'!D99</f>
@@ -1521,7 +1530,7 @@
       </c>
       <c r="C3" s="15">
         <f>'Alison S'!E99</f>
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1535,13 +1544,13 @@
       </c>
       <c r="C4" s="15">
         <f>'Mandy B'!E99</f>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>'Rob TH'!D99</f>
@@ -1555,7 +1564,7 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>'Keith G'!D99</f>
@@ -1563,7 +1572,7 @@
       </c>
       <c r="C6" s="15">
         <f>'Keith G'!E99</f>
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1577,7 +1586,7 @@
       </c>
       <c r="C7" s="15">
         <f>'Andy B'!E99</f>
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1591,7 +1600,7 @@
       </c>
       <c r="C8" s="15">
         <f>'Freddie J'!E99</f>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1619,7 +1628,7 @@
       </c>
       <c r="C10" s="15">
         <f>'Alice D'!E99</f>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1633,13 +1642,13 @@
       </c>
       <c r="C11" s="15">
         <f>'Barbara L'!E99</f>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="str">
         <f>'Dawn G'!D99</f>
@@ -1653,7 +1662,7 @@
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2" t="str">
         <f>'Bernie R'!D99</f>
@@ -1661,13 +1670,13 @@
       </c>
       <c r="C13" s="2">
         <f>'Bernie R'!E99</f>
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="str">
         <f>'Gabriel B'!D99</f>
@@ -1681,7 +1690,7 @@
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="str">
         <f>'Nikki W'!D75</f>
@@ -1703,7 +1712,7 @@
       </c>
       <c r="C16" s="15">
         <f>'Jacques Chi'!E99</f>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1737,7 +1746,7 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="str">
         <f>'Dave B'!D99</f>
@@ -1751,7 +1760,7 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="str">
         <f>'Robert L'!D99</f>
@@ -1765,7 +1774,7 @@
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B21" s="2" t="str">
         <f>'Liz W'!D99</f>
@@ -1773,7 +1782,7 @@
       </c>
       <c r="C21" s="15">
         <f>'Liz W'!E99</f>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1849,7 +1858,7 @@
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27" s="13" t="str">
         <f>'Marjorie L'!D99</f>
@@ -1857,13 +1866,13 @@
       </c>
       <c r="C27" s="16">
         <f>'Marjorie L'!E99</f>
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28" s="13" t="str">
         <f>'Stuart L'!D99</f>
@@ -1871,7 +1880,7 @@
       </c>
       <c r="C28" s="16">
         <f>'Stuart L'!E99</f>
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1885,7 +1894,7 @@
       </c>
       <c r="C29" s="2">
         <f>'Mother B'!E99</f>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1899,7 +1908,7 @@
       </c>
       <c r="C30" s="15">
         <f>'Martin L'!E99</f>
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1945,18 +1954,18 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
@@ -1982,12 +1991,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
@@ -2047,12 +2056,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
@@ -2129,12 +2138,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
@@ -2211,12 +2220,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="34" t="s">
@@ -2293,12 +2302,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="34" t="s">
@@ -2375,12 +2384,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="34" t="s">
@@ -2457,12 +2466,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="64" t="s">
+      <c r="A39" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="64"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="34" t="s">
@@ -2539,12 +2548,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="64" t="s">
+      <c r="A45" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="64"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="34" t="s">
@@ -2621,12 +2630,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="64" t="s">
+      <c r="A51" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="64"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="34" t="s">
@@ -2703,12 +2712,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="64" t="s">
+      <c r="A57" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="64"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="64"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="34" t="s">
@@ -2785,12 +2794,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="64" t="s">
+      <c r="A63" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="64"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="34" t="s">
@@ -2867,12 +2876,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="64" t="s">
+      <c r="A69" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="64"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="34" t="s">
@@ -2963,6 +2972,9 @@
       <c r="D75" s="48" t="s">
         <v>34</v>
       </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="48" t="s">
@@ -3230,11 +3242,24 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -3244,19 +3269,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{A72D56DF-9BC0-2E49-9D2A-B8E721479EEF}">
@@ -3273,18 +3285,18 @@
   <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView topLeftCell="A56" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="67"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="70"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
@@ -3304,12 +3316,12 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="70"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
@@ -3363,12 +3375,12 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="67"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
@@ -3439,12 +3451,12 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="70"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
@@ -3515,12 +3527,12 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="67"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="70"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
@@ -3591,12 +3603,12 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="67"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="70"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="32" t="s">
@@ -3667,12 +3679,12 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="67"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="70"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="32" t="s">
@@ -3743,12 +3755,12 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="67"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="70"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="32" t="s">
@@ -3819,12 +3831,12 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="65" t="s">
+      <c r="A37" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="67"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="70"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="32" t="s">
@@ -3895,12 +3907,12 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="65" t="s">
+      <c r="A42" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="66"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="67"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="70"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="32" t="s">
@@ -3971,12 +3983,12 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="65" t="s">
+      <c r="A47" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="66"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="67"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="70"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="32" t="s">
@@ -4047,12 +4059,12 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="65" t="s">
+      <c r="A52" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="66"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="67"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="70"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="32" t="s">
@@ -4123,12 +4135,12 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="65" t="s">
+      <c r="A57" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="66"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="67"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="70"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="32" t="s">
@@ -4219,6 +4231,9 @@
       <c r="D63" s="48" t="s">
         <v>34</v>
       </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="48" t="s">
@@ -4491,6 +4506,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A17:D17"/>
     <mergeCell ref="A77:D77"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A82:D82"/>
@@ -4500,19 +4528,6 @@
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="A71:D71"/>
     <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A52:D52"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62:C84" xr:uid="{C11CF323-092E-EA4D-9917-FC21144EBBB1}">
@@ -4529,18 +4544,18 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="73"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
@@ -4566,12 +4581,12 @@
       <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -4631,12 +4646,12 @@
       <c r="D8" s="31"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="70"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
@@ -4713,12 +4728,12 @@
       <c r="D14" s="31"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
@@ -4795,12 +4810,12 @@
       <c r="D20" s="31"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="70"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="73"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
@@ -4877,12 +4892,12 @@
       <c r="D26" s="31"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="70"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="73"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
@@ -4959,12 +4974,12 @@
       <c r="D32" s="31"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="68" t="s">
+      <c r="A33" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="70"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="73"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
@@ -5041,12 +5056,12 @@
       <c r="D38" s="31"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="68" t="s">
+      <c r="A39" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="70"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="73"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="25" t="s">
@@ -5123,12 +5138,12 @@
       <c r="D44" s="31"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="68" t="s">
+      <c r="A45" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="70"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="73"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
@@ -5205,12 +5220,12 @@
       <c r="D50" s="31"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="68" t="s">
+      <c r="A51" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="70"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="73"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="25" t="s">
@@ -5287,12 +5302,12 @@
       <c r="D56" s="31"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="68" t="s">
+      <c r="A57" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="69"/>
-      <c r="C57" s="69"/>
-      <c r="D57" s="70"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="73"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="25" t="s">
@@ -5369,12 +5384,12 @@
       <c r="D62" s="31"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="68" t="s">
+      <c r="A63" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="69"/>
-      <c r="C63" s="69"/>
-      <c r="D63" s="70"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="73"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="25" t="s">
@@ -5451,12 +5466,12 @@
       <c r="D68" s="31"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="68" t="s">
+      <c r="A69" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="69"/>
-      <c r="C69" s="69"/>
-      <c r="D69" s="70"/>
+      <c r="B69" s="72"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="73"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="25" t="s">
@@ -5546,6 +5561,9 @@
       </c>
       <c r="D75" s="48" t="s">
         <v>34</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -5823,7 +5841,7 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -5834,6 +5852,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -5843,19 +5874,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{EC36F1B5-3564-784F-B3C5-B041B2C2E87E}">
@@ -5872,18 +5890,18 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="73"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="76"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -5909,12 +5927,12 @@
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="73"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -5974,12 +5992,12 @@
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -6056,12 +6074,12 @@
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="73"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
@@ -6138,12 +6156,12 @@
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="73"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
@@ -6220,12 +6238,12 @@
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="73"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="76"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
@@ -6302,12 +6320,12 @@
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="71" t="s">
+      <c r="A33" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="73"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="76"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
@@ -6384,12 +6402,12 @@
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="71" t="s">
+      <c r="A39" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="72"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="73"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="76"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
@@ -6466,12 +6484,12 @@
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="71" t="s">
+      <c r="A45" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="72"/>
-      <c r="C45" s="72"/>
-      <c r="D45" s="73"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="76"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
@@ -6548,12 +6566,12 @@
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="71" t="s">
+      <c r="A51" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="72"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="73"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="76"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
@@ -6630,12 +6648,12 @@
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="71" t="s">
+      <c r="A57" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="72"/>
-      <c r="C57" s="72"/>
-      <c r="D57" s="73"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="76"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
@@ -6712,12 +6730,12 @@
       <c r="D62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="71" t="s">
+      <c r="A63" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="72"/>
-      <c r="C63" s="72"/>
-      <c r="D63" s="73"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="75"/>
+      <c r="D63" s="76"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
@@ -6794,12 +6812,12 @@
       <c r="D68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="71" t="s">
+      <c r="A69" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="72"/>
-      <c r="C69" s="72"/>
-      <c r="D69" s="73"/>
+      <c r="B69" s="75"/>
+      <c r="C69" s="75"/>
+      <c r="D69" s="76"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
@@ -6890,6 +6908,9 @@
       <c r="D75" s="48" t="s">
         <v>34</v>
       </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="48" t="s">
@@ -7157,11 +7178,24 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -7171,19 +7205,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{A0FD6351-8E4F-C04E-BE54-C8F4EA5F1555}">
@@ -7200,18 +7221,18 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -7237,12 +7258,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -7302,12 +7323,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -7384,12 +7405,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -7466,12 +7487,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -7548,12 +7569,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -7630,12 +7651,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -7712,12 +7733,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -7794,12 +7815,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -7876,12 +7897,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -7958,12 +7979,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -8040,12 +8061,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="52" t="s">
+      <c r="A63" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -8122,12 +8143,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="52" t="s">
+      <c r="A69" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -8217,6 +8238,9 @@
       </c>
       <c r="D75" s="48" t="s">
         <v>34</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -8491,7 +8515,7 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -8500,6 +8524,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -8509,19 +8546,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C100" xr:uid="{912C664E-C133-1E4F-9640-4A25EB9EF25D}">
@@ -8538,18 +8562,18 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="I88" sqref="I88"/>
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -8575,12 +8599,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -8640,12 +8664,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -8722,12 +8746,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -8804,12 +8828,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -8886,12 +8910,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -8968,12 +8992,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -9050,12 +9074,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -9132,12 +9156,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -9214,12 +9238,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -9296,12 +9320,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -9378,12 +9402,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="52" t="s">
+      <c r="A63" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -9460,12 +9484,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="52" t="s">
+      <c r="A69" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -9556,6 +9580,9 @@
       <c r="D75" s="48" t="s">
         <v>34</v>
       </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="48" t="s">
@@ -9819,11 +9846,24 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -9833,19 +9873,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{B20B3CE4-DCB9-4E4A-AC39-D9DA073FCC61}">
@@ -9862,18 +9889,18 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="76"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
@@ -9899,12 +9926,12 @@
       <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
@@ -9964,12 +9991,12 @@
       <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="76"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="79"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
@@ -10046,12 +10073,12 @@
       <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="76"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="79"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
@@ -10128,12 +10155,12 @@
       <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="76"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="79"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
@@ -10210,12 +10237,12 @@
       <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="76"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="79"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
@@ -10292,12 +10319,12 @@
       <c r="D32" s="21"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="74" t="s">
+      <c r="A33" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="76"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="79"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
@@ -10374,12 +10401,12 @@
       <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="74" t="s">
+      <c r="A39" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="75"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="76"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="79"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
@@ -10456,12 +10483,12 @@
       <c r="D44" s="21"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="74" t="s">
+      <c r="A45" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="75"/>
-      <c r="C45" s="75"/>
-      <c r="D45" s="76"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="79"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
@@ -10538,12 +10565,12 @@
       <c r="D50" s="21"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="74" t="s">
+      <c r="A51" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="75"/>
-      <c r="C51" s="75"/>
-      <c r="D51" s="76"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="79"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
@@ -10616,12 +10643,12 @@
       <c r="D56" s="21"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="74" t="s">
+      <c r="A57" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="75"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="76"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="79"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
@@ -10698,12 +10725,12 @@
       <c r="D62" s="21"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="74" t="s">
+      <c r="A63" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="75"/>
-      <c r="C63" s="75"/>
-      <c r="D63" s="76"/>
+      <c r="B63" s="78"/>
+      <c r="C63" s="78"/>
+      <c r="D63" s="79"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
@@ -10780,12 +10807,12 @@
       <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="74" t="s">
+      <c r="A69" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="75"/>
-      <c r="C69" s="75"/>
-      <c r="D69" s="76"/>
+      <c r="B69" s="78"/>
+      <c r="C69" s="78"/>
+      <c r="D69" s="79"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
@@ -10876,6 +10903,9 @@
       <c r="D75" s="48" t="s">
         <v>34</v>
       </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="48" t="s">
@@ -11143,11 +11173,24 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -11157,19 +11200,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{D0B3E49D-2BC1-6E4D-9735-2E4B121876A2}">
@@ -11186,18 +11216,18 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="80"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
@@ -11223,12 +11253,12 @@
       <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="80"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
@@ -11288,12 +11318,12 @@
       <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="77"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="80"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
@@ -11370,12 +11400,12 @@
       <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="77"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="80"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
@@ -11452,12 +11482,12 @@
       <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="77"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="80"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
@@ -11534,12 +11564,12 @@
       <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="77"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="80"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
@@ -11616,12 +11646,12 @@
       <c r="D32" s="21"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="74" t="s">
+      <c r="A33" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="77"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="80"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
@@ -11698,12 +11728,12 @@
       <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="74" t="s">
+      <c r="A39" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="75"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="77"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="80"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
@@ -11780,12 +11810,12 @@
       <c r="D44" s="21"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="74" t="s">
+      <c r="A45" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="75"/>
-      <c r="C45" s="75"/>
-      <c r="D45" s="77"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="80"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
@@ -11862,12 +11892,12 @@
       <c r="D50" s="21"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="74" t="s">
+      <c r="A51" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="75"/>
-      <c r="C51" s="75"/>
-      <c r="D51" s="77"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="80"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
@@ -11944,12 +11974,12 @@
       <c r="D56" s="21"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="74" t="s">
+      <c r="A57" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="75"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="77"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="80"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
@@ -12026,12 +12056,12 @@
       <c r="D62" s="21"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="74" t="s">
+      <c r="A63" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="75"/>
-      <c r="C63" s="75"/>
-      <c r="D63" s="77"/>
+      <c r="B63" s="78"/>
+      <c r="C63" s="78"/>
+      <c r="D63" s="80"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
@@ -12108,12 +12138,12 @@
       <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="74" t="s">
+      <c r="A69" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="75"/>
-      <c r="C69" s="75"/>
-      <c r="D69" s="77"/>
+      <c r="B69" s="78"/>
+      <c r="C69" s="78"/>
+      <c r="D69" s="80"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
@@ -12204,6 +12234,9 @@
       <c r="D75" s="48" t="s">
         <v>34</v>
       </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="48" t="s">
@@ -12476,6 +12509,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -12485,19 +12531,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{60ADF05C-298C-944D-B683-D8C73BF6553D}">
@@ -12514,18 +12547,18 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -12551,12 +12584,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -12616,12 +12649,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -12698,12 +12731,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -12780,12 +12813,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -12862,12 +12895,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -12944,12 +12977,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -13026,12 +13059,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -13108,12 +13141,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -13190,12 +13223,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -13272,12 +13305,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -13354,12 +13387,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="52" t="s">
+      <c r="A63" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -13436,12 +13469,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="52" t="s">
+      <c r="A69" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -13532,6 +13565,9 @@
       <c r="D75" s="48" t="s">
         <v>34</v>
       </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="48" t="s">
@@ -13808,6 +13844,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -13817,19 +13866,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C98" xr:uid="{F68D3FFC-EF79-CC40-8F53-8BF21A5E1341}">
@@ -13846,7 +13882,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13855,12 +13891,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -13886,12 +13922,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -13951,12 +13987,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -14033,12 +14069,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -14115,12 +14151,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -14197,12 +14233,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -14279,12 +14315,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -14361,12 +14397,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -14443,12 +14479,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -14525,12 +14561,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -14607,12 +14643,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -14689,12 +14725,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="52" t="s">
+      <c r="A63" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -14771,12 +14807,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="52" t="s">
+      <c r="A69" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -14867,6 +14903,9 @@
       <c r="D75" s="48" t="s">
         <v>34</v>
       </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="48" t="s">
@@ -15134,11 +15173,24 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -15148,19 +15200,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C97" xr:uid="{11A7353F-6A05-F048-B4B5-2330C623E382}">
@@ -15257,156 +15296,156 @@
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
       <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="P1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
       <c r="T1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="52" t="s">
+      <c r="W1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
       <c r="AA1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AC1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" s="52" t="s">
+      <c r="AD1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
       <c r="AH1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AJ1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AK1" s="52" t="s">
+      <c r="AK1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
       <c r="AO1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AQ1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="52" t="s">
+      <c r="AR1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
       <c r="AV1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AX1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AY1" s="52" t="s">
+      <c r="AY1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="52"/>
-      <c r="BB1" s="52"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="53"/>
+      <c r="BB1" s="53"/>
       <c r="BC1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="BE1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BF1" s="53" t="s">
+      <c r="BF1" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="BG1" s="53"/>
-      <c r="BH1" s="53"/>
-      <c r="BI1" s="53"/>
+      <c r="BG1" s="54"/>
+      <c r="BH1" s="54"/>
+      <c r="BI1" s="54"/>
       <c r="BJ1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="BL1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BM1" s="52" t="s">
+      <c r="BM1" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="BN1" s="52"/>
-      <c r="BO1" s="52"/>
-      <c r="BP1" s="52"/>
+      <c r="BN1" s="53"/>
+      <c r="BO1" s="53"/>
+      <c r="BP1" s="53"/>
       <c r="BQ1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="BS1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BT1" s="52" t="s">
+      <c r="BT1" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="BU1" s="52"/>
-      <c r="BV1" s="52"/>
-      <c r="BW1" s="52"/>
+      <c r="BU1" s="53"/>
+      <c r="BV1" s="53"/>
+      <c r="BW1" s="53"/>
       <c r="BX1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="BZ1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="CA1" s="52" t="s">
+      <c r="CA1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="CB1" s="52"/>
-      <c r="CC1" s="52"/>
-      <c r="CD1" s="52"/>
+      <c r="CB1" s="53"/>
+      <c r="CC1" s="53"/>
+      <c r="CD1" s="53"/>
       <c r="CE1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="CG1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="CH1" s="52" t="s">
+      <c r="CH1" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="CI1" s="52"/>
-      <c r="CJ1" s="52"/>
-      <c r="CK1" s="52"/>
+      <c r="CI1" s="53"/>
+      <c r="CJ1" s="53"/>
+      <c r="CK1" s="53"/>
       <c r="CL1" s="1" t="s">
         <v>2</v>
       </c>
@@ -47715,12 +47754,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="CH1:CK1"/>
     <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="AY1:BB1"/>
@@ -47728,6 +47761,12 @@
     <mergeCell ref="BM1:BP1"/>
     <mergeCell ref="BT1:BW1"/>
     <mergeCell ref="CA1:CD1"/>
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AD1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -47745,18 +47784,18 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A58" zoomScale="106" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -47782,12 +47821,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -47847,12 +47886,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -47929,12 +47968,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -48011,12 +48050,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -48093,12 +48132,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -48175,12 +48214,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -48257,12 +48296,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -48339,12 +48378,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -48421,12 +48460,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -48503,12 +48542,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -48585,12 +48624,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="52" t="s">
+      <c r="A63" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -48667,12 +48706,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="52" t="s">
+      <c r="A69" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -48763,6 +48802,9 @@
       <c r="D75" s="48" t="s">
         <v>34</v>
       </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="48" t="s">
@@ -49030,11 +49072,24 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -49044,19 +49099,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{79F4B324-FC19-7044-8ECD-3029BC735257}">
@@ -49079,12 +49121,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -49108,12 +49150,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -49171,12 +49213,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -49251,12 +49293,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -49331,12 +49373,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -49411,12 +49453,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -49491,12 +49533,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -49571,12 +49613,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -49651,12 +49693,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -49731,12 +49773,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -49811,12 +49853,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -49891,12 +49933,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="52" t="s">
+      <c r="A63" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -49971,12 +50013,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="52" t="s">
+      <c r="A69" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -50245,6 +50287,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -50254,19 +50309,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{BE5067DB-A56D-FF40-9C9A-839412CFE3CC}">
@@ -50283,18 +50325,18 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -50318,12 +50360,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -50381,12 +50423,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -50461,12 +50503,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -50541,12 +50583,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -50621,12 +50663,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -50701,12 +50743,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -50781,12 +50823,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -50861,12 +50903,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -50941,12 +50983,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -51021,12 +51063,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -51101,12 +51143,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="52" t="s">
+      <c r="A63" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -51181,12 +51223,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="52" t="s">
+      <c r="A69" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -51277,6 +51319,9 @@
       <c r="D75" s="48" t="s">
         <v>34</v>
       </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="48" t="s">
@@ -51549,15 +51594,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A86:D86"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
@@ -51571,6 +51607,15 @@
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{84866E23-2C57-B247-AC72-E241400D8978}">
@@ -51587,18 +51632,18 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -51624,12 +51669,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -51689,12 +51734,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -51771,12 +51816,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -51853,12 +51898,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -51935,12 +51980,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -52017,12 +52062,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -52099,12 +52144,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -52181,12 +52226,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -52263,12 +52308,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -52345,12 +52390,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -52427,12 +52472,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="52" t="s">
+      <c r="A63" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -52509,12 +52554,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="52" t="s">
+      <c r="A69" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -52605,6 +52650,9 @@
       <c r="D75" s="48" t="s">
         <v>34</v>
       </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="48" t="s">
@@ -52877,6 +52925,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -52886,19 +52947,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C97" xr:uid="{05F05F3A-89C6-E74F-BB5C-B82EDA718869}">
@@ -52915,18 +52963,18 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -52952,12 +53000,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -53017,12 +53065,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -53099,12 +53147,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -53181,12 +53229,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -53263,12 +53311,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -53345,12 +53393,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -53427,12 +53475,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -53509,12 +53557,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -53591,12 +53639,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -53673,12 +53721,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -53755,12 +53803,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="52" t="s">
+      <c r="A63" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -53837,12 +53885,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="52" t="s">
+      <c r="A69" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -53932,6 +53980,9 @@
       </c>
       <c r="D75" s="48" t="s">
         <v>34</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -54198,11 +54249,24 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -54212,19 +54276,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{A2199F60-9E4F-6445-90E3-92673D510A9D}">
@@ -54241,18 +54292,18 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -54278,12 +54329,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -54343,12 +54394,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -54425,12 +54476,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -54507,12 +54558,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -54589,12 +54640,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -54671,12 +54722,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -54753,12 +54804,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -54835,12 +54886,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -54917,12 +54968,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -54999,12 +55050,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -55081,12 +55132,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="52" t="s">
+      <c r="A63" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -55163,12 +55214,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="52" t="s">
+      <c r="A69" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -55259,6 +55310,9 @@
       <c r="D75" s="48" t="s">
         <v>34</v>
       </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="48" t="s">
@@ -55531,6 +55585,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -55540,19 +55607,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{2B53EE05-D1D3-374E-8836-2425C3E2B4A5}">
@@ -55569,18 +55623,18 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:D80"/>
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -55606,12 +55660,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -55671,12 +55725,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -55753,12 +55807,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -55835,12 +55889,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -55917,12 +55971,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -55999,12 +56053,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -56081,12 +56135,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -56163,12 +56217,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -56245,12 +56299,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -56327,12 +56381,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -56409,12 +56463,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="52" t="s">
+      <c r="A63" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -56491,12 +56545,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="52" t="s">
+      <c r="A69" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -56586,6 +56640,9 @@
       </c>
       <c r="D75" s="48" t="s">
         <v>34</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -56865,6 +56922,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -56874,19 +56944,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C99" xr:uid="{A6BA8386-7538-B943-BC89-6C717665472C}">
@@ -56903,18 +56960,18 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -56940,12 +56997,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -57005,12 +57062,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -57087,12 +57144,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -57169,12 +57226,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -57251,12 +57308,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -57333,12 +57390,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -57415,12 +57472,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -57497,12 +57554,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -57579,12 +57636,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -57661,12 +57718,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -57743,12 +57800,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="52" t="s">
+      <c r="A63" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -57825,12 +57882,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="52" t="s">
+      <c r="A69" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -57921,6 +57978,9 @@
       <c r="D75" s="48" t="s">
         <v>34</v>
       </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="48" t="s">
@@ -58193,6 +58253,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -58202,19 +58275,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{CBEDE9B1-CCD8-024F-8FF6-52E83D09DD5F}">
@@ -58237,12 +58297,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -58268,12 +58328,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -58333,12 +58393,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -58415,12 +58475,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -58497,12 +58557,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -58579,12 +58639,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -58661,12 +58721,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -58743,12 +58803,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -58825,12 +58885,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -58907,12 +58967,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -58989,12 +59049,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -59071,12 +59131,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="52" t="s">
+      <c r="A63" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -59153,12 +59213,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="52" t="s">
+      <c r="A69" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -59427,6 +59487,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -59436,19 +59509,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{9D4EDCA2-2FFE-E64B-A34E-466DD99F6343}">
@@ -59465,18 +59525,18 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="80"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
@@ -59502,12 +59562,12 @@
       <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="80"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
@@ -59567,12 +59627,12 @@
       <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="77"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="80"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
@@ -59649,12 +59709,12 @@
       <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="77"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="80"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
@@ -59731,12 +59791,12 @@
       <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="77"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="80"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
@@ -59813,12 +59873,12 @@
       <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="77"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="80"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
@@ -59895,12 +59955,12 @@
       <c r="D32" s="21"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="74" t="s">
+      <c r="A33" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="77"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="80"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
@@ -59977,12 +60037,12 @@
       <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="74" t="s">
+      <c r="A39" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="75"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="77"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="80"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
@@ -60059,12 +60119,12 @@
       <c r="D44" s="21"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="74" t="s">
+      <c r="A45" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="75"/>
-      <c r="C45" s="75"/>
-      <c r="D45" s="77"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="80"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
@@ -60141,12 +60201,12 @@
       <c r="D50" s="21"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="74" t="s">
+      <c r="A51" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="75"/>
-      <c r="C51" s="75"/>
-      <c r="D51" s="77"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="80"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
@@ -60223,12 +60283,12 @@
       <c r="D56" s="21"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="74" t="s">
+      <c r="A57" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="75"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="77"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="80"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
@@ -60305,12 +60365,12 @@
       <c r="D62" s="21"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="74" t="s">
+      <c r="A63" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="75"/>
-      <c r="C63" s="75"/>
-      <c r="D63" s="77"/>
+      <c r="B63" s="78"/>
+      <c r="C63" s="78"/>
+      <c r="D63" s="80"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
@@ -60387,12 +60447,12 @@
       <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="74" t="s">
+      <c r="A69" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="75"/>
-      <c r="C69" s="75"/>
-      <c r="D69" s="77"/>
+      <c r="B69" s="78"/>
+      <c r="C69" s="78"/>
+      <c r="D69" s="80"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
@@ -60483,6 +60543,9 @@
       <c r="D75" s="48" t="s">
         <v>34</v>
       </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="48" t="s">
@@ -60750,11 +60813,24 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -60764,19 +60840,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{AF448023-A790-794F-BB14-4EE63C681037}">
@@ -60792,8 +60855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CA3D3A-5644-1847-8D60-65D782BB1346}">
   <dimension ref="A1:BJ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -60817,93 +60880,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
       <c r="F1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="78" t="s">
+      <c r="H1" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
       <c r="M1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="78" t="s">
+      <c r="O1" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
       <c r="T1" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="78" t="s">
+      <c r="V1" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
       <c r="AA1" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="78" t="s">
+      <c r="AC1" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
       <c r="AH1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AJ1" s="78" t="s">
+      <c r="AJ1" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
       <c r="AO1" t="s">
         <v>2</v>
       </c>
-      <c r="AQ1" s="78" t="s">
+      <c r="AQ1" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="78"/>
-      <c r="AU1" s="78"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="55"/>
       <c r="AV1" t="s">
         <v>2</v>
       </c>
-      <c r="AX1" s="78" t="s">
+      <c r="AX1" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="AY1" s="78"/>
-      <c r="AZ1" s="78"/>
-      <c r="BA1" s="78"/>
-      <c r="BB1" s="78"/>
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="55"/>
       <c r="BC1" t="s">
         <v>2</v>
       </c>
-      <c r="BE1" s="79" t="s">
+      <c r="BE1" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="BF1" s="79"/>
-      <c r="BG1" s="79"/>
-      <c r="BH1" s="79"/>
-      <c r="BI1" s="79"/>
+      <c r="BF1" s="56"/>
+      <c r="BG1" s="56"/>
+      <c r="BH1" s="56"/>
+      <c r="BI1" s="56"/>
       <c r="BJ1" s="51" t="s">
         <v>2</v>
       </c>
@@ -60928,9 +60991,9 @@
         <f>'James W'!D75</f>
         <v>United States</v>
       </c>
-      <c r="F2" s="80">
+      <c r="F2" s="81">
         <f>'James W'!E75</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
         <v>102</v>
@@ -61135,7 +61198,7 @@
         <f>'James W'!D76</f>
         <v>Australia</v>
       </c>
-      <c r="F3" s="80">
+      <c r="F3" s="52">
         <f>'James W'!E76</f>
         <v>0</v>
       </c>
@@ -61329,9 +61392,9 @@
         <f>'Mother B'!D75</f>
         <v>United States</v>
       </c>
-      <c r="F4" s="80">
+      <c r="F4" s="81">
         <f>'Mother B'!E75</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
         <v>101</v>
@@ -61467,7 +61530,7 @@
         <f>'Mother B'!D76</f>
         <v>Australia</v>
       </c>
-      <c r="F5" s="80">
+      <c r="F5" s="52">
         <f>'Mother B'!E76</f>
         <v>0</v>
       </c>
@@ -61592,9 +61655,9 @@
         <f>'Derek b'!D75</f>
         <v>United States</v>
       </c>
-      <c r="F6" s="80">
+      <c r="F6" s="81">
         <f>'Derek b'!E75</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" t="s">
         <v>100</v>
@@ -61630,7 +61693,7 @@
         <f>'Derek b'!D76</f>
         <v>Australia</v>
       </c>
-      <c r="F7" s="80">
+      <c r="F7" s="52">
         <f>'Derek b'!E76</f>
         <v>0</v>
       </c>
@@ -61655,9 +61718,9 @@
         <f>'Bernie R'!D75</f>
         <v>United States</v>
       </c>
-      <c r="F8" s="80">
+      <c r="F8" s="81">
         <f>'Bernie R'!E75</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" t="s">
         <v>99</v>
@@ -61693,7 +61756,7 @@
         <f>'Bernie R'!D76</f>
         <v>Australia</v>
       </c>
-      <c r="F9" s="80">
+      <c r="F9" s="52">
         <f>'Bernie R'!E76</f>
         <v>0</v>
       </c>
@@ -61718,7 +61781,7 @@
         <f>'Nathan W'!D63</f>
         <v>United States</v>
       </c>
-      <c r="F10" s="80">
+      <c r="F10" s="81">
         <f>'Nathan W'!E63</f>
         <v>0</v>
       </c>
@@ -61756,7 +61819,7 @@
         <f>'Nathan W'!D64</f>
         <v>Australia</v>
       </c>
-      <c r="F11" s="80">
+      <c r="F11" s="52">
         <f>'Nathan W'!E64</f>
         <v>0</v>
       </c>
@@ -61781,9 +61844,9 @@
         <f>'Martin L'!D75</f>
         <v>United States</v>
       </c>
-      <c r="F12" s="80">
+      <c r="F12" s="81">
         <f>'Martin L'!E75</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12" t="s">
         <v>94</v>
@@ -61819,7 +61882,7 @@
         <f>'Martin L'!D76</f>
         <v>Australia</v>
       </c>
-      <c r="F13" s="80">
+      <c r="F13" s="52">
         <f>'Martin L'!E76</f>
         <v>0</v>
       </c>
@@ -61844,9 +61907,9 @@
         <f>'Marjorie L'!D75</f>
         <v>United States</v>
       </c>
-      <c r="F14" s="80">
+      <c r="F14" s="81">
         <f>'Marjorie L'!E75</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" t="s">
         <v>120</v>
@@ -61882,7 +61945,7 @@
         <f>'Marjorie L'!D76</f>
         <v>Australia</v>
       </c>
-      <c r="F15" s="80">
+      <c r="F15" s="52">
         <f>'Marjorie L'!E76</f>
         <v>0</v>
       </c>
@@ -61907,9 +61970,9 @@
         <f>'Keith W'!D75</f>
         <v>United States</v>
       </c>
-      <c r="F16" s="80">
+      <c r="F16" s="81">
         <f>'Keith W'!E75</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="s">
         <v>92</v>
@@ -61945,7 +62008,7 @@
         <f>'Keith W'!D76</f>
         <v>Australia</v>
       </c>
-      <c r="F17" s="80">
+      <c r="F17" s="52">
         <f>'Keith W'!E76</f>
         <v>0</v>
       </c>
@@ -61970,9 +62033,9 @@
         <f>'Liz W'!D75</f>
         <v>United States</v>
       </c>
-      <c r="F18" s="80">
+      <c r="F18" s="81">
         <f>'Liz W'!E75</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" t="s">
         <v>91</v>
@@ -62008,7 +62071,7 @@
         <f>'Liz W'!D76</f>
         <v>Australia</v>
       </c>
-      <c r="F19" s="80">
+      <c r="F19" s="52">
         <f>'Liz W'!E76</f>
         <v>0</v>
       </c>
@@ -62033,9 +62096,9 @@
         <f>'Alice D'!D75</f>
         <v>United States</v>
       </c>
-      <c r="F20" s="80">
+      <c r="F20" s="81">
         <f>'Alice D'!E75</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20" t="s">
         <v>90</v>
@@ -62071,7 +62134,7 @@
         <f>'Alice D'!D76</f>
         <v>Australia</v>
       </c>
-      <c r="F21" s="80">
+      <c r="F21" s="52">
         <f>'Alice D'!E76</f>
         <v>0</v>
       </c>
@@ -62096,7 +62159,7 @@
         <f>'Rob TH'!D75</f>
         <v>United States</v>
       </c>
-      <c r="F22" s="80">
+      <c r="F22" s="81">
         <f>'Rob TH'!E75</f>
         <v>0</v>
       </c>
@@ -62134,7 +62197,7 @@
         <f>'Rob TH'!D76</f>
         <v>Australia</v>
       </c>
-      <c r="F23" s="80">
+      <c r="F23" s="52">
         <f>'Rob TH'!E76</f>
         <v>0</v>
       </c>
@@ -62159,7 +62222,7 @@
         <f>'Evan A'!D75</f>
         <v>United States</v>
       </c>
-      <c r="F24" s="80">
+      <c r="F24" s="81">
         <f>'Evan A'!E75</f>
         <v>0</v>
       </c>
@@ -62197,7 +62260,7 @@
         <f>'Evan A'!D76</f>
         <v>Australia</v>
       </c>
-      <c r="F25" s="80">
+      <c r="F25" s="82">
         <f>'Evan A'!E76</f>
         <v>0</v>
       </c>
@@ -62222,9 +62285,9 @@
         <f>'Alison S'!D75</f>
         <v>United States</v>
       </c>
-      <c r="F26" s="80">
+      <c r="F26" s="81">
         <f>'Alison S'!E75</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" t="s">
         <v>87</v>
@@ -62260,7 +62323,7 @@
         <f>'Alison S'!D76</f>
         <v>Australia</v>
       </c>
-      <c r="F27" s="80">
+      <c r="F27" s="52">
         <f>'Alison S'!E76</f>
         <v>0</v>
       </c>
@@ -62285,7 +62348,7 @@
         <f>'Cathy G'!D75</f>
         <v>United States</v>
       </c>
-      <c r="F28" s="80">
+      <c r="F28" s="81">
         <f>'Cathy G'!E75</f>
         <v>0</v>
       </c>
@@ -62323,7 +62386,7 @@
         <f>'Cathy G'!D76</f>
         <v>Australia</v>
       </c>
-      <c r="F29" s="80">
+      <c r="F29" s="52">
         <f>'Cathy G'!E76</f>
         <v>0</v>
       </c>
@@ -62348,7 +62411,7 @@
         <f>'Dave B'!D75</f>
         <v>United States</v>
       </c>
-      <c r="F30" s="80">
+      <c r="F30" s="81">
         <f>'Dave B'!E75</f>
         <v>0</v>
       </c>
@@ -62386,7 +62449,7 @@
         <f>'Dave B'!D76</f>
         <v>Australia</v>
       </c>
-      <c r="F31" s="80">
+      <c r="F31" s="52">
         <f>'Dave B'!E76</f>
         <v>0</v>
       </c>
@@ -62411,9 +62474,9 @@
         <f>'Jacques Chi'!D75</f>
         <v>United States</v>
       </c>
-      <c r="F32" s="80">
+      <c r="F32" s="81">
         <f>'Jacques Chi'!E75</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="s">
         <v>26</v>
@@ -62449,7 +62512,7 @@
         <f>'Jacques Chi'!D76</f>
         <v>Australia</v>
       </c>
-      <c r="F33" s="80">
+      <c r="F33" s="52">
         <f>'Jacques Chi'!E76</f>
         <v>0</v>
       </c>
@@ -62474,7 +62537,7 @@
         <f>'Robert L'!D75</f>
         <v>United States</v>
       </c>
-      <c r="F34" s="80">
+      <c r="F34" s="81">
         <f>'Robert L'!E75</f>
         <v>0</v>
       </c>
@@ -62512,7 +62575,7 @@
         <f>'Robert L'!D76</f>
         <v>Australia</v>
       </c>
-      <c r="F35" s="80">
+      <c r="F35" s="52">
         <f>'Robert L'!E76</f>
         <v>0</v>
       </c>
@@ -62537,7 +62600,7 @@
         <f>'Dawn G'!D75</f>
         <v>United States</v>
       </c>
-      <c r="F36" s="80">
+      <c r="F36" s="81">
         <f>'Dawn G'!E75</f>
         <v>0</v>
       </c>
@@ -62575,7 +62638,7 @@
         <f>'Dawn G'!D76</f>
         <v>Australia</v>
       </c>
-      <c r="F37" s="80">
+      <c r="F37" s="52">
         <f>'Dawn G'!E76</f>
         <v>0</v>
       </c>
@@ -62600,7 +62663,7 @@
         <f>'John B'!D75</f>
         <v>United States</v>
       </c>
-      <c r="F38" s="80">
+      <c r="F38" s="81">
         <f>'John B'!E75</f>
         <v>0</v>
       </c>
@@ -62638,7 +62701,7 @@
         <f>'John B'!D76</f>
         <v>Australia</v>
       </c>
-      <c r="F39" s="80">
+      <c r="F39" s="52">
         <f>'John B'!E76</f>
         <v>0</v>
       </c>
@@ -62663,9 +62726,9 @@
         <f>'Mandy B'!D75</f>
         <v>United States</v>
       </c>
-      <c r="F40" s="80">
+      <c r="F40" s="81">
         <f>'Mandy B'!E75</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="s">
         <v>21</v>
@@ -62701,7 +62764,7 @@
         <f>'Mandy B'!D76</f>
         <v>Australia</v>
       </c>
-      <c r="F41" s="80">
+      <c r="F41" s="52">
         <f>'Mandy B'!E76</f>
         <v>0</v>
       </c>
@@ -62726,9 +62789,9 @@
         <f>'Freddie J'!D75</f>
         <v>United States</v>
       </c>
-      <c r="F42" s="80">
+      <c r="F42" s="81">
         <f>'Freddie J'!E75</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="s">
         <v>20</v>
@@ -62764,7 +62827,7 @@
         <f>'Freddie J'!D76</f>
         <v>Australia</v>
       </c>
-      <c r="F43" s="80">
+      <c r="F43" s="52">
         <f>'Freddie J'!E76</f>
         <v>0</v>
       </c>
@@ -62789,9 +62852,9 @@
         <f>'Stuart L'!D75</f>
         <v>United States</v>
       </c>
-      <c r="F44" s="80">
+      <c r="F44" s="81">
         <f>'Stuart L'!E75</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" t="s">
         <v>18</v>
@@ -62827,7 +62890,7 @@
         <f>'Stuart L'!D76</f>
         <v>Australia</v>
       </c>
-      <c r="F45" s="80">
+      <c r="F45" s="52">
         <f>'Stuart L'!E76</f>
         <v>0</v>
       </c>
@@ -62852,9 +62915,9 @@
         <f>'Barbara L'!D75</f>
         <v>United States</v>
       </c>
-      <c r="F46" s="80">
+      <c r="F46" s="81">
         <f>'Barbara L'!E75</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46" t="s">
         <v>19</v>
@@ -62890,7 +62953,7 @@
         <f>'Barbara L'!D76</f>
         <v>Australia</v>
       </c>
-      <c r="F47" s="80">
+      <c r="F47" s="52">
         <f>'Barbara L'!E76</f>
         <v>0</v>
       </c>
@@ -62915,9 +62978,9 @@
         <f>'Andy B'!D75</f>
         <v>United States</v>
       </c>
-      <c r="F48" s="80">
+      <c r="F48" s="81">
         <f>'Andy B'!E75</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -62938,7 +63001,7 @@
         <f>'Andy B'!D76</f>
         <v>Australia</v>
       </c>
-      <c r="F49" s="80">
+      <c r="F49" s="52">
         <f>'Andy B'!E76</f>
         <v>0</v>
       </c>
@@ -62963,9 +63026,9 @@
         <f>'Keith G'!D75</f>
         <v>United States</v>
       </c>
-      <c r="F50" s="80">
+      <c r="F50" s="81">
         <f>'Keith G'!E75</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -62986,22 +63049,22 @@
         <f>'Keith G'!D76</f>
         <v>Australia</v>
       </c>
-      <c r="F51" s="80">
+      <c r="F51" s="52">
         <f>'Keith G'!E76</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="V1:Z1"/>
     <mergeCell ref="AC1:AG1"/>
     <mergeCell ref="AJ1:AN1"/>
     <mergeCell ref="AQ1:AU1"/>
     <mergeCell ref="AX1:BB1"/>
     <mergeCell ref="BE1:BI1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="V1:Z1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -63013,18 +63076,18 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A59" zoomScale="108" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -63050,12 +63113,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -63115,12 +63178,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -63197,12 +63260,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -63279,12 +63342,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -63361,12 +63424,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -63443,12 +63506,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -63525,12 +63588,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -63607,12 +63670,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -63689,12 +63752,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -63771,12 +63834,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -63853,12 +63916,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="52" t="s">
+      <c r="A63" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -63935,12 +63998,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="52" t="s">
+      <c r="A69" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -64031,6 +64094,9 @@
       <c r="D75" s="48" t="s">
         <v>34</v>
       </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="48" t="s">
@@ -64298,11 +64364,24 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -64312,19 +64391,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{8427FA4B-D7DC-C74F-B6C6-02A04CEA1479}">
@@ -64341,7 +64407,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -64350,12 +64416,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -64381,12 +64447,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -64446,12 +64512,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -64528,12 +64594,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -64610,12 +64676,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -64692,12 +64758,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -64774,12 +64840,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -64856,12 +64922,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -64938,12 +65004,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -65020,12 +65086,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -65102,12 +65168,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -65184,12 +65250,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="52" t="s">
+      <c r="A63" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -65266,12 +65332,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="52" t="s">
+      <c r="A69" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -65362,6 +65428,9 @@
       <c r="D75" s="48" t="s">
         <v>34</v>
       </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="48" t="s">
@@ -65629,11 +65698,24 @@
       </c>
       <c r="E99">
         <f>SUM(E1:E97)</f>
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -65643,19 +65725,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{8A242A5A-737B-3248-9203-1E18FA7E8CAD}">
@@ -65671,19 +65740,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438673A6-5732-8340-B82B-AB2A850234CB}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="73"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="76"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -65709,12 +65778,12 @@
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="73"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -65774,12 +65843,12 @@
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -65856,12 +65925,12 @@
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="73"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
@@ -65938,12 +66007,12 @@
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="73"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
@@ -66020,12 +66089,12 @@
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="73"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="76"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
@@ -66102,12 +66171,12 @@
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="71" t="s">
+      <c r="A33" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="73"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="76"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
@@ -66184,12 +66253,12 @@
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="71" t="s">
+      <c r="A39" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="72"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="73"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="76"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
@@ -66266,12 +66335,12 @@
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="71" t="s">
+      <c r="A45" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="72"/>
-      <c r="C45" s="72"/>
-      <c r="D45" s="73"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="76"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
@@ -66348,12 +66417,12 @@
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="71" t="s">
+      <c r="A51" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="72"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="73"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="76"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
@@ -66430,12 +66499,12 @@
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="71" t="s">
+      <c r="A57" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="72"/>
-      <c r="C57" s="72"/>
-      <c r="D57" s="73"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="76"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
@@ -66512,12 +66581,12 @@
       <c r="D62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="71" t="s">
+      <c r="A63" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="72"/>
-      <c r="C63" s="72"/>
-      <c r="D63" s="73"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="75"/>
+      <c r="D63" s="76"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
@@ -66594,12 +66663,12 @@
       <c r="D68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="71" t="s">
+      <c r="A69" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="72"/>
-      <c r="C69" s="72"/>
-      <c r="D69" s="73"/>
+      <c r="B69" s="75"/>
+      <c r="C69" s="75"/>
+      <c r="D69" s="76"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
@@ -66690,6 +66759,9 @@
       <c r="D75" s="48" t="s">
         <v>34</v>
       </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="48" t="s">
@@ -66957,11 +67029,24 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -66971,19 +67056,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{446CEEDB-BF43-854D-95D2-80CA6EE53C2C}">
@@ -67000,18 +67072,18 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="73"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="76"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -67037,12 +67109,12 @@
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -67102,12 +67174,12 @@
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -67184,12 +67256,12 @@
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
@@ -67266,12 +67338,12 @@
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
@@ -67348,12 +67420,12 @@
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
@@ -67430,12 +67502,12 @@
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="71" t="s">
+      <c r="A33" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
@@ -67512,12 +67584,12 @@
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="71" t="s">
+      <c r="A39" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="73"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
@@ -67594,12 +67666,12 @@
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="71" t="s">
+      <c r="A45" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="73"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
@@ -67676,12 +67748,12 @@
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="71" t="s">
+      <c r="A51" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="72"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="73"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="76"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
@@ -67758,12 +67830,12 @@
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="71" t="s">
+      <c r="A57" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="72"/>
-      <c r="C57" s="72"/>
-      <c r="D57" s="73"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="76"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
@@ -67840,12 +67912,12 @@
       <c r="D62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="71" t="s">
+      <c r="A63" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="73"/>
-      <c r="C63" s="73"/>
-      <c r="D63" s="73"/>
+      <c r="B63" s="76"/>
+      <c r="C63" s="76"/>
+      <c r="D63" s="76"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
@@ -67922,12 +67994,12 @@
       <c r="D68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="71" t="s">
+      <c r="A69" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="73"/>
-      <c r="C69" s="73"/>
-      <c r="D69" s="73"/>
+      <c r="B69" s="76"/>
+      <c r="C69" s="76"/>
+      <c r="D69" s="76"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
@@ -68018,6 +68090,9 @@
       <c r="D75" s="48" t="s">
         <v>34</v>
       </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="48" t="s">
@@ -68285,11 +68360,24 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -68299,19 +68387,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{F1AA318D-CFEE-E945-8C0E-235E3838BA82}">
@@ -68334,12 +68409,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -68363,12 +68438,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -68426,12 +68501,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -68506,12 +68581,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -68586,12 +68661,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -68666,12 +68741,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -68746,12 +68821,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -68826,12 +68901,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -68906,12 +68981,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -68986,12 +69061,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -69066,12 +69141,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -69146,12 +69221,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="52" t="s">
+      <c r="A63" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -69226,12 +69301,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="52" t="s">
+      <c r="A69" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -69503,15 +69578,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A86:D86"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
@@ -69525,6 +69591,15 @@
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{55CBA0EA-03DF-D446-B217-F70483C49D17}">
@@ -69547,12 +69622,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -69578,12 +69653,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -69643,12 +69718,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -69725,12 +69800,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -69807,12 +69882,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -69889,12 +69964,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -69971,12 +70046,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -70053,12 +70128,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -70135,12 +70210,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -70217,12 +70292,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -70299,12 +70374,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -70381,12 +70456,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="52" t="s">
+      <c r="A63" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -70461,12 +70536,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="52" t="s">
+      <c r="A69" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -70738,6 +70813,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -70747,19 +70835,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66 B1:C65 B67:C97" xr:uid="{156C7248-1706-4E17-9BB6-079B78DEF479}">
@@ -70782,12 +70857,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -70811,12 +70886,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -70874,12 +70949,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -70954,12 +71029,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -71034,12 +71109,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -71114,12 +71189,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -71194,12 +71269,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -71274,12 +71349,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -71354,12 +71429,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -71434,12 +71509,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -71514,12 +71589,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
@@ -71594,12 +71669,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="52" t="s">
+      <c r="A63" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -71674,12 +71749,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="52" t="s">
+      <c r="A69" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -71951,15 +72026,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A86:D86"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
@@ -71973,6 +72039,15 @@
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{977686BA-C9F0-5F4E-89D6-CE94966C1FE0}">
@@ -72002,12 +72077,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
@@ -72020,12 +72095,12 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
@@ -72058,12 +72133,12 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
@@ -72106,12 +72181,12 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
@@ -72154,12 +72229,12 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
@@ -72202,12 +72277,12 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
@@ -72250,12 +72325,12 @@
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
@@ -72298,12 +72373,12 @@
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
@@ -72346,12 +72421,12 @@
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="52" t="s">
+      <c r="B46" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
@@ -72394,12 +72469,12 @@
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
@@ -72442,12 +72517,12 @@
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="52" t="s">
+      <c r="B58" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="52"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="52"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
@@ -72490,12 +72565,12 @@
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="52" t="s">
+      <c r="B64" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="52"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="52"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
@@ -72539,18 +72614,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="B64:E64"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="B46:E46"/>
     <mergeCell ref="B52:E52"/>
     <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -72572,12 +72647,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
@@ -72592,12 +72667,12 @@
       <c r="E4" s="3"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
@@ -72612,12 +72687,12 @@
       <c r="E8" s="3"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
@@ -72632,12 +72707,12 @@
       <c r="E12" s="3"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
@@ -72652,20 +72727,20 @@
       <c r="E16" s="3"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
@@ -72680,12 +72755,12 @@
       <c r="E21" s="3"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
@@ -72700,20 +72775,20 @@
       <c r="E25" s="3"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
@@ -72722,12 +72797,12 @@
       <c r="E29" s="3"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
@@ -72736,12 +72811,12 @@
       <c r="E32" s="3"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="3"/>
@@ -72750,12 +72825,12 @@
       <c r="E35" s="3"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="3"/>
@@ -72787,7 +72862,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -73805,6 +73880,9 @@
       <c r="D75" s="48" t="s">
         <v>34</v>
       </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="48" t="s">
@@ -74073,6 +74151,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -74082,19 +74173,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{85A9722B-955B-CF41-A6F3-38FDC4B48A7A}">
@@ -74111,7 +74189,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:D76"/>
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -75129,6 +75207,9 @@
       <c r="D75" s="48" t="s">
         <v>34</v>
       </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="48" t="s">
@@ -75396,16 +75477,16 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A77:D77"/>
@@ -75418,11 +75499,11 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C97" xr:uid="{F2D3BCCF-F868-974E-AEC9-AB88E8DBE8B7}">
@@ -75445,12 +75526,12 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
@@ -75476,12 +75557,12 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
@@ -75541,12 +75622,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
@@ -75623,12 +75704,12 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
@@ -75705,12 +75786,12 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="s">
@@ -75787,12 +75868,12 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="38" t="s">
@@ -75869,12 +75950,12 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="38" t="s">
@@ -75951,12 +76032,12 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="56" t="s">
+      <c r="A39" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="38" t="s">
@@ -76033,12 +76114,12 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="38" t="s">
@@ -76115,12 +76196,12 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="56" t="s">
+      <c r="A51" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="38" t="s">
@@ -76197,12 +76278,12 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="56" t="s">
+      <c r="A57" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="56"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="38" t="s">
@@ -76279,12 +76360,12 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="56" t="s">
+      <c r="A63" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="56"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="38" t="s">
@@ -76361,12 +76442,12 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="56" t="s">
+      <c r="A69" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="56"/>
-      <c r="C69" s="56"/>
-      <c r="D69" s="56"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="57"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="38" t="s">
@@ -76447,12 +76528,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -76460,6 +76535,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{98289B19-A16E-8E48-AC84-DA2AC3E66DBF}">
@@ -76476,7 +76557,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:D76"/>
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -76485,12 +76566,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="66"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
@@ -76516,12 +76597,12 @@
       <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="59"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">
@@ -76581,12 +76662,12 @@
       <c r="D8" s="44"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="66"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="41" t="s">
@@ -76663,12 +76744,12 @@
       <c r="D14" s="44"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
@@ -76745,12 +76826,12 @@
       <c r="D20" s="44"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="59"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="66"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="41" t="s">
@@ -76827,12 +76908,12 @@
       <c r="D26" s="44"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="59"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="66"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="41" t="s">
@@ -76909,12 +76990,12 @@
       <c r="D32" s="44"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="57" t="s">
+      <c r="A33" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="59"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="66"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="41" t="s">
@@ -76991,12 +77072,12 @@
       <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="57" t="s">
+      <c r="A39" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="59"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="66"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="41" t="s">
@@ -77073,12 +77154,12 @@
       <c r="D44" s="44"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="57" t="s">
+      <c r="A45" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="59"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="66"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="41" t="s">
@@ -77155,12 +77236,12 @@
       <c r="D50" s="44"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="57" t="s">
+      <c r="A51" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="58"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="59"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="66"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="41" t="s">
@@ -77237,12 +77318,12 @@
       <c r="D56" s="44"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="57" t="s">
+      <c r="A57" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="58"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="59"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="66"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="41" t="s">
@@ -77319,12 +77400,12 @@
       <c r="D62" s="44"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="57" t="s">
+      <c r="A63" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="58"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="59"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="66"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="41" t="s">
@@ -77401,12 +77482,12 @@
       <c r="D68" s="44"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="57" t="s">
+      <c r="A69" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="58"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="59"/>
+      <c r="B69" s="65"/>
+      <c r="C69" s="65"/>
+      <c r="D69" s="66"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="41" t="s">
@@ -77497,6 +77578,9 @@
       <c r="D75" s="48" t="s">
         <v>34</v>
       </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="48" t="s">
@@ -77769,6 +77853,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -77778,19 +77875,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/Forms/Excel/Big Sheet.xlsx
+++ b/resources/Forms/Excel/Big Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie_Take2/FootieTake2/resources/Forms/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E88113D-5D2A-EE41-94C1-64686F83E248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECACF87-7427-1A49-A052-A6DFC3A64A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="1100" windowWidth="38100" windowHeight="16180" tabRatio="800" firstSheet="2" activeTab="2" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
   </bookViews>

--- a/resources/Forms/Excel/Big Sheet.xlsx
+++ b/resources/Forms/Excel/Big Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie/FootieTake2/resources/Forms/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4610C58-E1A1-A043-875B-9C704AA08A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96355CC2-8918-5F41-930C-3B8EC63B987D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" tabRatio="800" activeTab="2" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" tabRatio="800" firstSheet="2" activeTab="12" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Ranking" sheetId="5" r:id="rId1"/>
@@ -1128,55 +1128,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>203199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>126408</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92E2895C-882A-5825-7725-A70F40DB8675}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="10769599"/>
-          <a:ext cx="8242300" cy="28777609"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1536,13 +1487,13 @@
       </c>
       <c r="C4" s="15">
         <f>'Mandy B'!E99</f>
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>'Keith G'!D99</f>
@@ -1550,13 +1501,13 @@
       </c>
       <c r="C5" s="15">
         <f>'Keith G'!E99</f>
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>'Rob TH'!D99</f>
@@ -1570,7 +1521,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>'Andy B'!D99</f>
@@ -1578,7 +1529,7 @@
       </c>
       <c r="C7" s="15">
         <f>'Andy B'!E99</f>
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1592,13 +1543,13 @@
       </c>
       <c r="C8" s="15">
         <f>'Freddie J'!E99</f>
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="str">
         <f>'Derek b'!D99</f>
@@ -1612,7 +1563,7 @@
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="str">
         <f>'Alice D'!D99</f>
@@ -1634,7 +1585,7 @@
       </c>
       <c r="C11" s="15">
         <f>'Barbara L'!E99</f>
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1682,7 +1633,7 @@
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="str">
         <f>'Dawn G'!D99</f>
@@ -1696,7 +1647,7 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2" t="str">
         <f>'Jacques Chi'!D99</f>
@@ -1704,13 +1655,13 @@
       </c>
       <c r="C16" s="15">
         <f>'Jacques Chi'!E99</f>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="str">
         <f>'Nathan W'!D87</f>
@@ -1724,7 +1675,7 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="str">
         <f>'Dave B'!D99</f>
@@ -1738,7 +1689,7 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2" t="str">
         <f>'Robert L'!D99</f>
@@ -1746,13 +1697,13 @@
       </c>
       <c r="C19" s="15">
         <f>'Robert L'!E99</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="str">
         <f>'Gabriel B'!D99</f>
@@ -1766,7 +1717,7 @@
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="str">
         <f>'Nikki W'!D75</f>
@@ -1788,7 +1739,7 @@
       </c>
       <c r="C22" s="15">
         <f>'John B'!E99</f>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1808,7 +1759,7 @@
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="13" t="str">
         <f>'Stuart L'!D99</f>
@@ -1816,7 +1767,7 @@
       </c>
       <c r="C24" s="16">
         <f>'Stuart L'!E99</f>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1946,7 +1897,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A71" zoomScale="108" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3023,6 +2974,9 @@
       <c r="D79" s="48" t="s">
         <v>30</v>
       </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="63" t="s">
@@ -3240,24 +3194,11 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -3267,6 +3208,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{8427FA4B-D7DC-C74F-B6C6-02A04CEA1479}">
@@ -3283,7 +3237,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4360,6 +4314,9 @@
       <c r="D79" s="48" t="s">
         <v>30</v>
       </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="63" t="s">
@@ -4577,24 +4534,11 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -4604,6 +4548,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{AF448023-A790-794F-BB14-4EE63C681037}">
@@ -4620,7 +4577,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5697,6 +5654,9 @@
       <c r="D79" s="48" t="s">
         <v>30</v>
       </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="63" t="s">
@@ -5914,24 +5874,11 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -5941,6 +5888,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{CBEDE9B1-CCD8-024F-8FF6-52E83D09DD5F}">
@@ -5956,8 +5916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBB52A3-ABE1-6A48-B476-2CFFBE81AFB9}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7026,13 +6986,16 @@
         <v>32</v>
       </c>
       <c r="B79" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C79" s="49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D79" s="48" t="s">
         <v>30</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -7262,19 +7225,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -7284,6 +7234,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C99" xr:uid="{A6BA8386-7538-B943-BC89-6C717665472C}">
@@ -7300,7 +7263,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8377,6 +8340,9 @@
       <c r="D79" s="48" t="s">
         <v>30</v>
       </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="63" t="s">
@@ -8594,24 +8560,11 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -8621,6 +8574,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{2B53EE05-D1D3-374E-8836-2425C3E2B4A5}">
@@ -8637,7 +8603,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9714,6 +9680,9 @@
       <c r="D79" s="48" t="s">
         <v>30</v>
       </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="63" t="s">
@@ -9929,24 +9898,11 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -9956,6 +9912,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{A2199F60-9E4F-6445-90E3-92673D510A9D}">
@@ -9972,7 +9941,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11049,6 +11018,9 @@
       <c r="D79" s="48" t="s">
         <v>30</v>
       </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="63" t="s">
@@ -11271,19 +11243,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -11293,6 +11252,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C97" xr:uid="{05F05F3A-89C6-E74F-BB5C-B82EDA718869}">
@@ -12584,6 +12556,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A86:D86"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
@@ -12597,15 +12578,6 @@
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{84866E23-2C57-B247-AC72-E241400D8978}">
@@ -13921,19 +13893,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -13943,6 +13902,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{85A9722B-955B-CF41-A6F3-38FDC4B48A7A}">
@@ -15258,11 +15230,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A86:D86"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A77:D77"/>
@@ -15275,11 +15247,11 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C97" xr:uid="{F2D3BCCF-F868-974E-AEC9-AB88E8DBE8B7}">
@@ -47834,6 +47806,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="CH1:CK1"/>
     <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="AY1:BB1"/>
@@ -47841,12 +47819,6 @@
     <mergeCell ref="BM1:BP1"/>
     <mergeCell ref="BT1:BW1"/>
     <mergeCell ref="CA1:CD1"/>
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AD1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -48872,6 +48844,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -48879,12 +48857,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{98289B19-A16E-8E48-AC84-DA2AC3E66DBF}">
@@ -50203,19 +50175,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -50225,6 +50184,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -51534,19 +51506,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -51556,6 +51515,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{A72D56DF-9BC0-2E49-9D2A-B8E721479EEF}">
@@ -52799,19 +52771,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A17:D17"/>
     <mergeCell ref="A77:D77"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A82:D82"/>
@@ -52821,6 +52780,19 @@
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="A71:D71"/>
     <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A52:D52"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62:C84" xr:uid="{C11CF323-092E-EA4D-9917-FC21144EBBB1}">
@@ -54151,19 +54123,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -54173,6 +54132,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{EC36F1B5-3564-784F-B3C5-B041B2C2E87E}">
@@ -55488,19 +55460,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -55510,6 +55469,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{A0FD6351-8E4F-C04E-BE54-C8F4EA5F1555}">
@@ -56835,19 +56807,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -56857,6 +56816,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C100" xr:uid="{912C664E-C133-1E4F-9640-4A25EB9EF25D}">
@@ -58168,19 +58140,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -58190,6 +58149,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{B20B3CE4-DCB9-4E4A-AC39-D9DA073FCC61}">
@@ -59501,19 +59473,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -59523,6 +59482,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{D0B3E49D-2BC1-6E4D-9735-2E4B121876A2}">
@@ -60838,19 +60810,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -60860,6 +60819,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{60ADF05C-298C-944D-B683-D8C73BF6553D}">
@@ -60875,7 +60847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CA3D3A-5644-1847-8D60-65D782BB1346}">
   <dimension ref="A1:BJ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
@@ -66947,7 +66919,7 @@
       </c>
       <c r="M33" s="55">
         <f>'Jacques Chi'!E79</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="39"/>
       <c r="P33" s="39" t="str">
@@ -67214,7 +67186,7 @@
       </c>
       <c r="M35" s="55">
         <f>'Robert L'!E79</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" s="39"/>
       <c r="P35" s="39" t="str">
@@ -67748,7 +67720,7 @@
       </c>
       <c r="M39" s="55">
         <f>'John B'!E79</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" s="39"/>
       <c r="P39" s="39" t="str">
@@ -68016,7 +67988,7 @@
       </c>
       <c r="M41" s="55">
         <f>'Mandy B'!E79</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O41" s="39"/>
       <c r="P41" s="39" t="str">
@@ -68284,7 +68256,7 @@
       </c>
       <c r="M43" s="55">
         <f>'Freddie J'!E79</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" s="39"/>
       <c r="P43" s="39" t="str">
@@ -68552,7 +68524,7 @@
       </c>
       <c r="M45" s="55">
         <f>'Stuart L'!E79</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" s="39"/>
       <c r="P45" s="39" t="str">
@@ -68820,7 +68792,7 @@
       </c>
       <c r="M47" s="55">
         <f>'Barbara L'!E79</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" s="39"/>
       <c r="P47" s="39" t="str">
@@ -69088,7 +69060,7 @@
       </c>
       <c r="M49" s="55">
         <f>'Andy B'!E79</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O49" s="39"/>
       <c r="P49" s="39" t="str">
@@ -69356,7 +69328,7 @@
       </c>
       <c r="M51" s="55">
         <f>'Keith G'!E79</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O51" s="39"/>
       <c r="P51" s="39" t="str">
@@ -69456,7 +69428,6 @@
     <mergeCell ref="AC1:AG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -70768,19 +70739,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -70790,6 +70748,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C98" xr:uid="{F68D3FFC-EF79-CC40-8F53-8BF21A5E1341}">
@@ -72108,19 +72079,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -72130,6 +72088,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C97" xr:uid="{11A7353F-6A05-F048-B4B5-2330C623E382}">
@@ -73342,19 +73313,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -73364,6 +73322,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{9D4EDCA2-2FFE-E64B-A34E-466DD99F6343}">
@@ -74555,6 +74526,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A86:D86"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
@@ -74568,15 +74548,6 @@
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{55CBA0EA-03DF-D446-B217-F70483C49D17}">
@@ -75790,19 +75761,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -75812,6 +75770,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66 B1:C65 B67:C97" xr:uid="{156C7248-1706-4E17-9BB6-079B78DEF479}">
@@ -77003,6 +76974,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A86:D86"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
@@ -77016,15 +76996,6 @@
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{977686BA-C9F0-5F4E-89D6-CE94966C1FE0}">
@@ -78213,19 +78184,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -78235,6 +78193,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{BE5067DB-A56D-FF40-9C9A-839412CFE3CC}">
@@ -78801,18 +78772,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B58:E58"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B58:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -79049,7 +79020,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -80129,6 +80100,9 @@
       <c r="D79" s="48" t="s">
         <v>30</v>
       </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="63" t="s">
@@ -80346,24 +80320,11 @@
       </c>
       <c r="E99">
         <f>SUM(E1:E97)</f>
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -80373,6 +80334,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{8A242A5A-737B-3248-9203-1E18FA7E8CAD}">
@@ -80389,7 +80363,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A71" zoomScale="106" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -81466,6 +81440,9 @@
       <c r="D79" s="48" t="s">
         <v>30</v>
       </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="63" t="s">
@@ -81683,24 +81660,11 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -81710,6 +81674,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{79F4B324-FC19-7044-8ECD-3029BC735257}">
@@ -81726,7 +81703,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -82803,6 +82780,9 @@
       <c r="D79" s="48" t="s">
         <v>30</v>
       </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="63" t="s">
@@ -83020,24 +83000,11 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -83047,6 +83014,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{F1AA318D-CFEE-E945-8C0E-235E3838BA82}">
@@ -83063,7 +83043,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -84140,6 +84120,9 @@
       <c r="D79" s="48" t="s">
         <v>30</v>
       </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="63" t="s">
@@ -84357,24 +84340,11 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -84384,6 +84354,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{446CEEDB-BF43-854D-95D2-80CA6EE53C2C}">

--- a/resources/Forms/Excel/Big Sheet.xlsx
+++ b/resources/Forms/Excel/Big Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie/FootieTake2/resources/Forms/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie_Take2/FootieTake2/resources/Forms/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA67F20D-53D5-DE4F-9549-0387DC890BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF8D161-D774-5147-A382-EB6F63E72135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" tabRatio="800" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" tabRatio="800" activeTab="2" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Ranking" sheetId="5" r:id="rId1"/>
@@ -458,7 +458,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -510,6 +510,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -817,7 +824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1010,9 +1017,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1134,16 +1139,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>193</xdr:row>
-      <xdr:rowOff>19218</xdr:rowOff>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>153382</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0CE1751-97AA-8087-05C1-CC4070A4122D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6BE9E01-0C09-6288-5677-C5637B3FB825}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1160,7 +1165,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="10769599"/>
-          <a:ext cx="8153400" cy="28467219"/>
+          <a:ext cx="8216900" cy="27178983"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1471,7 +1476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88DB2AD-0B7A-2B40-B11D-A4AE4E9DB3F2}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="150" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -1494,7 +1499,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f>RANK(C2,($C$2:$C$32),0)</f>
+        <f t="shared" ref="A2:A32" si="0">RANK(C2,($C$2:$C$32),0)</f>
         <v>1</v>
       </c>
       <c r="B2" s="2" t="str">
@@ -1508,7 +1513,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <f>RANK(C3,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="str">
@@ -1522,7 +1527,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <f>RANK(C4,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="2" t="str">
@@ -1536,7 +1541,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <f>RANK(C5,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="str">
@@ -1550,7 +1555,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <f>RANK(C6,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="2" t="str">
@@ -1564,7 +1569,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <f>RANK(C7,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="2" t="str">
@@ -1578,7 +1583,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <f>RANK(C8,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="2" t="str">
@@ -1592,7 +1597,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <f>RANK(C9,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="2" t="str">
@@ -1606,7 +1611,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <f>RANK(C10,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B10" s="2" t="str">
@@ -1620,7 +1625,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <f>RANK(C11,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="13" t="str">
@@ -1634,7 +1639,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <f>RANK(C12,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B12" s="2" t="str">
@@ -1648,7 +1653,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <f>RANK(C13,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="2" t="str">
@@ -1662,7 +1667,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <f>RANK(C14,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="2" t="str">
@@ -1676,7 +1681,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <f>RANK(C15,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="2" t="str">
@@ -1690,7 +1695,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <f>RANK(C16,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B16" s="2" t="str">
@@ -1704,7 +1709,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <f>RANK(C17,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="2" t="str">
@@ -1718,7 +1723,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <f>RANK(C18,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="2" t="str">
@@ -1732,7 +1737,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <f>RANK(C19,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="2" t="str">
@@ -1746,7 +1751,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <f>RANK(C20,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="2" t="str">
@@ -1760,7 +1765,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <f>RANK(C21,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" s="13" t="str">
@@ -1774,7 +1779,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <f>RANK(C22,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="2" t="str">
@@ -1788,7 +1793,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <f>RANK(C23,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23" s="2" t="str">
@@ -1802,7 +1807,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <f>RANK(C24,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="13" t="str">
@@ -1816,7 +1821,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <f>RANK(C25,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25" s="2" t="str">
@@ -1830,7 +1835,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <f>RANK(C26,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="2" t="str">
@@ -1844,7 +1849,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <f>RANK(C27,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="2" t="str">
@@ -1858,7 +1863,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <f>RANK(C28,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="2" t="str">
@@ -1872,7 +1877,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <f>RANK(C29,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="2" t="str">
@@ -1886,7 +1891,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <f>RANK(C30,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30" s="2" t="str">
@@ -1900,7 +1905,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <f>RANK(C31,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="2" t="str">
@@ -1914,7 +1919,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <f>RANK(C32,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="39" t="str">
@@ -3243,6 +3248,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -3252,19 +3270,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{8427FA4B-D7DC-C74F-B6C6-02A04CEA1479}">
@@ -4583,6 +4588,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -4592,19 +4610,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{AF448023-A790-794F-BB14-4EE63C681037}">
@@ -5923,6 +5928,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -5932,19 +5950,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{CBEDE9B1-CCD8-024F-8FF6-52E83D09DD5F}">
@@ -5960,7 +5965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBB52A3-ABE1-6A48-B476-2CFFBE81AFB9}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A50" workbookViewId="0">
       <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
@@ -7269,6 +7274,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -7278,19 +7296,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C99" xr:uid="{A6BA8386-7538-B943-BC89-6C717665472C}">
@@ -8609,6 +8614,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -8618,19 +8636,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{2B53EE05-D1D3-374E-8836-2425C3E2B4A5}">
@@ -9947,6 +9952,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -9956,19 +9974,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{A2199F60-9E4F-6445-90E3-92673D510A9D}">
@@ -11287,6 +11292,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -11296,19 +11314,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C97" xr:uid="{05F05F3A-89C6-E74F-BB5C-B82EDA718869}">
@@ -12603,15 +12608,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A86:D86"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
@@ -12625,6 +12621,15 @@
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{84866E23-2C57-B247-AC72-E241400D8978}">
@@ -13943,6 +13948,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -13952,19 +13970,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{85A9722B-955B-CF41-A6F3-38FDC4B48A7A}">
@@ -15283,11 +15288,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A77:D77"/>
@@ -15300,11 +15305,11 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C97" xr:uid="{F2D3BCCF-F868-974E-AEC9-AB88E8DBE8B7}">
@@ -47859,12 +47864,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="CH1:CK1"/>
     <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="AY1:BB1"/>
@@ -47872,6 +47871,12 @@
     <mergeCell ref="BM1:BP1"/>
     <mergeCell ref="BT1:BW1"/>
     <mergeCell ref="CA1:CD1"/>
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AD1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -48897,12 +48902,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -48910,6 +48909,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{98289B19-A16E-8E48-AC84-DA2AC3E66DBF}">
@@ -50231,6 +50236,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -50240,19 +50258,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -51565,6 +51570,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -51574,19 +51592,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{A72D56DF-9BC0-2E49-9D2A-B8E721479EEF}">
@@ -52833,6 +52838,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A17:D17"/>
     <mergeCell ref="A77:D77"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A82:D82"/>
@@ -52842,19 +52860,6 @@
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="A71:D71"/>
     <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A52:D52"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62:C84" xr:uid="{C11CF323-092E-EA4D-9917-FC21144EBBB1}">
@@ -54188,6 +54193,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -54197,19 +54215,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{EC36F1B5-3564-784F-B3C5-B041B2C2E87E}">
@@ -55528,6 +55533,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -55537,19 +55555,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{A0FD6351-8E4F-C04E-BE54-C8F4EA5F1555}">
@@ -56878,6 +56883,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -56887,19 +56905,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C100" xr:uid="{912C664E-C133-1E4F-9640-4A25EB9EF25D}">
@@ -58214,6 +58219,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -58223,19 +58241,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{B20B3CE4-DCB9-4E4A-AC39-D9DA073FCC61}">
@@ -59550,6 +59555,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -59559,19 +59577,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{D0B3E49D-2BC1-6E4D-9735-2E4B121876A2}">
@@ -60890,6 +60895,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -60899,19 +60917,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{60ADF05C-298C-944D-B683-D8C73BF6553D}">
@@ -60927,8 +60932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CA3D3A-5644-1847-8D60-65D782BB1346}">
   <dimension ref="A1:BJ51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
     </sheetView>
@@ -60946,7 +60951,7 @@
     <col min="10" max="10" width="2.5" style="4" customWidth="1"/>
     <col min="11" max="11" width="3.1640625" style="4" customWidth="1"/>
     <col min="12" max="12" width="8.33203125" customWidth="1"/>
-    <col min="13" max="13" width="5.1640625" style="84" customWidth="1"/>
+    <col min="13" max="13" width="5.1640625" customWidth="1"/>
     <col min="15" max="15" width="11.5" customWidth="1"/>
     <col min="16" max="16" width="6.1640625" customWidth="1"/>
     <col min="17" max="17" width="3.6640625" style="4" customWidth="1"/>
@@ -61004,7 +61009,7 @@
       <c r="J1" s="57"/>
       <c r="K1" s="57"/>
       <c r="L1" s="57"/>
-      <c r="M1" s="82" t="s">
+      <c r="M1" s="51" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="59" t="s">
@@ -61121,7 +61126,7 @@
         <f>'James W'!D78</f>
         <v>Poland</v>
       </c>
-      <c r="M2" s="83">
+      <c r="M2" s="39">
         <f>'James W'!E78</f>
         <v>2</v>
       </c>
@@ -61144,7 +61149,7 @@
         <f>'James W'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T2" s="39">
+      <c r="T2" s="82">
         <f>'James W'!E81</f>
         <v>0</v>
       </c>
@@ -61325,7 +61330,7 @@
         <f>'James W'!D79</f>
         <v>Senegal</v>
       </c>
-      <c r="M3" s="83">
+      <c r="M3" s="39">
         <f>'James W'!E79</f>
         <v>2</v>
       </c>
@@ -61346,7 +61351,7 @@
         <f>'James W'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T3" s="39">
+      <c r="T3" s="82">
         <f>'James W'!E82</f>
         <v>0</v>
       </c>
@@ -61526,7 +61531,7 @@
         <f>'Mother B'!D78</f>
         <v>Poland</v>
       </c>
-      <c r="M4" s="83">
+      <c r="M4" s="39">
         <f>'Mother B'!E78</f>
         <v>2</v>
       </c>
@@ -61549,7 +61554,7 @@
         <f>'Mother B'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T4" s="39">
+      <c r="T4" s="82">
         <f>'Mother B'!E81</f>
         <v>0</v>
       </c>
@@ -61731,7 +61736,7 @@
         <f>'Mother B'!D79</f>
         <v>Senegal</v>
       </c>
-      <c r="M5" s="83">
+      <c r="M5" s="39">
         <f>'Mother B'!E79</f>
         <v>1</v>
       </c>
@@ -61752,7 +61757,7 @@
         <f>'Mother B'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T5" s="39">
+      <c r="T5" s="82">
         <f>'Mother B'!E82</f>
         <v>0</v>
       </c>
@@ -61932,7 +61937,7 @@
         <f>'Derek b'!D78</f>
         <v>Poland</v>
       </c>
-      <c r="M6" s="83">
+      <c r="M6" s="39">
         <f>'Derek b'!E78</f>
         <v>1</v>
       </c>
@@ -61955,7 +61960,7 @@
         <f>'Derek b'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T6" s="39">
+      <c r="T6" s="82">
         <f>'Derek b'!E81</f>
         <v>0</v>
       </c>
@@ -62137,7 +62142,7 @@
         <f>'Derek b'!D79</f>
         <v>Senegal</v>
       </c>
-      <c r="M7" s="83">
+      <c r="M7" s="39">
         <f>'Derek b'!E79</f>
         <v>1</v>
       </c>
@@ -62158,7 +62163,7 @@
         <f>'Derek b'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T7" s="39">
+      <c r="T7" s="82">
         <f>'Derek b'!E82</f>
         <v>0</v>
       </c>
@@ -62338,7 +62343,7 @@
         <f>'Bernie R'!D78</f>
         <v>Poland</v>
       </c>
-      <c r="M8" s="83">
+      <c r="M8" s="39">
         <f>'Bernie R'!E78</f>
         <v>2</v>
       </c>
@@ -62361,7 +62366,7 @@
         <f>'Bernie R'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T8" s="39">
+      <c r="T8" s="82">
         <f>'Bernie R'!E81</f>
         <v>0</v>
       </c>
@@ -62543,7 +62548,7 @@
         <f>'Bernie R'!D79</f>
         <v>Senegal</v>
       </c>
-      <c r="M9" s="83">
+      <c r="M9" s="39">
         <f>'Bernie R'!E79</f>
         <v>2</v>
       </c>
@@ -62564,7 +62569,7 @@
         <f>'Bernie R'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T9" s="39">
+      <c r="T9" s="82">
         <f>'Bernie R'!E82</f>
         <v>0</v>
       </c>
@@ -62744,7 +62749,7 @@
         <f>'Nathan W'!D66</f>
         <v>Poland</v>
       </c>
-      <c r="M10" s="83">
+      <c r="M10" s="39">
         <f>'Nathan W'!E66</f>
         <v>2</v>
       </c>
@@ -62767,7 +62772,7 @@
         <f>'Nathan W'!D69</f>
         <v>Croatia</v>
       </c>
-      <c r="T10" s="39">
+      <c r="T10" s="82">
         <f>'Nathan W'!E69</f>
         <v>0</v>
       </c>
@@ -62949,7 +62954,7 @@
         <f>'Nathan W'!D67</f>
         <v>Senegal</v>
       </c>
-      <c r="M11" s="83">
+      <c r="M11" s="39">
         <f>'Nathan W'!E67</f>
         <v>2</v>
       </c>
@@ -62970,7 +62975,7 @@
         <f>'Nathan W'!D70</f>
         <v>South Korea</v>
       </c>
-      <c r="T11" s="39">
+      <c r="T11" s="82">
         <f>'Nathan W'!E70</f>
         <v>0</v>
       </c>
@@ -63150,7 +63155,7 @@
         <f>'Martin L'!D78</f>
         <v>Poland</v>
       </c>
-      <c r="M12" s="83">
+      <c r="M12" s="39">
         <f>'Martin L'!E78</f>
         <v>2</v>
       </c>
@@ -63173,7 +63178,7 @@
         <f>'Martin L'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T12" s="39">
+      <c r="T12" s="82">
         <f>'Martin L'!E81</f>
         <v>0</v>
       </c>
@@ -63354,7 +63359,7 @@
         <f>'Martin L'!D79</f>
         <v>Senegal</v>
       </c>
-      <c r="M13" s="83">
+      <c r="M13" s="39">
         <f>'Martin L'!E79</f>
         <v>1</v>
       </c>
@@ -63375,7 +63380,7 @@
         <f>'Martin L'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T13" s="39">
+      <c r="T13" s="82">
         <f>'Martin L'!E82</f>
         <v>0</v>
       </c>
@@ -63555,7 +63560,7 @@
         <f>'Marjorie L'!D78</f>
         <v>Poland</v>
       </c>
-      <c r="M14" s="83">
+      <c r="M14" s="39">
         <f>'Marjorie L'!E78</f>
         <v>2</v>
       </c>
@@ -63578,7 +63583,7 @@
         <f>'Marjorie L'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T14" s="39">
+      <c r="T14" s="82">
         <f>'Marjorie L'!E81</f>
         <v>0</v>
       </c>
@@ -63760,7 +63765,7 @@
         <f>'Marjorie L'!D79</f>
         <v>Senegal</v>
       </c>
-      <c r="M15" s="83">
+      <c r="M15" s="39">
         <f>'Marjorie L'!E79</f>
         <v>2</v>
       </c>
@@ -63781,7 +63786,7 @@
         <f>'Marjorie L'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T15" s="39">
+      <c r="T15" s="82">
         <f>'Marjorie L'!E82</f>
         <v>0</v>
       </c>
@@ -63961,7 +63966,7 @@
         <f>'Keith W'!D78</f>
         <v>Poland</v>
       </c>
-      <c r="M16" s="83">
+      <c r="M16" s="39">
         <f>'Keith W'!E78</f>
         <v>1</v>
       </c>
@@ -63984,7 +63989,7 @@
         <f>'Keith W'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T16" s="39">
+      <c r="T16" s="82">
         <f>'Keith W'!E81</f>
         <v>0</v>
       </c>
@@ -64166,7 +64171,7 @@
         <f>'Keith W'!D79</f>
         <v>Senegal</v>
       </c>
-      <c r="M17" s="83">
+      <c r="M17" s="39">
         <f>'Keith W'!E79</f>
         <v>0</v>
       </c>
@@ -64187,7 +64192,7 @@
         <f>'Keith W'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T17" s="39">
+      <c r="T17" s="82">
         <f>'Keith W'!E82</f>
         <v>0</v>
       </c>
@@ -64367,7 +64372,7 @@
         <f>'Liz W'!D78</f>
         <v>Poland</v>
       </c>
-      <c r="M18" s="83">
+      <c r="M18" s="39">
         <f>'Liz W'!E78</f>
         <v>2</v>
       </c>
@@ -64390,7 +64395,7 @@
         <f>'Liz W'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T18" s="39">
+      <c r="T18" s="82">
         <f>'Liz W'!E81</f>
         <v>0</v>
       </c>
@@ -64571,7 +64576,7 @@
         <f>'Liz W'!D79</f>
         <v>Senegal</v>
       </c>
-      <c r="M19" s="83">
+      <c r="M19" s="39">
         <f>'Liz W'!E79</f>
         <v>2</v>
       </c>
@@ -64592,7 +64597,7 @@
         <f>'Liz W'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T19" s="39">
+      <c r="T19" s="82">
         <f>'Liz W'!E82</f>
         <v>0</v>
       </c>
@@ -64772,7 +64777,7 @@
         <f>'Alice D'!D78</f>
         <v>Poland</v>
       </c>
-      <c r="M20" s="83">
+      <c r="M20" s="39">
         <f>'Alice D'!E78</f>
         <v>1</v>
       </c>
@@ -64795,7 +64800,7 @@
         <f>'Alice D'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T20" s="39">
+      <c r="T20" s="82">
         <f>'Alice D'!E81</f>
         <v>0</v>
       </c>
@@ -64977,7 +64982,7 @@
         <f>'Alice D'!D79</f>
         <v>Senegal</v>
       </c>
-      <c r="M21" s="83">
+      <c r="M21" s="39">
         <f>'Alice D'!E79</f>
         <v>1</v>
       </c>
@@ -64998,7 +65003,7 @@
         <f>'Alice D'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T21" s="39">
+      <c r="T21" s="82">
         <f>'Alice D'!E82</f>
         <v>0</v>
       </c>
@@ -65178,7 +65183,7 @@
         <f>'Rob TH'!D78</f>
         <v>Poland</v>
       </c>
-      <c r="M22" s="83">
+      <c r="M22" s="39">
         <f>'Rob TH'!E78</f>
         <v>1</v>
       </c>
@@ -65201,7 +65206,7 @@
         <f>'Rob TH'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T22" s="39">
+      <c r="T22" s="82">
         <f>'Rob TH'!E81</f>
         <v>0</v>
       </c>
@@ -65382,7 +65387,7 @@
         <f>'Rob TH'!D79</f>
         <v>Senegal</v>
       </c>
-      <c r="M23" s="83">
+      <c r="M23" s="39">
         <f>'Rob TH'!E79</f>
         <v>3</v>
       </c>
@@ -65403,7 +65408,7 @@
         <f>'Rob TH'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T23" s="39">
+      <c r="T23" s="82">
         <f>'Rob TH'!E82</f>
         <v>0</v>
       </c>
@@ -65583,7 +65588,7 @@
         <f>'Evan A'!D78</f>
         <v>Poland</v>
       </c>
-      <c r="M24" s="83">
+      <c r="M24" s="39">
         <f>'Evan A'!E78</f>
         <v>2</v>
       </c>
@@ -65606,7 +65611,7 @@
         <f>'Evan A'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T24" s="39">
+      <c r="T24" s="82">
         <f>'Evan A'!E81</f>
         <v>0</v>
       </c>
@@ -65788,7 +65793,7 @@
         <f>'Evan A'!D79</f>
         <v>Senegal</v>
       </c>
-      <c r="M25" s="83">
+      <c r="M25" s="39">
         <f>'Evan A'!E79</f>
         <v>1</v>
       </c>
@@ -65809,7 +65814,7 @@
         <f>'Evan A'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T25" s="39">
+      <c r="T25" s="82">
         <f>'Evan A'!E82</f>
         <v>0</v>
       </c>
@@ -65989,7 +65994,7 @@
         <f>'Alison S'!D78</f>
         <v>Poland</v>
       </c>
-      <c r="M26" s="83">
+      <c r="M26" s="39">
         <f>'Alison S'!E78</f>
         <v>2</v>
       </c>
@@ -66012,7 +66017,7 @@
         <f>'Alison S'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T26" s="39">
+      <c r="T26" s="82">
         <f>'Alison S'!E81</f>
         <v>0</v>
       </c>
@@ -66194,7 +66199,7 @@
         <f>'Alison S'!D79</f>
         <v>Senegal</v>
       </c>
-      <c r="M27" s="83">
+      <c r="M27" s="39">
         <f>'Alison S'!E79</f>
         <v>2</v>
       </c>
@@ -66215,7 +66220,7 @@
         <f>'Alison S'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T27" s="39">
+      <c r="T27" s="82">
         <f>'Alison S'!E82</f>
         <v>0</v>
       </c>
@@ -66326,7 +66331,7 @@
         <f>'Cathy G'!D78</f>
         <v>Poland</v>
       </c>
-      <c r="M28" s="83">
+      <c r="M28" s="39">
         <f>'Cathy G'!E78</f>
         <v>0</v>
       </c>
@@ -66349,7 +66354,7 @@
         <f>'Cathy G'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T28" s="39">
+      <c r="T28" s="82">
         <f>'Cathy G'!E81</f>
         <v>0</v>
       </c>
@@ -66462,7 +66467,7 @@
         <f>'Cathy G'!D79</f>
         <v>Senegal</v>
       </c>
-      <c r="M29" s="83">
+      <c r="M29" s="39">
         <f>'Cathy G'!E79</f>
         <v>3</v>
       </c>
@@ -66483,7 +66488,7 @@
         <f>'Cathy G'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T29" s="39">
+      <c r="T29" s="82">
         <f>'Cathy G'!E82</f>
         <v>0</v>
       </c>
@@ -66594,7 +66599,7 @@
         <f>'Dave B'!D78</f>
         <v>Poland</v>
       </c>
-      <c r="M30" s="83">
+      <c r="M30" s="39">
         <f>'Dave B'!E78</f>
         <v>1</v>
       </c>
@@ -66617,7 +66622,7 @@
         <f>'Dave B'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T30" s="39">
+      <c r="T30" s="82">
         <f>'Dave B'!E81</f>
         <v>0</v>
       </c>
@@ -66729,7 +66734,7 @@
         <f>'Dave B'!D79</f>
         <v>Senegal</v>
       </c>
-      <c r="M31" s="83">
+      <c r="M31" s="39">
         <f>'Dave B'!E79</f>
         <v>0</v>
       </c>
@@ -66750,7 +66755,7 @@
         <f>'Dave B'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T31" s="39">
+      <c r="T31" s="82">
         <f>'Dave B'!E82</f>
         <v>0</v>
       </c>
@@ -66861,7 +66866,7 @@
         <f>'Jacques Chi'!D78</f>
         <v>Poland</v>
       </c>
-      <c r="M32" s="83">
+      <c r="M32" s="39">
         <f>'Jacques Chi'!E78</f>
         <v>1</v>
       </c>
@@ -66884,7 +66889,7 @@
         <f>'Jacques Chi'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T32" s="39">
+      <c r="T32" s="82">
         <f>'Jacques Chi'!E81</f>
         <v>0</v>
       </c>
@@ -66997,7 +67002,7 @@
         <f>'Jacques Chi'!D79</f>
         <v>Senegal</v>
       </c>
-      <c r="M33" s="83">
+      <c r="M33" s="39">
         <f>'Jacques Chi'!E79</f>
         <v>1</v>
       </c>
@@ -67018,7 +67023,7 @@
         <f>'Jacques Chi'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T33" s="39">
+      <c r="T33" s="82">
         <f>'Jacques Chi'!E82</f>
         <v>0</v>
       </c>
@@ -67129,7 +67134,7 @@
         <f>'Robert L'!D78</f>
         <v>Poland</v>
       </c>
-      <c r="M34" s="83">
+      <c r="M34" s="39">
         <f>'Robert L'!E78</f>
         <v>2</v>
       </c>
@@ -67152,7 +67157,7 @@
         <f>'Robert L'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T34" s="39">
+      <c r="T34" s="82">
         <f>'Robert L'!E81</f>
         <v>0</v>
       </c>
@@ -67264,7 +67269,7 @@
         <f>'Robert L'!D79</f>
         <v>Senegal</v>
       </c>
-      <c r="M35" s="83">
+      <c r="M35" s="39">
         <f>'Robert L'!E79</f>
         <v>1</v>
       </c>
@@ -67285,7 +67290,7 @@
         <f>'Robert L'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T35" s="39">
+      <c r="T35" s="82">
         <f>'Robert L'!E82</f>
         <v>0</v>
       </c>
@@ -67396,7 +67401,7 @@
         <f>'Dawn G'!D78</f>
         <v>Poland</v>
       </c>
-      <c r="M36" s="83">
+      <c r="M36" s="39">
         <f>'Dawn G'!E78</f>
         <v>1</v>
       </c>
@@ -67419,7 +67424,7 @@
         <f>'Dawn G'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T36" s="39">
+      <c r="T36" s="82">
         <f>'Dawn G'!E81</f>
         <v>0</v>
       </c>
@@ -67530,7 +67535,7 @@
         <f>'Dawn G'!D79</f>
         <v>Senegal</v>
       </c>
-      <c r="M37" s="83">
+      <c r="M37" s="39">
         <f>'Dawn G'!E79</f>
         <v>2</v>
       </c>
@@ -67551,7 +67556,7 @@
         <f>'Dawn G'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T37" s="39">
+      <c r="T37" s="82">
         <f>'Dawn G'!E82</f>
         <v>0</v>
       </c>
@@ -67662,7 +67667,7 @@
         <f>'John B'!D78</f>
         <v>Poland</v>
       </c>
-      <c r="M38" s="83">
+      <c r="M38" s="39">
         <f>'John B'!E78</f>
         <v>2</v>
       </c>
@@ -67685,7 +67690,7 @@
         <f>'John B'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T38" s="39">
+      <c r="T38" s="82">
         <f>'John B'!E81</f>
         <v>0</v>
       </c>
@@ -67798,7 +67803,7 @@
         <f>'John B'!D79</f>
         <v>Senegal</v>
       </c>
-      <c r="M39" s="83">
+      <c r="M39" s="39">
         <f>'John B'!E79</f>
         <v>1</v>
       </c>
@@ -67819,7 +67824,7 @@
         <f>'John B'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T39" s="39">
+      <c r="T39" s="82">
         <f>'John B'!E82</f>
         <v>0</v>
       </c>
@@ -67930,7 +67935,7 @@
         <f>'Mandy B'!D78</f>
         <v>Poland</v>
       </c>
-      <c r="M40" s="83">
+      <c r="M40" s="39">
         <f>'Mandy B'!E78</f>
         <v>2</v>
       </c>
@@ -67953,7 +67958,7 @@
         <f>'Mandy B'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T40" s="39">
+      <c r="T40" s="82">
         <f>'Mandy B'!E81</f>
         <v>0</v>
       </c>
@@ -68066,7 +68071,7 @@
         <f>'Mandy B'!D79</f>
         <v>Senegal</v>
       </c>
-      <c r="M41" s="83">
+      <c r="M41" s="39">
         <f>'Mandy B'!E79</f>
         <v>2</v>
       </c>
@@ -68087,7 +68092,7 @@
         <f>'Mandy B'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T41" s="39">
+      <c r="T41" s="82">
         <f>'Mandy B'!E82</f>
         <v>0</v>
       </c>
@@ -68198,7 +68203,7 @@
         <f>'Freddie J'!D78</f>
         <v>Poland</v>
       </c>
-      <c r="M42" s="83">
+      <c r="M42" s="39">
         <f>'Freddie J'!E78</f>
         <v>1</v>
       </c>
@@ -68221,7 +68226,7 @@
         <f>'Freddie J'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T42" s="39">
+      <c r="T42" s="82">
         <f>'Freddie J'!E81</f>
         <v>0</v>
       </c>
@@ -68334,7 +68339,7 @@
         <f>'Freddie J'!D79</f>
         <v>Senegal</v>
       </c>
-      <c r="M43" s="83">
+      <c r="M43" s="39">
         <f>'Freddie J'!E79</f>
         <v>1</v>
       </c>
@@ -68355,7 +68360,7 @@
         <f>'Freddie J'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T43" s="39">
+      <c r="T43" s="82">
         <f>'Freddie J'!E82</f>
         <v>0</v>
       </c>
@@ -68466,7 +68471,7 @@
         <f>'Stuart L'!D78</f>
         <v>Poland</v>
       </c>
-      <c r="M44" s="83">
+      <c r="M44" s="39">
         <f>'Stuart L'!E78</f>
         <v>2</v>
       </c>
@@ -68489,7 +68494,7 @@
         <f>'Stuart L'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T44" s="39">
+      <c r="T44" s="82">
         <f>'Stuart L'!E81</f>
         <v>0</v>
       </c>
@@ -68602,7 +68607,7 @@
         <f>'Stuart L'!D79</f>
         <v>Senegal</v>
       </c>
-      <c r="M45" s="83">
+      <c r="M45" s="39">
         <f>'Stuart L'!E79</f>
         <v>1</v>
       </c>
@@ -68623,7 +68628,7 @@
         <f>'Stuart L'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T45" s="39">
+      <c r="T45" s="82">
         <f>'Stuart L'!E82</f>
         <v>0</v>
       </c>
@@ -68734,7 +68739,7 @@
         <f>'Barbara L'!D78</f>
         <v>Poland</v>
       </c>
-      <c r="M46" s="83">
+      <c r="M46" s="39">
         <f>'Barbara L'!E78</f>
         <v>2</v>
       </c>
@@ -68757,7 +68762,7 @@
         <f>'Barbara L'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T46" s="39">
+      <c r="T46" s="82">
         <f>'Barbara L'!E81</f>
         <v>0</v>
       </c>
@@ -68870,7 +68875,7 @@
         <f>'Barbara L'!D79</f>
         <v>Senegal</v>
       </c>
-      <c r="M47" s="83">
+      <c r="M47" s="39">
         <f>'Barbara L'!E79</f>
         <v>1</v>
       </c>
@@ -68891,7 +68896,7 @@
         <f>'Barbara L'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T47" s="39">
+      <c r="T47" s="82">
         <f>'Barbara L'!E82</f>
         <v>0</v>
       </c>
@@ -69002,7 +69007,7 @@
         <f>'Andy B'!D78</f>
         <v>Poland</v>
       </c>
-      <c r="M48" s="83">
+      <c r="M48" s="39">
         <f>'Andy B'!E78</f>
         <v>2</v>
       </c>
@@ -69025,7 +69030,7 @@
         <f>'Andy B'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T48" s="39">
+      <c r="T48" s="82">
         <f>'Andy B'!E81</f>
         <v>0</v>
       </c>
@@ -69138,7 +69143,7 @@
         <f>'Andy B'!D79</f>
         <v>Senegal</v>
       </c>
-      <c r="M49" s="83">
+      <c r="M49" s="39">
         <f>'Andy B'!E79</f>
         <v>2</v>
       </c>
@@ -69159,7 +69164,7 @@
         <f>'Andy B'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T49" s="39">
+      <c r="T49" s="82">
         <f>'Andy B'!E82</f>
         <v>0</v>
       </c>
@@ -69270,7 +69275,7 @@
         <f>'Keith G'!D78</f>
         <v>Poland</v>
       </c>
-      <c r="M50" s="83">
+      <c r="M50" s="39">
         <f>'Keith G'!E78</f>
         <v>1</v>
       </c>
@@ -69293,7 +69298,7 @@
         <f>'Keith G'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T50" s="39">
+      <c r="T50" s="82">
         <f>'Keith G'!E81</f>
         <v>0</v>
       </c>
@@ -69406,7 +69411,7 @@
         <f>'Keith G'!D79</f>
         <v>Senegal</v>
       </c>
-      <c r="M51" s="83">
+      <c r="M51" s="39">
         <f>'Keith G'!E79</f>
         <v>3</v>
       </c>
@@ -69427,7 +69432,7 @@
         <f>'Keith G'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T51" s="39">
+      <c r="T51" s="82">
         <f>'Keith G'!E82</f>
         <v>0</v>
       </c>
@@ -70823,6 +70828,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -70832,19 +70850,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C98" xr:uid="{F68D3FFC-EF79-CC40-8F53-8BF21A5E1341}">
@@ -72166,6 +72171,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -72175,19 +72193,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C97" xr:uid="{11A7353F-6A05-F048-B4B5-2330C623E382}">
@@ -73400,6 +73405,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -73409,19 +73427,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{9D4EDCA2-2FFE-E64B-A34E-466DD99F6343}">
@@ -74613,15 +74618,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A86:D86"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
@@ -74635,6 +74631,15 @@
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{55CBA0EA-03DF-D446-B217-F70483C49D17}">
@@ -75848,6 +75853,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -75857,19 +75875,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66 B1:C65 B67:C97" xr:uid="{156C7248-1706-4E17-9BB6-079B78DEF479}">
@@ -77061,15 +77066,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A86:D86"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
@@ -77083,6 +77079,15 @@
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{977686BA-C9F0-5F4E-89D6-CE94966C1FE0}">
@@ -78271,6 +78276,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -78280,19 +78298,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{BE5067DB-A56D-FF40-9C9A-839412CFE3CC}">
@@ -78859,18 +78864,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="B64:E64"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="B46:E46"/>
     <mergeCell ref="B52:E52"/>
     <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -80412,6 +80417,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -80421,19 +80439,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{8A242A5A-737B-3248-9203-1E18FA7E8CAD}">
@@ -81752,6 +81757,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -81761,19 +81779,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{79F4B324-FC19-7044-8ECD-3029BC735257}">
@@ -83092,6 +83097,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -83101,19 +83119,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{F1AA318D-CFEE-E945-8C0E-235E3838BA82}">
@@ -84432,6 +84437,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -84441,19 +84459,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{446CEEDB-BF43-854D-95D2-80CA6EE53C2C}">

--- a/resources/Forms/Excel/Big Sheet.xlsx
+++ b/resources/Forms/Excel/Big Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie_Take2/FootieTake2/resources/Forms/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie/FootieTake2/resources/Forms/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE496027-286F-154A-B61B-231BED76658B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A79C36-E463-0F45-908E-D1720B894492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" tabRatio="800" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
   </bookViews>
@@ -824,7 +824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1018,6 +1018,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1090,16 +1091,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>423334</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>44078</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>72838</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53C09D5C-9577-971F-6D99-AB5B63A84C90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF270FF4-66C6-8295-0E0A-9C0E038208DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1116,7 +1117,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2556933" y="0"/>
-          <a:ext cx="5452534" cy="20567278"/>
+          <a:ext cx="5029200" cy="18970438"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1134,21 +1135,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>203199</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>186</xdr:row>
-      <xdr:rowOff>153382</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>167060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6BE9E01-0C09-6288-5677-C5637B3FB825}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A88E01-7ED0-8567-2637-7B26DAB348DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1164,8 +1165,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10769599"/>
-          <a:ext cx="8216900" cy="27178983"/>
+          <a:off x="0" y="10769600"/>
+          <a:ext cx="8343900" cy="27599060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1476,7 +1477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88DB2AD-0B7A-2B40-B11D-A4AE4E9DB3F2}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="150" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -1528,7 +1529,7 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <f>RANK(C4,($C$2:$C$32),0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>'Mandy B'!D99</f>
@@ -1536,13 +1537,13 @@
       </c>
       <c r="C4" s="15">
         <f>'Mandy B'!E99</f>
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <f>RANK(C5,($C$2:$C$32),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>'Keith G'!D99</f>
@@ -1570,7 +1571,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <f>RANK(C7,($C$2:$C$32),0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>'Andy B'!D99</f>
@@ -1578,7 +1579,7 @@
       </c>
       <c r="C7" s="15">
         <f>'Andy B'!E99</f>
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1654,15 +1655,15 @@
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <f>RANK(C13,($C$2:$C$32),0)</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B13" s="2" t="str">
-        <f>'Liz W'!D99</f>
-        <v>Liz W</v>
-      </c>
-      <c r="C13" s="15">
-        <f>'Liz W'!E99</f>
-        <v>47</v>
+        <f>'James W'!D99</f>
+        <v>James W</v>
+      </c>
+      <c r="C13" s="2">
+        <f>'James W'!E99</f>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1671,12 +1672,12 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="str">
-        <f>'Evan A'!D99</f>
-        <v>Evan A</v>
+        <f>'Liz W'!D99</f>
+        <v>Liz W</v>
       </c>
       <c r="C14" s="15">
-        <f>'Evan A'!E99</f>
-        <v>46</v>
+        <f>'Liz W'!E99</f>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1685,12 +1686,12 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="str">
-        <f>'Dawn G'!D99</f>
-        <v>Dawn G</v>
+        <f>'Evan A'!D99</f>
+        <v>Evan A</v>
       </c>
       <c r="C15" s="15">
-        <f>'Dawn G'!E99</f>
-        <v>46</v>
+        <f>'Evan A'!E99</f>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1699,12 +1700,12 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="str">
-        <f>'Nathan W'!D87</f>
-        <v>Nathan W</v>
-      </c>
-      <c r="C16" s="2">
-        <f>'Nathan W'!E87</f>
-        <v>46</v>
+        <f>'Robert L'!D99</f>
+        <v>Robert L</v>
+      </c>
+      <c r="C16" s="15">
+        <f>'Robert L'!E99</f>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1713,12 +1714,12 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="str">
-        <f>'Jacques Chi'!D99</f>
-        <v>Jacques Chi</v>
+        <f>'Dawn G'!D99</f>
+        <v>Dawn G</v>
       </c>
       <c r="C17" s="15">
-        <f>'Jacques Chi'!E99</f>
-        <v>45</v>
+        <f>'Dawn G'!E99</f>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1727,12 +1728,12 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="str">
-        <f>'James W'!D99</f>
-        <v>James W</v>
+        <f>'Nathan W'!D87</f>
+        <v>Nathan W</v>
       </c>
       <c r="C18" s="2">
-        <f>'James W'!E99</f>
-        <v>45</v>
+        <f>'Nathan W'!E87</f>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1741,26 +1742,26 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="str">
-        <f>'Robert L'!D99</f>
-        <v>Robert L</v>
+        <f>'Jacques Chi'!D99</f>
+        <v>Jacques Chi</v>
       </c>
       <c r="C19" s="15">
-        <f>'Robert L'!E99</f>
-        <v>44</v>
+        <f>'Jacques Chi'!E99</f>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <f>RANK(C20,($C$2:$C$32),0)</f>
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="str">
-        <f>'Dave B'!D99</f>
-        <v>Dave B</v>
-      </c>
-      <c r="C20" s="15">
-        <f>'Dave B'!E99</f>
-        <v>43</v>
+        <v>18</v>
+      </c>
+      <c r="B20" s="13" t="str">
+        <f>'Marjorie L'!D99</f>
+        <v>Marjorie L</v>
+      </c>
+      <c r="C20" s="16">
+        <f>'Marjorie L'!E99</f>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1769,12 +1770,12 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="str">
-        <f>'John B'!D99</f>
-        <v>John B</v>
+        <f>'Dave B'!D99</f>
+        <v>Dave B</v>
       </c>
       <c r="C21" s="15">
-        <f>'John B'!E99</f>
-        <v>42</v>
+        <f>'Dave B'!E99</f>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1783,12 +1784,12 @@
         <v>20</v>
       </c>
       <c r="B22" s="13" t="str">
-        <f>'Marjorie L'!D99</f>
-        <v>Marjorie L</v>
+        <f>'Stuart L'!D99</f>
+        <v>Stuart L</v>
       </c>
       <c r="C22" s="16">
-        <f>'Marjorie L'!E99</f>
-        <v>42</v>
+        <f>'Stuart L'!E99</f>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1797,46 +1798,46 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="str">
-        <f>'Gabriel B'!D99</f>
-        <v>Gabriel B</v>
+        <f>'John B'!D99</f>
+        <v>John B</v>
       </c>
       <c r="C23" s="15">
-        <f>'Gabriel B'!E99</f>
-        <v>41</v>
+        <f>'John B'!E99</f>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <f>RANK(C24,($C$2:$C$32),0)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="str">
-        <f>'Nikki W'!D75</f>
-        <v>Nikki W</v>
-      </c>
-      <c r="C24" s="2">
-        <f>'Nikki W'!E75</f>
+        <f>'Gabriel B'!D99</f>
+        <v>Gabriel B</v>
+      </c>
+      <c r="C24" s="15">
+        <f>'Gabriel B'!E99</f>
         <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <f>RANK(C25,($C$2:$C$32),0)</f>
-        <v>24</v>
-      </c>
-      <c r="B25" s="13" t="str">
-        <f>'Stuart L'!D99</f>
-        <v>Stuart L</v>
-      </c>
-      <c r="C25" s="16">
-        <f>'Stuart L'!E99</f>
-        <v>40</v>
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f>'Nikki W'!D75</f>
+        <v>Nikki W</v>
+      </c>
+      <c r="C25" s="2">
+        <f>'Nikki W'!E75</f>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <f>RANK(C26,($C$2:$C$32),0)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="str">
         <f>'Cathy G'!D99</f>
@@ -1867,12 +1868,12 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="str">
-        <f>Claire!D99</f>
-        <v>Claire</v>
+        <f>'Martin L'!D99</f>
+        <v>Martin L</v>
       </c>
       <c r="C28" s="15">
-        <f>Claire!E99</f>
-        <v>36</v>
+        <f>'Martin L'!E99</f>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1881,25 +1882,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="str">
-        <f>Hino!D99</f>
-        <v>Hino</v>
+        <f>Claire!D99</f>
+        <v>Claire</v>
       </c>
       <c r="C29" s="15">
-        <f>Hino!E99</f>
-        <v>35</v>
+        <f>Claire!E99</f>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <f>RANK(C30,($C$2:$C$32),0)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="str">
-        <f>'Martin L'!D99</f>
-        <v>Martin L</v>
+        <f>Hino!D99</f>
+        <v>Hino</v>
       </c>
       <c r="C30" s="15">
-        <f>'Martin L'!E99</f>
+        <f>Hino!E99</f>
         <v>35</v>
       </c>
     </row>
@@ -1946,7 +1947,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A71" zoomScale="108" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3035,7 +3036,7 @@
       <c r="C80" s="60"/>
       <c r="D80" s="60"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="48" t="s">
         <v>47</v>
       </c>
@@ -3048,8 +3049,11 @@
       <c r="D81" s="48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="48" t="s">
         <v>58</v>
       </c>
@@ -3063,7 +3067,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="63" t="s">
         <v>109</v>
       </c>
@@ -3071,7 +3075,7 @@
       <c r="C83" s="60"/>
       <c r="D83" s="60"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="48" t="s">
         <v>44</v>
       </c>
@@ -3085,7 +3089,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="48" t="s">
         <v>56</v>
       </c>
@@ -3099,7 +3103,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="64" t="s">
         <v>111</v>
       </c>
@@ -3107,7 +3111,7 @@
       <c r="C86" s="64"/>
       <c r="D86" s="64"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="48" t="s">
         <v>31</v>
       </c>
@@ -3121,7 +3125,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
         <v>47</v>
       </c>
@@ -3135,7 +3139,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="63" t="s">
         <v>110</v>
       </c>
@@ -3143,7 +3147,7 @@
       <c r="C89" s="60"/>
       <c r="D89" s="60"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="48" t="s">
         <v>42</v>
       </c>
@@ -3157,7 +3161,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
         <v>48</v>
       </c>
@@ -3171,7 +3175,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="63" t="s">
         <v>112</v>
       </c>
@@ -3179,7 +3183,7 @@
       <c r="C92" s="60"/>
       <c r="D92" s="60"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="48" t="s">
         <v>62</v>
       </c>
@@ -3193,7 +3197,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="63" t="s">
         <v>113</v>
       </c>
@@ -3201,7 +3205,7 @@
       <c r="C94" s="60"/>
       <c r="D94" s="60"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="48" t="s">
         <v>32</v>
       </c>
@@ -3215,7 +3219,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="63" t="s">
         <v>114</v>
       </c>
@@ -3248,6 +3252,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -3257,19 +3274,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{8427FA4B-D7DC-C74F-B6C6-02A04CEA1479}">
@@ -3286,7 +3290,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4375,7 +4379,7 @@
       <c r="C80" s="60"/>
       <c r="D80" s="60"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="48" t="s">
         <v>47</v>
       </c>
@@ -4388,8 +4392,11 @@
       <c r="D81" s="48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="48" t="s">
         <v>58</v>
       </c>
@@ -4403,7 +4410,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="63" t="s">
         <v>109</v>
       </c>
@@ -4411,7 +4418,7 @@
       <c r="C83" s="60"/>
       <c r="D83" s="60"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="48" t="s">
         <v>44</v>
       </c>
@@ -4425,7 +4432,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="48" t="s">
         <v>56</v>
       </c>
@@ -4439,7 +4446,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="64" t="s">
         <v>111</v>
       </c>
@@ -4447,7 +4454,7 @@
       <c r="C86" s="64"/>
       <c r="D86" s="64"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="48" t="s">
         <v>31</v>
       </c>
@@ -4461,7 +4468,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
         <v>45</v>
       </c>
@@ -4475,7 +4482,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="63" t="s">
         <v>110</v>
       </c>
@@ -4483,7 +4490,7 @@
       <c r="C89" s="60"/>
       <c r="D89" s="60"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="48" t="s">
         <v>116</v>
       </c>
@@ -4497,7 +4504,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
         <v>48</v>
       </c>
@@ -4511,7 +4518,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="63" t="s">
         <v>112</v>
       </c>
@@ -4519,7 +4526,7 @@
       <c r="C92" s="60"/>
       <c r="D92" s="60"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="48" t="s">
         <v>62</v>
       </c>
@@ -4533,7 +4540,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="63" t="s">
         <v>113</v>
       </c>
@@ -4541,7 +4548,7 @@
       <c r="C94" s="60"/>
       <c r="D94" s="60"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="48" t="s">
         <v>42</v>
       </c>
@@ -4555,7 +4562,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="63" t="s">
         <v>114</v>
       </c>
@@ -4583,11 +4590,24 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -4597,19 +4617,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{AF448023-A790-794F-BB14-4EE63C681037}">
@@ -4626,7 +4633,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5715,7 +5722,7 @@
       <c r="C80" s="60"/>
       <c r="D80" s="60"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="48" t="s">
         <v>47</v>
       </c>
@@ -5728,8 +5735,11 @@
       <c r="D81" s="48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="48" t="s">
         <v>58</v>
       </c>
@@ -5743,7 +5753,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="63" t="s">
         <v>109</v>
       </c>
@@ -5751,7 +5761,7 @@
       <c r="C83" s="60"/>
       <c r="D83" s="60"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="48" t="s">
         <v>44</v>
       </c>
@@ -5765,7 +5775,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="48" t="s">
         <v>56</v>
       </c>
@@ -5779,7 +5789,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="64" t="s">
         <v>111</v>
       </c>
@@ -5787,7 +5797,7 @@
       <c r="C86" s="64"/>
       <c r="D86" s="64"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="48" t="s">
         <v>34</v>
       </c>
@@ -5801,7 +5811,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
         <v>47</v>
       </c>
@@ -5815,7 +5825,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="63" t="s">
         <v>110</v>
       </c>
@@ -5823,7 +5833,7 @@
       <c r="C89" s="60"/>
       <c r="D89" s="60"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="48" t="s">
         <v>42</v>
       </c>
@@ -5837,7 +5847,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
         <v>48</v>
       </c>
@@ -5851,7 +5861,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="63" t="s">
         <v>112</v>
       </c>
@@ -5859,7 +5869,7 @@
       <c r="C92" s="60"/>
       <c r="D92" s="60"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="48" t="s">
         <v>62</v>
       </c>
@@ -5873,7 +5883,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="63" t="s">
         <v>113</v>
       </c>
@@ -5881,7 +5891,7 @@
       <c r="C94" s="60"/>
       <c r="D94" s="60"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="48" t="s">
         <v>32</v>
       </c>
@@ -5895,7 +5905,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="63" t="s">
         <v>114</v>
       </c>
@@ -5928,6 +5938,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -5937,19 +5960,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{CBEDE9B1-CCD8-024F-8FF6-52E83D09DD5F}">
@@ -5966,7 +5976,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7055,7 +7065,7 @@
       <c r="C80" s="60"/>
       <c r="D80" s="60"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="48" t="s">
         <v>47</v>
       </c>
@@ -7068,8 +7078,11 @@
       <c r="D81" s="48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="48" t="s">
         <v>58</v>
       </c>
@@ -7083,7 +7096,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="63" t="s">
         <v>109</v>
       </c>
@@ -7091,7 +7104,7 @@
       <c r="C83" s="60"/>
       <c r="D83" s="60"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="48" t="s">
         <v>44</v>
       </c>
@@ -7105,7 +7118,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="48" t="s">
         <v>56</v>
       </c>
@@ -7119,7 +7132,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="64" t="s">
         <v>111</v>
       </c>
@@ -7127,7 +7140,7 @@
       <c r="C86" s="64"/>
       <c r="D86" s="64"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="48" t="s">
         <v>34</v>
       </c>
@@ -7141,7 +7154,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
         <v>47</v>
       </c>
@@ -7155,7 +7168,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="63" t="s">
         <v>110</v>
       </c>
@@ -7163,7 +7176,7 @@
       <c r="C89" s="60"/>
       <c r="D89" s="60"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="48" t="s">
         <v>42</v>
       </c>
@@ -7177,7 +7190,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
         <v>48</v>
       </c>
@@ -7191,7 +7204,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="63" t="s">
         <v>112</v>
       </c>
@@ -7199,7 +7212,7 @@
       <c r="C92" s="60"/>
       <c r="D92" s="60"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="48" t="s">
         <v>34</v>
       </c>
@@ -7213,7 +7226,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="63" t="s">
         <v>113</v>
       </c>
@@ -7221,7 +7234,7 @@
       <c r="C94" s="60"/>
       <c r="D94" s="60"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="48" t="s">
         <v>32</v>
       </c>
@@ -7235,7 +7248,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="63" t="s">
         <v>114</v>
       </c>
@@ -7274,6 +7287,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -7283,19 +7309,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C99" xr:uid="{A6BA8386-7538-B943-BC89-6C717665472C}">
@@ -7312,7 +7325,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8401,7 +8414,7 @@
       <c r="C80" s="60"/>
       <c r="D80" s="60"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="48" t="s">
         <v>47</v>
       </c>
@@ -8414,8 +8427,11 @@
       <c r="D81" s="48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="48" t="s">
         <v>58</v>
       </c>
@@ -8429,7 +8445,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="63" t="s">
         <v>109</v>
       </c>
@@ -8437,7 +8453,7 @@
       <c r="C83" s="60"/>
       <c r="D83" s="60"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="48" t="s">
         <v>44</v>
       </c>
@@ -8451,7 +8467,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="48" t="s">
         <v>56</v>
       </c>
@@ -8465,7 +8481,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="64" t="s">
         <v>111</v>
       </c>
@@ -8473,7 +8489,7 @@
       <c r="C86" s="64"/>
       <c r="D86" s="64"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="48" t="s">
         <v>34</v>
       </c>
@@ -8487,7 +8503,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
         <v>45</v>
       </c>
@@ -8501,7 +8517,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="63" t="s">
         <v>110</v>
       </c>
@@ -8509,7 +8525,7 @@
       <c r="C89" s="60"/>
       <c r="D89" s="60"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="48" t="s">
         <v>42</v>
       </c>
@@ -8523,7 +8539,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
         <v>48</v>
       </c>
@@ -8537,7 +8553,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="63" t="s">
         <v>112</v>
       </c>
@@ -8545,7 +8561,7 @@
       <c r="C92" s="60"/>
       <c r="D92" s="60"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="48" t="s">
         <v>62</v>
       </c>
@@ -8559,7 +8575,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="63" t="s">
         <v>113</v>
       </c>
@@ -8567,7 +8583,7 @@
       <c r="C94" s="60"/>
       <c r="D94" s="60"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="48" t="s">
         <v>32</v>
       </c>
@@ -8581,7 +8597,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="63" t="s">
         <v>114</v>
       </c>
@@ -8609,11 +8625,24 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -8623,19 +8652,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{2B53EE05-D1D3-374E-8836-2425C3E2B4A5}">
@@ -8652,7 +8668,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9741,7 +9757,7 @@
       <c r="C80" s="60"/>
       <c r="D80" s="60"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="48" t="s">
         <v>47</v>
       </c>
@@ -9754,8 +9770,11 @@
       <c r="D81" s="48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="48" t="s">
         <v>58</v>
       </c>
@@ -9769,7 +9788,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="63" t="s">
         <v>109</v>
       </c>
@@ -9777,7 +9796,7 @@
       <c r="C83" s="60"/>
       <c r="D83" s="60"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="48" t="s">
         <v>44</v>
       </c>
@@ -9791,7 +9810,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="48" t="s">
         <v>56</v>
       </c>
@@ -9805,7 +9824,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="64" t="s">
         <v>111</v>
       </c>
@@ -9813,7 +9832,7 @@
       <c r="C86" s="64"/>
       <c r="D86" s="64"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="48" t="s">
         <v>31</v>
       </c>
@@ -9827,7 +9846,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
         <v>47</v>
       </c>
@@ -9841,7 +9860,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="63" t="s">
         <v>110</v>
       </c>
@@ -9849,7 +9868,7 @@
       <c r="C89" s="60"/>
       <c r="D89" s="60"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="48" t="s">
         <v>42</v>
       </c>
@@ -9863,7 +9882,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
         <v>44</v>
       </c>
@@ -9877,7 +9896,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="63" t="s">
         <v>112</v>
       </c>
@@ -9885,7 +9904,7 @@
       <c r="C92" s="60"/>
       <c r="D92" s="60"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="48" t="s">
         <v>62</v>
       </c>
@@ -9899,7 +9918,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="63" t="s">
         <v>113</v>
       </c>
@@ -9907,7 +9926,7 @@
       <c r="C94" s="60"/>
       <c r="D94" s="60"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="48" t="s">
         <v>32</v>
       </c>
@@ -9921,7 +9940,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="63"/>
       <c r="B96" s="60"/>
       <c r="C96" s="60"/>
@@ -9952,6 +9971,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -9961,19 +9993,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{A2199F60-9E4F-6445-90E3-92673D510A9D}">
@@ -9990,7 +10009,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11079,7 +11098,7 @@
       <c r="C80" s="60"/>
       <c r="D80" s="60"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="48" t="s">
         <v>47</v>
       </c>
@@ -11092,8 +11111,11 @@
       <c r="D81" s="48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="48" t="s">
         <v>58</v>
       </c>
@@ -11107,7 +11129,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="63" t="s">
         <v>109</v>
       </c>
@@ -11115,7 +11137,7 @@
       <c r="C83" s="60"/>
       <c r="D83" s="60"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="48" t="s">
         <v>44</v>
       </c>
@@ -11129,7 +11151,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="48" t="s">
         <v>56</v>
       </c>
@@ -11143,7 +11165,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="64" t="s">
         <v>111</v>
       </c>
@@ -11151,7 +11173,7 @@
       <c r="C86" s="64"/>
       <c r="D86" s="64"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="48" t="s">
         <v>34</v>
       </c>
@@ -11165,7 +11187,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
         <v>47</v>
       </c>
@@ -11179,7 +11201,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="63" t="s">
         <v>110</v>
       </c>
@@ -11187,7 +11209,7 @@
       <c r="C89" s="60"/>
       <c r="D89" s="60"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="48" t="s">
         <v>42</v>
       </c>
@@ -11201,7 +11223,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
         <v>48</v>
       </c>
@@ -11215,7 +11237,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="63" t="s">
         <v>112</v>
       </c>
@@ -11223,7 +11245,7 @@
       <c r="C92" s="60"/>
       <c r="D92" s="60"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="48" t="s">
         <v>62</v>
       </c>
@@ -11237,7 +11259,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="63" t="s">
         <v>113</v>
       </c>
@@ -11245,7 +11267,7 @@
       <c r="C94" s="60"/>
       <c r="D94" s="60"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="48" t="s">
         <v>30</v>
       </c>
@@ -11259,7 +11281,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="63" t="s">
         <v>114</v>
       </c>
@@ -11292,6 +11314,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -11301,19 +11336,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C97" xr:uid="{05F05F3A-89C6-E74F-BB5C-B82EDA718869}">
@@ -11330,7 +11352,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12395,7 +12417,7 @@
       <c r="C80" s="60"/>
       <c r="D80" s="60"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="48" t="s">
         <v>47</v>
       </c>
@@ -12408,8 +12430,11 @@
       <c r="D81" s="48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="48" t="s">
         <v>58</v>
       </c>
@@ -12423,7 +12448,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="63" t="s">
         <v>109</v>
       </c>
@@ -12431,7 +12456,7 @@
       <c r="C83" s="60"/>
       <c r="D83" s="60"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="48" t="s">
         <v>44</v>
       </c>
@@ -12445,7 +12470,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="48" t="s">
         <v>56</v>
       </c>
@@ -12459,7 +12484,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="64" t="s">
         <v>111</v>
       </c>
@@ -12467,7 +12492,7 @@
       <c r="C86" s="64"/>
       <c r="D86" s="64"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="48" t="s">
         <v>34</v>
       </c>
@@ -12481,7 +12506,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
         <v>47</v>
       </c>
@@ -12495,7 +12520,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="63" t="s">
         <v>110</v>
       </c>
@@ -12503,7 +12528,7 @@
       <c r="C89" s="60"/>
       <c r="D89" s="60"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="48" t="s">
         <v>41</v>
       </c>
@@ -12517,7 +12542,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
         <v>48</v>
       </c>
@@ -12531,7 +12556,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="63" t="s">
         <v>112</v>
       </c>
@@ -12539,7 +12564,7 @@
       <c r="C92" s="60"/>
       <c r="D92" s="60"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="48" t="s">
         <v>43</v>
       </c>
@@ -12553,7 +12578,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="63" t="s">
         <v>113</v>
       </c>
@@ -12561,7 +12586,7 @@
       <c r="C94" s="60"/>
       <c r="D94" s="60"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="48" t="s">
         <v>32</v>
       </c>
@@ -12575,7 +12600,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="63" t="s">
         <v>114</v>
       </c>
@@ -12608,15 +12633,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A86:D86"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
@@ -12630,6 +12646,15 @@
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{84866E23-2C57-B247-AC72-E241400D8978}">
@@ -12646,7 +12671,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13735,7 +13760,7 @@
       <c r="C80" s="60"/>
       <c r="D80" s="60"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="48" t="s">
         <v>47</v>
       </c>
@@ -13748,8 +13773,11 @@
       <c r="D81" s="48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="48" t="s">
         <v>58</v>
       </c>
@@ -13763,7 +13791,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="63" t="s">
         <v>109</v>
       </c>
@@ -13771,7 +13799,7 @@
       <c r="C83" s="60"/>
       <c r="D83" s="60"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="48" t="s">
         <v>44</v>
       </c>
@@ -13785,7 +13813,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="48" t="s">
         <v>56</v>
       </c>
@@ -13799,7 +13827,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="64" t="s">
         <v>111</v>
       </c>
@@ -13807,7 +13835,7 @@
       <c r="C86" s="64"/>
       <c r="D86" s="64"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="48" t="s">
         <v>31</v>
       </c>
@@ -13821,7 +13849,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
         <v>47</v>
       </c>
@@ -13835,7 +13863,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="63" t="s">
         <v>110</v>
       </c>
@@ -13843,7 +13871,7 @@
       <c r="C89" s="60"/>
       <c r="D89" s="60"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="48" t="s">
         <v>42</v>
       </c>
@@ -13857,7 +13885,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
         <v>48</v>
       </c>
@@ -13871,7 +13899,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="63" t="s">
         <v>112</v>
       </c>
@@ -13879,7 +13907,7 @@
       <c r="C92" s="60"/>
       <c r="D92" s="60"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="48" t="s">
         <v>62</v>
       </c>
@@ -13893,7 +13921,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="63" t="s">
         <v>113</v>
       </c>
@@ -13901,7 +13929,7 @@
       <c r="C94" s="60"/>
       <c r="D94" s="60"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="48" t="s">
         <v>32</v>
       </c>
@@ -13915,7 +13943,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="63" t="s">
         <v>114</v>
       </c>
@@ -13948,6 +13976,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -13957,19 +13998,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{85A9722B-955B-CF41-A6F3-38FDC4B48A7A}">
@@ -13986,7 +14014,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15075,7 +15103,7 @@
       <c r="C80" s="60"/>
       <c r="D80" s="60"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="48" t="s">
         <v>47</v>
       </c>
@@ -15088,8 +15116,11 @@
       <c r="D81" s="48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="48" t="s">
         <v>58</v>
       </c>
@@ -15103,7 +15134,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="63" t="s">
         <v>109</v>
       </c>
@@ -15111,7 +15142,7 @@
       <c r="C83" s="60"/>
       <c r="D83" s="60"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="48" t="s">
         <v>44</v>
       </c>
@@ -15125,7 +15156,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="48" t="s">
         <v>56</v>
       </c>
@@ -15139,7 +15170,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="64" t="s">
         <v>111</v>
       </c>
@@ -15147,7 +15178,7 @@
       <c r="C86" s="64"/>
       <c r="D86" s="64"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="48" t="s">
         <v>31</v>
       </c>
@@ -15161,7 +15192,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
         <v>47</v>
       </c>
@@ -15175,7 +15206,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="63" t="s">
         <v>110</v>
       </c>
@@ -15183,7 +15214,7 @@
       <c r="C89" s="60"/>
       <c r="D89" s="60"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="48" t="s">
         <v>42</v>
       </c>
@@ -15197,7 +15228,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
         <v>44</v>
       </c>
@@ -15211,7 +15242,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="63" t="s">
         <v>112</v>
       </c>
@@ -15219,7 +15250,7 @@
       <c r="C92" s="60"/>
       <c r="D92" s="60"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="48" t="s">
         <v>62</v>
       </c>
@@ -15233,7 +15264,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="63" t="s">
         <v>113</v>
       </c>
@@ -15241,7 +15272,7 @@
       <c r="C94" s="60"/>
       <c r="D94" s="60"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="48" t="s">
         <v>32</v>
       </c>
@@ -15255,7 +15286,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="63" t="s">
         <v>114</v>
       </c>
@@ -15288,11 +15319,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A77:D77"/>
@@ -15305,11 +15336,11 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C97" xr:uid="{F2D3BCCF-F868-974E-AEC9-AB88E8DBE8B7}">
@@ -47864,12 +47895,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="CH1:CK1"/>
     <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="AY1:BB1"/>
@@ -47877,6 +47902,12 @@
     <mergeCell ref="BM1:BP1"/>
     <mergeCell ref="BT1:BW1"/>
     <mergeCell ref="CA1:CD1"/>
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AD1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -48902,12 +48933,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -48915,6 +48940,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{98289B19-A16E-8E48-AC84-DA2AC3E66DBF}">
@@ -48931,7 +48962,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -50023,7 +50054,7 @@
       <c r="C80" s="60"/>
       <c r="D80" s="60"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="48" t="s">
         <v>47</v>
       </c>
@@ -50036,8 +50067,11 @@
       <c r="D81" s="48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="48" t="s">
         <v>58</v>
       </c>
@@ -50051,7 +50085,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="63" t="s">
         <v>109</v>
       </c>
@@ -50059,7 +50093,7 @@
       <c r="C83" s="60"/>
       <c r="D83" s="60"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="48" t="s">
         <v>44</v>
       </c>
@@ -50073,7 +50107,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="48" t="s">
         <v>56</v>
       </c>
@@ -50087,7 +50121,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="64" t="s">
         <v>111</v>
       </c>
@@ -50095,7 +50129,7 @@
       <c r="C86" s="64"/>
       <c r="D86" s="64"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="48" t="s">
         <v>31</v>
       </c>
@@ -50109,7 +50143,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
         <v>45</v>
       </c>
@@ -50123,7 +50157,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="63" t="s">
         <v>110</v>
       </c>
@@ -50131,7 +50165,7 @@
       <c r="C89" s="60"/>
       <c r="D89" s="60"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="48" t="s">
         <v>42</v>
       </c>
@@ -50145,7 +50179,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
         <v>48</v>
       </c>
@@ -50159,7 +50193,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="63" t="s">
         <v>112</v>
       </c>
@@ -50167,7 +50201,7 @@
       <c r="C92" s="60"/>
       <c r="D92" s="60"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="48" t="s">
         <v>62</v>
       </c>
@@ -50181,7 +50215,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="63" t="s">
         <v>113</v>
       </c>
@@ -50189,7 +50223,7 @@
       <c r="C94" s="60"/>
       <c r="D94" s="60"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="48" t="s">
         <v>42</v>
       </c>
@@ -50203,7 +50237,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="63" t="s">
         <v>114</v>
       </c>
@@ -50231,11 +50265,24 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -50245,6 +50292,1321 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780CC646-0316-9E4F-A9F1-38ADA5D36D46}">
+  <dimension ref="A1:E99"/>
+  <sheetViews>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="34">
+        <v>0</v>
+      </c>
+      <c r="C2" s="34">
+        <v>1</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="34">
+        <v>1</v>
+      </c>
+      <c r="C5" s="34">
+        <v>3</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="34">
+        <v>1</v>
+      </c>
+      <c r="C6" s="34">
+        <v>0</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="34">
+        <v>2</v>
+      </c>
+      <c r="C7" s="34">
+        <v>1</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="34">
+        <v>4</v>
+      </c>
+      <c r="C10" s="34">
+        <v>0</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="34">
+        <v>2</v>
+      </c>
+      <c r="C11" s="34">
+        <v>1</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="34">
+        <v>1</v>
+      </c>
+      <c r="C12" s="34">
+        <v>1</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="34">
+        <v>3</v>
+      </c>
+      <c r="C13" s="34">
+        <v>1</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="34">
+        <v>0</v>
+      </c>
+      <c r="C16" s="34">
+        <v>2</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="34">
+        <v>3</v>
+      </c>
+      <c r="C17" s="34">
+        <v>1</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="34">
+        <v>3</v>
+      </c>
+      <c r="C18" s="34">
+        <v>0</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="34">
+        <v>2</v>
+      </c>
+      <c r="C19" s="34">
+        <v>0</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="34">
+        <v>2</v>
+      </c>
+      <c r="C22" s="34">
+        <v>1</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="34">
+        <v>1</v>
+      </c>
+      <c r="C23" s="34">
+        <v>1</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="34">
+        <v>3</v>
+      </c>
+      <c r="C24" s="34">
+        <v>0</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="34">
+        <v>3</v>
+      </c>
+      <c r="C25" s="34">
+        <v>1</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="34">
+        <v>1</v>
+      </c>
+      <c r="C28" s="34">
+        <v>0</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="34">
+        <v>0</v>
+      </c>
+      <c r="C29" s="34">
+        <v>1</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="34">
+        <v>2</v>
+      </c>
+      <c r="C30" s="34">
+        <v>2</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="34">
+        <v>1</v>
+      </c>
+      <c r="C31" s="34">
+        <v>0</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="34">
+        <v>2</v>
+      </c>
+      <c r="C35" s="34">
+        <v>0</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="34">
+        <v>2</v>
+      </c>
+      <c r="C36" s="34">
+        <v>1</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="34">
+        <v>2</v>
+      </c>
+      <c r="C37" s="34">
+        <v>1</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="34">
+        <v>2</v>
+      </c>
+      <c r="C40" s="34">
+        <v>1</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="34">
+        <v>2</v>
+      </c>
+      <c r="C41" s="34">
+        <v>1</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="34">
+        <v>2</v>
+      </c>
+      <c r="C42" s="34">
+        <v>0</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="34">
+        <v>2</v>
+      </c>
+      <c r="C43" s="34">
+        <v>2</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="75"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="75"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="34">
+        <v>0</v>
+      </c>
+      <c r="C46" s="34">
+        <v>2</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="34">
+        <v>1</v>
+      </c>
+      <c r="C47" s="34">
+        <v>1</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="34">
+        <v>3</v>
+      </c>
+      <c r="C48" s="34">
+        <v>1</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="34">
+        <v>1</v>
+      </c>
+      <c r="C49" s="34">
+        <v>1</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="75"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="75"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="34">
+        <v>1</v>
+      </c>
+      <c r="C52" s="34">
+        <v>1</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="34">
+        <v>2</v>
+      </c>
+      <c r="C53" s="34">
+        <v>0</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="34">
+        <v>1</v>
+      </c>
+      <c r="C54" s="34">
+        <v>2</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="34">
+        <v>0</v>
+      </c>
+      <c r="C55" s="34">
+        <v>2</v>
+      </c>
+      <c r="D55" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="75"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="75"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58" s="34">
+        <v>1</v>
+      </c>
+      <c r="C58" s="34">
+        <v>2</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="34">
+        <v>0</v>
+      </c>
+      <c r="C59" s="34">
+        <v>3</v>
+      </c>
+      <c r="D59" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" s="34">
+        <v>1</v>
+      </c>
+      <c r="C60" s="34">
+        <v>3</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="34">
+        <v>0</v>
+      </c>
+      <c r="C61" s="34">
+        <v>2</v>
+      </c>
+      <c r="D61" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="75"/>
+      <c r="C63" s="75"/>
+      <c r="D63" s="75"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" s="34">
+        <v>2</v>
+      </c>
+      <c r="C64" s="34">
+        <v>3</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" s="34">
+        <v>1</v>
+      </c>
+      <c r="C65" s="34">
+        <v>1</v>
+      </c>
+      <c r="D65" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" s="34">
+        <v>0</v>
+      </c>
+      <c r="C66" s="34">
+        <v>3</v>
+      </c>
+      <c r="D66" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" s="34">
+        <v>0</v>
+      </c>
+      <c r="C67" s="34">
+        <v>3</v>
+      </c>
+      <c r="D67" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="75"/>
+      <c r="C69" s="75"/>
+      <c r="D69" s="75"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="34">
+        <v>0</v>
+      </c>
+      <c r="C70" s="34">
+        <v>1</v>
+      </c>
+      <c r="D70" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" s="34">
+        <v>0</v>
+      </c>
+      <c r="C71" s="34">
+        <v>2</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B72" s="34">
+        <v>1</v>
+      </c>
+      <c r="C72" s="34">
+        <v>1</v>
+      </c>
+      <c r="D72" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" s="34">
+        <v>0</v>
+      </c>
+      <c r="C73" s="34">
+        <v>3</v>
+      </c>
+      <c r="D73" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" s="60"/>
+      <c r="C74" s="60"/>
+      <c r="D74" s="60"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="49">
+        <v>2</v>
+      </c>
+      <c r="C75" s="49">
+        <v>1</v>
+      </c>
+      <c r="D75" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B76" s="49">
+        <v>3</v>
+      </c>
+      <c r="C76" s="49">
+        <v>0</v>
+      </c>
+      <c r="D76" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" s="60"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="60"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B78" s="49">
+        <v>3</v>
+      </c>
+      <c r="C78" s="49">
+        <v>0</v>
+      </c>
+      <c r="D78" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" s="49">
+        <v>1</v>
+      </c>
+      <c r="C79" s="49">
+        <v>0</v>
+      </c>
+      <c r="D79" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" s="60"/>
+      <c r="C80" s="60"/>
+      <c r="D80" s="60"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B81" s="49">
+        <v>1</v>
+      </c>
+      <c r="C81" s="49">
+        <v>0</v>
+      </c>
+      <c r="D81" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B82" s="49">
+        <v>2</v>
+      </c>
+      <c r="C82" s="49">
+        <v>0</v>
+      </c>
+      <c r="D82" s="48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="B83" s="60"/>
+      <c r="C83" s="60"/>
+      <c r="D83" s="60"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B84" s="49">
+        <v>0</v>
+      </c>
+      <c r="C84" s="49">
+        <v>2</v>
+      </c>
+      <c r="D84" s="48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B85" s="49">
+        <v>2</v>
+      </c>
+      <c r="C85" s="49">
+        <v>0</v>
+      </c>
+      <c r="D85" s="48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" s="64"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="64"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B87" s="49">
+        <v>1</v>
+      </c>
+      <c r="C87" s="49">
+        <v>2</v>
+      </c>
+      <c r="D87" s="48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B88" s="49">
+        <v>0</v>
+      </c>
+      <c r="C88" s="49">
+        <v>2</v>
+      </c>
+      <c r="D88" s="48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="B89" s="60"/>
+      <c r="C89" s="60"/>
+      <c r="D89" s="60"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B90" s="49">
+        <v>1</v>
+      </c>
+      <c r="C90" s="49">
+        <v>2</v>
+      </c>
+      <c r="D90" s="48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B91" s="49">
+        <v>2</v>
+      </c>
+      <c r="C91" s="49">
+        <v>1</v>
+      </c>
+      <c r="D91" s="48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92" s="60"/>
+      <c r="C92" s="60"/>
+      <c r="D92" s="60"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B93" s="49">
+        <v>0</v>
+      </c>
+      <c r="C93" s="49">
+        <v>2</v>
+      </c>
+      <c r="D93" s="48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="B94" s="60"/>
+      <c r="C94" s="60"/>
+      <c r="D94" s="60"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B95" s="49">
+        <v>1</v>
+      </c>
+      <c r="C95" s="49">
+        <v>0</v>
+      </c>
+      <c r="D95" s="48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="B96" s="60"/>
+      <c r="C96" s="60"/>
+      <c r="D96" s="60"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>58</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D99" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E99">
+        <f>SUM(E2:E97)</f>
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -50258,1318 +51620,6 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A21:D21"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780CC646-0316-9E4F-A9F1-38ADA5D36D46}">
-  <dimension ref="A1:E99"/>
-  <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="34">
-        <v>0</v>
-      </c>
-      <c r="C2" s="34">
-        <v>1</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="34">
-        <v>1</v>
-      </c>
-      <c r="C5" s="34">
-        <v>3</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="34">
-        <v>1</v>
-      </c>
-      <c r="C6" s="34">
-        <v>0</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="34">
-        <v>2</v>
-      </c>
-      <c r="C7" s="34">
-        <v>1</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="34">
-        <v>4</v>
-      </c>
-      <c r="C10" s="34">
-        <v>0</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="34">
-        <v>2</v>
-      </c>
-      <c r="C11" s="34">
-        <v>1</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="34">
-        <v>1</v>
-      </c>
-      <c r="C12" s="34">
-        <v>1</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="34">
-        <v>3</v>
-      </c>
-      <c r="C13" s="34">
-        <v>1</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="34">
-        <v>0</v>
-      </c>
-      <c r="C16" s="34">
-        <v>2</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="34">
-        <v>3</v>
-      </c>
-      <c r="C17" s="34">
-        <v>1</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="34">
-        <v>3</v>
-      </c>
-      <c r="C18" s="34">
-        <v>0</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="34">
-        <v>2</v>
-      </c>
-      <c r="C19" s="34">
-        <v>0</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="34">
-        <v>2</v>
-      </c>
-      <c r="C22" s="34">
-        <v>1</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="34">
-        <v>1</v>
-      </c>
-      <c r="C23" s="34">
-        <v>1</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="34">
-        <v>3</v>
-      </c>
-      <c r="C24" s="34">
-        <v>0</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="34">
-        <v>3</v>
-      </c>
-      <c r="C25" s="34">
-        <v>1</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="34">
-        <v>1</v>
-      </c>
-      <c r="C28" s="34">
-        <v>0</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="34">
-        <v>0</v>
-      </c>
-      <c r="C29" s="34">
-        <v>1</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="34">
-        <v>2</v>
-      </c>
-      <c r="C30" s="34">
-        <v>2</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="34">
-        <v>1</v>
-      </c>
-      <c r="C31" s="34">
-        <v>0</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="34">
-        <v>1</v>
-      </c>
-      <c r="C34" s="34">
-        <v>1</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="34">
-        <v>2</v>
-      </c>
-      <c r="C35" s="34">
-        <v>0</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="34">
-        <v>2</v>
-      </c>
-      <c r="C36" s="34">
-        <v>1</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="34">
-        <v>2</v>
-      </c>
-      <c r="C37" s="34">
-        <v>1</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="75"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="34">
-        <v>2</v>
-      </c>
-      <c r="C40" s="34">
-        <v>1</v>
-      </c>
-      <c r="D40" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="34">
-        <v>2</v>
-      </c>
-      <c r="C41" s="34">
-        <v>1</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="34">
-        <v>2</v>
-      </c>
-      <c r="C42" s="34">
-        <v>0</v>
-      </c>
-      <c r="D42" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="34">
-        <v>2</v>
-      </c>
-      <c r="C43" s="34">
-        <v>2</v>
-      </c>
-      <c r="D43" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="75"/>
-      <c r="C45" s="75"/>
-      <c r="D45" s="75"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="34">
-        <v>0</v>
-      </c>
-      <c r="C46" s="34">
-        <v>2</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="34">
-        <v>1</v>
-      </c>
-      <c r="C47" s="34">
-        <v>1</v>
-      </c>
-      <c r="D47" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="34">
-        <v>3</v>
-      </c>
-      <c r="C48" s="34">
-        <v>1</v>
-      </c>
-      <c r="D48" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" s="34">
-        <v>1</v>
-      </c>
-      <c r="C49" s="34">
-        <v>1</v>
-      </c>
-      <c r="D49" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="B51" s="75"/>
-      <c r="C51" s="75"/>
-      <c r="D51" s="75"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" s="34">
-        <v>1</v>
-      </c>
-      <c r="C52" s="34">
-        <v>1</v>
-      </c>
-      <c r="D52" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53" s="34">
-        <v>2</v>
-      </c>
-      <c r="C53" s="34">
-        <v>0</v>
-      </c>
-      <c r="D53" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B54" s="34">
-        <v>1</v>
-      </c>
-      <c r="C54" s="34">
-        <v>2</v>
-      </c>
-      <c r="D54" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B55" s="34">
-        <v>0</v>
-      </c>
-      <c r="C55" s="34">
-        <v>2</v>
-      </c>
-      <c r="D55" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="75" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" s="75"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="75"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B58" s="34">
-        <v>1</v>
-      </c>
-      <c r="C58" s="34">
-        <v>2</v>
-      </c>
-      <c r="D58" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B59" s="34">
-        <v>0</v>
-      </c>
-      <c r="C59" s="34">
-        <v>3</v>
-      </c>
-      <c r="D59" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B60" s="34">
-        <v>1</v>
-      </c>
-      <c r="C60" s="34">
-        <v>3</v>
-      </c>
-      <c r="D60" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B61" s="34">
-        <v>0</v>
-      </c>
-      <c r="C61" s="34">
-        <v>2</v>
-      </c>
-      <c r="D61" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63" s="75"/>
-      <c r="C63" s="75"/>
-      <c r="D63" s="75"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B64" s="34">
-        <v>2</v>
-      </c>
-      <c r="C64" s="34">
-        <v>3</v>
-      </c>
-      <c r="D64" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B65" s="34">
-        <v>1</v>
-      </c>
-      <c r="C65" s="34">
-        <v>1</v>
-      </c>
-      <c r="D65" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B66" s="34">
-        <v>0</v>
-      </c>
-      <c r="C66" s="34">
-        <v>3</v>
-      </c>
-      <c r="D66" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B67" s="34">
-        <v>0</v>
-      </c>
-      <c r="C67" s="34">
-        <v>3</v>
-      </c>
-      <c r="D67" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="75" t="s">
-        <v>16</v>
-      </c>
-      <c r="B69" s="75"/>
-      <c r="C69" s="75"/>
-      <c r="D69" s="75"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B70" s="34">
-        <v>0</v>
-      </c>
-      <c r="C70" s="34">
-        <v>1</v>
-      </c>
-      <c r="D70" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="E70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B71" s="34">
-        <v>0</v>
-      </c>
-      <c r="C71" s="34">
-        <v>2</v>
-      </c>
-      <c r="D71" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B72" s="34">
-        <v>1</v>
-      </c>
-      <c r="C72" s="34">
-        <v>1</v>
-      </c>
-      <c r="D72" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B73" s="34">
-        <v>0</v>
-      </c>
-      <c r="C73" s="34">
-        <v>3</v>
-      </c>
-      <c r="D73" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="63" t="s">
-        <v>104</v>
-      </c>
-      <c r="B74" s="60"/>
-      <c r="C74" s="60"/>
-      <c r="D74" s="60"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="B75" s="49">
-        <v>2</v>
-      </c>
-      <c r="C75" s="49">
-        <v>1</v>
-      </c>
-      <c r="D75" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="E75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="B76" s="49">
-        <v>3</v>
-      </c>
-      <c r="C76" s="49">
-        <v>0</v>
-      </c>
-      <c r="D76" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="B77" s="60"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="60"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="B78" s="49">
-        <v>3</v>
-      </c>
-      <c r="C78" s="49">
-        <v>0</v>
-      </c>
-      <c r="D78" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="E78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B79" s="49">
-        <v>1</v>
-      </c>
-      <c r="C79" s="49">
-        <v>0</v>
-      </c>
-      <c r="D79" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="E79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="B80" s="60"/>
-      <c r="C80" s="60"/>
-      <c r="D80" s="60"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B81" s="49">
-        <v>1</v>
-      </c>
-      <c r="C81" s="49">
-        <v>0</v>
-      </c>
-      <c r="D81" s="48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="B82" s="49">
-        <v>2</v>
-      </c>
-      <c r="C82" s="49">
-        <v>0</v>
-      </c>
-      <c r="D82" s="48" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="B83" s="60"/>
-      <c r="C83" s="60"/>
-      <c r="D83" s="60"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B84" s="49">
-        <v>0</v>
-      </c>
-      <c r="C84" s="49">
-        <v>2</v>
-      </c>
-      <c r="D84" s="48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B85" s="49">
-        <v>2</v>
-      </c>
-      <c r="C85" s="49">
-        <v>0</v>
-      </c>
-      <c r="D85" s="48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="B86" s="64"/>
-      <c r="C86" s="64"/>
-      <c r="D86" s="64"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="B87" s="49">
-        <v>1</v>
-      </c>
-      <c r="C87" s="49">
-        <v>2</v>
-      </c>
-      <c r="D87" s="48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B88" s="49">
-        <v>0</v>
-      </c>
-      <c r="C88" s="49">
-        <v>2</v>
-      </c>
-      <c r="D88" s="48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="B89" s="60"/>
-      <c r="C89" s="60"/>
-      <c r="D89" s="60"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="B90" s="49">
-        <v>1</v>
-      </c>
-      <c r="C90" s="49">
-        <v>2</v>
-      </c>
-      <c r="D90" s="48" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B91" s="49">
-        <v>2</v>
-      </c>
-      <c r="C91" s="49">
-        <v>1</v>
-      </c>
-      <c r="D91" s="48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="B92" s="60"/>
-      <c r="C92" s="60"/>
-      <c r="D92" s="60"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="B93" s="49">
-        <v>0</v>
-      </c>
-      <c r="C93" s="49">
-        <v>2</v>
-      </c>
-      <c r="D93" s="48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="B94" s="60"/>
-      <c r="C94" s="60"/>
-      <c r="D94" s="60"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B95" s="49">
-        <v>1</v>
-      </c>
-      <c r="C95" s="49">
-        <v>0</v>
-      </c>
-      <c r="D95" s="48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="B96" s="60"/>
-      <c r="C96" s="60"/>
-      <c r="D96" s="60"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>58</v>
-      </c>
-      <c r="B97">
-        <v>2</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D99" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E99">
-        <f>SUM(E2:E97)</f>
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="22">
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -51579,19 +51629,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{A72D56DF-9BC0-2E49-9D2A-B8E721479EEF}">
@@ -51608,7 +51645,7 @@
   <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView topLeftCell="A66" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -52638,6 +52675,9 @@
       <c r="D69" s="48" t="s">
         <v>45</v>
       </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="48" t="s">
@@ -52838,6 +52878,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A17:D17"/>
     <mergeCell ref="A77:D77"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A82:D82"/>
@@ -52847,19 +52900,6 @@
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="A71:D71"/>
     <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A52:D52"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62:C84" xr:uid="{C11CF323-092E-EA4D-9917-FC21144EBBB1}">
@@ -52876,7 +52916,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -53965,7 +54005,7 @@
       <c r="C80" s="60"/>
       <c r="D80" s="60"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="48" t="s">
         <v>47</v>
       </c>
@@ -53978,8 +54018,11 @@
       <c r="D81" s="48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="48" t="s">
         <v>58</v>
       </c>
@@ -53993,7 +54036,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="63" t="s">
         <v>109</v>
       </c>
@@ -54001,7 +54044,7 @@
       <c r="C83" s="60"/>
       <c r="D83" s="60"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="48" t="s">
         <v>44</v>
       </c>
@@ -54015,7 +54058,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="48" t="s">
         <v>56</v>
       </c>
@@ -54029,7 +54072,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="64" t="s">
         <v>111</v>
       </c>
@@ -54037,7 +54080,7 @@
       <c r="C86" s="64"/>
       <c r="D86" s="64"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="48" t="s">
         <v>31</v>
       </c>
@@ -54051,7 +54094,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
         <v>45</v>
       </c>
@@ -54065,7 +54108,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="63" t="s">
         <v>110</v>
       </c>
@@ -54073,7 +54116,7 @@
       <c r="C89" s="60"/>
       <c r="D89" s="60"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="48" t="s">
         <v>42</v>
       </c>
@@ -54087,7 +54130,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
         <v>48</v>
       </c>
@@ -54101,7 +54144,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="63" t="s">
         <v>112</v>
       </c>
@@ -54109,7 +54152,7 @@
       <c r="C92" s="60"/>
       <c r="D92" s="60"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="48" t="s">
         <v>62</v>
       </c>
@@ -54123,7 +54166,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="63" t="s">
         <v>113</v>
       </c>
@@ -54131,7 +54174,7 @@
       <c r="C94" s="60"/>
       <c r="D94" s="60"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="48" t="s">
         <v>32</v>
       </c>
@@ -54145,7 +54188,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="63" t="s">
         <v>114</v>
       </c>
@@ -54182,7 +54225,7 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -54193,6 +54236,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -54202,19 +54258,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{EC36F1B5-3564-784F-B3C5-B041B2C2E87E}">
@@ -55320,7 +55363,7 @@
       <c r="C80" s="60"/>
       <c r="D80" s="60"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="48" t="s">
         <v>47</v>
       </c>
@@ -55333,8 +55376,11 @@
       <c r="D81" s="48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="48" t="s">
         <v>58</v>
       </c>
@@ -55348,7 +55394,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="63" t="s">
         <v>109</v>
       </c>
@@ -55356,7 +55402,7 @@
       <c r="C83" s="60"/>
       <c r="D83" s="60"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="48" t="s">
         <v>44</v>
       </c>
@@ -55370,7 +55416,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="48" t="s">
         <v>56</v>
       </c>
@@ -55384,7 +55430,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="64" t="s">
         <v>111</v>
       </c>
@@ -55392,7 +55438,7 @@
       <c r="C86" s="64"/>
       <c r="D86" s="64"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="48" t="s">
         <v>117</v>
       </c>
@@ -55406,7 +55452,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
         <v>45</v>
       </c>
@@ -55420,7 +55466,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="63" t="s">
         <v>110</v>
       </c>
@@ -55428,7 +55474,7 @@
       <c r="C89" s="60"/>
       <c r="D89" s="60"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="48" t="s">
         <v>42</v>
       </c>
@@ -55442,7 +55488,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
         <v>118</v>
       </c>
@@ -55456,7 +55502,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="63" t="s">
         <v>112</v>
       </c>
@@ -55464,7 +55510,7 @@
       <c r="C92" s="60"/>
       <c r="D92" s="60"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="48" t="s">
         <v>31</v>
       </c>
@@ -55478,7 +55524,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="63" t="s">
         <v>113</v>
       </c>
@@ -55486,7 +55532,7 @@
       <c r="C94" s="60"/>
       <c r="D94" s="60"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="48" t="s">
         <v>32</v>
       </c>
@@ -55500,7 +55546,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="63" t="s">
         <v>114</v>
       </c>
@@ -55528,11 +55574,24 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -55542,19 +55601,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{A0FD6351-8E4F-C04E-BE54-C8F4EA5F1555}">
@@ -55571,7 +55617,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -56660,7 +56706,7 @@
       <c r="C80" s="60"/>
       <c r="D80" s="60"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="48" t="s">
         <v>47</v>
       </c>
@@ -56673,8 +56719,11 @@
       <c r="D81" s="48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="48" t="s">
         <v>58</v>
       </c>
@@ -56688,7 +56737,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="63" t="s">
         <v>109</v>
       </c>
@@ -56696,7 +56745,7 @@
       <c r="C83" s="60"/>
       <c r="D83" s="60"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="48" t="s">
         <v>44</v>
       </c>
@@ -56710,7 +56759,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="48" t="s">
         <v>56</v>
       </c>
@@ -56724,7 +56773,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="64" t="s">
         <v>111</v>
       </c>
@@ -56732,7 +56781,7 @@
       <c r="C86" s="64"/>
       <c r="D86" s="64"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="48" t="s">
         <v>31</v>
       </c>
@@ -56746,7 +56795,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
         <v>47</v>
       </c>
@@ -56760,7 +56809,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="63" t="s">
         <v>110</v>
       </c>
@@ -56768,7 +56817,7 @@
       <c r="C89" s="60"/>
       <c r="D89" s="60"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="48" t="s">
         <v>42</v>
       </c>
@@ -56782,7 +56831,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
         <v>48</v>
       </c>
@@ -56796,7 +56845,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="63" t="s">
         <v>112</v>
       </c>
@@ -56804,7 +56853,7 @@
       <c r="C92" s="60"/>
       <c r="D92" s="60"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="48" t="s">
         <v>62</v>
       </c>
@@ -56818,7 +56867,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="63" t="s">
         <v>113</v>
       </c>
@@ -56826,7 +56875,7 @@
       <c r="C94" s="60"/>
       <c r="D94" s="60"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="48" t="s">
         <v>42</v>
       </c>
@@ -56840,7 +56889,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="63" t="s">
         <v>114</v>
       </c>
@@ -56883,6 +56932,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -56892,19 +56954,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C100" xr:uid="{912C664E-C133-1E4F-9640-4A25EB9EF25D}">
@@ -56921,7 +56970,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -58010,7 +58059,7 @@
       <c r="C80" s="60"/>
       <c r="D80" s="60"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="48" t="s">
         <v>47</v>
       </c>
@@ -58023,8 +58072,11 @@
       <c r="D81" s="48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="48" t="s">
         <v>58</v>
       </c>
@@ -58038,7 +58090,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="63" t="s">
         <v>109</v>
       </c>
@@ -58046,7 +58098,7 @@
       <c r="C83" s="60"/>
       <c r="D83" s="60"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="48" t="s">
         <v>44</v>
       </c>
@@ -58060,7 +58112,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="48" t="s">
         <v>56</v>
       </c>
@@ -58074,7 +58126,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="64" t="s">
         <v>111</v>
       </c>
@@ -58082,7 +58134,7 @@
       <c r="C86" s="64"/>
       <c r="D86" s="64"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="48" t="s">
         <v>31</v>
       </c>
@@ -58096,7 +58148,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
         <v>47</v>
       </c>
@@ -58110,7 +58162,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="63" t="s">
         <v>110</v>
       </c>
@@ -58118,7 +58170,7 @@
       <c r="C89" s="60"/>
       <c r="D89" s="60"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="48" t="s">
         <v>42</v>
       </c>
@@ -58132,7 +58184,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
         <v>48</v>
       </c>
@@ -58144,7 +58196,7 @@
       </c>
       <c r="D91" s="48"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="63" t="s">
         <v>112</v>
       </c>
@@ -58152,7 +58204,7 @@
       <c r="C92" s="60"/>
       <c r="D92" s="60"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="48" t="s">
         <v>62</v>
       </c>
@@ -58166,7 +58218,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="63" t="s">
         <v>113</v>
       </c>
@@ -58174,7 +58226,7 @@
       <c r="C94" s="60"/>
       <c r="D94" s="60"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="48" t="s">
         <v>42</v>
       </c>
@@ -58186,7 +58238,7 @@
       </c>
       <c r="D95" s="48"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="63" t="s">
         <v>114</v>
       </c>
@@ -58219,6 +58271,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -58228,19 +58293,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{B20B3CE4-DCB9-4E4A-AC39-D9DA073FCC61}">
@@ -58257,7 +58309,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -59342,7 +59394,7 @@
       <c r="C80" s="60"/>
       <c r="D80" s="60"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="48" t="s">
         <v>47</v>
       </c>
@@ -59355,8 +59407,11 @@
       <c r="D81" s="48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="48" t="s">
         <v>58</v>
       </c>
@@ -59370,7 +59425,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="63" t="s">
         <v>109</v>
       </c>
@@ -59378,7 +59433,7 @@
       <c r="C83" s="60"/>
       <c r="D83" s="60"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="48" t="s">
         <v>44</v>
       </c>
@@ -59392,7 +59447,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="48" t="s">
         <v>56</v>
       </c>
@@ -59406,7 +59461,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="64" t="s">
         <v>111</v>
       </c>
@@ -59414,7 +59469,7 @@
       <c r="C86" s="64"/>
       <c r="D86" s="64"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="48" t="s">
         <v>31</v>
       </c>
@@ -59428,7 +59483,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
         <v>47</v>
       </c>
@@ -59442,7 +59497,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="63" t="s">
         <v>110</v>
       </c>
@@ -59450,7 +59505,7 @@
       <c r="C89" s="60"/>
       <c r="D89" s="60"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="48" t="s">
         <v>42</v>
       </c>
@@ -59464,7 +59519,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
         <v>48</v>
       </c>
@@ -59478,7 +59533,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="63" t="s">
         <v>112</v>
       </c>
@@ -59486,7 +59541,7 @@
       <c r="C92" s="60"/>
       <c r="D92" s="60"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="48" t="s">
         <v>31</v>
       </c>
@@ -59500,7 +59555,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="63" t="s">
         <v>113</v>
       </c>
@@ -59508,7 +59563,7 @@
       <c r="C94" s="60"/>
       <c r="D94" s="60"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="48" t="s">
         <v>42</v>
       </c>
@@ -59522,7 +59577,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="63" t="s">
         <v>114</v>
       </c>
@@ -59555,6 +59610,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -59564,19 +59632,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{D0B3E49D-2BC1-6E4D-9735-2E4B121876A2}">
@@ -59593,7 +59648,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -60682,7 +60737,7 @@
       <c r="C80" s="60"/>
       <c r="D80" s="60"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="48" t="s">
         <v>47</v>
       </c>
@@ -60695,8 +60750,11 @@
       <c r="D81" s="48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="48" t="s">
         <v>58</v>
       </c>
@@ -60710,7 +60768,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="63" t="s">
         <v>109</v>
       </c>
@@ -60718,7 +60776,7 @@
       <c r="C83" s="60"/>
       <c r="D83" s="60"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="48" t="s">
         <v>44</v>
       </c>
@@ -60732,7 +60790,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="48" t="s">
         <v>56</v>
       </c>
@@ -60746,7 +60804,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="64" t="s">
         <v>111</v>
       </c>
@@ -60754,7 +60812,7 @@
       <c r="C86" s="64"/>
       <c r="D86" s="64"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="48" t="s">
         <v>34</v>
       </c>
@@ -60768,7 +60826,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
         <v>47</v>
       </c>
@@ -60782,7 +60840,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="63" t="s">
         <v>110</v>
       </c>
@@ -60790,7 +60848,7 @@
       <c r="C89" s="60"/>
       <c r="D89" s="60"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="48" t="s">
         <v>42</v>
       </c>
@@ -60804,7 +60862,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
         <v>48</v>
       </c>
@@ -60818,7 +60876,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="63" t="s">
         <v>112</v>
       </c>
@@ -60826,7 +60884,7 @@
       <c r="C92" s="60"/>
       <c r="D92" s="60"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="48" t="s">
         <v>62</v>
       </c>
@@ -60840,7 +60898,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="63" t="s">
         <v>113</v>
       </c>
@@ -60848,7 +60906,7 @@
       <c r="C94" s="60"/>
       <c r="D94" s="60"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="48" t="s">
         <v>106</v>
       </c>
@@ -60862,7 +60920,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="63" t="s">
         <v>114</v>
       </c>
@@ -60895,6 +60953,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -60904,19 +60975,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{60ADF05C-298C-944D-B683-D8C73BF6553D}">
@@ -60932,8 +60990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CA3D3A-5644-1847-8D60-65D782BB1346}">
   <dimension ref="A1:BJ51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
     </sheetView>
@@ -61149,9 +61207,9 @@
         <f>'James W'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T2" s="55">
+      <c r="T2" s="83">
         <f>'James W'!E81</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V2" s="39" t="s">
         <v>102</v>
@@ -61554,7 +61612,7 @@
         <f>'Mother B'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T4" s="55">
+      <c r="T4" s="83">
         <f>'Mother B'!E81</f>
         <v>0</v>
       </c>
@@ -61960,7 +62018,7 @@
         <f>'Derek b'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T6" s="55">
+      <c r="T6" s="83">
         <f>'Derek b'!E81</f>
         <v>0</v>
       </c>
@@ -62366,7 +62424,7 @@
         <f>'Bernie R'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T8" s="55">
+      <c r="T8" s="83">
         <f>'Bernie R'!E81</f>
         <v>0</v>
       </c>
@@ -62772,7 +62830,7 @@
         <f>'Nathan W'!D69</f>
         <v>Croatia</v>
       </c>
-      <c r="T10" s="55">
+      <c r="T10" s="83">
         <f>'Nathan W'!E69</f>
         <v>0</v>
       </c>
@@ -63178,9 +63236,9 @@
         <f>'Martin L'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T12" s="55">
+      <c r="T12" s="83">
         <f>'Martin L'!E81</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V12" s="39" t="s">
         <v>94</v>
@@ -63583,9 +63641,9 @@
         <f>'Marjorie L'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T14" s="55">
+      <c r="T14" s="83">
         <f>'Marjorie L'!E81</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V14" s="39" t="s">
         <v>93</v>
@@ -63989,7 +64047,7 @@
         <f>'Keith W'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T16" s="55">
+      <c r="T16" s="83">
         <f>'Keith W'!E81</f>
         <v>0</v>
       </c>
@@ -64395,7 +64453,7 @@
         <f>'Liz W'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T18" s="55">
+      <c r="T18" s="83">
         <f>'Liz W'!E81</f>
         <v>0</v>
       </c>
@@ -64800,7 +64858,7 @@
         <f>'Alice D'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T20" s="55">
+      <c r="T20" s="83">
         <f>'Alice D'!E81</f>
         <v>0</v>
       </c>
@@ -65206,7 +65264,7 @@
         <f>'Rob TH'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T22" s="55">
+      <c r="T22" s="83">
         <f>'Rob TH'!E81</f>
         <v>0</v>
       </c>
@@ -65611,9 +65669,9 @@
         <f>'Evan A'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T24" s="55">
+      <c r="T24" s="83">
         <f>'Evan A'!E81</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" s="39" t="s">
         <v>88</v>
@@ -66017,7 +66075,7 @@
         <f>'Alison S'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T26" s="55">
+      <c r="T26" s="83">
         <f>'Alison S'!E81</f>
         <v>0</v>
       </c>
@@ -66354,7 +66412,7 @@
         <f>'Cathy G'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T28" s="55">
+      <c r="T28" s="83">
         <f>'Cathy G'!E81</f>
         <v>0</v>
       </c>
@@ -66622,7 +66680,7 @@
         <f>'Dave B'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T30" s="55">
+      <c r="T30" s="83">
         <f>'Dave B'!E81</f>
         <v>0</v>
       </c>
@@ -66889,7 +66947,7 @@
         <f>'Jacques Chi'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T32" s="55">
+      <c r="T32" s="83">
         <f>'Jacques Chi'!E81</f>
         <v>0</v>
       </c>
@@ -67157,9 +67215,9 @@
         <f>'Robert L'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T34" s="55">
+      <c r="T34" s="83">
         <f>'Robert L'!E81</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V34" s="39" t="s">
         <v>25</v>
@@ -67424,7 +67482,7 @@
         <f>'Dawn G'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T36" s="55">
+      <c r="T36" s="83">
         <f>'Dawn G'!E81</f>
         <v>0</v>
       </c>
@@ -67690,7 +67748,7 @@
         <f>'John B'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T38" s="55">
+      <c r="T38" s="83">
         <f>'John B'!E81</f>
         <v>0</v>
       </c>
@@ -67958,9 +68016,9 @@
         <f>'Mandy B'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T40" s="55">
+      <c r="T40" s="83">
         <f>'Mandy B'!E81</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40" s="39" t="s">
         <v>21</v>
@@ -68226,7 +68284,7 @@
         <f>'Freddie J'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T42" s="55">
+      <c r="T42" s="83">
         <f>'Freddie J'!E81</f>
         <v>0</v>
       </c>
@@ -68494,9 +68552,9 @@
         <f>'Stuart L'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T44" s="55">
+      <c r="T44" s="83">
         <f>'Stuart L'!E81</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V44" s="39" t="s">
         <v>18</v>
@@ -68762,7 +68820,7 @@
         <f>'Barbara L'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T46" s="55">
+      <c r="T46" s="83">
         <f>'Barbara L'!E81</f>
         <v>0</v>
       </c>
@@ -69030,9 +69088,9 @@
         <f>'Andy B'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T48" s="55">
+      <c r="T48" s="83">
         <f>'Andy B'!E81</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V48" s="39" t="s">
         <v>86</v>
@@ -69298,7 +69356,7 @@
         <f>'Keith G'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T50" s="55">
+      <c r="T50" s="83">
         <f>'Keith G'!E81</f>
         <v>0</v>
       </c>
@@ -69522,7 +69580,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -70611,7 +70669,7 @@
       <c r="C80" s="60"/>
       <c r="D80" s="60"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="48" t="s">
         <v>47</v>
       </c>
@@ -70624,8 +70682,11 @@
       <c r="D81" s="48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="48" t="s">
         <v>58</v>
       </c>
@@ -70639,7 +70700,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="63" t="s">
         <v>109</v>
       </c>
@@ -70647,7 +70708,7 @@
       <c r="C83" s="60"/>
       <c r="D83" s="60"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="48" t="s">
         <v>44</v>
       </c>
@@ -70661,7 +70722,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="48" t="s">
         <v>56</v>
       </c>
@@ -70675,7 +70736,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="64" t="s">
         <v>111</v>
       </c>
@@ -70683,7 +70744,7 @@
       <c r="C86" s="64"/>
       <c r="D86" s="64"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="48" t="s">
         <v>34</v>
       </c>
@@ -70697,7 +70758,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
         <v>45</v>
       </c>
@@ -70711,7 +70772,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="63" t="s">
         <v>110</v>
       </c>
@@ -70719,7 +70780,7 @@
       <c r="C89" s="60"/>
       <c r="D89" s="60"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="48" t="s">
         <v>42</v>
       </c>
@@ -70733,7 +70794,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
         <v>44</v>
       </c>
@@ -70747,7 +70808,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="63" t="s">
         <v>112</v>
       </c>
@@ -70755,7 +70816,7 @@
       <c r="C92" s="60"/>
       <c r="D92" s="60"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="48" t="s">
         <v>62</v>
       </c>
@@ -70769,7 +70830,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="63" t="s">
         <v>113</v>
       </c>
@@ -70777,7 +70838,7 @@
       <c r="C94" s="60"/>
       <c r="D94" s="60"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="48" t="s">
         <v>42</v>
       </c>
@@ -70791,7 +70852,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="63" t="s">
         <v>114</v>
       </c>
@@ -70823,11 +70884,24 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -70837,19 +70911,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C98" xr:uid="{F68D3FFC-EF79-CC40-8F53-8BF21A5E1341}">
@@ -70866,7 +70927,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -71958,7 +72019,7 @@
       <c r="C80" s="60"/>
       <c r="D80" s="60"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="48" t="s">
         <v>47</v>
       </c>
@@ -71971,8 +72032,11 @@
       <c r="D81" s="48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="48" t="s">
         <v>58</v>
       </c>
@@ -71986,7 +72050,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="63" t="s">
         <v>109</v>
       </c>
@@ -71994,7 +72058,7 @@
       <c r="C83" s="60"/>
       <c r="D83" s="60"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="48" t="s">
         <v>44</v>
       </c>
@@ -72008,7 +72072,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="48" t="s">
         <v>56</v>
       </c>
@@ -72022,7 +72086,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="64" t="s">
         <v>111</v>
       </c>
@@ -72030,7 +72094,7 @@
       <c r="C86" s="64"/>
       <c r="D86" s="64"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="48" t="s">
         <v>31</v>
       </c>
@@ -72044,7 +72108,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
         <v>47</v>
       </c>
@@ -72058,7 +72122,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="63" t="s">
         <v>110</v>
       </c>
@@ -72066,7 +72130,7 @@
       <c r="C89" s="60"/>
       <c r="D89" s="60"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="48" t="s">
         <v>42</v>
       </c>
@@ -72080,7 +72144,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
         <v>48</v>
       </c>
@@ -72094,7 +72158,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="63" t="s">
         <v>112</v>
       </c>
@@ -72102,7 +72166,7 @@
       <c r="C92" s="60"/>
       <c r="D92" s="60"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="48" t="s">
         <v>62</v>
       </c>
@@ -72116,7 +72180,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="63" t="s">
         <v>113</v>
       </c>
@@ -72124,7 +72188,7 @@
       <c r="C94" s="60"/>
       <c r="D94" s="60"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="48" t="s">
         <v>42</v>
       </c>
@@ -72138,7 +72202,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="63" t="s">
         <v>114</v>
       </c>
@@ -72171,6 +72235,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -72180,19 +72257,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C97" xr:uid="{11A7353F-6A05-F048-B4B5-2330C623E382}">
@@ -73405,6 +73469,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -73414,19 +73491,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{9D4EDCA2-2FFE-E64B-A34E-466DD99F6343}">
@@ -74618,15 +74682,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A86:D86"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
@@ -74640,6 +74695,15 @@
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{55CBA0EA-03DF-D446-B217-F70483C49D17}">
@@ -75853,6 +75917,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -75862,19 +75939,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66 B1:C65 B67:C97" xr:uid="{156C7248-1706-4E17-9BB6-079B78DEF479}">
@@ -77066,15 +77130,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A86:D86"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
@@ -77088,6 +77143,15 @@
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{977686BA-C9F0-5F4E-89D6-CE94966C1FE0}">
@@ -78276,6 +78340,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -78285,19 +78362,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{BE5067DB-A56D-FF40-9C9A-839412CFE3CC}">
@@ -78864,18 +78928,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="B64:E64"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="B46:E46"/>
     <mergeCell ref="B52:E52"/>
     <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -79112,7 +79176,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -80204,7 +80268,7 @@
       <c r="C80" s="60"/>
       <c r="D80" s="60"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="48" t="s">
         <v>47</v>
       </c>
@@ -80217,8 +80281,11 @@
       <c r="D81" s="48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="48" t="s">
         <v>58</v>
       </c>
@@ -80232,7 +80299,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="63" t="s">
         <v>109</v>
       </c>
@@ -80240,7 +80307,7 @@
       <c r="C83" s="60"/>
       <c r="D83" s="60"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="48" t="s">
         <v>44</v>
       </c>
@@ -80254,7 +80321,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="48" t="s">
         <v>56</v>
       </c>
@@ -80268,7 +80335,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="64" t="s">
         <v>111</v>
       </c>
@@ -80276,7 +80343,7 @@
       <c r="C86" s="64"/>
       <c r="D86" s="64"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="48" t="s">
         <v>31</v>
       </c>
@@ -80290,7 +80357,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
         <v>47</v>
       </c>
@@ -80304,7 +80371,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="63" t="s">
         <v>110</v>
       </c>
@@ -80312,7 +80379,7 @@
       <c r="C89" s="60"/>
       <c r="D89" s="60"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="48" t="s">
         <v>42</v>
       </c>
@@ -80326,7 +80393,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
         <v>48</v>
       </c>
@@ -80340,7 +80407,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="63" t="s">
         <v>112</v>
       </c>
@@ -80348,7 +80415,7 @@
       <c r="C92" s="60"/>
       <c r="D92" s="60"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="48" t="s">
         <v>62</v>
       </c>
@@ -80362,7 +80429,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="63" t="s">
         <v>113</v>
       </c>
@@ -80370,7 +80437,7 @@
       <c r="C94" s="60"/>
       <c r="D94" s="60"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="48" t="s">
         <v>32</v>
       </c>
@@ -80384,7 +80451,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="63" t="s">
         <v>114</v>
       </c>
@@ -80417,6 +80484,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -80426,19 +80506,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{8A242A5A-737B-3248-9203-1E18FA7E8CAD}">
@@ -80455,7 +80522,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A71" zoomScale="106" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -81544,7 +81611,7 @@
       <c r="C80" s="60"/>
       <c r="D80" s="60"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="48" t="s">
         <v>47</v>
       </c>
@@ -81557,8 +81624,11 @@
       <c r="D81" s="48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="48" t="s">
         <v>58</v>
       </c>
@@ -81572,7 +81642,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="63" t="s">
         <v>109</v>
       </c>
@@ -81580,7 +81650,7 @@
       <c r="C83" s="60"/>
       <c r="D83" s="60"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="48" t="s">
         <v>44</v>
       </c>
@@ -81594,7 +81664,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="48" t="s">
         <v>56</v>
       </c>
@@ -81608,7 +81678,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="64" t="s">
         <v>111</v>
       </c>
@@ -81616,7 +81686,7 @@
       <c r="C86" s="64"/>
       <c r="D86" s="64"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="48" t="s">
         <v>31</v>
       </c>
@@ -81630,7 +81700,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
         <v>45</v>
       </c>
@@ -81644,7 +81714,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="63" t="s">
         <v>110</v>
       </c>
@@ -81652,7 +81722,7 @@
       <c r="C89" s="60"/>
       <c r="D89" s="60"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="48" t="s">
         <v>42</v>
       </c>
@@ -81666,7 +81736,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
         <v>48</v>
       </c>
@@ -81680,7 +81750,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="63" t="s">
         <v>112</v>
       </c>
@@ -81688,7 +81758,7 @@
       <c r="C92" s="60"/>
       <c r="D92" s="60"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="48" t="s">
         <v>62</v>
       </c>
@@ -81702,7 +81772,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="63" t="s">
         <v>113</v>
       </c>
@@ -81710,7 +81780,7 @@
       <c r="C94" s="60"/>
       <c r="D94" s="60"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="48" t="s">
         <v>32</v>
       </c>
@@ -81724,7 +81794,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="63" t="s">
         <v>114</v>
       </c>
@@ -81752,11 +81822,24 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -81766,19 +81849,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{79F4B324-FC19-7044-8ECD-3029BC735257}">
@@ -81795,7 +81865,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -82884,7 +82954,7 @@
       <c r="C80" s="60"/>
       <c r="D80" s="60"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="48" t="s">
         <v>47</v>
       </c>
@@ -82897,8 +82967,11 @@
       <c r="D81" s="48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="48" t="s">
         <v>58</v>
       </c>
@@ -82912,7 +82985,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="63" t="s">
         <v>109</v>
       </c>
@@ -82920,7 +82993,7 @@
       <c r="C83" s="60"/>
       <c r="D83" s="60"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="48" t="s">
         <v>44</v>
       </c>
@@ -82934,7 +83007,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="48" t="s">
         <v>56</v>
       </c>
@@ -82948,7 +83021,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="64" t="s">
         <v>111</v>
       </c>
@@ -82956,7 +83029,7 @@
       <c r="C86" s="64"/>
       <c r="D86" s="64"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="48" t="s">
         <v>31</v>
       </c>
@@ -82970,7 +83043,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
         <v>47</v>
       </c>
@@ -82984,7 +83057,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="63" t="s">
         <v>110</v>
       </c>
@@ -82992,7 +83065,7 @@
       <c r="C89" s="60"/>
       <c r="D89" s="60"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="48" t="s">
         <v>42</v>
       </c>
@@ -83006,7 +83079,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
         <v>48</v>
       </c>
@@ -83020,7 +83093,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="63" t="s">
         <v>112</v>
       </c>
@@ -83028,7 +83101,7 @@
       <c r="C92" s="60"/>
       <c r="D92" s="60"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="48" t="s">
         <v>62</v>
       </c>
@@ -83042,7 +83115,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="63" t="s">
         <v>113</v>
       </c>
@@ -83050,7 +83123,7 @@
       <c r="C94" s="60"/>
       <c r="D94" s="60"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="48" t="s">
         <v>32</v>
       </c>
@@ -83064,7 +83137,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="63" t="s">
         <v>114</v>
       </c>
@@ -83097,6 +83170,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -83106,19 +83192,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{F1AA318D-CFEE-E945-8C0E-235E3838BA82}">
@@ -83135,7 +83208,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -84224,7 +84297,7 @@
       <c r="C80" s="60"/>
       <c r="D80" s="60"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="48" t="s">
         <v>47</v>
       </c>
@@ -84237,8 +84310,11 @@
       <c r="D81" s="48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="48" t="s">
         <v>58</v>
       </c>
@@ -84252,7 +84328,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="63" t="s">
         <v>109</v>
       </c>
@@ -84260,7 +84336,7 @@
       <c r="C83" s="60"/>
       <c r="D83" s="60"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="48" t="s">
         <v>44</v>
       </c>
@@ -84274,7 +84350,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="48" t="s">
         <v>56</v>
       </c>
@@ -84288,7 +84364,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="64" t="s">
         <v>111</v>
       </c>
@@ -84296,7 +84372,7 @@
       <c r="C86" s="64"/>
       <c r="D86" s="64"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="48" t="s">
         <v>31</v>
       </c>
@@ -84310,7 +84386,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
         <v>45</v>
       </c>
@@ -84324,7 +84400,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="63" t="s">
         <v>110</v>
       </c>
@@ -84332,7 +84408,7 @@
       <c r="C89" s="60"/>
       <c r="D89" s="60"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="48" t="s">
         <v>42</v>
       </c>
@@ -84346,7 +84422,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
         <v>48</v>
       </c>
@@ -84360,7 +84436,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="63" t="s">
         <v>112</v>
       </c>
@@ -84368,7 +84444,7 @@
       <c r="C92" s="60"/>
       <c r="D92" s="60"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="48" t="s">
         <v>62</v>
       </c>
@@ -84382,7 +84458,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="63" t="s">
         <v>113</v>
       </c>
@@ -84390,7 +84466,7 @@
       <c r="C94" s="60"/>
       <c r="D94" s="60"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="48" t="s">
         <v>42</v>
       </c>
@@ -84404,7 +84480,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="63" t="s">
         <v>114</v>
       </c>
@@ -84432,11 +84508,24 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -84446,19 +84535,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{446CEEDB-BF43-854D-95D2-80CA6EE53C2C}">

--- a/resources/Forms/Excel/Big Sheet.xlsx
+++ b/resources/Forms/Excel/Big Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie/FootieTake2/resources/Forms/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie_Take2/FootieTake2/resources/Forms/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB713CD9-7E2A-6449-A0C6-2B20B8DE651F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFABFFAB-E836-8C43-86EF-2405CF48656F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" tabRatio="800" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" tabRatio="800" activeTab="2" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Ranking" sheetId="5" r:id="rId1"/>
@@ -458,7 +458,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -510,6 +510,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -817,7 +824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1010,9 +1017,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1076,50 +1081,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>838199</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>821266</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>8966</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A861F2D-783B-DC10-754A-2AA1DB68275D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2556932" y="0"/>
-          <a:ext cx="5012267" cy="18906566"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1129,21 +1090,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>146544</xdr:rowOff>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>72610</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD034E32-A7E4-1A19-2293-1F3B6F62D3F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C56C2D46-2D17-8352-F93F-962C5140B0A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1159,8 +1120,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10769600"/>
-          <a:ext cx="8153400" cy="26968944"/>
+          <a:off x="0" y="10566400"/>
+          <a:ext cx="8064500" cy="24863010"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1471,7 +1432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88DB2AD-0B7A-2B40-B11D-A4AE4E9DB3F2}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="150" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -1494,7 +1455,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f>RANK(C2,($C$2:$C$32),0)</f>
+        <f t="shared" ref="A2:A32" si="0">RANK(C2,($C$2:$C$32),0)</f>
         <v>1</v>
       </c>
       <c r="B2" s="2" t="str">
@@ -1508,7 +1469,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <f>RANK(C3,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="str">
@@ -1522,7 +1483,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <f>RANK(C4,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="2" t="str">
@@ -1536,7 +1497,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <f>RANK(C5,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="str">
@@ -1550,7 +1511,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <f>RANK(C6,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="2" t="str">
@@ -1564,7 +1525,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <f>RANK(C7,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="2" t="str">
@@ -1578,7 +1539,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <f>RANK(C8,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="2" t="str">
@@ -1592,7 +1553,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <f>RANK(C9,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="2" t="str">
@@ -1606,7 +1567,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <f>RANK(C10,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="2" t="str">
@@ -1620,7 +1581,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <f>RANK(C11,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B11" s="13" t="str">
@@ -1634,7 +1595,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <f>RANK(C12,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B12" s="2" t="str">
@@ -1648,7 +1609,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <f>RANK(C13,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B13" s="2" t="str">
@@ -1662,7 +1623,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <f>RANK(C14,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B14" s="2" t="str">
@@ -1676,7 +1637,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <f>RANK(C15,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="2" t="str">
@@ -1690,7 +1651,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <f>RANK(C16,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" s="2" t="str">
@@ -1704,7 +1665,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <f>RANK(C17,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="2" t="str">
@@ -1718,7 +1679,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <f>RANK(C18,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18" s="2" t="str">
@@ -1732,7 +1693,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <f>RANK(C19,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="2" t="str">
@@ -1746,7 +1707,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <f>RANK(C20,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="13" t="str">
@@ -1760,7 +1721,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <f>RANK(C21,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" s="13" t="str">
@@ -1774,7 +1735,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <f>RANK(C22,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="2" t="str">
@@ -1788,7 +1749,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <f>RANK(C23,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="2" t="str">
@@ -1802,7 +1763,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <f>RANK(C24,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="2" t="str">
@@ -1816,7 +1777,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <f>RANK(C25,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25" s="2" t="str">
@@ -1830,7 +1791,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <f>RANK(C26,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B26" s="2" t="str">
@@ -1844,7 +1805,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <f>RANK(C27,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="2" t="str">
@@ -1858,7 +1819,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <f>RANK(C28,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="2" t="str">
@@ -1872,7 +1833,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <f>RANK(C29,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="2" t="str">
@@ -1886,7 +1847,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <f>RANK(C30,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="2" t="str">
@@ -1900,7 +1861,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <f>RANK(C31,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="2" t="str">
@@ -1914,7 +1875,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <f>RANK(C32,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="39" t="str">
@@ -3249,6 +3210,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -3258,19 +3232,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{8427FA4B-D7DC-C74F-B6C6-02A04CEA1479}">
@@ -4595,6 +4556,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -4604,19 +4578,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{AF448023-A790-794F-BB14-4EE63C681037}">
@@ -5941,6 +5902,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -5950,19 +5924,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{CBEDE9B1-CCD8-024F-8FF6-52E83D09DD5F}">
@@ -7293,6 +7254,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -7302,19 +7276,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C99" xr:uid="{A6BA8386-7538-B943-BC89-6C717665472C}">
@@ -8639,6 +8600,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -8648,19 +8622,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{2B53EE05-D1D3-374E-8836-2425C3E2B4A5}">
@@ -9983,6 +9944,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -9992,19 +9966,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{A2199F60-9E4F-6445-90E3-92673D510A9D}">
@@ -11329,6 +11290,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -11338,19 +11312,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C97" xr:uid="{05F05F3A-89C6-E74F-BB5C-B82EDA718869}">
@@ -12651,15 +12612,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A86:D86"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
@@ -12673,6 +12625,15 @@
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{84866E23-2C57-B247-AC72-E241400D8978}">
@@ -13997,6 +13958,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -14006,19 +13980,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{85A9722B-955B-CF41-A6F3-38FDC4B48A7A}">
@@ -15343,11 +15304,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A77:D77"/>
@@ -15360,11 +15321,11 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C97" xr:uid="{F2D3BCCF-F868-974E-AEC9-AB88E8DBE8B7}">
@@ -47919,12 +47880,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="CH1:CK1"/>
     <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="AY1:BB1"/>
@@ -47932,6 +47887,12 @@
     <mergeCell ref="BM1:BP1"/>
     <mergeCell ref="BT1:BW1"/>
     <mergeCell ref="CA1:CD1"/>
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AD1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -48957,12 +48918,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -48970,6 +48925,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{98289B19-A16E-8E48-AC84-DA2AC3E66DBF}">
@@ -50297,6 +50258,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -50306,19 +50280,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -51637,6 +51598,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -51646,19 +51620,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{A72D56DF-9BC0-2E49-9D2A-B8E721479EEF}">
@@ -52911,6 +52872,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A17:D17"/>
     <mergeCell ref="A77:D77"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A82:D82"/>
@@ -52920,19 +52894,6 @@
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="A71:D71"/>
     <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A52:D52"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62:C84" xr:uid="{C11CF323-092E-EA4D-9917-FC21144EBBB1}">
@@ -54272,6 +54233,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -54281,19 +54255,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{EC36F1B5-3564-784F-B3C5-B041B2C2E87E}">
@@ -55618,6 +55579,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -55627,19 +55601,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{A0FD6351-8E4F-C04E-BE54-C8F4EA5F1555}">
@@ -56974,6 +56935,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -56983,19 +56957,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C100" xr:uid="{912C664E-C133-1E4F-9640-4A25EB9EF25D}">
@@ -58316,6 +58277,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -58325,19 +58299,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{B20B3CE4-DCB9-4E4A-AC39-D9DA073FCC61}">
@@ -59658,6 +59619,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -59667,19 +59641,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{D0B3E49D-2BC1-6E4D-9735-2E4B121876A2}">
@@ -61004,6 +60965,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -61013,19 +60987,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{60ADF05C-298C-944D-B683-D8C73BF6553D}">
@@ -61041,10 +61002,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CA3D3A-5644-1847-8D60-65D782BB1346}">
   <dimension ref="A1:BJ51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -61066,7 +61027,7 @@
     <col min="17" max="17" width="3.6640625" style="4" customWidth="1"/>
     <col min="18" max="18" width="3.5" style="4" customWidth="1"/>
     <col min="19" max="19" width="11" customWidth="1"/>
-    <col min="20" max="20" width="5.1640625" style="84" customWidth="1"/>
+    <col min="20" max="20" width="5.1640625" customWidth="1"/>
     <col min="22" max="22" width="11.6640625" customWidth="1"/>
     <col min="23" max="23" width="9" customWidth="1"/>
     <col min="24" max="24" width="3.33203125" customWidth="1"/>
@@ -61128,7 +61089,7 @@
       <c r="Q1" s="59"/>
       <c r="R1" s="59"/>
       <c r="S1" s="59"/>
-      <c r="T1" s="82" t="s">
+      <c r="T1" s="51" t="s">
         <v>2</v>
       </c>
       <c r="V1" s="57" t="s">
@@ -61258,7 +61219,7 @@
         <f>'James W'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T2" s="83">
+      <c r="T2" s="39">
         <f>'James W'!E81</f>
         <v>3</v>
       </c>
@@ -61281,7 +61242,7 @@
         <f>'James W'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA2" s="39">
+      <c r="AA2" s="82">
         <f>'James W'!E84</f>
         <v>0</v>
       </c>
@@ -61460,7 +61421,7 @@
         <f>'James W'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T3" s="83">
+      <c r="T3" s="39">
         <f>'James W'!E82</f>
         <v>1</v>
       </c>
@@ -61481,7 +61442,7 @@
         <f>'James W'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA3" s="39">
+      <c r="AA3" s="82">
         <f>'James W'!E85</f>
         <v>0</v>
       </c>
@@ -61663,7 +61624,7 @@
         <f>'Mother B'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T4" s="83">
+      <c r="T4" s="39">
         <f>'Mother B'!E81</f>
         <v>0</v>
       </c>
@@ -61686,7 +61647,7 @@
         <f>'Mother B'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA4" s="39">
+      <c r="AA4" s="82">
         <f>'Mother B'!E84</f>
         <v>0</v>
       </c>
@@ -61866,7 +61827,7 @@
         <f>'Mother B'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T5" s="83">
+      <c r="T5" s="39">
         <f>'Mother B'!E82</f>
         <v>1</v>
       </c>
@@ -61887,7 +61848,7 @@
         <f>'Mother B'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA5" s="39">
+      <c r="AA5" s="82">
         <f>'Mother B'!E85</f>
         <v>0</v>
       </c>
@@ -62069,7 +62030,7 @@
         <f>'Derek b'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T6" s="83">
+      <c r="T6" s="39">
         <f>'Derek b'!E81</f>
         <v>0</v>
       </c>
@@ -62092,7 +62053,7 @@
         <f>'Derek b'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA6" s="39">
+      <c r="AA6" s="82">
         <f>'Derek b'!E84</f>
         <v>0</v>
       </c>
@@ -62272,7 +62233,7 @@
         <f>'Derek b'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T7" s="83">
+      <c r="T7" s="39">
         <f>'Derek b'!E82</f>
         <v>2</v>
       </c>
@@ -62293,7 +62254,7 @@
         <f>'Derek b'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA7" s="39">
+      <c r="AA7" s="82">
         <f>'Derek b'!E85</f>
         <v>0</v>
       </c>
@@ -62475,7 +62436,7 @@
         <f>'Bernie R'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T8" s="83">
+      <c r="T8" s="39">
         <f>'Bernie R'!E81</f>
         <v>0</v>
       </c>
@@ -62498,7 +62459,7 @@
         <f>'Bernie R'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA8" s="39">
+      <c r="AA8" s="82">
         <f>'Bernie R'!E84</f>
         <v>0</v>
       </c>
@@ -62678,7 +62639,7 @@
         <f>'Bernie R'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T9" s="83">
+      <c r="T9" s="39">
         <f>'Bernie R'!E82</f>
         <v>1</v>
       </c>
@@ -62699,7 +62660,7 @@
         <f>'Bernie R'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA9" s="39">
+      <c r="AA9" s="82">
         <f>'Bernie R'!E85</f>
         <v>0</v>
       </c>
@@ -62881,7 +62842,7 @@
         <f>'Nathan W'!D69</f>
         <v>Croatia</v>
       </c>
-      <c r="T10" s="83">
+      <c r="T10" s="39">
         <f>'Nathan W'!E69</f>
         <v>0</v>
       </c>
@@ -62904,7 +62865,7 @@
         <f>'Nathan W'!D72</f>
         <v>Spain</v>
       </c>
-      <c r="AA10" s="39">
+      <c r="AA10" s="82">
         <f>'Nathan W'!E72</f>
         <v>0</v>
       </c>
@@ -63084,7 +63045,7 @@
         <f>'Nathan W'!D70</f>
         <v>South Korea</v>
       </c>
-      <c r="T11" s="83">
+      <c r="T11" s="39">
         <f>'Nathan W'!E70</f>
         <v>0</v>
       </c>
@@ -63105,7 +63066,7 @@
         <f>'Nathan W'!D73</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA11" s="39">
+      <c r="AA11" s="82">
         <f>'Nathan W'!E73</f>
         <v>0</v>
       </c>
@@ -63287,7 +63248,7 @@
         <f>'Martin L'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T12" s="83">
+      <c r="T12" s="39">
         <f>'Martin L'!E81</f>
         <v>3</v>
       </c>
@@ -63310,7 +63271,7 @@
         <f>'Martin L'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA12" s="39">
+      <c r="AA12" s="82">
         <f>'Martin L'!E84</f>
         <v>0</v>
       </c>
@@ -63489,7 +63450,7 @@
         <f>'Martin L'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T13" s="83">
+      <c r="T13" s="39">
         <f>'Martin L'!E82</f>
         <v>0</v>
       </c>
@@ -63510,7 +63471,7 @@
         <f>'Martin L'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA13" s="39">
+      <c r="AA13" s="82">
         <f>'Martin L'!E85</f>
         <v>0</v>
       </c>
@@ -63692,7 +63653,7 @@
         <f>'Marjorie L'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T14" s="83">
+      <c r="T14" s="39">
         <f>'Marjorie L'!E81</f>
         <v>3</v>
       </c>
@@ -63715,7 +63676,7 @@
         <f>'Marjorie L'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA14" s="39">
+      <c r="AA14" s="82">
         <f>'Marjorie L'!E84</f>
         <v>0</v>
       </c>
@@ -63895,7 +63856,7 @@
         <f>'Marjorie L'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T15" s="83">
+      <c r="T15" s="39">
         <f>'Marjorie L'!E82</f>
         <v>0</v>
       </c>
@@ -63916,7 +63877,7 @@
         <f>'Marjorie L'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA15" s="39">
+      <c r="AA15" s="82">
         <f>'Marjorie L'!E85</f>
         <v>0</v>
       </c>
@@ -64098,7 +64059,7 @@
         <f>'Keith W'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T16" s="83">
+      <c r="T16" s="39">
         <f>'Keith W'!E81</f>
         <v>0</v>
       </c>
@@ -64121,7 +64082,7 @@
         <f>'Keith W'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA16" s="39">
+      <c r="AA16" s="82">
         <f>'Keith W'!E84</f>
         <v>0</v>
       </c>
@@ -64301,7 +64262,7 @@
         <f>'Keith W'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T17" s="83">
+      <c r="T17" s="39">
         <f>'Keith W'!E82</f>
         <v>1</v>
       </c>
@@ -64322,7 +64283,7 @@
         <f>'Keith W'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA17" s="39">
+      <c r="AA17" s="82">
         <f>'Keith W'!E85</f>
         <v>0</v>
       </c>
@@ -64504,7 +64465,7 @@
         <f>'Liz W'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T18" s="83">
+      <c r="T18" s="39">
         <f>'Liz W'!E81</f>
         <v>0</v>
       </c>
@@ -64527,7 +64488,7 @@
         <f>'Liz W'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA18" s="39">
+      <c r="AA18" s="82">
         <f>'Liz W'!E84</f>
         <v>0</v>
       </c>
@@ -64706,7 +64667,7 @@
         <f>'Liz W'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T19" s="83">
+      <c r="T19" s="39">
         <f>'Liz W'!E82</f>
         <v>2</v>
       </c>
@@ -64727,7 +64688,7 @@
         <f>'Liz W'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA19" s="39">
+      <c r="AA19" s="82">
         <f>'Liz W'!E85</f>
         <v>0</v>
       </c>
@@ -64909,7 +64870,7 @@
         <f>'Alice D'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T20" s="83">
+      <c r="T20" s="39">
         <f>'Alice D'!E81</f>
         <v>0</v>
       </c>
@@ -64932,7 +64893,7 @@
         <f>'Alice D'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA20" s="39">
+      <c r="AA20" s="82">
         <f>'Alice D'!E84</f>
         <v>0</v>
       </c>
@@ -65112,7 +65073,7 @@
         <f>'Alice D'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T21" s="83">
+      <c r="T21" s="39">
         <f>'Alice D'!E82</f>
         <v>1</v>
       </c>
@@ -65133,7 +65094,7 @@
         <f>'Alice D'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA21" s="39">
+      <c r="AA21" s="82">
         <f>'Alice D'!E85</f>
         <v>0</v>
       </c>
@@ -65315,7 +65276,7 @@
         <f>'Rob TH'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T22" s="83">
+      <c r="T22" s="39">
         <f>'Rob TH'!E81</f>
         <v>0</v>
       </c>
@@ -65338,7 +65299,7 @@
         <f>'Rob TH'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA22" s="39">
+      <c r="AA22" s="82">
         <f>'Rob TH'!E84</f>
         <v>0</v>
       </c>
@@ -65517,7 +65478,7 @@
         <f>'Rob TH'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T23" s="83">
+      <c r="T23" s="39">
         <f>'Rob TH'!E82</f>
         <v>1</v>
       </c>
@@ -65538,7 +65499,7 @@
         <f>'Rob TH'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA23" s="39">
+      <c r="AA23" s="82">
         <f>'Rob TH'!E85</f>
         <v>0</v>
       </c>
@@ -65720,7 +65681,7 @@
         <f>'Evan A'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T24" s="83">
+      <c r="T24" s="39">
         <f>'Evan A'!E81</f>
         <v>1</v>
       </c>
@@ -65743,7 +65704,7 @@
         <f>'Evan A'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA24" s="39">
+      <c r="AA24" s="82">
         <f>'Evan A'!E84</f>
         <v>0</v>
       </c>
@@ -65923,7 +65884,7 @@
         <f>'Evan A'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T25" s="83">
+      <c r="T25" s="39">
         <f>'Evan A'!E82</f>
         <v>1</v>
       </c>
@@ -65944,7 +65905,7 @@
         <f>'Evan A'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA25" s="39">
+      <c r="AA25" s="82">
         <f>'Evan A'!E85</f>
         <v>0</v>
       </c>
@@ -66126,7 +66087,7 @@
         <f>'Alison S'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T26" s="83">
+      <c r="T26" s="39">
         <f>'Alison S'!E81</f>
         <v>0</v>
       </c>
@@ -66149,7 +66110,7 @@
         <f>'Alison S'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA26" s="39">
+      <c r="AA26" s="82">
         <f>'Alison S'!E84</f>
         <v>0</v>
       </c>
@@ -66329,7 +66290,7 @@
         <f>'Alison S'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T27" s="83">
+      <c r="T27" s="39">
         <f>'Alison S'!E82</f>
         <v>1</v>
       </c>
@@ -66350,7 +66311,7 @@
         <f>'Alison S'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA27" s="39">
+      <c r="AA27" s="82">
         <f>'Alison S'!E85</f>
         <v>0</v>
       </c>
@@ -66463,7 +66424,7 @@
         <f>'Cathy G'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T28" s="83">
+      <c r="T28" s="39">
         <f>'Cathy G'!E81</f>
         <v>0</v>
       </c>
@@ -66486,7 +66447,7 @@
         <f>'Cathy G'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA28" s="39">
+      <c r="AA28" s="82">
         <f>'Cathy G'!E84</f>
         <v>0</v>
       </c>
@@ -66597,7 +66558,7 @@
         <f>'Cathy G'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T29" s="83">
+      <c r="T29" s="39">
         <f>'Cathy G'!E82</f>
         <v>1</v>
       </c>
@@ -66618,7 +66579,7 @@
         <f>'Cathy G'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA29" s="39">
+      <c r="AA29" s="82">
         <f>'Cathy G'!E85</f>
         <v>0</v>
       </c>
@@ -66731,7 +66692,7 @@
         <f>'Dave B'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T30" s="83">
+      <c r="T30" s="39">
         <f>'Dave B'!E81</f>
         <v>0</v>
       </c>
@@ -66754,7 +66715,7 @@
         <f>'Dave B'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA30" s="39">
+      <c r="AA30" s="82">
         <f>'Dave B'!E84</f>
         <v>0</v>
       </c>
@@ -66864,7 +66825,7 @@
         <f>'Dave B'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T31" s="83">
+      <c r="T31" s="39">
         <f>'Dave B'!E82</f>
         <v>1</v>
       </c>
@@ -66885,7 +66846,7 @@
         <f>'Dave B'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA31" s="39">
+      <c r="AA31" s="82">
         <f>'Dave B'!E85</f>
         <v>0</v>
       </c>
@@ -66998,7 +66959,7 @@
         <f>'Jacques Chi'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T32" s="83">
+      <c r="T32" s="39">
         <f>'Jacques Chi'!E81</f>
         <v>0</v>
       </c>
@@ -67021,7 +66982,7 @@
         <f>'Jacques Chi'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA32" s="39">
+      <c r="AA32" s="82">
         <f>'Jacques Chi'!E84</f>
         <v>0</v>
       </c>
@@ -67132,7 +67093,7 @@
         <f>'Jacques Chi'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T33" s="83">
+      <c r="T33" s="39">
         <f>'Jacques Chi'!E82</f>
         <v>2</v>
       </c>
@@ -67153,7 +67114,7 @@
         <f>'Jacques Chi'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA33" s="39">
+      <c r="AA33" s="82">
         <f>'Jacques Chi'!E85</f>
         <v>0</v>
       </c>
@@ -67266,7 +67227,7 @@
         <f>'Robert L'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T34" s="83">
+      <c r="T34" s="39">
         <f>'Robert L'!E81</f>
         <v>3</v>
       </c>
@@ -67289,7 +67250,7 @@
         <f>'Robert L'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA34" s="39">
+      <c r="AA34" s="82">
         <f>'Robert L'!E84</f>
         <v>0</v>
       </c>
@@ -67399,7 +67360,7 @@
         <f>'Robert L'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T35" s="83">
+      <c r="T35" s="39">
         <f>'Robert L'!E82</f>
         <v>1</v>
       </c>
@@ -67420,7 +67381,7 @@
         <f>'Robert L'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA35" s="39">
+      <c r="AA35" s="82">
         <f>'Robert L'!E85</f>
         <v>0</v>
       </c>
@@ -67533,7 +67494,7 @@
         <f>'Dawn G'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T36" s="83">
+      <c r="T36" s="39">
         <f>'Dawn G'!E81</f>
         <v>0</v>
       </c>
@@ -67556,7 +67517,7 @@
         <f>'Dawn G'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA36" s="39">
+      <c r="AA36" s="82">
         <f>'Dawn G'!E84</f>
         <v>0</v>
       </c>
@@ -67665,7 +67626,7 @@
         <f>'Dawn G'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T37" s="83">
+      <c r="T37" s="39">
         <f>'Dawn G'!E82</f>
         <v>1</v>
       </c>
@@ -67686,7 +67647,7 @@
         <f>'Dawn G'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA37" s="39">
+      <c r="AA37" s="82">
         <f>'Dawn G'!E85</f>
         <v>0</v>
       </c>
@@ -67799,7 +67760,7 @@
         <f>'John B'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T38" s="83">
+      <c r="T38" s="39">
         <f>'John B'!E81</f>
         <v>0</v>
       </c>
@@ -67822,7 +67783,7 @@
         <f>'John B'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA38" s="39">
+      <c r="AA38" s="82">
         <f>'John B'!E84</f>
         <v>0</v>
       </c>
@@ -67933,7 +67894,7 @@
         <f>'John B'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T39" s="83">
+      <c r="T39" s="39">
         <f>'John B'!E82</f>
         <v>1</v>
       </c>
@@ -67954,7 +67915,7 @@
         <f>'John B'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA39" s="39">
+      <c r="AA39" s="82">
         <f>'John B'!E85</f>
         <v>0</v>
       </c>
@@ -68067,7 +68028,7 @@
         <f>'Mandy B'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T40" s="83">
+      <c r="T40" s="39">
         <f>'Mandy B'!E81</f>
         <v>1</v>
       </c>
@@ -68090,7 +68051,7 @@
         <f>'Mandy B'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA40" s="39">
+      <c r="AA40" s="82">
         <f>'Mandy B'!E84</f>
         <v>0</v>
       </c>
@@ -68201,7 +68162,7 @@
         <f>'Mandy B'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T41" s="83">
+      <c r="T41" s="39">
         <f>'Mandy B'!E82</f>
         <v>2</v>
       </c>
@@ -68222,7 +68183,7 @@
         <f>'Mandy B'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA41" s="39">
+      <c r="AA41" s="82">
         <f>'Mandy B'!E85</f>
         <v>0</v>
       </c>
@@ -68335,7 +68296,7 @@
         <f>'Freddie J'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T42" s="83">
+      <c r="T42" s="39">
         <f>'Freddie J'!E81</f>
         <v>0</v>
       </c>
@@ -68358,7 +68319,7 @@
         <f>'Freddie J'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA42" s="39">
+      <c r="AA42" s="82">
         <f>'Freddie J'!E84</f>
         <v>0</v>
       </c>
@@ -68469,7 +68430,7 @@
         <f>'Freddie J'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T43" s="83">
+      <c r="T43" s="39">
         <f>'Freddie J'!E82</f>
         <v>1</v>
       </c>
@@ -68490,7 +68451,7 @@
         <f>'Freddie J'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA43" s="39">
+      <c r="AA43" s="82">
         <f>'Freddie J'!E85</f>
         <v>0</v>
       </c>
@@ -68603,7 +68564,7 @@
         <f>'Stuart L'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T44" s="83">
+      <c r="T44" s="39">
         <f>'Stuart L'!E81</f>
         <v>3</v>
       </c>
@@ -68626,7 +68587,7 @@
         <f>'Stuart L'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA44" s="39">
+      <c r="AA44" s="82">
         <f>'Stuart L'!E84</f>
         <v>0</v>
       </c>
@@ -68737,7 +68698,7 @@
         <f>'Stuart L'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T45" s="83">
+      <c r="T45" s="39">
         <f>'Stuart L'!E82</f>
         <v>2</v>
       </c>
@@ -68758,7 +68719,7 @@
         <f>'Stuart L'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA45" s="39">
+      <c r="AA45" s="82">
         <f>'Stuart L'!E85</f>
         <v>0</v>
       </c>
@@ -68871,7 +68832,7 @@
         <f>'Barbara L'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T46" s="83">
+      <c r="T46" s="39">
         <f>'Barbara L'!E81</f>
         <v>0</v>
       </c>
@@ -68894,7 +68855,7 @@
         <f>'Barbara L'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA46" s="39">
+      <c r="AA46" s="82">
         <f>'Barbara L'!E84</f>
         <v>0</v>
       </c>
@@ -69005,7 +68966,7 @@
         <f>'Barbara L'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T47" s="83">
+      <c r="T47" s="39">
         <f>'Barbara L'!E82</f>
         <v>1</v>
       </c>
@@ -69026,7 +68987,7 @@
         <f>'Barbara L'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA47" s="39">
+      <c r="AA47" s="82">
         <f>'Barbara L'!E85</f>
         <v>0</v>
       </c>
@@ -69139,7 +69100,7 @@
         <f>'Andy B'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T48" s="83">
+      <c r="T48" s="39">
         <f>'Andy B'!E81</f>
         <v>2</v>
       </c>
@@ -69162,7 +69123,7 @@
         <f>'Andy B'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA48" s="39">
+      <c r="AA48" s="82">
         <f>'Andy B'!E84</f>
         <v>0</v>
       </c>
@@ -69273,7 +69234,7 @@
         <f>'Andy B'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T49" s="83">
+      <c r="T49" s="39">
         <f>'Andy B'!E82</f>
         <v>2</v>
       </c>
@@ -69294,7 +69255,7 @@
         <f>'Andy B'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA49" s="39">
+      <c r="AA49" s="82">
         <f>'Andy B'!E85</f>
         <v>0</v>
       </c>
@@ -69407,7 +69368,7 @@
         <f>'Keith G'!D81</f>
         <v>Croatia</v>
       </c>
-      <c r="T50" s="83">
+      <c r="T50" s="39">
         <f>'Keith G'!E81</f>
         <v>0</v>
       </c>
@@ -69430,7 +69391,7 @@
         <f>'Keith G'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA50" s="39">
+      <c r="AA50" s="82">
         <f>'Keith G'!E84</f>
         <v>0</v>
       </c>
@@ -69541,7 +69502,7 @@
         <f>'Keith G'!D82</f>
         <v>South Korea</v>
       </c>
-      <c r="T51" s="83">
+      <c r="T51" s="39">
         <f>'Keith G'!E82</f>
         <v>2</v>
       </c>
@@ -69562,7 +69523,7 @@
         <f>'Keith G'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA51" s="39">
+      <c r="AA51" s="82">
         <f>'Keith G'!E85</f>
         <v>0</v>
       </c>
@@ -70943,6 +70904,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -70952,19 +70926,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C98" xr:uid="{F68D3FFC-EF79-CC40-8F53-8BF21A5E1341}">
@@ -72292,6 +72253,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -72301,19 +72275,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C97" xr:uid="{11A7353F-6A05-F048-B4B5-2330C623E382}">
@@ -73526,6 +73487,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -73535,19 +73509,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{9D4EDCA2-2FFE-E64B-A34E-466DD99F6343}">
@@ -74739,15 +74700,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A86:D86"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
@@ -74761,6 +74713,15 @@
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{55CBA0EA-03DF-D446-B217-F70483C49D17}">
@@ -75974,6 +75935,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -75983,19 +75957,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66 B1:C65 B67:C97" xr:uid="{156C7248-1706-4E17-9BB6-079B78DEF479}">
@@ -77187,15 +77148,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A86:D86"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
@@ -77209,6 +77161,15 @@
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{977686BA-C9F0-5F4E-89D6-CE94966C1FE0}">
@@ -78397,6 +78358,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -78406,19 +78380,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{BE5067DB-A56D-FF40-9C9A-839412CFE3CC}">
@@ -78985,18 +78946,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="B64:E64"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="B46:E46"/>
     <mergeCell ref="B52:E52"/>
     <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -80544,6 +80505,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -80553,19 +80527,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{8A242A5A-737B-3248-9203-1E18FA7E8CAD}">
@@ -81890,6 +81851,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -81899,19 +81873,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{79F4B324-FC19-7044-8ECD-3029BC735257}">
@@ -83236,6 +83197,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -83245,19 +83219,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{F1AA318D-CFEE-E945-8C0E-235E3838BA82}">
@@ -84582,6 +84543,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -84591,19 +84565,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{446CEEDB-BF43-854D-95D2-80CA6EE53C2C}">

--- a/resources/Forms/Excel/Big Sheet.xlsx
+++ b/resources/Forms/Excel/Big Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie/FootieTake2/resources/Forms/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie_Take2/FootieTake2/resources/Forms/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6047BB6-6951-4345-B634-F2C651E22722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC22B77F-9FD8-F249-BA14-018FC09532BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" tabRatio="800" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" tabRatio="800" activeTab="2" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Ranking" sheetId="5" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5313" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5315" uniqueCount="127">
   <si>
     <t>Rank</t>
   </si>
@@ -458,7 +458,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -510,6 +510,20 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -817,7 +831,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1010,9 +1024,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1127,23 +1147,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>164386</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>159246</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38051CA1-7251-FA31-F61E-1C758D56E2DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45841FC2-077C-ECDE-2CED-27BF7ED098D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1159,8 +1179,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10769600"/>
-          <a:ext cx="9017000" cy="27799586"/>
+          <a:off x="8559800" y="10769600"/>
+          <a:ext cx="8331200" cy="24136846"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1471,7 +1491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88DB2AD-0B7A-2B40-B11D-A4AE4E9DB3F2}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -1494,7 +1514,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f>RANK(C2,($C$2:$C$32),0)</f>
+        <f t="shared" ref="A2:A32" si="0">RANK(C2,($C$2:$C$32),0)</f>
         <v>1</v>
       </c>
       <c r="B2" s="2" t="str">
@@ -1508,7 +1528,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <f>RANK(C3,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="str">
@@ -1522,7 +1542,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <f>RANK(C4,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" s="2" t="str">
@@ -1536,7 +1556,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <f>RANK(C5,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="2" t="str">
@@ -1550,7 +1570,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <f>RANK(C6,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="2" t="str">
@@ -1564,7 +1584,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <f>RANK(C7,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B7" s="2" t="str">
@@ -1578,7 +1598,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <f>RANK(C8,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="2" t="str">
@@ -1592,7 +1612,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <f>RANK(C9,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="2" t="str">
@@ -1606,7 +1626,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <f>RANK(C10,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="2" t="str">
@@ -1620,7 +1640,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <f>RANK(C11,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="2" t="str">
@@ -1634,7 +1654,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <f>RANK(C12,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="2" t="str">
@@ -1648,7 +1668,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <f>RANK(C13,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B13" s="2" t="str">
@@ -1662,7 +1682,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <f>RANK(C14,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B14" s="2" t="str">
@@ -1676,7 +1696,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <f>RANK(C15,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="13" t="str">
@@ -1690,7 +1710,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <f>RANK(C16,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" s="2" t="str">
@@ -1704,7 +1724,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <f>RANK(C17,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B17" s="2" t="str">
@@ -1718,7 +1738,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <f>RANK(C18,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="2" t="str">
@@ -1732,7 +1752,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <f>RANK(C19,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19" s="2" t="str">
@@ -1746,7 +1766,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <f>RANK(C20,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="13" t="str">
@@ -1760,7 +1780,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <f>RANK(C21,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="13" t="str">
@@ -1774,7 +1794,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <f>RANK(C22,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22" s="2" t="str">
@@ -1788,7 +1808,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <f>RANK(C23,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="2" t="str">
@@ -1802,7 +1822,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <f>RANK(C24,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24" s="2" t="str">
@@ -1816,7 +1836,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <f>RANK(C25,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="2" t="str">
@@ -1830,7 +1850,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <f>RANK(C26,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="2" t="str">
@@ -1844,7 +1864,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <f>RANK(C27,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27" s="2" t="str">
@@ -1858,7 +1878,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <f>RANK(C28,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="2" t="str">
@@ -1872,7 +1892,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <f>RANK(C29,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="2" t="str">
@@ -1886,7 +1906,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <f>RANK(C30,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="2" t="str">
@@ -1900,7 +1920,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <f>RANK(C31,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="2" t="str">
@@ -1914,7 +1934,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <f>RANK(C32,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="39" t="str">
@@ -3255,19 +3275,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -3277,6 +3284,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{8427FA4B-D7DC-C74F-B6C6-02A04CEA1479}">
@@ -4607,19 +4627,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -4629,6 +4636,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{AF448023-A790-794F-BB14-4EE63C681037}">
@@ -5959,19 +5979,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -5981,6 +5988,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{CBEDE9B1-CCD8-024F-8FF6-52E83D09DD5F}">
@@ -7317,19 +7337,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -7339,6 +7346,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C99" xr:uid="{A6BA8386-7538-B943-BC89-6C717665472C}">
@@ -8669,19 +8689,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -8691,6 +8698,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{2B53EE05-D1D3-374E-8836-2425C3E2B4A5}">
@@ -10019,19 +10039,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -10041,6 +10048,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{A2199F60-9E4F-6445-90E3-92673D510A9D}">
@@ -11371,19 +11391,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -11393,6 +11400,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C97" xr:uid="{05F05F3A-89C6-E74F-BB5C-B82EDA718869}">
@@ -12699,6 +12719,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A86:D86"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
@@ -12712,15 +12741,6 @@
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{84866E23-2C57-B247-AC72-E241400D8978}">
@@ -14051,19 +14071,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -14073,6 +14080,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{85A9722B-955B-CF41-A6F3-38FDC4B48A7A}">
@@ -15403,11 +15423,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A86:D86"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A77:D77"/>
@@ -15420,11 +15440,11 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C97" xr:uid="{F2D3BCCF-F868-974E-AEC9-AB88E8DBE8B7}">
@@ -47979,6 +47999,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="CH1:CK1"/>
     <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="AY1:BB1"/>
@@ -47986,12 +48012,6 @@
     <mergeCell ref="BM1:BP1"/>
     <mergeCell ref="BT1:BW1"/>
     <mergeCell ref="CA1:CD1"/>
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AD1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -49017,6 +49037,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -49024,12 +49050,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{98289B19-A16E-8E48-AC84-DA2AC3E66DBF}">
@@ -50363,19 +50383,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -50385,6 +50392,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -51709,19 +51729,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -51731,6 +51738,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{A72D56DF-9BC0-2E49-9D2A-B8E721479EEF}">
@@ -52989,19 +53009,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A17:D17"/>
     <mergeCell ref="A77:D77"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A82:D82"/>
@@ -53011,6 +53018,19 @@
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="A71:D71"/>
     <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A52:D52"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62:C84" xr:uid="{C11CF323-092E-EA4D-9917-FC21144EBBB1}">
@@ -54356,19 +54376,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -54378,6 +54385,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{EC36F1B5-3564-784F-B3C5-B041B2C2E87E}">
@@ -55708,19 +55728,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -55730,6 +55737,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{A0FD6351-8E4F-C04E-BE54-C8F4EA5F1555}">
@@ -57070,19 +57090,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -57092,6 +57099,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C100" xr:uid="{912C664E-C133-1E4F-9640-4A25EB9EF25D}">
@@ -57107,8 +57127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61F338D-AD6C-1949-BBEC-7E3BE5A1855A}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K92" sqref="K92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -58341,7 +58361,9 @@
       <c r="C91" s="49">
         <v>2</v>
       </c>
-      <c r="D91" s="48"/>
+      <c r="D91" s="48" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="62" t="s">
@@ -58383,7 +58405,9 @@
       <c r="C95" s="49">
         <v>1</v>
       </c>
-      <c r="D95" s="48"/>
+      <c r="D95" s="48" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="62" t="s">
@@ -58418,19 +58442,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -58440,6 +58451,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{B20B3CE4-DCB9-4E4A-AC39-D9DA073FCC61}">
@@ -59766,19 +59790,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -59788,6 +59799,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{D0B3E49D-2BC1-6E4D-9735-2E4B121876A2}">
@@ -61118,19 +61142,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -61140,6 +61151,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{60ADF05C-298C-944D-B683-D8C73BF6553D}">
@@ -61155,10 +61179,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CA3D3A-5644-1847-8D60-65D782BB1346}">
   <dimension ref="A1:BJ51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+      <selection pane="bottomLeft" activeCell="O54" sqref="O54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -61185,7 +61209,7 @@
     <col min="23" max="23" width="9" customWidth="1"/>
     <col min="24" max="24" width="3.33203125" customWidth="1"/>
     <col min="25" max="25" width="4" customWidth="1"/>
-    <col min="27" max="27" width="5.1640625" style="84" customWidth="1"/>
+    <col min="27" max="27" width="5.1640625" customWidth="1"/>
     <col min="29" max="29" width="11.33203125" customWidth="1"/>
     <col min="30" max="30" width="12.1640625" customWidth="1"/>
     <col min="31" max="31" width="3.6640625" style="4" customWidth="1"/>
@@ -61252,7 +61276,7 @@
       <c r="X1" s="57"/>
       <c r="Y1" s="57"/>
       <c r="Z1" s="57"/>
-      <c r="AA1" s="82" t="s">
+      <c r="AA1" s="51" t="s">
         <v>2</v>
       </c>
       <c r="AC1" s="57" t="s">
@@ -61395,7 +61419,7 @@
         <f>'James W'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA2" s="83">
+      <c r="AA2" s="39">
         <f>'James W'!E84</f>
         <v>0</v>
       </c>
@@ -61418,7 +61442,7 @@
         <f>'James W'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH2" s="39">
+      <c r="AH2" s="82">
         <f>'James W'!E87</f>
         <v>0</v>
       </c>
@@ -61595,7 +61619,7 @@
         <f>'James W'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA3" s="83">
+      <c r="AA3" s="39">
         <f>'James W'!E85</f>
         <v>2</v>
       </c>
@@ -61616,7 +61640,7 @@
         <f>'James W'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH3" s="39">
+      <c r="AH3" s="82">
         <f>'James W'!E88</f>
         <v>0</v>
       </c>
@@ -61800,7 +61824,7 @@
         <f>'Mother B'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA4" s="83">
+      <c r="AA4" s="39">
         <f>'Mother B'!E84</f>
         <v>1</v>
       </c>
@@ -61823,7 +61847,7 @@
         <f>'Mother B'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH4" s="39">
+      <c r="AH4" s="82">
         <f>'Mother B'!E87</f>
         <v>0</v>
       </c>
@@ -62001,28 +62025,28 @@
         <f>'Mother B'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA5" s="83">
+      <c r="AA5" s="39">
         <f>'Mother B'!E85</f>
         <v>1</v>
       </c>
       <c r="AC5" s="39"/>
-      <c r="AD5" s="39" t="str">
+      <c r="AD5" s="83" t="str">
         <f>'Mother B'!A88</f>
         <v>Japan</v>
       </c>
-      <c r="AE5" s="38">
+      <c r="AE5" s="84">
         <f>'Mother B'!B88</f>
         <v>2</v>
       </c>
-      <c r="AF5" s="38">
+      <c r="AF5" s="85">
         <f>'Mother B'!C88</f>
         <v>4</v>
       </c>
-      <c r="AG5" s="39" t="str">
+      <c r="AG5" s="86" t="str">
         <f>'Mother B'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH5" s="39">
+      <c r="AH5" s="82">
         <f>'Mother B'!E88</f>
         <v>0</v>
       </c>
@@ -62206,7 +62230,7 @@
         <f>'Derek b'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA6" s="83">
+      <c r="AA6" s="39">
         <f>'Derek b'!E84</f>
         <v>0</v>
       </c>
@@ -62229,7 +62253,7 @@
         <f>'Derek b'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH6" s="39">
+      <c r="AH6" s="82">
         <f>'Derek b'!E87</f>
         <v>0</v>
       </c>
@@ -62407,16 +62431,16 @@
         <f>'Derek b'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA7" s="83">
+      <c r="AA7" s="39">
         <f>'Derek b'!E85</f>
         <v>1</v>
       </c>
       <c r="AC7" s="39"/>
-      <c r="AD7" s="39" t="str">
+      <c r="AD7" s="83" t="str">
         <f>'Derek b'!A88</f>
         <v>Japan</v>
       </c>
-      <c r="AE7" s="38">
+      <c r="AE7" s="84">
         <f>'Derek b'!B88</f>
         <v>0</v>
       </c>
@@ -62428,7 +62452,7 @@
         <f>'Derek b'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH7" s="39">
+      <c r="AH7" s="82">
         <f>'Derek b'!E88</f>
         <v>0</v>
       </c>
@@ -62612,7 +62636,7 @@
         <f>'Bernie R'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA8" s="83">
+      <c r="AA8" s="39">
         <f>'Bernie R'!E84</f>
         <v>0</v>
       </c>
@@ -62635,7 +62659,7 @@
         <f>'Bernie R'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH8" s="39">
+      <c r="AH8" s="82">
         <f>'Bernie R'!E87</f>
         <v>0</v>
       </c>
@@ -62813,16 +62837,16 @@
         <f>'Bernie R'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA9" s="83">
+      <c r="AA9" s="39">
         <f>'Bernie R'!E85</f>
         <v>1</v>
       </c>
       <c r="AC9" s="39"/>
-      <c r="AD9" s="39" t="str">
+      <c r="AD9" s="83" t="str">
         <f>'Bernie R'!A88</f>
         <v>Japan</v>
       </c>
-      <c r="AE9" s="38">
+      <c r="AE9" s="84">
         <f>'Bernie R'!B88</f>
         <v>0</v>
       </c>
@@ -62834,7 +62858,7 @@
         <f>'Bernie R'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH9" s="39">
+      <c r="AH9" s="82">
         <f>'Bernie R'!E88</f>
         <v>0</v>
       </c>
@@ -63018,7 +63042,7 @@
         <f>'Nathan W'!D72</f>
         <v>Spain</v>
       </c>
-      <c r="AA10" s="83">
+      <c r="AA10" s="39">
         <f>'Nathan W'!E72</f>
         <v>2</v>
       </c>
@@ -63041,7 +63065,7 @@
         <f>'Nathan W'!D75</f>
         <v>Argentina</v>
       </c>
-      <c r="AH10" s="39">
+      <c r="AH10" s="82">
         <f>'Nathan W'!E75</f>
         <v>0</v>
       </c>
@@ -63106,9 +63130,9 @@
         <f>'Liz W'!C95</f>
         <v>1</v>
       </c>
-      <c r="BB10" s="39">
+      <c r="BB10" s="39" t="str">
         <f>'Liz W'!D95</f>
-        <v>0</v>
+        <v>Portugal</v>
       </c>
       <c r="BC10" s="39">
         <f>'Liz W'!E95</f>
@@ -63219,28 +63243,28 @@
         <f>'Nathan W'!D73</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA11" s="83">
+      <c r="AA11" s="39">
         <f>'Nathan W'!E73</f>
         <v>0</v>
       </c>
       <c r="AC11" s="39"/>
-      <c r="AD11" s="39" t="str">
+      <c r="AD11" s="83" t="str">
         <f>'Nathan W'!A76</f>
         <v>Japan</v>
       </c>
-      <c r="AE11" s="38">
+      <c r="AE11" s="84">
         <f>'Nathan W'!B76</f>
         <v>3</v>
       </c>
-      <c r="AF11" s="38">
+      <c r="AF11" s="84">
         <f>'Nathan W'!C76</f>
         <v>1</v>
       </c>
-      <c r="AG11" s="39" t="str">
+      <c r="AG11" s="83" t="str">
         <f>'Nathan W'!D76</f>
         <v>South Korea</v>
       </c>
-      <c r="AH11" s="39">
+      <c r="AH11" s="83">
         <f>'Nathan W'!E76</f>
         <v>0</v>
       </c>
@@ -63424,7 +63448,7 @@
         <f>'Martin L'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA12" s="83">
+      <c r="AA12" s="39">
         <f>'Martin L'!E84</f>
         <v>0</v>
       </c>
@@ -63447,7 +63471,7 @@
         <f>'Martin L'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH12" s="39">
+      <c r="AH12" s="82">
         <f>'Martin L'!E87</f>
         <v>0</v>
       </c>
@@ -63624,7 +63648,7 @@
         <f>'Martin L'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA13" s="83">
+      <c r="AA13" s="39">
         <f>'Martin L'!E85</f>
         <v>2</v>
       </c>
@@ -63637,15 +63661,15 @@
         <f>'Martin L'!B88</f>
         <v>2</v>
       </c>
-      <c r="AF13" s="38">
+      <c r="AF13" s="84">
         <f>'Martin L'!C88</f>
         <v>1</v>
       </c>
-      <c r="AG13" s="39" t="str">
+      <c r="AG13" s="83" t="str">
         <f>'Martin L'!D88</f>
         <v>South Korea</v>
       </c>
-      <c r="AH13" s="39">
+      <c r="AH13" s="82">
         <f>'Martin L'!E88</f>
         <v>0</v>
       </c>
@@ -63829,7 +63853,7 @@
         <f>'Marjorie L'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA14" s="83">
+      <c r="AA14" s="39">
         <f>'Marjorie L'!E84</f>
         <v>0</v>
       </c>
@@ -63852,7 +63876,7 @@
         <f>'Marjorie L'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH14" s="39">
+      <c r="AH14" s="82">
         <f>'Marjorie L'!E87</f>
         <v>0</v>
       </c>
@@ -64030,7 +64054,7 @@
         <f>'Marjorie L'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA15" s="83">
+      <c r="AA15" s="39">
         <f>'Marjorie L'!E85</f>
         <v>2</v>
       </c>
@@ -64043,15 +64067,15 @@
         <f>'Marjorie L'!B88</f>
         <v>2</v>
       </c>
-      <c r="AF15" s="38">
+      <c r="AF15" s="84">
         <f>'Marjorie L'!C88</f>
         <v>1</v>
       </c>
-      <c r="AG15" s="39" t="str">
+      <c r="AG15" s="83" t="str">
         <f>'Marjorie L'!D88</f>
         <v>South Korea</v>
       </c>
-      <c r="AH15" s="39">
+      <c r="AH15" s="82">
         <f>'Marjorie L'!E88</f>
         <v>0</v>
       </c>
@@ -64235,7 +64259,7 @@
         <f>'Keith W'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA16" s="83">
+      <c r="AA16" s="39">
         <f>'Keith W'!E84</f>
         <v>0</v>
       </c>
@@ -64258,7 +64282,7 @@
         <f>'Keith W'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH16" s="39">
+      <c r="AH16" s="82">
         <f>'Keith W'!E87</f>
         <v>0</v>
       </c>
@@ -64436,16 +64460,16 @@
         <f>'Keith W'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA17" s="83">
+      <c r="AA17" s="39">
         <f>'Keith W'!E85</f>
         <v>2</v>
       </c>
       <c r="AC17" s="39"/>
-      <c r="AD17" s="39" t="str">
+      <c r="AD17" s="83" t="str">
         <f>'Keith W'!A88</f>
         <v>Japan</v>
       </c>
-      <c r="AE17" s="38">
+      <c r="AE17" s="84">
         <f>'Keith W'!B88</f>
         <v>0</v>
       </c>
@@ -64457,7 +64481,7 @@
         <f>'Keith W'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH17" s="39">
+      <c r="AH17" s="82">
         <f>'Keith W'!E88</f>
         <v>0</v>
       </c>
@@ -64641,7 +64665,7 @@
         <f>'Liz W'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA18" s="83">
+      <c r="AA18" s="39">
         <f>'Liz W'!E84</f>
         <v>0</v>
       </c>
@@ -64664,7 +64688,7 @@
         <f>'Liz W'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH18" s="39">
+      <c r="AH18" s="82">
         <f>'Liz W'!E87</f>
         <v>0</v>
       </c>
@@ -64841,16 +64865,16 @@
         <f>'Liz W'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA19" s="83">
+      <c r="AA19" s="39">
         <f>'Liz W'!E85</f>
         <v>0</v>
       </c>
       <c r="AC19" s="39"/>
-      <c r="AD19" s="39" t="str">
+      <c r="AD19" s="83" t="str">
         <f>'Liz W'!A88</f>
         <v>Japan</v>
       </c>
-      <c r="AE19" s="38">
+      <c r="AE19" s="84">
         <f>'Liz W'!B88</f>
         <v>0</v>
       </c>
@@ -64862,7 +64886,7 @@
         <f>'Liz W'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH19" s="39">
+      <c r="AH19" s="82">
         <f>'Liz W'!E88</f>
         <v>0</v>
       </c>
@@ -64879,9 +64903,9 @@
         <f>'Liz W'!C91</f>
         <v>2</v>
       </c>
-      <c r="AN19" s="39">
+      <c r="AN19" s="39" t="str">
         <f>'Liz W'!D91</f>
-        <v>0</v>
+        <v>Portugal</v>
       </c>
       <c r="AO19" s="39">
         <f>'Liz W'!E91</f>
@@ -65046,7 +65070,7 @@
         <f>'Alice D'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA20" s="83">
+      <c r="AA20" s="39">
         <f>'Alice D'!E84</f>
         <v>0</v>
       </c>
@@ -65069,7 +65093,7 @@
         <f>'Alice D'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH20" s="39">
+      <c r="AH20" s="82">
         <f>'Alice D'!E87</f>
         <v>0</v>
       </c>
@@ -65247,16 +65271,16 @@
         <f>'Alice D'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA21" s="83">
+      <c r="AA21" s="39">
         <f>'Alice D'!E85</f>
         <v>1</v>
       </c>
       <c r="AC21" s="39"/>
-      <c r="AD21" s="39" t="str">
+      <c r="AD21" s="83" t="str">
         <f>'Alice D'!A88</f>
         <v>Japan</v>
       </c>
-      <c r="AE21" s="38">
+      <c r="AE21" s="84">
         <f>'Alice D'!B88</f>
         <v>0</v>
       </c>
@@ -65268,7 +65292,7 @@
         <f>'Alice D'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH21" s="39">
+      <c r="AH21" s="82">
         <f>'Alice D'!E88</f>
         <v>0</v>
       </c>
@@ -65452,18 +65476,18 @@
         <f>'Rob TH'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA22" s="83">
+      <c r="AA22" s="39">
         <f>'Rob TH'!E84</f>
         <v>0</v>
       </c>
       <c r="AC22" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="AD22" s="39" t="str">
+      <c r="AD22" s="83" t="str">
         <f>'Rob TH'!A87</f>
         <v>United States</v>
       </c>
-      <c r="AE22" s="38">
+      <c r="AE22" s="84">
         <f>'Rob TH'!B87</f>
         <v>1</v>
       </c>
@@ -65475,7 +65499,7 @@
         <f>'Rob TH'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH22" s="39">
+      <c r="AH22" s="82">
         <f>'Rob TH'!E87</f>
         <v>0</v>
       </c>
@@ -65652,16 +65676,16 @@
         <f>'Rob TH'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA23" s="83">
+      <c r="AA23" s="39">
         <f>'Rob TH'!E85</f>
         <v>2</v>
       </c>
       <c r="AC23" s="39"/>
-      <c r="AD23" s="39" t="str">
+      <c r="AD23" s="83" t="str">
         <f>'Rob TH'!A88</f>
         <v>Japan</v>
       </c>
-      <c r="AE23" s="38">
+      <c r="AE23" s="84">
         <f>'Rob TH'!B88</f>
         <v>2</v>
       </c>
@@ -65673,7 +65697,7 @@
         <f>'Rob TH'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH23" s="39">
+      <c r="AH23" s="82">
         <f>'Rob TH'!E88</f>
         <v>0</v>
       </c>
@@ -65857,18 +65881,18 @@
         <f>'Evan A'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA24" s="83">
+      <c r="AA24" s="39">
         <f>'Evan A'!E84</f>
         <v>3</v>
       </c>
       <c r="AC24" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="AD24" s="39" t="str">
+      <c r="AD24" s="83" t="str">
         <f>'Evan A'!A87</f>
         <v>United States</v>
       </c>
-      <c r="AE24" s="38">
+      <c r="AE24" s="84">
         <f>'Evan A'!B87</f>
         <v>0</v>
       </c>
@@ -65880,7 +65904,7 @@
         <f>'Evan A'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH24" s="39">
+      <c r="AH24" s="82">
         <f>'Evan A'!E87</f>
         <v>0</v>
       </c>
@@ -66058,7 +66082,7 @@
         <f>'Evan A'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA25" s="83">
+      <c r="AA25" s="39">
         <f>'Evan A'!E85</f>
         <v>1</v>
       </c>
@@ -66079,7 +66103,7 @@
         <f>'Evan A'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH25" s="39">
+      <c r="AH25" s="82">
         <f>'Evan A'!E88</f>
         <v>0</v>
       </c>
@@ -66263,7 +66287,7 @@
         <f>'Alison S'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA26" s="83">
+      <c r="AA26" s="39">
         <f>'Alison S'!E84</f>
         <v>0</v>
       </c>
@@ -66286,7 +66310,7 @@
         <f>'Alison S'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH26" s="39">
+      <c r="AH26" s="82">
         <f>'Alison S'!E87</f>
         <v>0</v>
       </c>
@@ -66464,16 +66488,16 @@
         <f>'Alison S'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA27" s="83">
+      <c r="AA27" s="39">
         <f>'Alison S'!E85</f>
         <v>2</v>
       </c>
       <c r="AC27" s="39"/>
-      <c r="AD27" s="39" t="str">
+      <c r="AD27" s="83" t="str">
         <f>'Alison S'!A88</f>
         <v>Japan</v>
       </c>
-      <c r="AE27" s="38">
+      <c r="AE27" s="84">
         <f>'Alison S'!B88</f>
         <v>1</v>
       </c>
@@ -66485,7 +66509,7 @@
         <f>'Alison S'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH27" s="39">
+      <c r="AH27" s="82">
         <f>'Alison S'!E88</f>
         <v>0</v>
       </c>
@@ -66600,30 +66624,30 @@
         <f>'Cathy G'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA28" s="83">
+      <c r="AA28" s="39">
         <f>'Cathy G'!E84</f>
         <v>0</v>
       </c>
       <c r="AC28" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="AD28" s="39" t="str">
+      <c r="AD28" s="83" t="str">
         <f>'Cathy G'!A87</f>
         <v>United States</v>
       </c>
-      <c r="AE28" s="38">
+      <c r="AE28" s="84">
         <f>'Cathy G'!B87</f>
         <v>2</v>
       </c>
-      <c r="AF28" s="38">
+      <c r="AF28" s="84">
         <f>'Cathy G'!C87</f>
         <v>3</v>
       </c>
-      <c r="AG28" s="39" t="str">
+      <c r="AG28" s="83" t="str">
         <f>'Cathy G'!D87</f>
         <v>Australia</v>
       </c>
-      <c r="AH28" s="39">
+      <c r="AH28" s="83">
         <f>'Cathy G'!E87</f>
         <v>0</v>
       </c>
@@ -66732,16 +66756,16 @@
         <f>'Cathy G'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA29" s="83">
+      <c r="AA29" s="39">
         <f>'Cathy G'!E85</f>
         <v>2</v>
       </c>
       <c r="AC29" s="39"/>
-      <c r="AD29" s="39" t="str">
+      <c r="AD29" s="83" t="str">
         <f>'Cathy G'!A88</f>
         <v>Japan</v>
       </c>
-      <c r="AE29" s="38">
+      <c r="AE29" s="84">
         <f>'Cathy G'!B88</f>
         <v>0</v>
       </c>
@@ -66753,7 +66777,7 @@
         <f>'Cathy G'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH29" s="39">
+      <c r="AH29" s="82">
         <f>'Cathy G'!E88</f>
         <v>0</v>
       </c>
@@ -66868,18 +66892,18 @@
         <f>'Dave B'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA30" s="83">
+      <c r="AA30" s="39">
         <f>'Dave B'!E84</f>
         <v>0</v>
       </c>
       <c r="AC30" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="AD30" s="39" t="str">
+      <c r="AD30" s="83" t="str">
         <f>'Dave B'!A87</f>
         <v>United States</v>
       </c>
-      <c r="AE30" s="38">
+      <c r="AE30" s="84">
         <f>'Dave B'!B87</f>
         <v>0</v>
       </c>
@@ -66891,7 +66915,7 @@
         <f>'Dave B'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH30" s="39">
+      <c r="AH30" s="82">
         <f>'Dave B'!E87</f>
         <v>0</v>
       </c>
@@ -66999,16 +67023,16 @@
         <f>'Dave B'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA31" s="83">
+      <c r="AA31" s="39">
         <f>'Dave B'!E85</f>
         <v>1</v>
       </c>
       <c r="AC31" s="39"/>
-      <c r="AD31" s="39" t="str">
+      <c r="AD31" s="83" t="str">
         <f>'Dave B'!A88</f>
         <v>Japan</v>
       </c>
-      <c r="AE31" s="38">
+      <c r="AE31" s="84">
         <f>'Dave B'!B88</f>
         <v>0</v>
       </c>
@@ -67020,7 +67044,7 @@
         <f>'Dave B'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH31" s="39">
+      <c r="AH31" s="82">
         <f>'Dave B'!E88</f>
         <v>0</v>
       </c>
@@ -67135,7 +67159,7 @@
         <f>'Jacques Chi'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA32" s="83">
+      <c r="AA32" s="39">
         <f>'Jacques Chi'!E84</f>
         <v>1</v>
       </c>
@@ -67158,7 +67182,7 @@
         <f>'Jacques Chi'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH32" s="39">
+      <c r="AH32" s="82">
         <f>'Jacques Chi'!E87</f>
         <v>0</v>
       </c>
@@ -67267,16 +67291,16 @@
         <f>'Jacques Chi'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA33" s="83">
+      <c r="AA33" s="39">
         <f>'Jacques Chi'!E85</f>
         <v>1</v>
       </c>
       <c r="AC33" s="39"/>
-      <c r="AD33" s="39" t="str">
+      <c r="AD33" s="83" t="str">
         <f>'Jacques Chi'!A88</f>
         <v>Japan</v>
       </c>
-      <c r="AE33" s="38">
+      <c r="AE33" s="84">
         <f>'Jacques Chi'!B88</f>
         <v>2</v>
       </c>
@@ -67288,7 +67312,7 @@
         <f>'Jacques Chi'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH33" s="39">
+      <c r="AH33" s="82">
         <f>'Jacques Chi'!E88</f>
         <v>0</v>
       </c>
@@ -67403,18 +67427,18 @@
         <f>'Robert L'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA34" s="83">
+      <c r="AA34" s="39">
         <f>'Robert L'!E84</f>
         <v>0</v>
       </c>
       <c r="AC34" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="AD34" s="39" t="str">
+      <c r="AD34" s="83" t="str">
         <f>'Robert L'!A87</f>
         <v>United States</v>
       </c>
-      <c r="AE34" s="38">
+      <c r="AE34" s="84">
         <f>'Robert L'!B87</f>
         <v>0</v>
       </c>
@@ -67426,7 +67450,7 @@
         <f>'Robert L'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH34" s="39">
+      <c r="AH34" s="82">
         <f>'Robert L'!E87</f>
         <v>0</v>
       </c>
@@ -67534,7 +67558,7 @@
         <f>'Robert L'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA35" s="83">
+      <c r="AA35" s="39">
         <f>'Robert L'!E85</f>
         <v>2</v>
       </c>
@@ -67555,7 +67579,7 @@
         <f>'Robert L'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH35" s="39">
+      <c r="AH35" s="82">
         <f>'Robert L'!E88</f>
         <v>0</v>
       </c>
@@ -67670,30 +67694,30 @@
         <f>'Dawn G'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA36" s="83">
+      <c r="AA36" s="39">
         <f>'Dawn G'!E84</f>
         <v>0</v>
       </c>
       <c r="AC36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="AD36" s="39" t="str">
-        <f>'Dawn G'!A84</f>
-        <v>Morocco</v>
-      </c>
-      <c r="AE36" s="38">
-        <f>'Dawn G'!B84</f>
+      <c r="AD36" s="83" t="str">
+        <f>'Dawn G'!A87</f>
+        <v>United States</v>
+      </c>
+      <c r="AE36" s="84">
+        <f>'Dawn G'!B87</f>
         <v>1</v>
       </c>
       <c r="AF36" s="38">
-        <f>'Dawn G'!C84</f>
-        <v>2</v>
+        <f>'Dawn G'!C87</f>
+        <v>0</v>
       </c>
       <c r="AG36" s="39" t="str">
-        <f>'Dawn G'!D84</f>
-        <v>Spain</v>
-      </c>
-      <c r="AH36" s="39">
+        <f>'Dawn G'!D87</f>
+        <v>Argentina</v>
+      </c>
+      <c r="AH36" s="82">
         <f>'Dawn G'!E84</f>
         <v>0</v>
       </c>
@@ -67800,28 +67824,28 @@
         <f>'Dawn G'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA37" s="83">
+      <c r="AA37" s="39">
         <f>'Dawn G'!E85</f>
         <v>1</v>
       </c>
       <c r="AC37" s="39"/>
-      <c r="AD37" s="39" t="str">
-        <f>'Dawn G'!A85</f>
-        <v>Portugal</v>
-      </c>
-      <c r="AE37" s="38">
-        <f>'Dawn G'!B85</f>
-        <v>1</v>
+      <c r="AD37" s="83" t="str">
+        <f>'Dawn G'!A88</f>
+        <v>Japan</v>
+      </c>
+      <c r="AE37" s="84">
+        <f>'Dawn G'!B88</f>
+        <v>0</v>
       </c>
       <c r="AF37" s="38">
-        <f>'Dawn G'!C85</f>
-        <v>0</v>
+        <f>'Dawn G'!C88</f>
+        <v>1</v>
       </c>
       <c r="AG37" s="39" t="str">
-        <f>'Dawn G'!D85</f>
-        <v>Switzerland</v>
-      </c>
-      <c r="AH37" s="39">
+        <f>'Dawn G'!D88</f>
+        <v>Brazil</v>
+      </c>
+      <c r="AH37" s="82">
         <f>'Dawn G'!E85</f>
         <v>1</v>
       </c>
@@ -67936,18 +67960,18 @@
         <f>'John B'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA38" s="83">
+      <c r="AA38" s="39">
         <f>'John B'!E84</f>
         <v>0</v>
       </c>
       <c r="AC38" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="AD38" s="39" t="str">
+      <c r="AD38" s="83" t="str">
         <f>'John B'!A87</f>
         <v>United States</v>
       </c>
-      <c r="AE38" s="38">
+      <c r="AE38" s="84">
         <f>'John B'!B87</f>
         <v>1</v>
       </c>
@@ -67959,7 +67983,7 @@
         <f>'John B'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH38" s="39">
+      <c r="AH38" s="82">
         <f>'John B'!E87</f>
         <v>0</v>
       </c>
@@ -68068,16 +68092,16 @@
         <f>'John B'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA39" s="83">
+      <c r="AA39" s="39">
         <f>'John B'!E85</f>
         <v>0</v>
       </c>
       <c r="AC39" s="39"/>
-      <c r="AD39" s="39" t="str">
+      <c r="AD39" s="83" t="str">
         <f>'John B'!A88</f>
         <v>Japan</v>
       </c>
-      <c r="AE39" s="38">
+      <c r="AE39" s="84">
         <f>'John B'!B88</f>
         <v>1</v>
       </c>
@@ -68089,7 +68113,7 @@
         <f>'John B'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH39" s="39">
+      <c r="AH39" s="82">
         <f>'John B'!E88</f>
         <v>0</v>
       </c>
@@ -68204,7 +68228,7 @@
         <f>'Mandy B'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA40" s="83">
+      <c r="AA40" s="39">
         <f>'Mandy B'!E84</f>
         <v>0</v>
       </c>
@@ -68227,7 +68251,7 @@
         <f>'Mandy B'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH40" s="39">
+      <c r="AH40" s="82">
         <f>'Mandy B'!E87</f>
         <v>0</v>
       </c>
@@ -68336,7 +68360,7 @@
         <f>'Mandy B'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA41" s="83">
+      <c r="AA41" s="39">
         <f>'Mandy B'!E85</f>
         <v>1</v>
       </c>
@@ -68357,7 +68381,7 @@
         <f>'Mandy B'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH41" s="39">
+      <c r="AH41" s="82">
         <f>'Mandy B'!E88</f>
         <v>0</v>
       </c>
@@ -68472,7 +68496,7 @@
         <f>'Freddie J'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA42" s="83">
+      <c r="AA42" s="39">
         <f>'Freddie J'!E84</f>
         <v>0</v>
       </c>
@@ -68495,7 +68519,7 @@
         <f>'Freddie J'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH42" s="39">
+      <c r="AH42" s="82">
         <f>'Freddie J'!E87</f>
         <v>0</v>
       </c>
@@ -68604,16 +68628,16 @@
         <f>'Freddie J'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA43" s="83">
+      <c r="AA43" s="39">
         <f>'Freddie J'!E85</f>
         <v>1</v>
       </c>
       <c r="AC43" s="39"/>
-      <c r="AD43" s="39" t="str">
+      <c r="AD43" s="83" t="str">
         <f>'Freddie J'!A88</f>
         <v>Japan</v>
       </c>
-      <c r="AE43" s="38">
+      <c r="AE43" s="84">
         <f>'Freddie J'!B88</f>
         <v>1</v>
       </c>
@@ -68625,7 +68649,7 @@
         <f>'Freddie J'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH43" s="39">
+      <c r="AH43" s="82">
         <f>'Freddie J'!E88</f>
         <v>0</v>
       </c>
@@ -68740,7 +68764,7 @@
         <f>'Stuart L'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA44" s="83">
+      <c r="AA44" s="39">
         <f>'Stuart L'!E84</f>
         <v>0</v>
       </c>
@@ -68763,7 +68787,7 @@
         <f>'Stuart L'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH44" s="39">
+      <c r="AH44" s="82">
         <f>'Stuart L'!E87</f>
         <v>0</v>
       </c>
@@ -68872,7 +68896,7 @@
         <f>'Stuart L'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA45" s="83">
+      <c r="AA45" s="39">
         <f>'Stuart L'!E85</f>
         <v>0</v>
       </c>
@@ -68893,7 +68917,7 @@
         <f>'Stuart L'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH45" s="39">
+      <c r="AH45" s="82">
         <f>'Stuart L'!E88</f>
         <v>0</v>
       </c>
@@ -69008,7 +69032,7 @@
         <f>'Barbara L'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA46" s="83">
+      <c r="AA46" s="39">
         <f>'Barbara L'!E84</f>
         <v>0</v>
       </c>
@@ -69031,7 +69055,7 @@
         <f>'Barbara L'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH46" s="39">
+      <c r="AH46" s="82">
         <f>'Barbara L'!E87</f>
         <v>0</v>
       </c>
@@ -69140,16 +69164,16 @@
         <f>'Barbara L'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA47" s="83">
+      <c r="AA47" s="39">
         <f>'Barbara L'!E85</f>
         <v>0</v>
       </c>
       <c r="AC47" s="39"/>
-      <c r="AD47" s="39" t="str">
+      <c r="AD47" s="83" t="str">
         <f>'Barbara L'!A88</f>
         <v>Japan</v>
       </c>
-      <c r="AE47" s="38">
+      <c r="AE47" s="84">
         <f>'Barbara L'!B88</f>
         <v>0</v>
       </c>
@@ -69161,7 +69185,7 @@
         <f>'Barbara L'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH47" s="39">
+      <c r="AH47" s="82">
         <f>'Barbara L'!E88</f>
         <v>0</v>
       </c>
@@ -69276,7 +69300,7 @@
         <f>'Andy B'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA48" s="83">
+      <c r="AA48" s="39">
         <f>'Andy B'!E84</f>
         <v>0</v>
       </c>
@@ -69299,7 +69323,7 @@
         <f>'Andy B'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH48" s="39">
+      <c r="AH48" s="82">
         <f>'Andy B'!E87</f>
         <v>0</v>
       </c>
@@ -69408,7 +69432,7 @@
         <f>'Andy B'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA49" s="83">
+      <c r="AA49" s="39">
         <f>'Andy B'!E85</f>
         <v>1</v>
       </c>
@@ -69429,7 +69453,7 @@
         <f>'Andy B'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH49" s="39">
+      <c r="AH49" s="82">
         <f>'Andy B'!E88</f>
         <v>0</v>
       </c>
@@ -69544,7 +69568,7 @@
         <f>'Keith G'!D84</f>
         <v>Spain</v>
       </c>
-      <c r="AA50" s="83">
+      <c r="AA50" s="39">
         <f>'Keith G'!E84</f>
         <v>0</v>
       </c>
@@ -69567,7 +69591,7 @@
         <f>'Keith G'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH50" s="39">
+      <c r="AH50" s="82">
         <f>'Keith G'!E87</f>
         <v>0</v>
       </c>
@@ -69676,16 +69700,16 @@
         <f>'Keith G'!D85</f>
         <v>Switzerland</v>
       </c>
-      <c r="AA51" s="83">
+      <c r="AA51" s="39">
         <f>'Keith G'!E85</f>
         <v>0</v>
       </c>
       <c r="AC51" s="39"/>
-      <c r="AD51" s="39" t="str">
+      <c r="AD51" s="83" t="str">
         <f>'Keith G'!A88</f>
         <v>Japan</v>
       </c>
-      <c r="AE51" s="38">
+      <c r="AE51" s="84">
         <f>'Keith G'!B88</f>
         <v>1</v>
       </c>
@@ -69697,7 +69721,7 @@
         <f>'Keith G'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH51" s="39">
+      <c r="AH51" s="82">
         <f>'Keith G'!E88</f>
         <v>0</v>
       </c>
@@ -71063,19 +71087,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -71085,6 +71096,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C98" xr:uid="{F68D3FFC-EF79-CC40-8F53-8BF21A5E1341}">
@@ -72418,19 +72442,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -72440,6 +72451,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C97" xr:uid="{11A7353F-6A05-F048-B4B5-2330C623E382}">
@@ -73652,19 +73676,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -73674,6 +73685,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{9D4EDCA2-2FFE-E64B-A34E-466DD99F6343}">
@@ -74865,6 +74889,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A86:D86"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
@@ -74878,15 +74911,6 @@
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{55CBA0EA-03DF-D446-B217-F70483C49D17}">
@@ -76100,19 +76124,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -76122,6 +76133,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66 B1:C65 B67:C97" xr:uid="{156C7248-1706-4E17-9BB6-079B78DEF479}">
@@ -77313,6 +77337,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A86:D86"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
@@ -77326,15 +77359,6 @@
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{977686BA-C9F0-5F4E-89D6-CE94966C1FE0}">
@@ -78523,19 +78547,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -78545,6 +78556,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{BE5067DB-A56D-FF40-9C9A-839412CFE3CC}">
@@ -79111,18 +79135,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B58:E58"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B58:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -80676,19 +80700,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -80698,6 +80709,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{8A242A5A-737B-3248-9203-1E18FA7E8CAD}">
@@ -82028,19 +82052,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -82050,6 +82061,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{79F4B324-FC19-7044-8ECD-3029BC735257}">
@@ -83380,19 +83404,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -83402,6 +83413,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{F1AA318D-CFEE-E945-8C0E-235E3838BA82}">
@@ -84732,19 +84756,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -84754,6 +84765,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{446CEEDB-BF43-854D-95D2-80CA6EE53C2C}">

--- a/resources/Forms/Excel/Big Sheet.xlsx
+++ b/resources/Forms/Excel/Big Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie/FootieTake2/resources/Forms/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C486B2B-D2A0-4740-A414-2B371D955C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04025D4B-AEAD-8D4B-8622-BC57FDE3CF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" tabRatio="800" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
   </bookViews>
@@ -831,7 +831,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1029,7 +1029,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1095,23 +1094,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>838199</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>105522</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>618066</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>169022</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE8EF07E-E4D1-C61F-5B52-84099A289900}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC3071F-0702-78F1-D76C-69FCDCF222CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1127,8 +1126,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2556933" y="0"/>
-          <a:ext cx="6223000" cy="23473522"/>
+          <a:off x="2556932" y="0"/>
+          <a:ext cx="5647267" cy="21301822"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1144,23 +1143,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>203199</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>176808</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>142894</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6C6EFD2-FA2B-0159-B159-87D95D600720}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3C23F7-62F0-9EC7-ADC7-CA9771F23A18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1176,8 +1175,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10769599"/>
-          <a:ext cx="8407400" cy="24357609"/>
+          <a:off x="17551400" y="10769600"/>
+          <a:ext cx="9334500" cy="28997294"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1488,7 +1487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88DB2AD-0B7A-2B40-B11D-A4AE4E9DB3F2}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="150" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -1520,7 +1519,7 @@
       </c>
       <c r="C2" s="15">
         <f>'Alison S'!E99</f>
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1534,13 +1533,13 @@
       </c>
       <c r="C3" s="15">
         <f>'Mandy B'!E99</f>
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <f>RANK(C4,($C$2:$C$32),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>'Keith W'!D99</f>
@@ -1548,7 +1547,7 @@
       </c>
       <c r="C4" s="15">
         <f>'Keith W'!E99</f>
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1562,13 +1561,13 @@
       </c>
       <c r="C5" s="15">
         <f>'Keith G'!E99</f>
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <f>RANK(C6,($C$2:$C$32),0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>'Andy B'!D99</f>
@@ -1576,13 +1575,13 @@
       </c>
       <c r="C6" s="15">
         <f>'Andy B'!E99</f>
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <f>RANK(C7,($C$2:$C$32),0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>'Rob TH'!D99</f>
@@ -1590,7 +1589,7 @@
       </c>
       <c r="C7" s="2">
         <f>'Rob TH'!E99</f>
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1604,7 +1603,7 @@
       </c>
       <c r="C8" s="15">
         <f>'Evan A'!E99</f>
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1618,7 +1617,7 @@
       </c>
       <c r="C9" s="2">
         <f>'Derek b'!E99</f>
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1632,7 +1631,7 @@
       </c>
       <c r="C10" s="2">
         <f>'James W'!E99</f>
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1646,7 +1645,7 @@
       </c>
       <c r="C11" s="15">
         <f>'Freddie J'!E99</f>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1655,12 +1654,12 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="str">
-        <f>'Alice D'!D99</f>
-        <v>Alice D</v>
-      </c>
-      <c r="C12" s="15">
-        <f>'Alice D'!E99</f>
-        <v>50</v>
+        <f>'Bernie R'!D99</f>
+        <v>Bernie R</v>
+      </c>
+      <c r="C12" s="2">
+        <f>'Bernie R'!E99</f>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1669,12 +1668,12 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="str">
-        <f>'Bernie R'!D99</f>
-        <v>Bernie R</v>
-      </c>
-      <c r="C13" s="2">
-        <f>'Bernie R'!E99</f>
-        <v>50</v>
+        <f>'Robert L'!D99</f>
+        <v>Robert L</v>
+      </c>
+      <c r="C13" s="15">
+        <f>'Robert L'!E99</f>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1683,12 +1682,12 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="str">
-        <f>'Robert L'!D99</f>
-        <v>Robert L</v>
+        <f>'Liz W'!D99</f>
+        <v>Liz W</v>
       </c>
       <c r="C14" s="15">
-        <f>'Robert L'!E99</f>
-        <v>50</v>
+        <f>'Liz W'!E99</f>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1696,13 +1695,13 @@
         <f>RANK(C15,($C$2:$C$32),0)</f>
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="str">
-        <f>'Barbara L'!D99</f>
-        <v>Barbara L</v>
+      <c r="B15" s="2" t="str">
+        <f>'Alice D'!D99</f>
+        <v>Alice D</v>
       </c>
       <c r="C15" s="15">
-        <f>'Barbara L'!E99</f>
-        <v>49</v>
+        <f>'Alice D'!E99</f>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1710,13 +1709,13 @@
         <f>RANK(C16,($C$2:$C$32),0)</f>
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="str">
-        <f>'Liz W'!D99</f>
-        <v>Liz W</v>
+      <c r="B16" s="13" t="str">
+        <f>'Barbara L'!D99</f>
+        <v>Barbara L</v>
       </c>
       <c r="C16" s="15">
-        <f>'Liz W'!E99</f>
-        <v>49</v>
+        <f>'Barbara L'!E99</f>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1730,13 +1729,13 @@
       </c>
       <c r="C17" s="15">
         <f>'Jacques Chi'!E99</f>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <f>RANK(C18,($C$2:$C$32),0)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B18" s="13" t="str">
         <f>'Marjorie L'!D99</f>
@@ -1750,7 +1749,7 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <f>RANK(C19,($C$2:$C$32),0)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="str">
         <f>'Nathan W'!D87</f>
@@ -1758,13 +1757,13 @@
       </c>
       <c r="C19" s="2">
         <f>'Nathan W'!E87</f>
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <f>RANK(C20,($C$2:$C$32),0)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="str">
         <f>'Dawn G'!D99</f>
@@ -1786,7 +1785,7 @@
       </c>
       <c r="C21" s="16">
         <f>'Stuart L'!E99</f>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1800,35 +1799,35 @@
       </c>
       <c r="C22" s="15">
         <f>'Dave B'!E99</f>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <f>RANK(C23,($C$2:$C$32),0)</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2" t="str">
-        <f>'John B'!D99</f>
-        <v>John B</v>
+        <f>'Cathy G'!D99</f>
+        <v>Cathy G</v>
       </c>
       <c r="C23" s="15">
-        <f>'John B'!E99</f>
-        <v>43</v>
+        <f>'Cathy G'!E99</f>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <f>RANK(C24,($C$2:$C$32),0)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="str">
-        <f>'Cathy G'!D99</f>
-        <v>Cathy G</v>
-      </c>
-      <c r="C24" s="15">
-        <f>'Cathy G'!E99</f>
-        <v>43</v>
+        <f>'Mother B'!D99</f>
+        <v>Mother B</v>
+      </c>
+      <c r="C24" s="2">
+        <f>'Mother B'!E99</f>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1837,18 +1836,18 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="str">
-        <f>'Mother B'!D99</f>
-        <v>Mother B</v>
-      </c>
-      <c r="C25" s="2">
-        <f>'Mother B'!E99</f>
-        <v>42</v>
+        <f>'John B'!D99</f>
+        <v>John B</v>
+      </c>
+      <c r="C25" s="15">
+        <f>'John B'!E99</f>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <f>RANK(C26,($C$2:$C$32),0)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="str">
         <f>'Martin L'!D99</f>
@@ -1856,7 +1855,7 @@
       </c>
       <c r="C26" s="15">
         <f>'Martin L'!E99</f>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1958,7 +1957,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A70" zoomScale="108" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3144,6 +3143,9 @@
       <c r="D87" s="48" t="s">
         <v>62</v>
       </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
@@ -3270,24 +3272,11 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -3297,6 +3286,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{8427FA4B-D7DC-C74F-B6C6-02A04CEA1479}">
@@ -3313,7 +3315,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4499,6 +4501,9 @@
       <c r="D87" s="48" t="s">
         <v>62</v>
       </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
@@ -4625,24 +4630,11 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -4652,6 +4644,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{AF448023-A790-794F-BB14-4EE63C681037}">
@@ -4668,7 +4673,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5854,6 +5859,9 @@
       <c r="D87" s="48" t="s">
         <v>62</v>
       </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
@@ -5980,24 +5988,11 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -6007,6 +6002,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{CBEDE9B1-CCD8-024F-8FF6-52E83D09DD5F}">
@@ -6023,7 +6031,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7209,6 +7217,9 @@
       <c r="D87" s="48" t="s">
         <v>62</v>
       </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
@@ -7346,19 +7357,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -7368,6 +7366,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C99" xr:uid="{A6BA8386-7538-B943-BC89-6C717665472C}">
@@ -7384,7 +7395,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8570,6 +8581,9 @@
       <c r="D87" s="48" t="s">
         <v>62</v>
       </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
@@ -8696,24 +8710,11 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -8723,6 +8724,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{2B53EE05-D1D3-374E-8836-2425C3E2B4A5}">
@@ -8738,8 +8752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5853CB-6798-394A-BE61-F8B57FF8CDF1}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9925,6 +9939,9 @@
       <c r="D87" s="48" t="s">
         <v>62</v>
       </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
@@ -10049,24 +10066,11 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -10076,6 +10080,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{A2199F60-9E4F-6445-90E3-92673D510A9D}">
@@ -10092,7 +10109,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11278,6 +11295,9 @@
       <c r="D87" s="48" t="s">
         <v>62</v>
       </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
@@ -11404,24 +11424,11 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -11431,6 +11438,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C97" xr:uid="{05F05F3A-89C6-E74F-BB5C-B82EDA718869}">
@@ -11447,7 +11467,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12609,6 +12629,9 @@
       <c r="D87" s="48" t="s">
         <v>43</v>
       </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
@@ -12735,11 +12758,20 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A86:D86"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
@@ -12753,15 +12785,6 @@
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{84866E23-2C57-B247-AC72-E241400D8978}">
@@ -12778,7 +12801,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13964,6 +13987,9 @@
       <c r="D87" s="48" t="s">
         <v>62</v>
       </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
@@ -14090,24 +14116,11 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -14117,6 +14130,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{85A9722B-955B-CF41-A6F3-38FDC4B48A7A}">
@@ -14133,7 +14159,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15319,6 +15345,9 @@
       <c r="D87" s="48" t="s">
         <v>62</v>
       </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
@@ -15445,16 +15474,16 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A86:D86"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A77:D77"/>
@@ -15467,11 +15496,11 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C97" xr:uid="{F2D3BCCF-F868-974E-AEC9-AB88E8DBE8B7}">
@@ -48026,6 +48055,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="CH1:CK1"/>
     <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="AY1:BB1"/>
@@ -48033,12 +48068,6 @@
     <mergeCell ref="BM1:BP1"/>
     <mergeCell ref="BT1:BW1"/>
     <mergeCell ref="CA1:CD1"/>
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AD1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -49064,6 +49093,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -49071,12 +49106,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{98289B19-A16E-8E48-AC84-DA2AC3E66DBF}">
@@ -49093,7 +49122,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -50282,6 +50311,9 @@
       <c r="D87" s="48" t="s">
         <v>62</v>
       </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
@@ -50408,11 +50440,1372 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780CC646-0316-9E4F-A9F1-38ADA5D36D46}">
+  <dimension ref="A1:E99"/>
+  <sheetViews>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="34">
+        <v>0</v>
+      </c>
+      <c r="C2" s="34">
+        <v>1</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="34">
+        <v>1</v>
+      </c>
+      <c r="C5" s="34">
+        <v>3</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="34">
+        <v>1</v>
+      </c>
+      <c r="C6" s="34">
+        <v>0</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="34">
+        <v>2</v>
+      </c>
+      <c r="C7" s="34">
+        <v>1</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="34">
+        <v>4</v>
+      </c>
+      <c r="C10" s="34">
+        <v>0</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="34">
+        <v>2</v>
+      </c>
+      <c r="C11" s="34">
+        <v>1</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="34">
+        <v>1</v>
+      </c>
+      <c r="C12" s="34">
+        <v>1</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="34">
+        <v>3</v>
+      </c>
+      <c r="C13" s="34">
+        <v>1</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="34">
+        <v>0</v>
+      </c>
+      <c r="C16" s="34">
+        <v>2</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="34">
+        <v>3</v>
+      </c>
+      <c r="C17" s="34">
+        <v>1</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="34">
+        <v>3</v>
+      </c>
+      <c r="C18" s="34">
+        <v>0</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="34">
+        <v>2</v>
+      </c>
+      <c r="C19" s="34">
+        <v>0</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="34">
+        <v>2</v>
+      </c>
+      <c r="C22" s="34">
+        <v>1</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="34">
+        <v>1</v>
+      </c>
+      <c r="C23" s="34">
+        <v>1</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="34">
+        <v>3</v>
+      </c>
+      <c r="C24" s="34">
+        <v>0</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="34">
+        <v>3</v>
+      </c>
+      <c r="C25" s="34">
+        <v>1</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="34">
+        <v>1</v>
+      </c>
+      <c r="C28" s="34">
+        <v>0</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="34">
+        <v>0</v>
+      </c>
+      <c r="C29" s="34">
+        <v>1</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="34">
+        <v>2</v>
+      </c>
+      <c r="C30" s="34">
+        <v>2</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="34">
+        <v>1</v>
+      </c>
+      <c r="C31" s="34">
+        <v>0</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="34">
+        <v>2</v>
+      </c>
+      <c r="C35" s="34">
+        <v>0</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="34">
+        <v>2</v>
+      </c>
+      <c r="C36" s="34">
+        <v>1</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="34">
+        <v>2</v>
+      </c>
+      <c r="C37" s="34">
+        <v>1</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="77"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="34">
+        <v>2</v>
+      </c>
+      <c r="C40" s="34">
+        <v>1</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="34">
+        <v>2</v>
+      </c>
+      <c r="C41" s="34">
+        <v>1</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="34">
+        <v>2</v>
+      </c>
+      <c r="C42" s="34">
+        <v>0</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="34">
+        <v>2</v>
+      </c>
+      <c r="C43" s="34">
+        <v>2</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="77"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="34">
+        <v>0</v>
+      </c>
+      <c r="C46" s="34">
+        <v>2</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="34">
+        <v>1</v>
+      </c>
+      <c r="C47" s="34">
+        <v>1</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="34">
+        <v>3</v>
+      </c>
+      <c r="C48" s="34">
+        <v>1</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="34">
+        <v>1</v>
+      </c>
+      <c r="C49" s="34">
+        <v>1</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="77"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="77"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="34">
+        <v>1</v>
+      </c>
+      <c r="C52" s="34">
+        <v>1</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="34">
+        <v>2</v>
+      </c>
+      <c r="C53" s="34">
+        <v>0</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="34">
+        <v>1</v>
+      </c>
+      <c r="C54" s="34">
+        <v>2</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="34">
+        <v>0</v>
+      </c>
+      <c r="C55" s="34">
+        <v>2</v>
+      </c>
+      <c r="D55" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="77"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="77"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58" s="34">
+        <v>1</v>
+      </c>
+      <c r="C58" s="34">
+        <v>2</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="34">
+        <v>0</v>
+      </c>
+      <c r="C59" s="34">
+        <v>3</v>
+      </c>
+      <c r="D59" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" s="34">
+        <v>1</v>
+      </c>
+      <c r="C60" s="34">
+        <v>3</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="34">
+        <v>0</v>
+      </c>
+      <c r="C61" s="34">
+        <v>2</v>
+      </c>
+      <c r="D61" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="77"/>
+      <c r="C63" s="77"/>
+      <c r="D63" s="77"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" s="34">
+        <v>2</v>
+      </c>
+      <c r="C64" s="34">
+        <v>3</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" s="34">
+        <v>1</v>
+      </c>
+      <c r="C65" s="34">
+        <v>1</v>
+      </c>
+      <c r="D65" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" s="34">
+        <v>0</v>
+      </c>
+      <c r="C66" s="34">
+        <v>3</v>
+      </c>
+      <c r="D66" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" s="34">
+        <v>0</v>
+      </c>
+      <c r="C67" s="34">
+        <v>3</v>
+      </c>
+      <c r="D67" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="77"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="77"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="34">
+        <v>0</v>
+      </c>
+      <c r="C70" s="34">
+        <v>1</v>
+      </c>
+      <c r="D70" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" s="34">
+        <v>0</v>
+      </c>
+      <c r="C71" s="34">
+        <v>2</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B72" s="34">
+        <v>1</v>
+      </c>
+      <c r="C72" s="34">
+        <v>1</v>
+      </c>
+      <c r="D72" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" s="34">
+        <v>0</v>
+      </c>
+      <c r="C73" s="34">
+        <v>3</v>
+      </c>
+      <c r="D73" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" s="62"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="62"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="49">
+        <v>2</v>
+      </c>
+      <c r="C75" s="49">
+        <v>1</v>
+      </c>
+      <c r="D75" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B76" s="49">
+        <v>3</v>
+      </c>
+      <c r="C76" s="49">
+        <v>0</v>
+      </c>
+      <c r="D76" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" s="62"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="62"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B78" s="49">
+        <v>3</v>
+      </c>
+      <c r="C78" s="49">
+        <v>0</v>
+      </c>
+      <c r="D78" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" s="49">
+        <v>1</v>
+      </c>
+      <c r="C79" s="49">
+        <v>0</v>
+      </c>
+      <c r="D79" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" s="62"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="62"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B81" s="49">
+        <v>1</v>
+      </c>
+      <c r="C81" s="49">
+        <v>0</v>
+      </c>
+      <c r="D81" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B82" s="49">
+        <v>2</v>
+      </c>
+      <c r="C82" s="49">
+        <v>0</v>
+      </c>
+      <c r="D82" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="B83" s="62"/>
+      <c r="C83" s="62"/>
+      <c r="D83" s="62"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B84" s="49">
+        <v>0</v>
+      </c>
+      <c r="C84" s="49">
+        <v>2</v>
+      </c>
+      <c r="D84" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B85" s="49">
+        <v>2</v>
+      </c>
+      <c r="C85" s="49">
+        <v>0</v>
+      </c>
+      <c r="D85" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" s="66"/>
+      <c r="C86" s="66"/>
+      <c r="D86" s="66"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B87" s="49">
+        <v>1</v>
+      </c>
+      <c r="C87" s="49">
+        <v>2</v>
+      </c>
+      <c r="D87" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B88" s="49">
+        <v>0</v>
+      </c>
+      <c r="C88" s="49">
+        <v>2</v>
+      </c>
+      <c r="D88" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="B89" s="62"/>
+      <c r="C89" s="62"/>
+      <c r="D89" s="62"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B90" s="49">
+        <v>1</v>
+      </c>
+      <c r="C90" s="49">
+        <v>2</v>
+      </c>
+      <c r="D90" s="48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B91" s="49">
+        <v>2</v>
+      </c>
+      <c r="C91" s="49">
+        <v>1</v>
+      </c>
+      <c r="D91" s="48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92" s="62"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="62"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B93" s="49">
+        <v>0</v>
+      </c>
+      <c r="C93" s="49">
+        <v>2</v>
+      </c>
+      <c r="D93" s="48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="B94" s="62"/>
+      <c r="C94" s="62"/>
+      <c r="D94" s="62"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B95" s="49">
+        <v>1</v>
+      </c>
+      <c r="C95" s="49">
+        <v>0</v>
+      </c>
+      <c r="D95" s="48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="B96" s="62"/>
+      <c r="C96" s="62"/>
+      <c r="D96" s="62"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>58</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D99" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E99">
+        <f>SUM(E2:E97)</f>
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A86:D86"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
@@ -50426,1364 +51819,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A86:D86"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780CC646-0316-9E4F-A9F1-38ADA5D36D46}">
-  <dimension ref="A1:E99"/>
-  <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="34">
-        <v>0</v>
-      </c>
-      <c r="C2" s="34">
-        <v>1</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="77" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="34">
-        <v>1</v>
-      </c>
-      <c r="C5" s="34">
-        <v>3</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="34">
-        <v>1</v>
-      </c>
-      <c r="C6" s="34">
-        <v>0</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="34">
-        <v>2</v>
-      </c>
-      <c r="C7" s="34">
-        <v>1</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="34">
-        <v>4</v>
-      </c>
-      <c r="C10" s="34">
-        <v>0</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="34">
-        <v>2</v>
-      </c>
-      <c r="C11" s="34">
-        <v>1</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="34">
-        <v>1</v>
-      </c>
-      <c r="C12" s="34">
-        <v>1</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="34">
-        <v>3</v>
-      </c>
-      <c r="C13" s="34">
-        <v>1</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="77" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="34">
-        <v>0</v>
-      </c>
-      <c r="C16" s="34">
-        <v>2</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="34">
-        <v>3</v>
-      </c>
-      <c r="C17" s="34">
-        <v>1</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="34">
-        <v>3</v>
-      </c>
-      <c r="C18" s="34">
-        <v>0</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="34">
-        <v>2</v>
-      </c>
-      <c r="C19" s="34">
-        <v>0</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="77" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="34">
-        <v>2</v>
-      </c>
-      <c r="C22" s="34">
-        <v>1</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="34">
-        <v>1</v>
-      </c>
-      <c r="C23" s="34">
-        <v>1</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="34">
-        <v>3</v>
-      </c>
-      <c r="C24" s="34">
-        <v>0</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="34">
-        <v>3</v>
-      </c>
-      <c r="C25" s="34">
-        <v>1</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="77" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="34">
-        <v>1</v>
-      </c>
-      <c r="C28" s="34">
-        <v>0</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="34">
-        <v>0</v>
-      </c>
-      <c r="C29" s="34">
-        <v>1</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="34">
-        <v>2</v>
-      </c>
-      <c r="C30" s="34">
-        <v>2</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="34">
-        <v>1</v>
-      </c>
-      <c r="C31" s="34">
-        <v>0</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="34">
-        <v>1</v>
-      </c>
-      <c r="C34" s="34">
-        <v>1</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="34">
-        <v>2</v>
-      </c>
-      <c r="C35" s="34">
-        <v>0</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="34">
-        <v>2</v>
-      </c>
-      <c r="C36" s="34">
-        <v>1</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="34">
-        <v>2</v>
-      </c>
-      <c r="C37" s="34">
-        <v>1</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="77"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="34">
-        <v>2</v>
-      </c>
-      <c r="C40" s="34">
-        <v>1</v>
-      </c>
-      <c r="D40" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="34">
-        <v>2</v>
-      </c>
-      <c r="C41" s="34">
-        <v>1</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="34">
-        <v>2</v>
-      </c>
-      <c r="C42" s="34">
-        <v>0</v>
-      </c>
-      <c r="D42" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="34">
-        <v>2</v>
-      </c>
-      <c r="C43" s="34">
-        <v>2</v>
-      </c>
-      <c r="D43" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="77"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="34">
-        <v>0</v>
-      </c>
-      <c r="C46" s="34">
-        <v>2</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="34">
-        <v>1</v>
-      </c>
-      <c r="C47" s="34">
-        <v>1</v>
-      </c>
-      <c r="D47" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="34">
-        <v>3</v>
-      </c>
-      <c r="C48" s="34">
-        <v>1</v>
-      </c>
-      <c r="D48" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" s="34">
-        <v>1</v>
-      </c>
-      <c r="C49" s="34">
-        <v>1</v>
-      </c>
-      <c r="D49" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B51" s="77"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" s="34">
-        <v>1</v>
-      </c>
-      <c r="C52" s="34">
-        <v>1</v>
-      </c>
-      <c r="D52" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53" s="34">
-        <v>2</v>
-      </c>
-      <c r="C53" s="34">
-        <v>0</v>
-      </c>
-      <c r="D53" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B54" s="34">
-        <v>1</v>
-      </c>
-      <c r="C54" s="34">
-        <v>2</v>
-      </c>
-      <c r="D54" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B55" s="34">
-        <v>0</v>
-      </c>
-      <c r="C55" s="34">
-        <v>2</v>
-      </c>
-      <c r="D55" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" s="77"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B58" s="34">
-        <v>1</v>
-      </c>
-      <c r="C58" s="34">
-        <v>2</v>
-      </c>
-      <c r="D58" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B59" s="34">
-        <v>0</v>
-      </c>
-      <c r="C59" s="34">
-        <v>3</v>
-      </c>
-      <c r="D59" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B60" s="34">
-        <v>1</v>
-      </c>
-      <c r="C60" s="34">
-        <v>3</v>
-      </c>
-      <c r="D60" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B61" s="34">
-        <v>0</v>
-      </c>
-      <c r="C61" s="34">
-        <v>2</v>
-      </c>
-      <c r="D61" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63" s="77"/>
-      <c r="C63" s="77"/>
-      <c r="D63" s="77"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B64" s="34">
-        <v>2</v>
-      </c>
-      <c r="C64" s="34">
-        <v>3</v>
-      </c>
-      <c r="D64" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B65" s="34">
-        <v>1</v>
-      </c>
-      <c r="C65" s="34">
-        <v>1</v>
-      </c>
-      <c r="D65" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B66" s="34">
-        <v>0</v>
-      </c>
-      <c r="C66" s="34">
-        <v>3</v>
-      </c>
-      <c r="D66" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B67" s="34">
-        <v>0</v>
-      </c>
-      <c r="C67" s="34">
-        <v>3</v>
-      </c>
-      <c r="D67" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="77" t="s">
-        <v>16</v>
-      </c>
-      <c r="B69" s="77"/>
-      <c r="C69" s="77"/>
-      <c r="D69" s="77"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B70" s="34">
-        <v>0</v>
-      </c>
-      <c r="C70" s="34">
-        <v>1</v>
-      </c>
-      <c r="D70" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="E70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B71" s="34">
-        <v>0</v>
-      </c>
-      <c r="C71" s="34">
-        <v>2</v>
-      </c>
-      <c r="D71" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B72" s="34">
-        <v>1</v>
-      </c>
-      <c r="C72" s="34">
-        <v>1</v>
-      </c>
-      <c r="D72" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B73" s="34">
-        <v>0</v>
-      </c>
-      <c r="C73" s="34">
-        <v>3</v>
-      </c>
-      <c r="D73" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="B74" s="62"/>
-      <c r="C74" s="62"/>
-      <c r="D74" s="62"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="B75" s="49">
-        <v>2</v>
-      </c>
-      <c r="C75" s="49">
-        <v>1</v>
-      </c>
-      <c r="D75" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="E75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="B76" s="49">
-        <v>3</v>
-      </c>
-      <c r="C76" s="49">
-        <v>0</v>
-      </c>
-      <c r="D76" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="B77" s="62"/>
-      <c r="C77" s="62"/>
-      <c r="D77" s="62"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="B78" s="49">
-        <v>3</v>
-      </c>
-      <c r="C78" s="49">
-        <v>0</v>
-      </c>
-      <c r="D78" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="E78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B79" s="49">
-        <v>1</v>
-      </c>
-      <c r="C79" s="49">
-        <v>0</v>
-      </c>
-      <c r="D79" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="E79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="B80" s="62"/>
-      <c r="C80" s="62"/>
-      <c r="D80" s="62"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B81" s="49">
-        <v>1</v>
-      </c>
-      <c r="C81" s="49">
-        <v>0</v>
-      </c>
-      <c r="D81" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="B82" s="49">
-        <v>2</v>
-      </c>
-      <c r="C82" s="49">
-        <v>0</v>
-      </c>
-      <c r="D82" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="B83" s="62"/>
-      <c r="C83" s="62"/>
-      <c r="D83" s="62"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B84" s="49">
-        <v>0</v>
-      </c>
-      <c r="C84" s="49">
-        <v>2</v>
-      </c>
-      <c r="D84" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B85" s="49">
-        <v>2</v>
-      </c>
-      <c r="C85" s="49">
-        <v>0</v>
-      </c>
-      <c r="D85" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="B86" s="66"/>
-      <c r="C86" s="66"/>
-      <c r="D86" s="66"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="B87" s="49">
-        <v>1</v>
-      </c>
-      <c r="C87" s="49">
-        <v>2</v>
-      </c>
-      <c r="D87" s="48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B88" s="49">
-        <v>0</v>
-      </c>
-      <c r="C88" s="49">
-        <v>2</v>
-      </c>
-      <c r="D88" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="B89" s="62"/>
-      <c r="C89" s="62"/>
-      <c r="D89" s="62"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="B90" s="49">
-        <v>1</v>
-      </c>
-      <c r="C90" s="49">
-        <v>2</v>
-      </c>
-      <c r="D90" s="48" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B91" s="49">
-        <v>2</v>
-      </c>
-      <c r="C91" s="49">
-        <v>1</v>
-      </c>
-      <c r="D91" s="48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="B92" s="62"/>
-      <c r="C92" s="62"/>
-      <c r="D92" s="62"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="B93" s="49">
-        <v>0</v>
-      </c>
-      <c r="C93" s="49">
-        <v>2</v>
-      </c>
-      <c r="D93" s="48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="B94" s="62"/>
-      <c r="C94" s="62"/>
-      <c r="D94" s="62"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B95" s="49">
-        <v>1</v>
-      </c>
-      <c r="C95" s="49">
-        <v>0</v>
-      </c>
-      <c r="D95" s="48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="65" t="s">
-        <v>114</v>
-      </c>
-      <c r="B96" s="62"/>
-      <c r="C96" s="62"/>
-      <c r="D96" s="62"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>58</v>
-      </c>
-      <c r="B97">
-        <v>2</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D99" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E99">
-        <f>SUM(E2:E97)</f>
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{A72D56DF-9BC0-2E49-9D2A-B8E721479EEF}">
@@ -51800,7 +51835,7 @@
   <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView topLeftCell="A66" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -52914,6 +52949,9 @@
       <c r="D75" s="48" t="s">
         <v>62</v>
       </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="48" t="s">
@@ -53040,24 +53078,11 @@
       </c>
       <c r="E87">
         <f>SUM(E2:E85)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A17:D17"/>
     <mergeCell ref="A77:D77"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A82:D82"/>
@@ -53067,6 +53092,19 @@
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="A71:D71"/>
     <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A52:D52"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62:C84" xr:uid="{C11CF323-092E-EA4D-9917-FC21144EBBB1}">
@@ -53083,7 +53121,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -54269,6 +54307,9 @@
       <c r="D87" s="48" t="s">
         <v>62</v>
       </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
@@ -54404,7 +54445,7 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -54415,19 +54456,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -54437,6 +54465,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{EC36F1B5-3564-784F-B3C5-B041B2C2E87E}">
@@ -54453,7 +54494,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -55639,6 +55680,9 @@
       <c r="D87" s="48" t="s">
         <v>62</v>
       </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
@@ -55770,19 +55814,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -55792,6 +55823,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{A0FD6351-8E4F-C04E-BE54-C8F4EA5F1555}">
@@ -55808,7 +55852,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -56994,6 +57038,9 @@
       <c r="D87" s="48" t="s">
         <v>62</v>
       </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
@@ -57126,7 +57173,7 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -57135,19 +57182,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -57157,6 +57191,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C100" xr:uid="{912C664E-C133-1E4F-9640-4A25EB9EF25D}">
@@ -57173,7 +57220,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -58359,6 +58406,9 @@
       <c r="D87" s="48" t="s">
         <v>62</v>
       </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
@@ -58485,24 +58535,11 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -58512,6 +58549,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{B20B3CE4-DCB9-4E4A-AC39-D9DA073FCC61}">
@@ -58528,7 +58578,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -59710,6 +59760,9 @@
       <c r="D87" s="48" t="s">
         <v>62</v>
       </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
@@ -59841,19 +59894,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -59863,6 +59903,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{D0B3E49D-2BC1-6E4D-9735-2E4B121876A2}">
@@ -59879,7 +59932,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -61065,6 +61118,9 @@
       <c r="D87" s="48" t="s">
         <v>62</v>
       </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
@@ -61191,24 +61247,11 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -61218,6 +61261,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{60ADF05C-298C-944D-B683-D8C73BF6553D}">
@@ -61233,10 +61289,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CA3D3A-5644-1847-8D60-65D782BB1346}">
   <dimension ref="A1:BJ51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+      <selection pane="bottomLeft" activeCell="AD54" sqref="AD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -61498,7 +61554,7 @@
       </c>
       <c r="AH2" s="55">
         <f>'James W'!E87</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2" s="39" t="s">
         <v>102</v>
@@ -61519,7 +61575,7 @@
         <f>'James W'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO2" s="39">
+      <c r="AO2" s="55">
         <f>'James W'!E90</f>
         <v>0</v>
       </c>
@@ -61694,16 +61750,16 @@
         <f>'James W'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH3" s="85">
+      <c r="AH3" s="39">
         <f>'James W'!E88</f>
         <v>0</v>
       </c>
       <c r="AJ3" s="39"/>
-      <c r="AK3" s="39" t="str">
+      <c r="AK3" s="56" t="str">
         <f>'James W'!A91</f>
         <v>Spain</v>
       </c>
-      <c r="AL3" s="38">
+      <c r="AL3" s="57">
         <f>'James W'!B91</f>
         <v>3</v>
       </c>
@@ -61715,7 +61771,7 @@
         <f>'James W'!D91</f>
         <v>Portugal</v>
       </c>
-      <c r="AO3" s="39">
+      <c r="AO3" s="56">
         <f>'James W'!E91</f>
         <v>0</v>
       </c>
@@ -61903,7 +61959,7 @@
       </c>
       <c r="AH4" s="55">
         <f>'Mother B'!E87</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ4" s="39" t="s">
         <v>101</v>
@@ -61924,7 +61980,7 @@
         <f>'Mother B'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO4" s="39">
+      <c r="AO4" s="55">
         <f>'Mother B'!E90</f>
         <v>0</v>
       </c>
@@ -62100,7 +62156,7 @@
         <f>'Mother B'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH5" s="85">
+      <c r="AH5" s="39">
         <f>'Mother B'!E88</f>
         <v>0</v>
       </c>
@@ -62113,15 +62169,15 @@
         <f>'Mother B'!B91</f>
         <v>1</v>
       </c>
-      <c r="AM5" s="38">
+      <c r="AM5" s="57">
         <f>'Mother B'!C91</f>
         <v>2</v>
       </c>
-      <c r="AN5" s="39" t="str">
+      <c r="AN5" s="56" t="str">
         <f>'Mother B'!D91</f>
         <v>Switzerland</v>
       </c>
-      <c r="AO5" s="39">
+      <c r="AO5" s="56">
         <f>'Mother B'!E91</f>
         <v>0</v>
       </c>
@@ -62309,7 +62365,7 @@
       </c>
       <c r="AH6" s="55">
         <f>'Derek b'!E87</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6" s="39" t="s">
         <v>100</v>
@@ -62330,7 +62386,7 @@
         <f>'Derek b'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO6" s="39">
+      <c r="AO6" s="55">
         <f>'Derek b'!E90</f>
         <v>0</v>
       </c>
@@ -62506,16 +62562,16 @@
         <f>'Derek b'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH7" s="85">
+      <c r="AH7" s="39">
         <f>'Derek b'!E88</f>
         <v>0</v>
       </c>
       <c r="AJ7" s="39"/>
-      <c r="AK7" s="39" t="str">
+      <c r="AK7" s="56" t="str">
         <f>'Derek b'!A91</f>
         <v>Spain</v>
       </c>
-      <c r="AL7" s="38">
+      <c r="AL7" s="57">
         <f>'Derek b'!B91</f>
         <v>2</v>
       </c>
@@ -62527,8 +62583,7 @@
         <f>'Derek b'!D91</f>
         <v>Portugal</v>
       </c>
-      <c r="AO7" s="39">
-        <f>'Derek b'!E91</f>
+      <c r="AO7" s="56">
         <v>0</v>
       </c>
       <c r="AQ7" s="39" t="s">
@@ -62715,7 +62770,7 @@
       </c>
       <c r="AH8" s="55">
         <f>'Bernie R'!E87</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8" s="39" t="s">
         <v>99</v>
@@ -62736,7 +62791,7 @@
         <f>'Bernie R'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO8" s="39">
+      <c r="AO8" s="55">
         <f>'Bernie R'!E90</f>
         <v>0</v>
       </c>
@@ -62912,16 +62967,16 @@
         <f>'Bernie R'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH9" s="85">
+      <c r="AH9" s="39">
         <f>'Bernie R'!E88</f>
         <v>0</v>
       </c>
       <c r="AJ9" s="39"/>
-      <c r="AK9" s="39" t="str">
+      <c r="AK9" s="56" t="str">
         <f>'Bernie R'!A91</f>
         <v>Spain</v>
       </c>
-      <c r="AL9" s="38">
+      <c r="AL9" s="57">
         <f>'Bernie R'!B91</f>
         <v>2</v>
       </c>
@@ -62933,8 +62988,7 @@
         <f>'Bernie R'!D91</f>
         <v>Portugal</v>
       </c>
-      <c r="AO9" s="39">
-        <f>'Bernie R'!E91</f>
+      <c r="AO9" s="56">
         <v>0</v>
       </c>
       <c r="AQ9" s="39" t="s">
@@ -63121,7 +63175,7 @@
       </c>
       <c r="AH10" s="55">
         <f>'Nathan W'!E75</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10" s="39" t="s">
         <v>98</v>
@@ -63142,7 +63196,7 @@
         <f>'Nathan W'!D78</f>
         <v>England</v>
       </c>
-      <c r="AO10" s="39">
+      <c r="AO10" s="55">
         <f>'Nathan W'!E78</f>
         <v>0</v>
       </c>
@@ -63331,15 +63385,15 @@
         <f>'Nathan W'!B79</f>
         <v>1</v>
       </c>
-      <c r="AM11" s="38">
+      <c r="AM11" s="57">
         <f>'Nathan W'!C79</f>
         <v>2</v>
       </c>
-      <c r="AN11" s="39" t="str">
+      <c r="AN11" s="56" t="str">
         <f>'Nathan W'!D79</f>
         <v>Switzerland</v>
       </c>
-      <c r="AO11" s="39">
+      <c r="AO11" s="56">
         <f>'Nathan W'!E79</f>
         <v>0</v>
       </c>
@@ -63527,7 +63581,7 @@
       </c>
       <c r="AH12" s="55">
         <f>'Martin L'!E87</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12" s="39" t="s">
         <v>94</v>
@@ -63548,7 +63602,7 @@
         <f>'Martin L'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO12" s="39">
+      <c r="AO12" s="55">
         <f>'Martin L'!E90</f>
         <v>0</v>
       </c>
@@ -63723,16 +63777,16 @@
         <f>'Martin L'!D88</f>
         <v>South Korea</v>
       </c>
-      <c r="AH13" s="85">
+      <c r="AH13" s="39">
         <f>'Martin L'!E88</f>
         <v>2</v>
       </c>
       <c r="AJ13" s="39"/>
-      <c r="AK13" s="39" t="str">
+      <c r="AK13" s="56" t="str">
         <f>'Martin L'!A91</f>
         <v>Spain</v>
       </c>
-      <c r="AL13" s="38">
+      <c r="AL13" s="57">
         <f>'Martin L'!B91</f>
         <v>1</v>
       </c>
@@ -63744,8 +63798,7 @@
         <f>'Martin L'!D91</f>
         <v>Portugal</v>
       </c>
-      <c r="AO13" s="39">
-        <f>'Martin L'!E91</f>
+      <c r="AO13" s="56">
         <v>0</v>
       </c>
       <c r="AQ13" s="39" t="s">
@@ -63953,7 +64006,7 @@
         <f>'Marjorie L'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO14" s="39">
+      <c r="AO14" s="55">
         <f>'Marjorie L'!E90</f>
         <v>0</v>
       </c>
@@ -64129,16 +64182,16 @@
         <f>'Marjorie L'!D88</f>
         <v>South Korea</v>
       </c>
-      <c r="AH15" s="85">
+      <c r="AH15" s="39">
         <f>'Marjorie L'!E88</f>
         <v>2</v>
       </c>
       <c r="AJ15" s="39"/>
-      <c r="AK15" s="39" t="str">
+      <c r="AK15" s="56" t="str">
         <f>'Marjorie L'!A91</f>
         <v xml:space="preserve">Spain </v>
       </c>
-      <c r="AL15" s="38">
+      <c r="AL15" s="57">
         <f>'Marjorie L'!B91</f>
         <v>2</v>
       </c>
@@ -64150,7 +64203,7 @@
         <f>'Marjorie L'!D91</f>
         <v>P:ortugal</v>
       </c>
-      <c r="AO15" s="39">
+      <c r="AO15" s="55">
         <f>'Marjorie L'!E91</f>
         <v>0</v>
       </c>
@@ -64338,7 +64391,7 @@
       </c>
       <c r="AH16" s="55">
         <f>'Keith W'!E87</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16" s="39" t="s">
         <v>92</v>
@@ -64359,7 +64412,7 @@
         <f>'Keith W'!D90</f>
         <v>Senegal</v>
       </c>
-      <c r="AO16" s="39">
+      <c r="AO16" s="55">
         <f>'Keith W'!E90</f>
         <v>0</v>
       </c>
@@ -64535,16 +64588,16 @@
         <f>'Keith W'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH17" s="85">
+      <c r="AH17" s="39">
         <f>'Keith W'!E88</f>
         <v>0</v>
       </c>
       <c r="AJ17" s="39"/>
-      <c r="AK17" s="39" t="str">
+      <c r="AK17" s="56" t="str">
         <f>'Keith W'!A91</f>
         <v>Spain</v>
       </c>
-      <c r="AL17" s="38">
+      <c r="AL17" s="57">
         <f>'Keith W'!B91</f>
         <v>1</v>
       </c>
@@ -64556,7 +64609,7 @@
         <f>'Keith W'!D91</f>
         <v>Portugal</v>
       </c>
-      <c r="AO17" s="39">
+      <c r="AO17" s="55">
         <f>'Keith W'!E91</f>
         <v>0</v>
       </c>
@@ -64744,7 +64797,7 @@
       </c>
       <c r="AH18" s="55">
         <f>'Liz W'!E87</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ18" s="39" t="s">
         <v>91</v>
@@ -64765,7 +64818,7 @@
         <f>'Liz W'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO18" s="39">
+      <c r="AO18" s="55">
         <f>'Liz W'!E90</f>
         <v>0</v>
       </c>
@@ -64940,16 +64993,16 @@
         <f>'Liz W'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH19" s="85">
+      <c r="AH19" s="39">
         <f>'Liz W'!E88</f>
         <v>0</v>
       </c>
       <c r="AJ19" s="39"/>
-      <c r="AK19" s="39" t="str">
+      <c r="AK19" s="56" t="str">
         <f>'Liz W'!A91</f>
         <v>Spain</v>
       </c>
-      <c r="AL19" s="38">
+      <c r="AL19" s="57">
         <f>'Liz W'!B91</f>
         <v>1</v>
       </c>
@@ -64961,7 +65014,7 @@
         <f>'Liz W'!D91</f>
         <v>Portugal</v>
       </c>
-      <c r="AO19" s="39">
+      <c r="AO19" s="55">
         <f>'Liz W'!E91</f>
         <v>0</v>
       </c>
@@ -65170,7 +65223,7 @@
         <f>'Alice D'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO20" s="39">
+      <c r="AO20" s="55">
         <f>'Alice D'!E90</f>
         <v>0</v>
       </c>
@@ -65346,16 +65399,16 @@
         <f>'Alice D'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH21" s="85">
+      <c r="AH21" s="39">
         <f>'Alice D'!E88</f>
         <v>0</v>
       </c>
       <c r="AJ21" s="39"/>
-      <c r="AK21" s="39" t="str">
+      <c r="AK21" s="56" t="str">
         <f>'Alice D'!A91</f>
         <v>Spain</v>
       </c>
-      <c r="AL21" s="38">
+      <c r="AL21" s="57">
         <f>'Alice D'!B91</f>
         <v>2</v>
       </c>
@@ -65367,7 +65420,7 @@
         <f>'Alice D'!D91</f>
         <v>Portugal</v>
       </c>
-      <c r="AO21" s="39">
+      <c r="AO21" s="56">
         <f>'Alice D'!E91</f>
         <v>0</v>
       </c>
@@ -65555,7 +65608,7 @@
       </c>
       <c r="AH22" s="55">
         <f>'Rob TH'!E87</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ22" s="39" t="s">
         <v>89</v>
@@ -65576,7 +65629,7 @@
         <f>'Rob TH'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO22" s="39">
+      <c r="AO22" s="55">
         <f>'Rob TH'!E90</f>
         <v>0</v>
       </c>
@@ -65751,16 +65804,16 @@
         <f>'Rob TH'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH23" s="85">
+      <c r="AH23" s="39">
         <f>'Rob TH'!E88</f>
         <v>0</v>
       </c>
       <c r="AJ23" s="39"/>
-      <c r="AK23" s="39" t="str">
+      <c r="AK23" s="56" t="str">
         <f>'Rob TH'!A91</f>
         <v>Spain</v>
       </c>
-      <c r="AL23" s="38">
+      <c r="AL23" s="57">
         <f>'Rob TH'!B91</f>
         <v>2</v>
       </c>
@@ -65772,7 +65825,7 @@
         <f>'Rob TH'!D91</f>
         <v>Portugal</v>
       </c>
-      <c r="AO23" s="39">
+      <c r="AO23" s="56">
         <f>'Rob TH'!E91</f>
         <v>0</v>
       </c>
@@ -65960,7 +66013,7 @@
       </c>
       <c r="AH24" s="55">
         <f>'Evan A'!E87</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ24" s="39" t="s">
         <v>88</v>
@@ -65981,7 +66034,7 @@
         <f>'Evan A'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO24" s="39">
+      <c r="AO24" s="55">
         <f>'Evan A'!E90</f>
         <v>0</v>
       </c>
@@ -66157,7 +66210,7 @@
         <f>'Evan A'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH25" s="85">
+      <c r="AH25" s="39">
         <f>'Evan A'!E88</f>
         <v>2</v>
       </c>
@@ -66178,7 +66231,7 @@
         <f>'Evan A'!D91</f>
         <v>Portugal</v>
       </c>
-      <c r="AO25" s="39">
+      <c r="AO25" s="55">
         <f>'Evan A'!E91</f>
         <v>0</v>
       </c>
@@ -66366,7 +66419,7 @@
       </c>
       <c r="AH26" s="55">
         <f>'Alison S'!E87</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ26" s="39" t="s">
         <v>87</v>
@@ -66387,7 +66440,7 @@
         <f>'Alison S'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO26" s="39">
+      <c r="AO26" s="55">
         <f>'Alison S'!E90</f>
         <v>0</v>
       </c>
@@ -66563,16 +66616,16 @@
         <f>'Alison S'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH27" s="85">
+      <c r="AH27" s="39">
         <f>'Alison S'!E88</f>
         <v>0</v>
       </c>
       <c r="AJ27" s="39"/>
-      <c r="AK27" s="39" t="str">
+      <c r="AK27" s="56" t="str">
         <f>'Alison S'!A91</f>
         <v>Spain</v>
       </c>
-      <c r="AL27" s="38">
+      <c r="AL27" s="57">
         <f>'Alison S'!B91</f>
         <v>1</v>
       </c>
@@ -66584,7 +66637,7 @@
         <f>'Alison S'!D91</f>
         <v>Portugal</v>
       </c>
-      <c r="AO27" s="39">
+      <c r="AO27" s="55">
         <f>'Alison S'!E91</f>
         <v>0</v>
       </c>
@@ -66703,16 +66756,16 @@
       </c>
       <c r="AH28" s="56">
         <f>'Cathy G'!E87</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ28" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="AK28" s="39" t="str">
+      <c r="AK28" s="56" t="str">
         <f>'Cathy G'!A90</f>
         <v>Poland</v>
       </c>
-      <c r="AL28" s="38">
+      <c r="AL28" s="57">
         <f>'Cathy G'!B90</f>
         <v>0</v>
       </c>
@@ -66724,7 +66777,7 @@
         <f>'Cathy G'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO28" s="39">
+      <c r="AO28" s="55">
         <f>'Cathy G'!E90</f>
         <v>0</v>
       </c>
@@ -66831,16 +66884,16 @@
         <f>'Cathy G'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH29" s="85">
+      <c r="AH29" s="39">
         <f>'Cathy G'!E88</f>
         <v>0</v>
       </c>
       <c r="AJ29" s="39"/>
-      <c r="AK29" s="39" t="str">
+      <c r="AK29" s="56" t="str">
         <f>'Cathy G'!A91</f>
         <v>Spain</v>
       </c>
-      <c r="AL29" s="38">
+      <c r="AL29" s="57">
         <f>'Cathy G'!B91</f>
         <v>3</v>
       </c>
@@ -66852,7 +66905,7 @@
         <f>'Cathy G'!D91</f>
         <v>Portugal</v>
       </c>
-      <c r="AO29" s="39">
+      <c r="AO29" s="56">
         <f>'Cathy G'!E91</f>
         <v>0</v>
       </c>
@@ -66971,7 +67024,7 @@
       </c>
       <c r="AH30" s="55">
         <f>'Dave B'!E87</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ30" s="39" t="s">
         <v>27</v>
@@ -66992,7 +67045,7 @@
         <f>'Dave B'!D90</f>
         <v>Senegal</v>
       </c>
-      <c r="AO30" s="39">
+      <c r="AO30" s="55">
         <f>'Dave B'!E90</f>
         <v>0</v>
       </c>
@@ -67098,16 +67151,16 @@
         <f>'Dave B'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH31" s="85">
+      <c r="AH31" s="39">
         <f>'Dave B'!E88</f>
         <v>0</v>
       </c>
       <c r="AJ31" s="39"/>
-      <c r="AK31" s="39" t="str">
+      <c r="AK31" s="56" t="str">
         <f>'Dave B'!A91</f>
         <v>Spain</v>
       </c>
-      <c r="AL31" s="38">
+      <c r="AL31" s="57">
         <f>'Dave B'!B91</f>
         <v>1</v>
       </c>
@@ -67119,7 +67172,7 @@
         <f>'Dave B'!D91</f>
         <v>Portugal</v>
       </c>
-      <c r="AO31" s="39">
+      <c r="AO31" s="55">
         <f>'Dave B'!E91</f>
         <v>0</v>
       </c>
@@ -67238,7 +67291,7 @@
       </c>
       <c r="AH32" s="55">
         <f>'Jacques Chi'!E87</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ32" s="39" t="s">
         <v>26</v>
@@ -67259,7 +67312,7 @@
         <f>'Jacques Chi'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO32" s="39">
+      <c r="AO32" s="55">
         <f>'Jacques Chi'!E90</f>
         <v>0</v>
       </c>
@@ -67366,7 +67419,7 @@
         <f>'Jacques Chi'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH33" s="85">
+      <c r="AH33" s="39">
         <f>'Jacques Chi'!E88</f>
         <v>0</v>
       </c>
@@ -67387,7 +67440,7 @@
         <f>'Jacques Chi'!D91</f>
         <v>Portugal</v>
       </c>
-      <c r="AO33" s="39">
+      <c r="AO33" s="55">
         <f>'Jacques Chi'!E91</f>
         <v>0</v>
       </c>
@@ -67506,7 +67559,7 @@
       </c>
       <c r="AH34" s="55">
         <f>'Robert L'!E87</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ34" s="39" t="s">
         <v>25</v>
@@ -67527,7 +67580,7 @@
         <f>'Robert L'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO34" s="39">
+      <c r="AO34" s="55">
         <f>'Robert L'!E90</f>
         <v>0</v>
       </c>
@@ -67633,16 +67686,16 @@
         <f>'Robert L'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH35" s="85">
+      <c r="AH35" s="39">
         <f>'Robert L'!E88</f>
         <v>0</v>
       </c>
       <c r="AJ35" s="39"/>
-      <c r="AK35" s="39" t="str">
+      <c r="AK35" s="56" t="str">
         <f>'Robert L'!A91</f>
         <v>Spain</v>
       </c>
-      <c r="AL35" s="38">
+      <c r="AL35" s="57">
         <f>'Robert L'!B91</f>
         <v>1</v>
       </c>
@@ -67654,7 +67707,7 @@
         <f>'Robert L'!D91</f>
         <v>Portugal</v>
       </c>
-      <c r="AO35" s="39">
+      <c r="AO35" s="56">
         <f>'Robert L'!E91</f>
         <v>0</v>
       </c>
@@ -67779,23 +67832,23 @@
         <v>24</v>
       </c>
       <c r="AK36" s="39" t="str">
-        <f>'Dawn G'!A81</f>
-        <v>Japan</v>
-      </c>
-      <c r="AL36" s="38">
-        <f>'Dawn G'!B81</f>
-        <v>1</v>
-      </c>
-      <c r="AM36" s="38">
-        <f>'Dawn G'!C81</f>
-        <v>0</v>
+        <f>'Dawn G'!A90</f>
+        <v>France</v>
+      </c>
+      <c r="AL36" s="39">
+        <f>'Dawn G'!B90</f>
+        <v>1</v>
+      </c>
+      <c r="AM36" s="39">
+        <f>'Dawn G'!C90</f>
+        <v>2</v>
       </c>
       <c r="AN36" s="39" t="str">
-        <f>'Dawn G'!D81</f>
-        <v>Croatia</v>
-      </c>
-      <c r="AO36" s="39">
-        <f>'Dawn G'!E81</f>
+        <f>'Dawn G'!D90</f>
+        <v>England</v>
+      </c>
+      <c r="AO36" s="55">
+        <f>'Dawn G'!E90</f>
         <v>0</v>
       </c>
     </row>
@@ -67904,25 +67957,25 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="39"/>
-      <c r="AK37" s="39" t="str">
-        <f>'Dawn G'!A82</f>
-        <v>Brazil</v>
-      </c>
-      <c r="AL37" s="38">
-        <f>'Dawn G'!B82</f>
-        <v>1</v>
-      </c>
-      <c r="AM37" s="38">
-        <f>'Dawn G'!C82</f>
-        <v>0</v>
+      <c r="AK37" s="56" t="str">
+        <f>'Dawn G'!A91</f>
+        <v>Spain</v>
+      </c>
+      <c r="AL37" s="56">
+        <f>'Dawn G'!B91</f>
+        <v>0</v>
+      </c>
+      <c r="AM37" s="39">
+        <f>'Dawn G'!C91</f>
+        <v>1</v>
       </c>
       <c r="AN37" s="39" t="str">
-        <f>'Dawn G'!D82</f>
-        <v>South Korea</v>
-      </c>
-      <c r="AO37" s="39">
-        <f>'Dawn G'!E82</f>
-        <v>1</v>
+        <f>'Dawn G'!D91</f>
+        <v>Portugal</v>
+      </c>
+      <c r="AO37" s="55">
+        <f>'Dawn G'!E91</f>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.2">
@@ -68039,7 +68092,7 @@
       </c>
       <c r="AH38" s="55">
         <f>'John B'!E87</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ38" s="39" t="s">
         <v>23</v>
@@ -68060,7 +68113,7 @@
         <f>'John B'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO38" s="39">
+      <c r="AO38" s="55">
         <f>'John B'!E90</f>
         <v>0</v>
       </c>
@@ -68167,16 +68220,16 @@
         <f>'John B'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH39" s="85">
+      <c r="AH39" s="39">
         <f>'John B'!E88</f>
         <v>0</v>
       </c>
       <c r="AJ39" s="39"/>
-      <c r="AK39" s="39" t="str">
+      <c r="AK39" s="56" t="str">
         <f>'John B'!A91</f>
         <v>Spain</v>
       </c>
-      <c r="AL39" s="38">
+      <c r="AL39" s="57">
         <f>'John B'!B91</f>
         <v>2</v>
       </c>
@@ -68188,7 +68241,7 @@
         <f>'John B'!D91</f>
         <v>Switzerland</v>
       </c>
-      <c r="AO39" s="39">
+      <c r="AO39" s="56">
         <f>'John B'!E91</f>
         <v>0</v>
       </c>
@@ -68307,7 +68360,7 @@
       </c>
       <c r="AH40" s="55">
         <f>'Mandy B'!E87</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ40" s="39" t="s">
         <v>21</v>
@@ -68328,7 +68381,7 @@
         <f>'Mandy B'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO40" s="39">
+      <c r="AO40" s="55">
         <f>'Mandy B'!E90</f>
         <v>0</v>
       </c>
@@ -68435,16 +68488,16 @@
         <f>'Mandy B'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH41" s="85">
+      <c r="AH41" s="39">
         <f>'Mandy B'!E88</f>
         <v>0</v>
       </c>
       <c r="AJ41" s="39"/>
-      <c r="AK41" s="39" t="str">
+      <c r="AK41" s="56" t="str">
         <f>'Mandy B'!A91</f>
         <v>Spain</v>
       </c>
-      <c r="AL41" s="38">
+      <c r="AL41" s="57">
         <f>'Mandy B'!B91</f>
         <v>2</v>
       </c>
@@ -68456,7 +68509,7 @@
         <f>'Mandy B'!D91</f>
         <v>England</v>
       </c>
-      <c r="AO41" s="39">
+      <c r="AO41" s="56">
         <f>'Mandy B'!E91</f>
         <v>0</v>
       </c>
@@ -68575,7 +68628,7 @@
       </c>
       <c r="AH42" s="55">
         <f>'Freddie J'!E87</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ42" s="39" t="s">
         <v>20</v>
@@ -68596,7 +68649,7 @@
         <f>'Freddie J'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO42" s="39">
+      <c r="AO42" s="55">
         <f>'Freddie J'!E90</f>
         <v>0</v>
       </c>
@@ -68703,16 +68756,16 @@
         <f>'Freddie J'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH43" s="85">
+      <c r="AH43" s="39">
         <f>'Freddie J'!E88</f>
         <v>0</v>
       </c>
       <c r="AJ43" s="39"/>
-      <c r="AK43" s="39" t="str">
+      <c r="AK43" s="56" t="str">
         <f>'Freddie J'!A91</f>
         <v>Spain</v>
       </c>
-      <c r="AL43" s="38">
+      <c r="AL43" s="57">
         <f>'Freddie J'!B91</f>
         <v>2</v>
       </c>
@@ -68724,7 +68777,7 @@
         <f>'Freddie J'!D91</f>
         <v>Portugal</v>
       </c>
-      <c r="AO43" s="39">
+      <c r="AO43" s="56">
         <f>'Freddie J'!E91</f>
         <v>0</v>
       </c>
@@ -68843,7 +68896,7 @@
       </c>
       <c r="AH44" s="55">
         <f>'Stuart L'!E87</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ44" s="39" t="s">
         <v>18</v>
@@ -68864,7 +68917,7 @@
         <f>'Stuart L'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO44" s="39">
+      <c r="AO44" s="55">
         <f>'Stuart L'!E90</f>
         <v>0</v>
       </c>
@@ -68971,28 +69024,28 @@
         <f>'Stuart L'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH45" s="85">
+      <c r="AH45" s="39">
         <f>'Stuart L'!E88</f>
         <v>0</v>
       </c>
       <c r="AJ45" s="39"/>
-      <c r="AK45" s="39" t="str">
+      <c r="AK45" s="56" t="str">
         <f>'Stuart L'!A91</f>
         <v>Spain</v>
       </c>
-      <c r="AL45" s="38">
+      <c r="AL45" s="57">
         <f>'Stuart L'!B91</f>
         <v>2</v>
       </c>
-      <c r="AM45" s="38">
+      <c r="AM45" s="57">
         <f>'Stuart L'!C91</f>
         <v>1</v>
       </c>
-      <c r="AN45" s="39" t="str">
+      <c r="AN45" s="56" t="str">
         <f>'Stuart L'!D91</f>
         <v>Switzerland</v>
       </c>
-      <c r="AO45" s="39">
+      <c r="AO45" s="56">
         <f>'Stuart L'!E91</f>
         <v>0</v>
       </c>
@@ -69111,7 +69164,7 @@
       </c>
       <c r="AH46" s="55">
         <f>'Barbara L'!E87</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ46" s="39" t="s">
         <v>19</v>
@@ -69132,7 +69185,7 @@
         <f>'Barbara L'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO46" s="39">
+      <c r="AO46" s="55">
         <f>'Barbara L'!E90</f>
         <v>0</v>
       </c>
@@ -69239,28 +69292,28 @@
         <f>'Barbara L'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH47" s="85">
+      <c r="AH47" s="39">
         <f>'Barbara L'!E88</f>
         <v>0</v>
       </c>
       <c r="AJ47" s="39"/>
-      <c r="AK47" s="39" t="str">
+      <c r="AK47" s="56" t="str">
         <f>'Barbara L'!A91</f>
         <v>Spain</v>
       </c>
-      <c r="AL47" s="38">
+      <c r="AL47" s="57">
         <f>'Barbara L'!B91</f>
         <v>2</v>
       </c>
-      <c r="AM47" s="38">
+      <c r="AM47" s="57">
         <f>'Barbara L'!C91</f>
         <v>1</v>
       </c>
-      <c r="AN47" s="39" t="str">
+      <c r="AN47" s="56" t="str">
         <f>'Barbara L'!D91</f>
         <v>Switzerland</v>
       </c>
-      <c r="AO47" s="39">
+      <c r="AO47" s="56">
         <f>'Barbara L'!E91</f>
         <v>0</v>
       </c>
@@ -69379,7 +69432,7 @@
       </c>
       <c r="AH48" s="55">
         <f>'Andy B'!E87</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ48" s="39" t="s">
         <v>86</v>
@@ -69400,7 +69453,7 @@
         <f>'Andy B'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO48" s="39">
+      <c r="AO48" s="55">
         <f>'Andy B'!E90</f>
         <v>0</v>
       </c>
@@ -69507,16 +69560,16 @@
         <f>'Andy B'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH49" s="85">
+      <c r="AH49" s="39">
         <f>'Andy B'!E88</f>
         <v>0</v>
       </c>
       <c r="AJ49" s="39"/>
-      <c r="AK49" s="39" t="str">
+      <c r="AK49" s="56" t="str">
         <f>'Andy B'!A91</f>
         <v>Spain</v>
       </c>
-      <c r="AL49" s="38">
+      <c r="AL49" s="57">
         <f>'Andy B'!B91</f>
         <v>1</v>
       </c>
@@ -69528,7 +69581,7 @@
         <f>'Andy B'!D91</f>
         <v>Portugal</v>
       </c>
-      <c r="AO49" s="39">
+      <c r="AO49" s="55">
         <f>'Andy B'!E91</f>
         <v>0</v>
       </c>
@@ -69647,7 +69700,7 @@
       </c>
       <c r="AH50" s="55">
         <f>'Keith G'!E87</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ50" s="39" t="s">
         <v>17</v>
@@ -69668,7 +69721,7 @@
         <f>'Keith G'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO50" s="39">
+      <c r="AO50" s="55">
         <f>'Keith G'!E90</f>
         <v>0</v>
       </c>
@@ -69775,28 +69828,28 @@
         <f>'Keith G'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH51" s="85">
+      <c r="AH51" s="39">
         <f>'Keith G'!E88</f>
         <v>0</v>
       </c>
       <c r="AJ51" s="39"/>
-      <c r="AK51" s="39" t="str">
+      <c r="AK51" s="56" t="str">
         <f>'Keith G'!A91</f>
         <v>Spain</v>
       </c>
-      <c r="AL51" s="38">
+      <c r="AL51" s="57">
         <f>'Keith G'!B91</f>
         <v>1</v>
       </c>
-      <c r="AM51" s="38">
+      <c r="AM51" s="57">
         <f>'Keith G'!C91</f>
         <v>3</v>
       </c>
-      <c r="AN51" s="39" t="str">
+      <c r="AN51" s="56" t="str">
         <f>'Keith G'!D91</f>
         <v>Switzerland</v>
       </c>
-      <c r="AO51" s="39">
+      <c r="AO51" s="56">
         <f>'Keith G'!E91</f>
         <v>0</v>
       </c>
@@ -69823,7 +69876,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -71009,6 +71062,9 @@
       <c r="D87" s="48" t="s">
         <v>62</v>
       </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
@@ -71139,24 +71195,11 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -71166,6 +71209,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C98" xr:uid="{F68D3FFC-EF79-CC40-8F53-8BF21A5E1341}">
@@ -71182,7 +71238,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -72371,6 +72427,9 @@
       <c r="D87" s="48" t="s">
         <v>62</v>
       </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
@@ -72497,24 +72556,11 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -72524,6 +72570,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C97" xr:uid="{11A7353F-6A05-F048-B4B5-2330C623E382}">
@@ -73736,19 +73795,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -73758,6 +73804,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{9D4EDCA2-2FFE-E64B-A34E-466DD99F6343}">
@@ -74949,6 +75008,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A86:D86"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
@@ -74962,15 +75030,6 @@
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{55CBA0EA-03DF-D446-B217-F70483C49D17}">
@@ -76184,19 +76243,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -76206,6 +76252,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66 B1:C65 B67:C97" xr:uid="{156C7248-1706-4E17-9BB6-079B78DEF479}">
@@ -77397,6 +77456,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A86:D86"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
@@ -77410,15 +77478,6 @@
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{977686BA-C9F0-5F4E-89D6-CE94966C1FE0}">
@@ -78607,19 +78666,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -78629,6 +78675,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{BE5067DB-A56D-FF40-9C9A-839412CFE3CC}">
@@ -79195,18 +79254,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B58:E58"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B58:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -79443,7 +79502,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -80632,6 +80691,9 @@
       <c r="D87" s="48" t="s">
         <v>62</v>
       </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
@@ -80758,24 +80820,11 @@
       </c>
       <c r="E99">
         <f>SUM(E1:E97)</f>
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -80785,6 +80834,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{8A242A5A-737B-3248-9203-1E18FA7E8CAD}">
@@ -80801,7 +80863,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A71" zoomScale="106" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -81987,6 +82049,9 @@
       <c r="D87" s="48" t="s">
         <v>62</v>
       </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
@@ -82113,24 +82178,11 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -82140,6 +82192,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{79F4B324-FC19-7044-8ECD-3029BC735257}">
@@ -82156,7 +82221,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -83342,6 +83407,9 @@
       <c r="D87" s="48" t="s">
         <v>62</v>
       </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
@@ -83468,24 +83536,11 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -83495,6 +83550,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{F1AA318D-CFEE-E945-8C0E-235E3838BA82}">
@@ -83511,7 +83579,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -84697,6 +84765,9 @@
       <c r="D87" s="48" t="s">
         <v>62</v>
       </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="48" t="s">
@@ -84823,24 +84894,11 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -84850,6 +84908,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{446CEEDB-BF43-854D-95D2-80CA6EE53C2C}">

--- a/resources/Forms/Excel/Big Sheet.xlsx
+++ b/resources/Forms/Excel/Big Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie/FootieTake2/resources/Forms/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04025D4B-AEAD-8D4B-8622-BC57FDE3CF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2C30D7-42FF-7742-81B6-E3783DEC8050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" tabRatio="800" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
   </bookViews>
@@ -831,7 +831,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1029,6 +1029,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1100,17 +1101,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>618066</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>169022</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>719666</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>32124</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC3071F-0702-78F1-D76C-69FCDCF222CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E797E4EF-B198-E45B-233D-9BC5602BB880}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1127,7 +1128,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2556932" y="0"/>
-          <a:ext cx="5647267" cy="21301822"/>
+          <a:ext cx="4910667" cy="18523324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1143,23 +1144,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>203199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>142894</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>62298</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3C23F7-62F0-9EC7-ADC7-CA9771F23A18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C38ABA6F-4780-A2FB-3D6C-41D929CCED28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1175,8 +1176,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17551400" y="10769600"/>
-          <a:ext cx="9334500" cy="28997294"/>
+          <a:off x="0" y="11988799"/>
+          <a:ext cx="8458200" cy="26275099"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1487,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88DB2AD-0B7A-2B40-B11D-A4AE4E9DB3F2}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1612,123 +1613,123 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f>'Derek b'!D99</f>
-        <v>Derek B</v>
-      </c>
-      <c r="C9" s="2">
-        <f>'Derek b'!E99</f>
-        <v>52</v>
+        <f>'Jacques Chi'!D99</f>
+        <v>Jacques Chi</v>
+      </c>
+      <c r="C9" s="15">
+        <f>'Jacques Chi'!E99</f>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <f>RANK(C10,($C$2:$C$32),0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="str">
-        <f>'James W'!D99</f>
-        <v>James W</v>
+        <f>'Derek b'!D99</f>
+        <v>Derek B</v>
       </c>
       <c r="C10" s="2">
-        <f>'James W'!E99</f>
+        <f>'Derek b'!E99</f>
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <f>RANK(C11,($C$2:$C$32),0)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f>'Freddie J'!D99</f>
-        <v>Freddie J</v>
-      </c>
-      <c r="C11" s="15">
-        <f>'Freddie J'!E99</f>
-        <v>51</v>
+        <f>'James W'!D99</f>
+        <v>James W</v>
+      </c>
+      <c r="C11" s="2">
+        <f>'James W'!E99</f>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <f>RANK(C12,($C$2:$C$32),0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="str">
-        <f>'Bernie R'!D99</f>
-        <v>Bernie R</v>
-      </c>
-      <c r="C12" s="2">
-        <f>'Bernie R'!E99</f>
+        <f>'Freddie J'!D99</f>
+        <v>Freddie J</v>
+      </c>
+      <c r="C12" s="15">
+        <f>'Freddie J'!E99</f>
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <f>RANK(C13,($C$2:$C$32),0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="str">
-        <f>'Robert L'!D99</f>
-        <v>Robert L</v>
-      </c>
-      <c r="C13" s="15">
-        <f>'Robert L'!E99</f>
+        <f>'Bernie R'!D99</f>
+        <v>Bernie R</v>
+      </c>
+      <c r="C13" s="2">
+        <f>'Bernie R'!E99</f>
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <f>RANK(C14,($C$2:$C$32),0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="str">
-        <f>'Liz W'!D99</f>
-        <v>Liz W</v>
+        <f>'Robert L'!D99</f>
+        <v>Robert L</v>
       </c>
       <c r="C14" s="15">
-        <f>'Liz W'!E99</f>
+        <f>'Robert L'!E99</f>
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <f>RANK(C15,($C$2:$C$32),0)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2" t="str">
-        <f>'Alice D'!D99</f>
-        <v>Alice D</v>
+        <f>'Liz W'!D99</f>
+        <v>Liz W</v>
       </c>
       <c r="C15" s="15">
-        <f>'Alice D'!E99</f>
-        <v>50</v>
+        <f>'Liz W'!E99</f>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <f>RANK(C16,($C$2:$C$32),0)</f>
-        <v>14</v>
-      </c>
-      <c r="B16" s="13" t="str">
-        <f>'Barbara L'!D99</f>
-        <v>Barbara L</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>'Alice D'!D99</f>
+        <v>Alice D</v>
       </c>
       <c r="C16" s="15">
-        <f>'Barbara L'!E99</f>
+        <f>'Alice D'!E99</f>
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <f>RANK(C17,($C$2:$C$32),0)</f>
-        <v>14</v>
-      </c>
-      <c r="B17" s="2" t="str">
-        <f>'Jacques Chi'!D99</f>
-        <v>Jacques Chi</v>
+        <v>15</v>
+      </c>
+      <c r="B17" s="13" t="str">
+        <f>'Barbara L'!D99</f>
+        <v>Barbara L</v>
       </c>
       <c r="C17" s="15">
-        <f>'Jacques Chi'!E99</f>
+        <f>'Barbara L'!E99</f>
         <v>50</v>
       </c>
     </row>
@@ -1957,7 +1958,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A70" zoomScale="108" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3198,6 +3199,9 @@
       </c>
       <c r="D91" s="48" t="s">
         <v>56</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -3315,7 +3319,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4555,7 +4559,10 @@
         <v>1</v>
       </c>
       <c r="D91" s="48" t="s">
-        <v>32</v>
+        <v>56</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -4673,7 +4680,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5914,6 +5921,9 @@
       </c>
       <c r="D91" s="48" t="s">
         <v>52</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -6031,7 +6041,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7272,6 +7282,9 @@
       </c>
       <c r="D91" s="48" t="s">
         <v>56</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -7395,7 +7408,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8636,6 +8649,9 @@
       </c>
       <c r="D91" s="48" t="s">
         <v>56</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -8753,7 +8769,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9995,6 +10011,9 @@
       <c r="D91" s="48" t="s">
         <v>56</v>
       </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="65" t="s">
@@ -10066,7 +10085,7 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -10109,7 +10128,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11350,6 +11369,9 @@
       </c>
       <c r="D91" s="48" t="s">
         <v>56</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -11467,7 +11489,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12684,6 +12706,9 @@
       </c>
       <c r="D91" s="48" t="s">
         <v>56</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -12801,7 +12826,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14042,6 +14067,9 @@
       </c>
       <c r="D91" s="48" t="s">
         <v>56</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -14159,7 +14187,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15400,6 +15428,9 @@
       </c>
       <c r="D91" s="48" t="s">
         <v>52</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -15516,8 +15547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536C4378-6AA3-D34E-B8EC-6B4414E01E1A}">
   <dimension ref="A1:CL125"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="BN1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BS1" sqref="BS1"/>
       <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
     </sheetView>
@@ -49122,7 +49153,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -50366,6 +50397,9 @@
       </c>
       <c r="D91" s="48" t="s">
         <v>56</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -50477,7 +50511,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -51718,6 +51752,9 @@
       </c>
       <c r="D91" s="48" t="s">
         <v>56</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -51835,7 +51872,7 @@
   <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView topLeftCell="A66" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -53004,6 +53041,9 @@
       </c>
       <c r="D79" s="48" t="s">
         <v>52</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -53121,7 +53161,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -54362,6 +54402,9 @@
       </c>
       <c r="D91" s="48" t="s">
         <v>56</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -54494,7 +54537,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -55735,6 +55778,9 @@
       </c>
       <c r="D91" s="48" t="s">
         <v>119</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -55852,7 +55898,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -57093,6 +57139,9 @@
       </c>
       <c r="D91" s="48" t="s">
         <v>56</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -57220,7 +57269,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -58461,6 +58510,9 @@
       </c>
       <c r="D91" s="48" t="s">
         <v>56</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -58578,7 +58630,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -59815,6 +59867,9 @@
       </c>
       <c r="D91" s="48" t="s">
         <v>56</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -59932,7 +59987,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -61173,6 +61228,9 @@
       </c>
       <c r="D91" s="48" t="s">
         <v>56</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -61289,10 +61347,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CA3D3A-5644-1847-8D60-65D782BB1346}">
   <dimension ref="A1:BJ51"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="AD54" sqref="AD54"/>
+      <selection pane="bottomLeft" activeCell="BD15" sqref="BD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -61332,14 +61390,14 @@
     <col min="41" max="41" width="5" customWidth="1"/>
     <col min="43" max="43" width="11.33203125" customWidth="1"/>
     <col min="44" max="44" width="12" customWidth="1"/>
-    <col min="45" max="45" width="4" customWidth="1"/>
-    <col min="46" max="46" width="3.6640625" customWidth="1"/>
+    <col min="45" max="45" width="2.6640625" style="4" customWidth="1"/>
+    <col min="46" max="46" width="2.83203125" style="4" customWidth="1"/>
     <col min="47" max="47" width="8.1640625" customWidth="1"/>
-    <col min="48" max="48" width="5.6640625" customWidth="1"/>
+    <col min="48" max="48" width="5.1640625" customWidth="1"/>
     <col min="50" max="50" width="11.1640625" customWidth="1"/>
-    <col min="51" max="51" width="10" customWidth="1"/>
-    <col min="52" max="52" width="4.33203125" customWidth="1"/>
-    <col min="53" max="53" width="3.83203125" customWidth="1"/>
+    <col min="51" max="51" width="9" customWidth="1"/>
+    <col min="52" max="52" width="3.1640625" style="4" customWidth="1"/>
+    <col min="53" max="53" width="3.33203125" style="4" customWidth="1"/>
     <col min="55" max="55" width="5.33203125" customWidth="1"/>
     <col min="58" max="58" width="12.1640625" customWidth="1"/>
     <col min="59" max="59" width="3.6640625" style="4" customWidth="1"/>
@@ -61586,11 +61644,11 @@
         <f>'James W'!A93</f>
         <v>Argentina</v>
       </c>
-      <c r="AS2" s="39">
+      <c r="AS2" s="38">
         <f>'James W'!B93</f>
         <v>0</v>
       </c>
-      <c r="AT2" s="39">
+      <c r="AT2" s="38">
         <f>'James W'!C93</f>
         <v>2</v>
       </c>
@@ -61609,11 +61667,11 @@
         <f>'James W'!A95</f>
         <v>France</v>
       </c>
-      <c r="AZ2" s="39">
+      <c r="AZ2" s="38">
         <f>'James W'!B95</f>
         <v>3</v>
       </c>
-      <c r="BA2" s="39">
+      <c r="BA2" s="38">
         <f>'James W'!C95</f>
         <v>2</v>
       </c>
@@ -61782,11 +61840,11 @@
         <f>'Mother B'!A93</f>
         <v>Argentina</v>
       </c>
-      <c r="AS3" s="39">
+      <c r="AS3" s="38">
         <f>'Mother B'!B93</f>
         <v>2</v>
       </c>
-      <c r="AT3" s="39">
+      <c r="AT3" s="38">
         <f>'Mother B'!C93</f>
         <v>4</v>
       </c>
@@ -61805,11 +61863,11 @@
         <f>'Mother B'!A95</f>
         <v>England</v>
       </c>
-      <c r="AZ3" s="39">
+      <c r="AZ3" s="38">
         <f>'Mother B'!B95</f>
         <v>3</v>
       </c>
-      <c r="BA3" s="39">
+      <c r="BA3" s="38">
         <f>'Mother B'!C95</f>
         <v>2</v>
       </c>
@@ -61991,11 +62049,11 @@
         <f>'Derek b'!A93</f>
         <v>Argentina</v>
       </c>
-      <c r="AS4" s="39">
+      <c r="AS4" s="38">
         <f>'Derek b'!B93</f>
         <v>1</v>
       </c>
-      <c r="AT4" s="39">
+      <c r="AT4" s="38">
         <f>'Derek b'!C93</f>
         <v>2</v>
       </c>
@@ -62014,11 +62072,11 @@
         <f>'Derek b'!A95</f>
         <v>England</v>
       </c>
-      <c r="AZ4" s="39">
+      <c r="AZ4" s="38">
         <f>'Derek b'!B95</f>
         <v>2</v>
       </c>
-      <c r="BA4" s="39">
+      <c r="BA4" s="38">
         <f>'Derek b'!C95</f>
         <v>1</v>
       </c>
@@ -62188,11 +62246,11 @@
         <f>'Bernie R'!A93</f>
         <v>Argentina</v>
       </c>
-      <c r="AS5" s="39">
+      <c r="AS5" s="38">
         <f>'Bernie R'!B93</f>
         <v>0</v>
       </c>
-      <c r="AT5" s="39">
+      <c r="AT5" s="38">
         <f>'Bernie R'!C93</f>
         <v>2</v>
       </c>
@@ -62211,11 +62269,11 @@
         <f>'Bernie R'!A95</f>
         <v>England</v>
       </c>
-      <c r="AZ5" s="39">
+      <c r="AZ5" s="38">
         <f>'Bernie R'!B95</f>
         <v>1</v>
       </c>
-      <c r="BA5" s="39">
+      <c r="BA5" s="38">
         <f>'Bernie R'!C95</f>
         <v>0</v>
       </c>
@@ -62397,11 +62455,11 @@
         <f>'Nathan W'!A81</f>
         <v>Argentina</v>
       </c>
-      <c r="AS6" s="39">
+      <c r="AS6" s="38">
         <f>'Nathan W'!B81</f>
         <v>2</v>
       </c>
-      <c r="AT6" s="39">
+      <c r="AT6" s="38">
         <f>'Nathan W'!C81</f>
         <v>1</v>
       </c>
@@ -62420,11 +62478,11 @@
         <f>'Nathan W'!A83</f>
         <v>England</v>
       </c>
-      <c r="AZ6" s="39">
+      <c r="AZ6" s="38">
         <f>'Nathan W'!B83</f>
         <v>3</v>
       </c>
-      <c r="BA6" s="39">
+      <c r="BA6" s="38">
         <f>'Nathan W'!C83</f>
         <v>2</v>
       </c>
@@ -62593,11 +62651,11 @@
         <f>'Martin L'!A93</f>
         <v>Argentina</v>
       </c>
-      <c r="AS7" s="39">
+      <c r="AS7" s="38">
         <f>'Martin L'!B93</f>
         <v>1</v>
       </c>
-      <c r="AT7" s="39">
+      <c r="AT7" s="38">
         <f>'Martin L'!C93</f>
         <v>2</v>
       </c>
@@ -62616,11 +62674,11 @@
         <f>'Martin L'!A95</f>
         <v>England</v>
       </c>
-      <c r="AZ7" s="39">
+      <c r="AZ7" s="38">
         <f>'Martin L'!B95</f>
         <v>3</v>
       </c>
-      <c r="BA7" s="39">
+      <c r="BA7" s="38">
         <f>'Martin L'!C95</f>
         <v>2</v>
       </c>
@@ -62802,11 +62860,11 @@
         <f>'Marjorie L'!A93</f>
         <v>Netherlands</v>
       </c>
-      <c r="AS8" s="39">
+      <c r="AS8" s="38">
         <f>'Marjorie L'!B93</f>
         <v>2</v>
       </c>
-      <c r="AT8" s="39">
+      <c r="AT8" s="38">
         <f>'Marjorie L'!C93</f>
         <v>1</v>
       </c>
@@ -62825,11 +62883,11 @@
         <f>'Marjorie L'!A95</f>
         <v>England</v>
       </c>
-      <c r="AZ8" s="39">
+      <c r="AZ8" s="38">
         <f>'Marjorie L'!B95</f>
         <v>3</v>
       </c>
-      <c r="BA8" s="39">
+      <c r="BA8" s="38">
         <f>'Marjorie L'!C95</f>
         <v>2</v>
       </c>
@@ -62998,11 +63056,11 @@
         <f>'Keith W'!A93</f>
         <v>Argentina</v>
       </c>
-      <c r="AS9" s="39">
+      <c r="AS9" s="38">
         <f>'Keith W'!B93</f>
         <v>0</v>
       </c>
-      <c r="AT9" s="39">
+      <c r="AT9" s="38">
         <f>'Keith W'!C93</f>
         <v>2</v>
       </c>
@@ -63021,11 +63079,11 @@
         <f>'Keith W'!A95</f>
         <v>France</v>
       </c>
-      <c r="AZ9" s="39">
+      <c r="AZ9" s="38">
         <f>'Keith W'!B95</f>
         <v>3</v>
       </c>
-      <c r="BA9" s="39">
+      <c r="BA9" s="38">
         <f>'Keith W'!C95</f>
         <v>1</v>
       </c>
@@ -63207,11 +63265,11 @@
         <f>'Liz W'!A93</f>
         <v>Argentina</v>
       </c>
-      <c r="AS10" s="39">
+      <c r="AS10" s="38">
         <f>'Liz W'!B93</f>
         <v>1</v>
       </c>
-      <c r="AT10" s="39">
+      <c r="AT10" s="38">
         <f>'Liz W'!C93</f>
         <v>2</v>
       </c>
@@ -63230,11 +63288,11 @@
         <f>'Liz W'!A95</f>
         <v>France</v>
       </c>
-      <c r="AZ10" s="39">
+      <c r="AZ10" s="38">
         <f>'Liz W'!B95</f>
         <v>2</v>
       </c>
-      <c r="BA10" s="39">
+      <c r="BA10" s="38">
         <f>'Liz W'!C95</f>
         <v>1</v>
       </c>
@@ -63404,11 +63462,11 @@
         <f>'Alice D'!A93</f>
         <v>Netherlands</v>
       </c>
-      <c r="AS11" s="39">
+      <c r="AS11" s="38">
         <f>'Alice D'!B93</f>
         <v>0</v>
       </c>
-      <c r="AT11" s="39">
+      <c r="AT11" s="38">
         <f>'Alice D'!C93</f>
         <v>2</v>
       </c>
@@ -63427,11 +63485,11 @@
         <f>'Alice D'!A95</f>
         <v>France</v>
       </c>
-      <c r="AZ11" s="39">
+      <c r="AZ11" s="38">
         <f>'Alice D'!B95</f>
         <v>0</v>
       </c>
-      <c r="BA11" s="39">
+      <c r="BA11" s="38">
         <f>'Alice D'!C95</f>
         <v>1</v>
       </c>
@@ -63613,11 +63671,11 @@
         <f>'Rob TH'!A93</f>
         <v>Argentina</v>
       </c>
-      <c r="AS12" s="39">
+      <c r="AS12" s="38">
         <f>'Rob TH'!B93</f>
         <v>0</v>
       </c>
-      <c r="AT12" s="39">
+      <c r="AT12" s="38">
         <f>'Rob TH'!C93</f>
         <v>2</v>
       </c>
@@ -63635,11 +63693,11 @@
       <c r="AY12" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="AZ12" s="39">
+      <c r="AZ12" s="38">
         <f>'Rob TH'!B95</f>
         <v>2</v>
       </c>
-      <c r="BA12" s="39">
+      <c r="BA12" s="38">
         <f>'Rob TH'!C95</f>
         <v>1</v>
       </c>
@@ -63808,11 +63866,11 @@
         <f>'Evan A'!A93</f>
         <v>Argentina</v>
       </c>
-      <c r="AS13" s="39">
+      <c r="AS13" s="38">
         <f>'Evan A'!B93</f>
         <v>1</v>
       </c>
-      <c r="AT13" s="39">
+      <c r="AT13" s="38">
         <f>'Evan A'!C93</f>
         <v>2</v>
       </c>
@@ -63831,11 +63889,11 @@
         <f>'Evan A'!A95</f>
         <v>France</v>
       </c>
-      <c r="AZ13" s="39">
+      <c r="AZ13" s="38">
         <f>'Evan A'!B95</f>
         <v>1</v>
       </c>
-      <c r="BA13" s="39">
+      <c r="BA13" s="38">
         <f>'Evan A'!C95</f>
         <v>0</v>
       </c>
@@ -64017,11 +64075,11 @@
         <f>'Alison S'!A93</f>
         <v>Argentina</v>
       </c>
-      <c r="AS14" s="39">
+      <c r="AS14" s="38">
         <f>'Alison S'!B93</f>
         <v>1</v>
       </c>
-      <c r="AT14" s="39">
+      <c r="AT14" s="38">
         <f>'Alison S'!C93</f>
         <v>2</v>
       </c>
@@ -64040,11 +64098,11 @@
         <f>'Alison S'!A95</f>
         <v>France</v>
       </c>
-      <c r="AZ14" s="39">
+      <c r="AZ14" s="38">
         <f>'Alison S'!B95</f>
         <v>1</v>
       </c>
-      <c r="BA14" s="39">
+      <c r="BA14" s="38">
         <f>'Alison S'!C95</f>
         <v>0</v>
       </c>
@@ -64203,7 +64261,7 @@
         <f>'Marjorie L'!D91</f>
         <v>P:ortugal</v>
       </c>
-      <c r="AO15" s="55">
+      <c r="AO15" s="85">
         <f>'Marjorie L'!E91</f>
         <v>0</v>
       </c>
@@ -64214,11 +64272,11 @@
         <f>'Cathy G'!A93</f>
         <v>Australia</v>
       </c>
-      <c r="AS15" s="39">
+      <c r="AS15" s="38">
         <f>'Cathy G'!B93</f>
         <v>2</v>
       </c>
-      <c r="AT15" s="39">
+      <c r="AT15" s="38">
         <f>'Cathy G'!C93</f>
         <v>1</v>
       </c>
@@ -64237,11 +64295,11 @@
         <f>'Cathy G'!A95</f>
         <v>England</v>
       </c>
-      <c r="AZ15" s="39">
+      <c r="AZ15" s="38">
         <f>'Cathy G'!B95</f>
         <v>2</v>
       </c>
-      <c r="BA15" s="39">
+      <c r="BA15" s="38">
         <f>'Cathy G'!C95</f>
         <v>1</v>
       </c>
@@ -64423,11 +64481,11 @@
         <f>'Dave B'!A93</f>
         <v>Argentina</v>
       </c>
-      <c r="AS16" s="39">
+      <c r="AS16" s="38">
         <f>'Dave B'!B93</f>
         <v>2</v>
       </c>
-      <c r="AT16" s="39">
+      <c r="AT16" s="38">
         <f>'Dave B'!C93</f>
         <v>3</v>
       </c>
@@ -64446,11 +64504,11 @@
         <f>'Dave B'!A95</f>
         <v>Senegal</v>
       </c>
-      <c r="AZ16" s="39">
+      <c r="AZ16" s="38">
         <f>'Dave B'!B95</f>
         <v>0</v>
       </c>
-      <c r="BA16" s="39">
+      <c r="BA16" s="38">
         <f>'Dave B'!C95</f>
         <v>1</v>
       </c>
@@ -64609,7 +64667,7 @@
         <f>'Keith W'!D91</f>
         <v>Portugal</v>
       </c>
-      <c r="AO17" s="55">
+      <c r="AO17" s="85">
         <f>'Keith W'!E91</f>
         <v>0</v>
       </c>
@@ -64620,11 +64678,11 @@
         <f>'Jacques Chi'!A93</f>
         <v>Argentina</v>
       </c>
-      <c r="AS17" s="39">
+      <c r="AS17" s="38">
         <f>'Jacques Chi'!B93</f>
         <v>1</v>
       </c>
-      <c r="AT17" s="39">
+      <c r="AT17" s="38">
         <f>'Jacques Chi'!C93</f>
         <v>2</v>
       </c>
@@ -64643,11 +64701,11 @@
         <f>'Jacques Chi'!A95</f>
         <v>England</v>
       </c>
-      <c r="AZ17" s="39">
+      <c r="AZ17" s="38">
         <f>'Jacques Chi'!B95</f>
         <v>1</v>
       </c>
-      <c r="BA17" s="39">
+      <c r="BA17" s="38">
         <f>'Jacques Chi'!C95</f>
         <v>0</v>
       </c>
@@ -64829,11 +64887,11 @@
         <f>'Robert L'!A93</f>
         <v>Argentina</v>
       </c>
-      <c r="AS18" s="39">
+      <c r="AS18" s="38">
         <f>'Robert L'!B93</f>
         <v>2</v>
       </c>
-      <c r="AT18" s="39">
+      <c r="AT18" s="38">
         <f>'Robert L'!C93</f>
         <v>1</v>
       </c>
@@ -64852,11 +64910,11 @@
         <f>'Robert L'!A95</f>
         <v>England</v>
       </c>
-      <c r="AZ18" s="39">
+      <c r="AZ18" s="38">
         <f>'Robert L'!B95</f>
         <v>1</v>
       </c>
-      <c r="BA18" s="39">
+      <c r="BA18" s="38">
         <f>'Robert L'!C95</f>
         <v>0</v>
       </c>
@@ -65014,7 +65072,7 @@
         <f>'Liz W'!D91</f>
         <v>Portugal</v>
       </c>
-      <c r="AO19" s="55">
+      <c r="AO19" s="85">
         <f>'Liz W'!E91</f>
         <v>0</v>
       </c>
@@ -65025,11 +65083,11 @@
         <f>'Dawn G'!A78</f>
         <v>France</v>
       </c>
-      <c r="AS19" s="39">
+      <c r="AS19" s="38">
         <f>'Dawn G'!B78</f>
         <v>1</v>
       </c>
-      <c r="AT19" s="39">
+      <c r="AT19" s="38">
         <f>'Dawn G'!C78</f>
         <v>0</v>
       </c>
@@ -65048,11 +65106,11 @@
         <f>'Dawn G'!A95</f>
         <v>England</v>
       </c>
-      <c r="AZ19" s="39">
+      <c r="AZ19" s="38">
         <f>'Dawn G'!B95</f>
         <v>1</v>
       </c>
-      <c r="BA19" s="39">
+      <c r="BA19" s="38">
         <f>'Dawn G'!C95</f>
         <v>0</v>
       </c>
@@ -65234,11 +65292,11 @@
         <f>'Dawn G'!A93</f>
         <v>United States</v>
       </c>
-      <c r="AS20" s="39">
+      <c r="AS20" s="38">
         <f>'Dawn G'!B93</f>
         <v>1</v>
       </c>
-      <c r="AT20" s="39">
+      <c r="AT20" s="38">
         <f>'Dawn G'!C93</f>
         <v>0</v>
       </c>
@@ -65257,11 +65315,11 @@
         <f>'John B'!A95</f>
         <v>England</v>
       </c>
-      <c r="AZ20" s="39">
+      <c r="AZ20" s="38">
         <f>'John B'!B95</f>
         <v>3</v>
       </c>
-      <c r="BA20" s="39">
+      <c r="BA20" s="38">
         <f>'John B'!C95</f>
         <v>2</v>
       </c>
@@ -65431,11 +65489,11 @@
         <f>'Mandy B'!A93</f>
         <v>Argentina</v>
       </c>
-      <c r="AS21" s="39">
+      <c r="AS21" s="38">
         <f>'Mandy B'!B93</f>
         <v>2</v>
       </c>
-      <c r="AT21" s="39">
+      <c r="AT21" s="38">
         <f>'Mandy B'!C93</f>
         <v>3</v>
       </c>
@@ -65454,11 +65512,11 @@
         <f>'Mandy B'!A95</f>
         <v>France</v>
       </c>
-      <c r="AZ21" s="39">
+      <c r="AZ21" s="38">
         <f>'Mandy B'!B95</f>
         <v>4</v>
       </c>
-      <c r="BA21" s="39">
+      <c r="BA21" s="38">
         <f>'Mandy B'!C95</f>
         <v>1</v>
       </c>
@@ -65640,11 +65698,11 @@
         <f>'Freddie J'!A93</f>
         <v>Argentina</v>
       </c>
-      <c r="AS22" s="39">
+      <c r="AS22" s="38">
         <f>'Freddie J'!B93</f>
         <v>1</v>
       </c>
-      <c r="AT22" s="39">
+      <c r="AT22" s="38">
         <f>'Freddie J'!C93</f>
         <v>2</v>
       </c>
@@ -65663,11 +65721,11 @@
         <f>'Freddie J'!A93</f>
         <v>Argentina</v>
       </c>
-      <c r="AZ22" s="39">
+      <c r="AZ22" s="38">
         <f>'Freddie J'!B93</f>
         <v>1</v>
       </c>
-      <c r="BA22" s="39">
+      <c r="BA22" s="38">
         <f>'Freddie J'!C93</f>
         <v>2</v>
       </c>
@@ -65836,11 +65894,11 @@
         <f>'Stuart L'!A93</f>
         <v>Argentina</v>
       </c>
-      <c r="AS23" s="39">
+      <c r="AS23" s="38">
         <f>'Stuart L'!B93</f>
         <v>0</v>
       </c>
-      <c r="AT23" s="39">
+      <c r="AT23" s="38">
         <f>'Stuart L'!C93</f>
         <v>1</v>
       </c>
@@ -65859,11 +65917,11 @@
         <f>'Stuart L'!A95</f>
         <v>France</v>
       </c>
-      <c r="AZ23" s="39">
+      <c r="AZ23" s="38">
         <f>'Stuart L'!B95</f>
         <v>2</v>
       </c>
-      <c r="BA23" s="39">
+      <c r="BA23" s="38">
         <f>'Stuart L'!C95</f>
         <v>1</v>
       </c>
@@ -66045,11 +66103,11 @@
         <f>'Barbara L'!A93</f>
         <v>Argentina</v>
       </c>
-      <c r="AS24" s="39">
+      <c r="AS24" s="38">
         <f>'Barbara L'!B93</f>
         <v>2</v>
       </c>
-      <c r="AT24" s="39">
+      <c r="AT24" s="38">
         <f>'Barbara L'!C93</f>
         <v>1</v>
       </c>
@@ -66068,11 +66126,11 @@
         <f>'Barbara L'!A95</f>
         <v>England</v>
       </c>
-      <c r="AZ24" s="39">
+      <c r="AZ24" s="38">
         <f>'Barbara L'!B95</f>
         <v>1</v>
       </c>
-      <c r="BA24" s="39">
+      <c r="BA24" s="38">
         <f>'Barbara L'!C95</f>
         <v>0</v>
       </c>
@@ -66231,7 +66289,7 @@
         <f>'Evan A'!D91</f>
         <v>Portugal</v>
       </c>
-      <c r="AO25" s="55">
+      <c r="AO25" s="85">
         <f>'Evan A'!E91</f>
         <v>0</v>
       </c>
@@ -66242,11 +66300,11 @@
         <f>'Andy B'!A93</f>
         <v>Argentina</v>
       </c>
-      <c r="AS25" s="39">
+      <c r="AS25" s="38">
         <f>'Andy B'!B93</f>
         <v>2</v>
       </c>
-      <c r="AT25" s="39">
+      <c r="AT25" s="38">
         <f>'Andy B'!C93</f>
         <v>4</v>
       </c>
@@ -66265,11 +66323,11 @@
         <f>'Andy B'!A95</f>
         <v>England</v>
       </c>
-      <c r="AZ25" s="39">
+      <c r="AZ25" s="38">
         <f>'Andy B'!B95</f>
         <v>0</v>
       </c>
-      <c r="BA25" s="39">
+      <c r="BA25" s="38">
         <f>'Andy B'!C95</f>
         <v>1</v>
       </c>
@@ -66451,11 +66509,11 @@
         <f>'Keith G'!A93</f>
         <v>Argentina</v>
       </c>
-      <c r="AS26" s="39">
+      <c r="AS26" s="38">
         <f>'Keith G'!B93</f>
         <v>1</v>
       </c>
-      <c r="AT26" s="39">
+      <c r="AT26" s="38">
         <f>'Keith G'!C93</f>
         <v>3</v>
       </c>
@@ -66474,11 +66532,11 @@
         <f>'Keith G'!A95</f>
         <v>England</v>
       </c>
-      <c r="AZ26" s="39">
+      <c r="AZ26" s="38">
         <f>'Keith G'!B95</f>
         <v>2</v>
       </c>
-      <c r="BA26" s="39">
+      <c r="BA26" s="38">
         <f>'Keith G'!C95</f>
         <v>0</v>
       </c>
@@ -66637,7 +66695,7 @@
         <f>'Alison S'!D91</f>
         <v>Portugal</v>
       </c>
-      <c r="AO27" s="55">
+      <c r="AO27" s="85">
         <f>'Alison S'!E91</f>
         <v>0</v>
       </c>
@@ -67172,7 +67230,7 @@
         <f>'Dave B'!D91</f>
         <v>Portugal</v>
       </c>
-      <c r="AO31" s="55">
+      <c r="AO31" s="85">
         <f>'Dave B'!E91</f>
         <v>0</v>
       </c>
@@ -67440,9 +67498,9 @@
         <f>'Jacques Chi'!D91</f>
         <v>Portugal</v>
       </c>
-      <c r="AO33" s="55">
+      <c r="AO33" s="85">
         <f>'Jacques Chi'!E91</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.2">
@@ -67835,11 +67893,11 @@
         <f>'Dawn G'!A90</f>
         <v>France</v>
       </c>
-      <c r="AL36" s="39">
+      <c r="AL36" s="38">
         <f>'Dawn G'!B90</f>
         <v>1</v>
       </c>
-      <c r="AM36" s="39">
+      <c r="AM36" s="38">
         <f>'Dawn G'!C90</f>
         <v>2</v>
       </c>
@@ -67961,11 +68019,11 @@
         <f>'Dawn G'!A91</f>
         <v>Spain</v>
       </c>
-      <c r="AL37" s="56">
+      <c r="AL37" s="57">
         <f>'Dawn G'!B91</f>
         <v>0</v>
       </c>
-      <c r="AM37" s="39">
+      <c r="AM37" s="38">
         <f>'Dawn G'!C91</f>
         <v>1</v>
       </c>
@@ -67973,7 +68031,7 @@
         <f>'Dawn G'!D91</f>
         <v>Portugal</v>
       </c>
-      <c r="AO37" s="55">
+      <c r="AO37" s="85">
         <f>'Dawn G'!E91</f>
         <v>0</v>
       </c>
@@ -68507,7 +68565,7 @@
       </c>
       <c r="AN41" s="39" t="str">
         <f>'Mandy B'!D91</f>
-        <v>England</v>
+        <v>Portugal</v>
       </c>
       <c r="AO41" s="56">
         <f>'Mandy B'!E91</f>
@@ -69581,7 +69639,7 @@
         <f>'Andy B'!D91</f>
         <v>Portugal</v>
       </c>
-      <c r="AO49" s="55">
+      <c r="AO49" s="85">
         <f>'Andy B'!E91</f>
         <v>0</v>
       </c>
@@ -69876,7 +69934,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -71117,6 +71175,9 @@
       </c>
       <c r="D91" s="48" t="s">
         <v>56</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -71238,7 +71299,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -72482,6 +72543,9 @@
       </c>
       <c r="D91" s="48" t="s">
         <v>56</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -79502,7 +79566,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -80746,6 +80810,9 @@
       </c>
       <c r="D91" s="48" t="s">
         <v>52</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -80863,7 +80930,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A71" zoomScale="106" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -82104,6 +82171,9 @@
       </c>
       <c r="D91" s="48" t="s">
         <v>56</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -82221,7 +82291,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -83462,6 +83532,9 @@
       </c>
       <c r="D91" s="48" t="s">
         <v>52</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -83579,7 +83652,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -84820,6 +84893,9 @@
       </c>
       <c r="D91" s="48" t="s">
         <v>52</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">

--- a/resources/Forms/Excel/Big Sheet.xlsx
+++ b/resources/Forms/Excel/Big Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie/FootieTake2/resources/Forms/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2C30D7-42FF-7742-81B6-E3783DEC8050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F226EBE-8A40-6540-8542-9F208EB1CFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" tabRatio="800" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
   </bookViews>
@@ -1101,17 +1101,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>719666</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>32124</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>389466</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>30070</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E797E4EF-B198-E45B-233D-9BC5602BB880}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99131B25-0BAD-3CF5-1BAA-59125F2EF782}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1128,7 +1128,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2556932" y="0"/>
-          <a:ext cx="4910667" cy="18523324"/>
+          <a:ext cx="6256867" cy="23601270"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1144,23 +1144,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>203199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>62298</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>22846</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C38ABA6F-4780-A2FB-3D6C-41D929CCED28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E665F84-F675-E794-DD6D-2797DEE46C96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1176,8 +1176,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="11988799"/>
-          <a:ext cx="8458200" cy="26275099"/>
+          <a:off x="9436100" y="10769599"/>
+          <a:ext cx="8445500" cy="26235647"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1488,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88DB2AD-0B7A-2B40-B11D-A4AE4E9DB3F2}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33:I38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="C2" s="15">
         <f>'Alison S'!E99</f>
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C3" s="15">
         <f>'Mandy B'!E99</f>
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="C4" s="15">
         <f>'Keith W'!E99</f>
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="C8" s="15">
         <f>'Evan A'!E99</f>
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1613,12 +1613,12 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f>'Jacques Chi'!D99</f>
-        <v>Jacques Chi</v>
-      </c>
-      <c r="C9" s="15">
-        <f>'Jacques Chi'!E99</f>
-        <v>53</v>
+        <f>'James W'!D99</f>
+        <v>James W</v>
+      </c>
+      <c r="C9" s="2">
+        <f>'James W'!E99</f>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1627,12 +1627,12 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="str">
-        <f>'Derek b'!D99</f>
-        <v>Derek B</v>
-      </c>
-      <c r="C10" s="2">
-        <f>'Derek b'!E99</f>
-        <v>52</v>
+        <f>'Jacques Chi'!D99</f>
+        <v>Jacques Chi</v>
+      </c>
+      <c r="C10" s="15">
+        <f>'Jacques Chi'!E99</f>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1641,12 +1641,12 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f>'James W'!D99</f>
-        <v>James W</v>
-      </c>
-      <c r="C11" s="2">
-        <f>'James W'!E99</f>
-        <v>52</v>
+        <f>'Liz W'!D99</f>
+        <v>Liz W</v>
+      </c>
+      <c r="C11" s="15">
+        <f>'Liz W'!E99</f>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1655,60 +1655,60 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="str">
-        <f>'Freddie J'!D99</f>
-        <v>Freddie J</v>
-      </c>
-      <c r="C12" s="15">
-        <f>'Freddie J'!E99</f>
-        <v>51</v>
+        <f>'Derek b'!D99</f>
+        <v>Derek B</v>
+      </c>
+      <c r="C12" s="2">
+        <f>'Derek b'!E99</f>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <f>RANK(C13,($C$2:$C$32),0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="str">
-        <f>'Bernie R'!D99</f>
-        <v>Bernie R</v>
-      </c>
-      <c r="C13" s="2">
-        <f>'Bernie R'!E99</f>
+        <f>'Freddie J'!D99</f>
+        <v>Freddie J</v>
+      </c>
+      <c r="C13" s="15">
+        <f>'Freddie J'!E99</f>
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <f>RANK(C14,($C$2:$C$32),0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="str">
-        <f>'Robert L'!D99</f>
-        <v>Robert L</v>
-      </c>
-      <c r="C14" s="15">
-        <f>'Robert L'!E99</f>
+        <f>'Bernie R'!D99</f>
+        <v>Bernie R</v>
+      </c>
+      <c r="C14" s="2">
+        <f>'Bernie R'!E99</f>
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <f>RANK(C15,($C$2:$C$32),0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2" t="str">
-        <f>'Liz W'!D99</f>
-        <v>Liz W</v>
+        <f>'Robert L'!D99</f>
+        <v>Robert L</v>
       </c>
       <c r="C15" s="15">
-        <f>'Liz W'!E99</f>
+        <f>'Robert L'!E99</f>
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <f>RANK(C16,($C$2:$C$32),0)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2" t="str">
         <f>'Alice D'!D99</f>
@@ -1716,13 +1716,13 @@
       </c>
       <c r="C16" s="15">
         <f>'Alice D'!E99</f>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <f>RANK(C17,($C$2:$C$32),0)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="13" t="str">
         <f>'Barbara L'!D99</f>
@@ -1764,15 +1764,15 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <f>RANK(C20,($C$2:$C$32),0)</f>
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="str">
-        <f>'Dawn G'!D99</f>
-        <v>Dawn G</v>
-      </c>
-      <c r="C20" s="15">
-        <f>'Dawn G'!E99</f>
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="B20" s="13" t="str">
+        <f>'Stuart L'!D99</f>
+        <v>Stuart L</v>
+      </c>
+      <c r="C20" s="16">
+        <f>'Stuart L'!E99</f>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1780,19 +1780,19 @@
         <f>RANK(C21,($C$2:$C$32),0)</f>
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="str">
-        <f>'Stuart L'!D99</f>
-        <v>Stuart L</v>
-      </c>
-      <c r="C21" s="16">
-        <f>'Stuart L'!E99</f>
-        <v>46</v>
+      <c r="B21" s="2" t="str">
+        <f>'Dawn G'!D99</f>
+        <v>Dawn G</v>
+      </c>
+      <c r="C21" s="15">
+        <f>'Dawn G'!E99</f>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <f>RANK(C22,($C$2:$C$32),0)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="str">
         <f>'Dave B'!D99</f>
@@ -1806,7 +1806,7 @@
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <f>RANK(C23,($C$2:$C$32),0)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>'Cathy G'!D99</f>
@@ -1958,7 +1958,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A70" zoomScale="108" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3186,6 +3186,9 @@
       <c r="D90" s="48" t="s">
         <v>32</v>
       </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
@@ -3281,6 +3284,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -3290,19 +3306,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{8427FA4B-D7DC-C74F-B6C6-02A04CEA1479}">
@@ -3319,7 +3322,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4547,6 +4550,9 @@
       <c r="D90" s="48" t="s">
         <v>32</v>
       </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
@@ -4637,11 +4643,24 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -4651,19 +4670,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{AF448023-A790-794F-BB14-4EE63C681037}">
@@ -4680,7 +4686,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5908,6 +5914,9 @@
       <c r="D90" s="48" t="s">
         <v>32</v>
       </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
@@ -6003,6 +6012,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -6012,19 +6034,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{CBEDE9B1-CCD8-024F-8FF6-52E83D09DD5F}">
@@ -6041,7 +6050,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7269,6 +7278,9 @@
       <c r="D90" s="48" t="s">
         <v>32</v>
       </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
@@ -7370,6 +7382,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -7379,19 +7404,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C99" xr:uid="{A6BA8386-7538-B943-BC89-6C717665472C}">
@@ -7408,7 +7420,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8636,6 +8648,9 @@
       <c r="D90" s="48" t="s">
         <v>32</v>
       </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
@@ -8731,6 +8746,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -8740,19 +8768,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{2B53EE05-D1D3-374E-8836-2425C3E2B4A5}">
@@ -8769,7 +8784,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9997,6 +10012,9 @@
       <c r="D90" s="48" t="s">
         <v>32</v>
       </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
@@ -10090,6 +10108,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -10099,19 +10130,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{A2199F60-9E4F-6445-90E3-92673D510A9D}">
@@ -10128,7 +10146,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11356,6 +11374,9 @@
       <c r="D90" s="48" t="s">
         <v>30</v>
       </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
@@ -11451,6 +11472,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -11460,19 +11494,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C97" xr:uid="{05F05F3A-89C6-E74F-BB5C-B82EDA718869}">
@@ -11489,7 +11510,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12693,6 +12714,9 @@
       <c r="D90" s="48" t="s">
         <v>32</v>
       </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
@@ -12788,15 +12812,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A86:D86"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
@@ -12810,6 +12825,15 @@
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{84866E23-2C57-B247-AC72-E241400D8978}">
@@ -12826,7 +12850,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14054,6 +14078,9 @@
       <c r="D90" s="48" t="s">
         <v>32</v>
       </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
@@ -14149,6 +14176,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -14158,19 +14198,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{85A9722B-955B-CF41-A6F3-38FDC4B48A7A}">
@@ -14187,7 +14214,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15415,6 +15442,9 @@
       <c r="D90" s="48" t="s">
         <v>32</v>
       </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
@@ -15510,11 +15540,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A77:D77"/>
@@ -15527,11 +15557,11 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C97" xr:uid="{F2D3BCCF-F868-974E-AEC9-AB88E8DBE8B7}">
@@ -48086,12 +48116,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="CH1:CK1"/>
     <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="AY1:BB1"/>
@@ -48099,6 +48123,12 @@
     <mergeCell ref="BM1:BP1"/>
     <mergeCell ref="BT1:BW1"/>
     <mergeCell ref="CA1:CD1"/>
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AD1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -49124,12 +49154,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -49137,6 +49161,12 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{98289B19-A16E-8E48-AC84-DA2AC3E66DBF}">
@@ -49153,7 +49183,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -50384,6 +50414,9 @@
       <c r="D90" s="48" t="s">
         <v>32</v>
       </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
@@ -50474,11 +50507,24 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -50488,6 +50534,1342 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780CC646-0316-9E4F-A9F1-38ADA5D36D46}">
+  <dimension ref="A1:E99"/>
+  <sheetViews>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="34">
+        <v>0</v>
+      </c>
+      <c r="C2" s="34">
+        <v>1</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="34">
+        <v>1</v>
+      </c>
+      <c r="C5" s="34">
+        <v>3</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="34">
+        <v>1</v>
+      </c>
+      <c r="C6" s="34">
+        <v>0</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="34">
+        <v>2</v>
+      </c>
+      <c r="C7" s="34">
+        <v>1</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="34">
+        <v>4</v>
+      </c>
+      <c r="C10" s="34">
+        <v>0</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="34">
+        <v>2</v>
+      </c>
+      <c r="C11" s="34">
+        <v>1</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="34">
+        <v>1</v>
+      </c>
+      <c r="C12" s="34">
+        <v>1</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="34">
+        <v>3</v>
+      </c>
+      <c r="C13" s="34">
+        <v>1</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="34">
+        <v>0</v>
+      </c>
+      <c r="C16" s="34">
+        <v>2</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="34">
+        <v>3</v>
+      </c>
+      <c r="C17" s="34">
+        <v>1</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="34">
+        <v>3</v>
+      </c>
+      <c r="C18" s="34">
+        <v>0</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="34">
+        <v>2</v>
+      </c>
+      <c r="C19" s="34">
+        <v>0</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="34">
+        <v>2</v>
+      </c>
+      <c r="C22" s="34">
+        <v>1</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="34">
+        <v>1</v>
+      </c>
+      <c r="C23" s="34">
+        <v>1</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="34">
+        <v>3</v>
+      </c>
+      <c r="C24" s="34">
+        <v>0</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="34">
+        <v>3</v>
+      </c>
+      <c r="C25" s="34">
+        <v>1</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="34">
+        <v>1</v>
+      </c>
+      <c r="C28" s="34">
+        <v>0</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="34">
+        <v>0</v>
+      </c>
+      <c r="C29" s="34">
+        <v>1</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="34">
+        <v>2</v>
+      </c>
+      <c r="C30" s="34">
+        <v>2</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="34">
+        <v>1</v>
+      </c>
+      <c r="C31" s="34">
+        <v>0</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="34">
+        <v>2</v>
+      </c>
+      <c r="C35" s="34">
+        <v>0</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="34">
+        <v>2</v>
+      </c>
+      <c r="C36" s="34">
+        <v>1</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="34">
+        <v>2</v>
+      </c>
+      <c r="C37" s="34">
+        <v>1</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="77"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="34">
+        <v>2</v>
+      </c>
+      <c r="C40" s="34">
+        <v>1</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="34">
+        <v>2</v>
+      </c>
+      <c r="C41" s="34">
+        <v>1</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="34">
+        <v>2</v>
+      </c>
+      <c r="C42" s="34">
+        <v>0</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="34">
+        <v>2</v>
+      </c>
+      <c r="C43" s="34">
+        <v>2</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="77"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="34">
+        <v>0</v>
+      </c>
+      <c r="C46" s="34">
+        <v>2</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="34">
+        <v>1</v>
+      </c>
+      <c r="C47" s="34">
+        <v>1</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="34">
+        <v>3</v>
+      </c>
+      <c r="C48" s="34">
+        <v>1</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="34">
+        <v>1</v>
+      </c>
+      <c r="C49" s="34">
+        <v>1</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="77"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="77"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="34">
+        <v>1</v>
+      </c>
+      <c r="C52" s="34">
+        <v>1</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="34">
+        <v>2</v>
+      </c>
+      <c r="C53" s="34">
+        <v>0</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="34">
+        <v>1</v>
+      </c>
+      <c r="C54" s="34">
+        <v>2</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="34">
+        <v>0</v>
+      </c>
+      <c r="C55" s="34">
+        <v>2</v>
+      </c>
+      <c r="D55" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="77"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="77"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58" s="34">
+        <v>1</v>
+      </c>
+      <c r="C58" s="34">
+        <v>2</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="34">
+        <v>0</v>
+      </c>
+      <c r="C59" s="34">
+        <v>3</v>
+      </c>
+      <c r="D59" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" s="34">
+        <v>1</v>
+      </c>
+      <c r="C60" s="34">
+        <v>3</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="34">
+        <v>0</v>
+      </c>
+      <c r="C61" s="34">
+        <v>2</v>
+      </c>
+      <c r="D61" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="77"/>
+      <c r="C63" s="77"/>
+      <c r="D63" s="77"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" s="34">
+        <v>2</v>
+      </c>
+      <c r="C64" s="34">
+        <v>3</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" s="34">
+        <v>1</v>
+      </c>
+      <c r="C65" s="34">
+        <v>1</v>
+      </c>
+      <c r="D65" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" s="34">
+        <v>0</v>
+      </c>
+      <c r="C66" s="34">
+        <v>3</v>
+      </c>
+      <c r="D66" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" s="34">
+        <v>0</v>
+      </c>
+      <c r="C67" s="34">
+        <v>3</v>
+      </c>
+      <c r="D67" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="77"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="77"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="34">
+        <v>0</v>
+      </c>
+      <c r="C70" s="34">
+        <v>1</v>
+      </c>
+      <c r="D70" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" s="34">
+        <v>0</v>
+      </c>
+      <c r="C71" s="34">
+        <v>2</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B72" s="34">
+        <v>1</v>
+      </c>
+      <c r="C72" s="34">
+        <v>1</v>
+      </c>
+      <c r="D72" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" s="34">
+        <v>0</v>
+      </c>
+      <c r="C73" s="34">
+        <v>3</v>
+      </c>
+      <c r="D73" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" s="62"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="62"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="49">
+        <v>2</v>
+      </c>
+      <c r="C75" s="49">
+        <v>1</v>
+      </c>
+      <c r="D75" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B76" s="49">
+        <v>3</v>
+      </c>
+      <c r="C76" s="49">
+        <v>0</v>
+      </c>
+      <c r="D76" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" s="62"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="62"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B78" s="49">
+        <v>3</v>
+      </c>
+      <c r="C78" s="49">
+        <v>0</v>
+      </c>
+      <c r="D78" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" s="49">
+        <v>1</v>
+      </c>
+      <c r="C79" s="49">
+        <v>0</v>
+      </c>
+      <c r="D79" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" s="62"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="62"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B81" s="49">
+        <v>1</v>
+      </c>
+      <c r="C81" s="49">
+        <v>0</v>
+      </c>
+      <c r="D81" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B82" s="49">
+        <v>2</v>
+      </c>
+      <c r="C82" s="49">
+        <v>0</v>
+      </c>
+      <c r="D82" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="B83" s="62"/>
+      <c r="C83" s="62"/>
+      <c r="D83" s="62"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B84" s="49">
+        <v>0</v>
+      </c>
+      <c r="C84" s="49">
+        <v>2</v>
+      </c>
+      <c r="D84" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B85" s="49">
+        <v>2</v>
+      </c>
+      <c r="C85" s="49">
+        <v>0</v>
+      </c>
+      <c r="D85" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" s="66"/>
+      <c r="C86" s="66"/>
+      <c r="D86" s="66"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B87" s="49">
+        <v>1</v>
+      </c>
+      <c r="C87" s="49">
+        <v>2</v>
+      </c>
+      <c r="D87" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B88" s="49">
+        <v>0</v>
+      </c>
+      <c r="C88" s="49">
+        <v>2</v>
+      </c>
+      <c r="D88" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="B89" s="62"/>
+      <c r="C89" s="62"/>
+      <c r="D89" s="62"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B90" s="49">
+        <v>1</v>
+      </c>
+      <c r="C90" s="49">
+        <v>2</v>
+      </c>
+      <c r="D90" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B91" s="49">
+        <v>2</v>
+      </c>
+      <c r="C91" s="49">
+        <v>1</v>
+      </c>
+      <c r="D91" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92" s="62"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="62"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B93" s="49">
+        <v>0</v>
+      </c>
+      <c r="C93" s="49">
+        <v>2</v>
+      </c>
+      <c r="D93" s="48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="B94" s="62"/>
+      <c r="C94" s="62"/>
+      <c r="D94" s="62"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B95" s="49">
+        <v>1</v>
+      </c>
+      <c r="C95" s="49">
+        <v>0</v>
+      </c>
+      <c r="D95" s="48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="B96" s="62"/>
+      <c r="C96" s="62"/>
+      <c r="D96" s="62"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>58</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D99" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E99">
+        <f>SUM(E2:E97)</f>
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -50501,1339 +51883,6 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A21:D21"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780CC646-0316-9E4F-A9F1-38ADA5D36D46}">
-  <dimension ref="A1:E99"/>
-  <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="34">
-        <v>0</v>
-      </c>
-      <c r="C2" s="34">
-        <v>1</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="77" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="34">
-        <v>1</v>
-      </c>
-      <c r="C5" s="34">
-        <v>3</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="34">
-        <v>1</v>
-      </c>
-      <c r="C6" s="34">
-        <v>0</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="34">
-        <v>2</v>
-      </c>
-      <c r="C7" s="34">
-        <v>1</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="34">
-        <v>4</v>
-      </c>
-      <c r="C10" s="34">
-        <v>0</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="34">
-        <v>2</v>
-      </c>
-      <c r="C11" s="34">
-        <v>1</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="34">
-        <v>1</v>
-      </c>
-      <c r="C12" s="34">
-        <v>1</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="34">
-        <v>3</v>
-      </c>
-      <c r="C13" s="34">
-        <v>1</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="77" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="34">
-        <v>0</v>
-      </c>
-      <c r="C16" s="34">
-        <v>2</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="34">
-        <v>3</v>
-      </c>
-      <c r="C17" s="34">
-        <v>1</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="34">
-        <v>3</v>
-      </c>
-      <c r="C18" s="34">
-        <v>0</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="34">
-        <v>2</v>
-      </c>
-      <c r="C19" s="34">
-        <v>0</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="77" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="34">
-        <v>2</v>
-      </c>
-      <c r="C22" s="34">
-        <v>1</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="34">
-        <v>1</v>
-      </c>
-      <c r="C23" s="34">
-        <v>1</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="34">
-        <v>3</v>
-      </c>
-      <c r="C24" s="34">
-        <v>0</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="34">
-        <v>3</v>
-      </c>
-      <c r="C25" s="34">
-        <v>1</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="77" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="34">
-        <v>1</v>
-      </c>
-      <c r="C28" s="34">
-        <v>0</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="34">
-        <v>0</v>
-      </c>
-      <c r="C29" s="34">
-        <v>1</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="34">
-        <v>2</v>
-      </c>
-      <c r="C30" s="34">
-        <v>2</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="34">
-        <v>1</v>
-      </c>
-      <c r="C31" s="34">
-        <v>0</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="34">
-        <v>1</v>
-      </c>
-      <c r="C34" s="34">
-        <v>1</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="34">
-        <v>2</v>
-      </c>
-      <c r="C35" s="34">
-        <v>0</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="34">
-        <v>2</v>
-      </c>
-      <c r="C36" s="34">
-        <v>1</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="34">
-        <v>2</v>
-      </c>
-      <c r="C37" s="34">
-        <v>1</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="77"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="34">
-        <v>2</v>
-      </c>
-      <c r="C40" s="34">
-        <v>1</v>
-      </c>
-      <c r="D40" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="34">
-        <v>2</v>
-      </c>
-      <c r="C41" s="34">
-        <v>1</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="34">
-        <v>2</v>
-      </c>
-      <c r="C42" s="34">
-        <v>0</v>
-      </c>
-      <c r="D42" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="34">
-        <v>2</v>
-      </c>
-      <c r="C43" s="34">
-        <v>2</v>
-      </c>
-      <c r="D43" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="77"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="34">
-        <v>0</v>
-      </c>
-      <c r="C46" s="34">
-        <v>2</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="34">
-        <v>1</v>
-      </c>
-      <c r="C47" s="34">
-        <v>1</v>
-      </c>
-      <c r="D47" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="34">
-        <v>3</v>
-      </c>
-      <c r="C48" s="34">
-        <v>1</v>
-      </c>
-      <c r="D48" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" s="34">
-        <v>1</v>
-      </c>
-      <c r="C49" s="34">
-        <v>1</v>
-      </c>
-      <c r="D49" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B51" s="77"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" s="34">
-        <v>1</v>
-      </c>
-      <c r="C52" s="34">
-        <v>1</v>
-      </c>
-      <c r="D52" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53" s="34">
-        <v>2</v>
-      </c>
-      <c r="C53" s="34">
-        <v>0</v>
-      </c>
-      <c r="D53" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B54" s="34">
-        <v>1</v>
-      </c>
-      <c r="C54" s="34">
-        <v>2</v>
-      </c>
-      <c r="D54" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B55" s="34">
-        <v>0</v>
-      </c>
-      <c r="C55" s="34">
-        <v>2</v>
-      </c>
-      <c r="D55" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" s="77"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B58" s="34">
-        <v>1</v>
-      </c>
-      <c r="C58" s="34">
-        <v>2</v>
-      </c>
-      <c r="D58" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B59" s="34">
-        <v>0</v>
-      </c>
-      <c r="C59" s="34">
-        <v>3</v>
-      </c>
-      <c r="D59" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B60" s="34">
-        <v>1</v>
-      </c>
-      <c r="C60" s="34">
-        <v>3</v>
-      </c>
-      <c r="D60" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B61" s="34">
-        <v>0</v>
-      </c>
-      <c r="C61" s="34">
-        <v>2</v>
-      </c>
-      <c r="D61" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63" s="77"/>
-      <c r="C63" s="77"/>
-      <c r="D63" s="77"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B64" s="34">
-        <v>2</v>
-      </c>
-      <c r="C64" s="34">
-        <v>3</v>
-      </c>
-      <c r="D64" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B65" s="34">
-        <v>1</v>
-      </c>
-      <c r="C65" s="34">
-        <v>1</v>
-      </c>
-      <c r="D65" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B66" s="34">
-        <v>0</v>
-      </c>
-      <c r="C66" s="34">
-        <v>3</v>
-      </c>
-      <c r="D66" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B67" s="34">
-        <v>0</v>
-      </c>
-      <c r="C67" s="34">
-        <v>3</v>
-      </c>
-      <c r="D67" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="77" t="s">
-        <v>16</v>
-      </c>
-      <c r="B69" s="77"/>
-      <c r="C69" s="77"/>
-      <c r="D69" s="77"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B70" s="34">
-        <v>0</v>
-      </c>
-      <c r="C70" s="34">
-        <v>1</v>
-      </c>
-      <c r="D70" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="E70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B71" s="34">
-        <v>0</v>
-      </c>
-      <c r="C71" s="34">
-        <v>2</v>
-      </c>
-      <c r="D71" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B72" s="34">
-        <v>1</v>
-      </c>
-      <c r="C72" s="34">
-        <v>1</v>
-      </c>
-      <c r="D72" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B73" s="34">
-        <v>0</v>
-      </c>
-      <c r="C73" s="34">
-        <v>3</v>
-      </c>
-      <c r="D73" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="B74" s="62"/>
-      <c r="C74" s="62"/>
-      <c r="D74" s="62"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="B75" s="49">
-        <v>2</v>
-      </c>
-      <c r="C75" s="49">
-        <v>1</v>
-      </c>
-      <c r="D75" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="E75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="B76" s="49">
-        <v>3</v>
-      </c>
-      <c r="C76" s="49">
-        <v>0</v>
-      </c>
-      <c r="D76" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="B77" s="62"/>
-      <c r="C77" s="62"/>
-      <c r="D77" s="62"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="B78" s="49">
-        <v>3</v>
-      </c>
-      <c r="C78" s="49">
-        <v>0</v>
-      </c>
-      <c r="D78" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="E78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B79" s="49">
-        <v>1</v>
-      </c>
-      <c r="C79" s="49">
-        <v>0</v>
-      </c>
-      <c r="D79" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="E79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="B80" s="62"/>
-      <c r="C80" s="62"/>
-      <c r="D80" s="62"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B81" s="49">
-        <v>1</v>
-      </c>
-      <c r="C81" s="49">
-        <v>0</v>
-      </c>
-      <c r="D81" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="B82" s="49">
-        <v>2</v>
-      </c>
-      <c r="C82" s="49">
-        <v>0</v>
-      </c>
-      <c r="D82" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="B83" s="62"/>
-      <c r="C83" s="62"/>
-      <c r="D83" s="62"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B84" s="49">
-        <v>0</v>
-      </c>
-      <c r="C84" s="49">
-        <v>2</v>
-      </c>
-      <c r="D84" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B85" s="49">
-        <v>2</v>
-      </c>
-      <c r="C85" s="49">
-        <v>0</v>
-      </c>
-      <c r="D85" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="B86" s="66"/>
-      <c r="C86" s="66"/>
-      <c r="D86" s="66"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="B87" s="49">
-        <v>1</v>
-      </c>
-      <c r="C87" s="49">
-        <v>2</v>
-      </c>
-      <c r="D87" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B88" s="49">
-        <v>0</v>
-      </c>
-      <c r="C88" s="49">
-        <v>2</v>
-      </c>
-      <c r="D88" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="B89" s="62"/>
-      <c r="C89" s="62"/>
-      <c r="D89" s="62"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="B90" s="49">
-        <v>1</v>
-      </c>
-      <c r="C90" s="49">
-        <v>2</v>
-      </c>
-      <c r="D90" s="48" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B91" s="49">
-        <v>2</v>
-      </c>
-      <c r="C91" s="49">
-        <v>1</v>
-      </c>
-      <c r="D91" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="B92" s="62"/>
-      <c r="C92" s="62"/>
-      <c r="D92" s="62"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="B93" s="49">
-        <v>0</v>
-      </c>
-      <c r="C93" s="49">
-        <v>2</v>
-      </c>
-      <c r="D93" s="48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="B94" s="62"/>
-      <c r="C94" s="62"/>
-      <c r="D94" s="62"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B95" s="49">
-        <v>1</v>
-      </c>
-      <c r="C95" s="49">
-        <v>0</v>
-      </c>
-      <c r="D95" s="48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="65" t="s">
-        <v>114</v>
-      </c>
-      <c r="B96" s="62"/>
-      <c r="C96" s="62"/>
-      <c r="D96" s="62"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>58</v>
-      </c>
-      <c r="B97">
-        <v>2</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D99" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E99">
-        <f>SUM(E2:E97)</f>
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="22">
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -51843,19 +51892,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{A72D56DF-9BC0-2E49-9D2A-B8E721479EEF}">
@@ -51872,7 +51908,7 @@
   <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView topLeftCell="A66" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -53028,6 +53064,9 @@
       <c r="D78" s="48" t="s">
         <v>32</v>
       </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="48" t="s">
@@ -53123,6 +53162,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A17:D17"/>
     <mergeCell ref="A77:D77"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A82:D82"/>
@@ -53132,19 +53184,6 @@
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="A71:D71"/>
     <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A52:D52"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62:C84" xr:uid="{C11CF323-092E-EA4D-9917-FC21144EBBB1}">
@@ -53161,7 +53200,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -54389,6 +54428,9 @@
       <c r="D90" s="48" t="s">
         <v>32</v>
       </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
@@ -54499,6 +54541,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -54508,19 +54563,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{EC36F1B5-3564-784F-B3C5-B041B2C2E87E}">
@@ -54537,7 +54579,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -55765,6 +55807,9 @@
       <c r="D90" s="48" t="s">
         <v>32</v>
       </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
@@ -55860,6 +55905,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -55869,19 +55927,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{A0FD6351-8E4F-C04E-BE54-C8F4EA5F1555}">
@@ -55898,7 +55943,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -57126,6 +57171,9 @@
       <c r="D90" s="48" t="s">
         <v>30</v>
       </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
@@ -57222,7 +57270,7 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -57231,6 +57279,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -57240,19 +57301,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C100" xr:uid="{912C664E-C133-1E4F-9640-4A25EB9EF25D}">
@@ -57269,7 +57317,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -58497,6 +58545,9 @@
       <c r="D90" s="48" t="s">
         <v>32</v>
       </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
@@ -58587,11 +58638,24 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -58601,19 +58665,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{B20B3CE4-DCB9-4E4A-AC39-D9DA073FCC61}">
@@ -58630,7 +58681,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -59854,6 +59905,9 @@
       <c r="D90" s="48" t="s">
         <v>32</v>
       </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
@@ -59944,11 +59998,24 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -59958,19 +60025,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{D0B3E49D-2BC1-6E4D-9735-2E4B121876A2}">
@@ -59987,7 +60041,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -61215,6 +61269,9 @@
       <c r="D90" s="48" t="s">
         <v>32</v>
       </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
@@ -61310,6 +61367,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -61319,19 +61389,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{60ADF05C-298C-944D-B683-D8C73BF6553D}">
@@ -61347,10 +61404,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CA3D3A-5644-1847-8D60-65D782BB1346}">
   <dimension ref="A1:BJ51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="BD15" sqref="BD15"/>
+      <selection pane="bottomLeft" activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -61610,7 +61667,7 @@
         <f>'James W'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH2" s="55">
+      <c r="AH2" s="85">
         <f>'James W'!E87</f>
         <v>1</v>
       </c>
@@ -61633,9 +61690,9 @@
         <f>'James W'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO2" s="55">
+      <c r="AO2" s="85">
         <f>'James W'!E90</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ2" s="39" t="s">
         <v>102</v>
@@ -61808,7 +61865,7 @@
         <f>'James W'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH3" s="39">
+      <c r="AH3" s="85">
         <f>'James W'!E88</f>
         <v>0</v>
       </c>
@@ -62015,7 +62072,7 @@
         <f>'Mother B'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH4" s="55">
+      <c r="AH4" s="85">
         <f>'Mother B'!E87</f>
         <v>3</v>
       </c>
@@ -62038,7 +62095,7 @@
         <f>'Mother B'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO4" s="55">
+      <c r="AO4" s="85">
         <f>'Mother B'!E90</f>
         <v>0</v>
       </c>
@@ -62214,7 +62271,7 @@
         <f>'Mother B'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH5" s="39">
+      <c r="AH5" s="85">
         <f>'Mother B'!E88</f>
         <v>0</v>
       </c>
@@ -62421,7 +62478,7 @@
         <f>'Derek b'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH6" s="55">
+      <c r="AH6" s="85">
         <f>'Derek b'!E87</f>
         <v>1</v>
       </c>
@@ -62444,7 +62501,7 @@
         <f>'Derek b'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO6" s="55">
+      <c r="AO6" s="85">
         <f>'Derek b'!E90</f>
         <v>0</v>
       </c>
@@ -62620,7 +62677,7 @@
         <f>'Derek b'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH7" s="39">
+      <c r="AH7" s="85">
         <f>'Derek b'!E88</f>
         <v>0</v>
       </c>
@@ -62826,7 +62883,7 @@
         <f>'Bernie R'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH8" s="55">
+      <c r="AH8" s="85">
         <f>'Bernie R'!E87</f>
         <v>1</v>
       </c>
@@ -62849,7 +62906,7 @@
         <f>'Bernie R'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO8" s="55">
+      <c r="AO8" s="85">
         <f>'Bernie R'!E90</f>
         <v>0</v>
       </c>
@@ -63025,7 +63082,7 @@
         <f>'Bernie R'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH9" s="39">
+      <c r="AH9" s="85">
         <f>'Bernie R'!E88</f>
         <v>0</v>
       </c>
@@ -63231,7 +63288,7 @@
         <f>'Nathan W'!D75</f>
         <v>Argentina</v>
       </c>
-      <c r="AH10" s="55">
+      <c r="AH10" s="85">
         <f>'Nathan W'!E75</f>
         <v>1</v>
       </c>
@@ -63254,7 +63311,7 @@
         <f>'Nathan W'!D78</f>
         <v>England</v>
       </c>
-      <c r="AO10" s="55">
+      <c r="AO10" s="85">
         <f>'Nathan W'!E78</f>
         <v>0</v>
       </c>
@@ -63637,7 +63694,7 @@
         <f>'Martin L'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH12" s="55">
+      <c r="AH12" s="85">
         <f>'Martin L'!E87</f>
         <v>1</v>
       </c>
@@ -63660,7 +63717,7 @@
         <f>'Martin L'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO12" s="55">
+      <c r="AO12" s="85">
         <f>'Martin L'!E90</f>
         <v>0</v>
       </c>
@@ -63835,7 +63892,7 @@
         <f>'Martin L'!D88</f>
         <v>South Korea</v>
       </c>
-      <c r="AH13" s="39">
+      <c r="AH13" s="85">
         <f>'Martin L'!E88</f>
         <v>2</v>
       </c>
@@ -64041,7 +64098,7 @@
         <f>'Marjorie L'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH14" s="55">
+      <c r="AH14" s="85">
         <f>'Marjorie L'!E87</f>
         <v>0</v>
       </c>
@@ -64064,7 +64121,7 @@
         <f>'Marjorie L'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO14" s="55">
+      <c r="AO14" s="85">
         <f>'Marjorie L'!E90</f>
         <v>0</v>
       </c>
@@ -64240,7 +64297,7 @@
         <f>'Marjorie L'!D88</f>
         <v>South Korea</v>
       </c>
-      <c r="AH15" s="39">
+      <c r="AH15" s="85">
         <f>'Marjorie L'!E88</f>
         <v>2</v>
       </c>
@@ -64261,7 +64318,7 @@
         <f>'Marjorie L'!D91</f>
         <v>P:ortugal</v>
       </c>
-      <c r="AO15" s="85">
+      <c r="AO15" s="39">
         <f>'Marjorie L'!E91</f>
         <v>0</v>
       </c>
@@ -64447,7 +64504,7 @@
         <f>'Keith W'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH16" s="55">
+      <c r="AH16" s="85">
         <f>'Keith W'!E87</f>
         <v>1</v>
       </c>
@@ -64462,17 +64519,17 @@
         <f>'Keith W'!B90</f>
         <v>3</v>
       </c>
-      <c r="AM16" s="38">
+      <c r="AM16" s="57">
         <f>'Keith W'!C90</f>
         <v>1</v>
       </c>
-      <c r="AN16" s="39" t="str">
+      <c r="AN16" s="56" t="str">
         <f>'Keith W'!D90</f>
         <v>Senegal</v>
       </c>
-      <c r="AO16" s="55">
+      <c r="AO16" s="85">
         <f>'Keith W'!E90</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ16" s="39" t="s">
         <v>27</v>
@@ -64646,7 +64703,7 @@
         <f>'Keith W'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH17" s="39">
+      <c r="AH17" s="85">
         <f>'Keith W'!E88</f>
         <v>0</v>
       </c>
@@ -64667,7 +64724,7 @@
         <f>'Keith W'!D91</f>
         <v>Portugal</v>
       </c>
-      <c r="AO17" s="85">
+      <c r="AO17" s="39">
         <f>'Keith W'!E91</f>
         <v>0</v>
       </c>
@@ -64853,7 +64910,7 @@
         <f>'Liz W'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH18" s="55">
+      <c r="AH18" s="85">
         <f>'Liz W'!E87</f>
         <v>2</v>
       </c>
@@ -64876,9 +64933,9 @@
         <f>'Liz W'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO18" s="55">
+      <c r="AO18" s="85">
         <f>'Liz W'!E90</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ18" s="39" t="s">
         <v>25</v>
@@ -65051,7 +65108,7 @@
         <f>'Liz W'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH19" s="39">
+      <c r="AH19" s="85">
         <f>'Liz W'!E88</f>
         <v>0</v>
       </c>
@@ -65072,7 +65129,7 @@
         <f>'Liz W'!D91</f>
         <v>Portugal</v>
       </c>
-      <c r="AO19" s="85">
+      <c r="AO19" s="39">
         <f>'Liz W'!E91</f>
         <v>0</v>
       </c>
@@ -65258,7 +65315,7 @@
         <f>'Alice D'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH20" s="55">
+      <c r="AH20" s="85">
         <f>'Alice D'!E87</f>
         <v>0</v>
       </c>
@@ -65281,9 +65338,9 @@
         <f>'Alice D'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO20" s="55">
+      <c r="AO20" s="85">
         <f>'Alice D'!E90</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ20" s="39" t="s">
         <v>23</v>
@@ -65457,7 +65514,7 @@
         <f>'Alice D'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH21" s="39">
+      <c r="AH21" s="85">
         <f>'Alice D'!E88</f>
         <v>0</v>
       </c>
@@ -65664,7 +65721,7 @@
         <f>'Rob TH'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH22" s="55">
+      <c r="AH22" s="85">
         <f>'Rob TH'!E87</f>
         <v>1</v>
       </c>
@@ -65687,7 +65744,7 @@
         <f>'Rob TH'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO22" s="55">
+      <c r="AO22" s="85">
         <f>'Rob TH'!E90</f>
         <v>0</v>
       </c>
@@ -65862,7 +65919,7 @@
         <f>'Rob TH'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH23" s="39">
+      <c r="AH23" s="85">
         <f>'Rob TH'!E88</f>
         <v>0</v>
       </c>
@@ -66069,7 +66126,7 @@
         <f>'Evan A'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH24" s="55">
+      <c r="AH24" s="85">
         <f>'Evan A'!E87</f>
         <v>1</v>
       </c>
@@ -66092,9 +66149,9 @@
         <f>'Evan A'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO24" s="55">
+      <c r="AO24" s="85">
         <f>'Evan A'!E90</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ24" s="39" t="s">
         <v>19</v>
@@ -66268,7 +66325,7 @@
         <f>'Evan A'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH25" s="39">
+      <c r="AH25" s="85">
         <f>'Evan A'!E88</f>
         <v>2</v>
       </c>
@@ -66289,7 +66346,7 @@
         <f>'Evan A'!D91</f>
         <v>Portugal</v>
       </c>
-      <c r="AO25" s="85">
+      <c r="AO25" s="39">
         <f>'Evan A'!E91</f>
         <v>0</v>
       </c>
@@ -66475,7 +66532,7 @@
         <f>'Alison S'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH26" s="55">
+      <c r="AH26" s="85">
         <f>'Alison S'!E87</f>
         <v>2</v>
       </c>
@@ -66498,9 +66555,9 @@
         <f>'Alison S'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO26" s="55">
+      <c r="AO26" s="85">
         <f>'Alison S'!E90</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ26" s="39" t="s">
         <v>17</v>
@@ -66674,7 +66731,7 @@
         <f>'Alison S'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH27" s="39">
+      <c r="AH27" s="85">
         <f>'Alison S'!E88</f>
         <v>0</v>
       </c>
@@ -66695,7 +66752,7 @@
         <f>'Alison S'!D91</f>
         <v>Portugal</v>
       </c>
-      <c r="AO27" s="85">
+      <c r="AO27" s="39">
         <f>'Alison S'!E91</f>
         <v>0</v>
       </c>
@@ -66835,7 +66892,7 @@
         <f>'Cathy G'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO28" s="55">
+      <c r="AO28" s="85">
         <f>'Cathy G'!E90</f>
         <v>0</v>
       </c>
@@ -67103,7 +67160,7 @@
         <f>'Dave B'!D90</f>
         <v>Senegal</v>
       </c>
-      <c r="AO30" s="55">
+      <c r="AO30" s="85">
         <f>'Dave B'!E90</f>
         <v>0</v>
       </c>
@@ -67230,7 +67287,7 @@
         <f>'Dave B'!D91</f>
         <v>Portugal</v>
       </c>
-      <c r="AO31" s="85">
+      <c r="AO31" s="39">
         <f>'Dave B'!E91</f>
         <v>0</v>
       </c>
@@ -67370,7 +67427,7 @@
         <f>'Jacques Chi'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO32" s="55">
+      <c r="AO32" s="85">
         <f>'Jacques Chi'!E90</f>
         <v>0</v>
       </c>
@@ -67638,7 +67695,7 @@
         <f>'Robert L'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO34" s="55">
+      <c r="AO34" s="85">
         <f>'Robert L'!E90</f>
         <v>0</v>
       </c>
@@ -67905,7 +67962,7 @@
         <f>'Dawn G'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO36" s="55">
+      <c r="AO36" s="85">
         <f>'Dawn G'!E90</f>
         <v>0</v>
       </c>
@@ -68171,7 +68228,7 @@
         <f>'John B'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO38" s="55">
+      <c r="AO38" s="85">
         <f>'John B'!E90</f>
         <v>0</v>
       </c>
@@ -68439,9 +68496,9 @@
         <f>'Mandy B'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO40" s="55">
+      <c r="AO40" s="85">
         <f>'Mandy B'!E90</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.2">
@@ -68707,7 +68764,7 @@
         <f>'Freddie J'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO42" s="55">
+      <c r="AO42" s="85">
         <f>'Freddie J'!E90</f>
         <v>0</v>
       </c>
@@ -68975,9 +69032,9 @@
         <f>'Stuart L'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO44" s="55">
+      <c r="AO44" s="85">
         <f>'Stuart L'!E90</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.2">
@@ -69243,7 +69300,7 @@
         <f>'Barbara L'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO46" s="55">
+      <c r="AO46" s="85">
         <f>'Barbara L'!E90</f>
         <v>0</v>
       </c>
@@ -69511,7 +69568,7 @@
         <f>'Andy B'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO48" s="55">
+      <c r="AO48" s="85">
         <f>'Andy B'!E90</f>
         <v>0</v>
       </c>
@@ -69639,7 +69696,7 @@
         <f>'Andy B'!D91</f>
         <v>Portugal</v>
       </c>
-      <c r="AO49" s="85">
+      <c r="AO49" s="39">
         <f>'Andy B'!E91</f>
         <v>0</v>
       </c>
@@ -69779,7 +69836,7 @@
         <f>'Keith G'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO50" s="55">
+      <c r="AO50" s="85">
         <f>'Keith G'!E90</f>
         <v>0</v>
       </c>
@@ -69934,7 +69991,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -71162,6 +71219,9 @@
       <c r="D90" s="48" t="s">
         <v>32</v>
       </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
@@ -71256,11 +71316,24 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -71270,19 +71343,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C98" xr:uid="{F68D3FFC-EF79-CC40-8F53-8BF21A5E1341}">
@@ -71299,7 +71359,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -72530,6 +72590,9 @@
       <c r="D90" s="48" t="s">
         <v>32</v>
       </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
@@ -72620,11 +72683,24 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -72634,19 +72710,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C97" xr:uid="{11A7353F-6A05-F048-B4B5-2330C623E382}">
@@ -73859,6 +73922,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -73868,19 +73944,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{9D4EDCA2-2FFE-E64B-A34E-466DD99F6343}">
@@ -75072,15 +75135,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A86:D86"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
@@ -75094,6 +75148,15 @@
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{55CBA0EA-03DF-D446-B217-F70483C49D17}">
@@ -76307,6 +76370,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -76316,19 +76392,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66 B1:C65 B67:C97" xr:uid="{156C7248-1706-4E17-9BB6-079B78DEF479}">
@@ -77520,15 +77583,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A86:D86"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
@@ -77542,6 +77596,15 @@
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{977686BA-C9F0-5F4E-89D6-CE94966C1FE0}">
@@ -78730,6 +78793,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -78739,19 +78815,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{BE5067DB-A56D-FF40-9C9A-839412CFE3CC}">
@@ -79318,18 +79381,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="B64:E64"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="B46:E46"/>
     <mergeCell ref="B52:E52"/>
     <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -79566,7 +79629,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -80797,6 +80860,9 @@
       <c r="D90" s="48" t="s">
         <v>32</v>
       </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
@@ -80892,6 +80958,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -80901,19 +80980,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{8A242A5A-737B-3248-9203-1E18FA7E8CAD}">
@@ -80930,7 +80996,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A71" zoomScale="106" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -82158,6 +82224,9 @@
       <c r="D90" s="48" t="s">
         <v>32</v>
       </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
@@ -82253,6 +82322,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -82262,19 +82344,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{79F4B324-FC19-7044-8ECD-3029BC735257}">
@@ -82291,7 +82360,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -83519,6 +83588,9 @@
       <c r="D90" s="48" t="s">
         <v>32</v>
       </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
@@ -83614,6 +83686,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -83623,19 +83708,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{F1AA318D-CFEE-E945-8C0E-235E3838BA82}">
@@ -83652,7 +83724,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -84880,6 +84952,9 @@
       <c r="D90" s="48" t="s">
         <v>32</v>
       </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="48" t="s">
@@ -84970,11 +85045,24 @@
       </c>
       <c r="E99">
         <f>SUM(E2:E97)</f>
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -84984,19 +85072,6 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{446CEEDB-BF43-854D-95D2-80CA6EE53C2C}">

--- a/resources/Forms/Excel/Big Sheet.xlsx
+++ b/resources/Forms/Excel/Big Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie/FootieTake2/resources/Forms/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F226EBE-8A40-6540-8542-9F208EB1CFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DD4573-F2E3-EC48-8485-A2EF89FC62CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" tabRatio="800" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" tabRatio="800" firstSheet="1" activeTab="2" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Ranking" sheetId="5" r:id="rId1"/>
@@ -831,7 +831,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1029,7 +1029,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1144,23 +1143,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>203199</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>198782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>182</xdr:row>
-      <xdr:rowOff>22846</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>33130</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>128607</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E665F84-F675-E794-DD6D-2797DEE46C96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{607D0782-DA45-6F33-C5AE-E9612478405A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1176,8 +1175,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9436100" y="10769599"/>
-          <a:ext cx="8445500" cy="26235647"/>
+          <a:off x="0" y="10933043"/>
+          <a:ext cx="10491304" cy="17223912"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1488,7 +1487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88DB2AD-0B7A-2B40-B11D-A4AE4E9DB3F2}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="150" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -1511,7 +1510,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f>RANK(C2,($C$2:$C$32),0)</f>
+        <f t="shared" ref="A2:A32" si="0">RANK(C2,($C$2:$C$32),0)</f>
         <v>1</v>
       </c>
       <c r="B2" s="2" t="str">
@@ -1525,7 +1524,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <f>RANK(C3,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="str">
@@ -1539,7 +1538,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <f>RANK(C4,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="2" t="str">
@@ -1553,7 +1552,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <f>RANK(C5,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="2" t="str">
@@ -1567,7 +1566,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <f>RANK(C6,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="2" t="str">
@@ -1581,7 +1580,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <f>RANK(C7,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="2" t="str">
@@ -1595,7 +1594,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <f>RANK(C8,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="2" t="str">
@@ -1609,7 +1608,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <f>RANK(C9,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="2" t="str">
@@ -1623,7 +1622,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <f>RANK(C10,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="2" t="str">
@@ -1637,7 +1636,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <f>RANK(C11,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="2" t="str">
@@ -1651,7 +1650,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <f>RANK(C12,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="2" t="str">
@@ -1665,7 +1664,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <f>RANK(C13,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="2" t="str">
@@ -1679,7 +1678,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <f>RANK(C14,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="2" t="str">
@@ -1693,7 +1692,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <f>RANK(C15,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B15" s="2" t="str">
@@ -1707,7 +1706,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <f>RANK(C16,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B16" s="2" t="str">
@@ -1721,7 +1720,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <f>RANK(C17,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="13" t="str">
@@ -1735,7 +1734,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <f>RANK(C18,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="13" t="str">
@@ -1749,7 +1748,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <f>RANK(C19,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19" s="2" t="str">
@@ -1763,7 +1762,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <f>RANK(C20,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B20" s="13" t="str">
@@ -1777,7 +1776,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <f>RANK(C21,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="2" t="str">
@@ -1791,7 +1790,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <f>RANK(C22,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="2" t="str">
@@ -1805,7 +1804,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <f>RANK(C23,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23" s="2" t="str">
@@ -1819,7 +1818,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <f>RANK(C24,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="2" t="str">
@@ -1833,7 +1832,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <f>RANK(C25,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="2" t="str">
@@ -1847,7 +1846,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <f>RANK(C26,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="2" t="str">
@@ -1861,7 +1860,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <f>RANK(C27,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="2" t="str">
@@ -1875,7 +1874,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <f>RANK(C28,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28" s="2" t="str">
@@ -1889,7 +1888,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <f>RANK(C29,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="2" t="str">
@@ -1903,7 +1902,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <f>RANK(C30,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="2" t="str">
@@ -1917,7 +1916,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <f>RANK(C31,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="2" t="str">
@@ -1931,7 +1930,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <f>RANK(C32,($C$2:$C$32),0)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="39" t="str">
@@ -3284,19 +3283,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -3306,6 +3292,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{8427FA4B-D7DC-C74F-B6C6-02A04CEA1479}">
@@ -4648,19 +4647,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -4670,6 +4656,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{AF448023-A790-794F-BB14-4EE63C681037}">
@@ -6012,19 +6011,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -6034,6 +6020,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{CBEDE9B1-CCD8-024F-8FF6-52E83D09DD5F}">
@@ -7382,19 +7381,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -7404,6 +7390,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C99" xr:uid="{A6BA8386-7538-B943-BC89-6C717665472C}">
@@ -8746,19 +8745,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -8768,6 +8754,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{2B53EE05-D1D3-374E-8836-2425C3E2B4A5}">
@@ -10108,19 +10107,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -10130,6 +10116,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{A2199F60-9E4F-6445-90E3-92673D510A9D}">
@@ -11472,19 +11471,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -11494,6 +11480,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C97" xr:uid="{05F05F3A-89C6-E74F-BB5C-B82EDA718869}">
@@ -12812,6 +12811,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A86:D86"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
@@ -12825,15 +12833,6 @@
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{84866E23-2C57-B247-AC72-E241400D8978}">
@@ -14176,19 +14175,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -14198,6 +14184,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{85A9722B-955B-CF41-A6F3-38FDC4B48A7A}">
@@ -15540,11 +15539,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A86:D86"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A77:D77"/>
@@ -15557,11 +15556,11 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C97" xr:uid="{F2D3BCCF-F868-974E-AEC9-AB88E8DBE8B7}">
@@ -48116,6 +48115,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="CH1:CK1"/>
     <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="AY1:BB1"/>
@@ -48123,12 +48128,6 @@
     <mergeCell ref="BM1:BP1"/>
     <mergeCell ref="BT1:BW1"/>
     <mergeCell ref="CA1:CD1"/>
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AD1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -49154,6 +49153,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A39:D39"/>
@@ -49161,12 +49166,6 @@
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C73" xr:uid="{98289B19-A16E-8E48-AC84-DA2AC3E66DBF}">
@@ -50512,19 +50511,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -50534,6 +50520,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -51870,19 +51869,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -51892,6 +51878,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{A72D56DF-9BC0-2E49-9D2A-B8E721479EEF}">
@@ -53162,19 +53161,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A17:D17"/>
     <mergeCell ref="A77:D77"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A82:D82"/>
@@ -53184,6 +53170,19 @@
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="A71:D71"/>
     <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A52:D52"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62:C84" xr:uid="{C11CF323-092E-EA4D-9917-FC21144EBBB1}">
@@ -54541,19 +54540,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -54563,6 +54549,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{EC36F1B5-3564-784F-B3C5-B041B2C2E87E}">
@@ -55905,19 +55904,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -55927,6 +55913,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{A0FD6351-8E4F-C04E-BE54-C8F4EA5F1555}">
@@ -57279,19 +57278,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -57301,6 +57287,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C100" xr:uid="{912C664E-C133-1E4F-9640-4A25EB9EF25D}">
@@ -58643,19 +58642,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -58665,6 +58651,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{B20B3CE4-DCB9-4E4A-AC39-D9DA073FCC61}">
@@ -60003,19 +60002,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -60025,6 +60011,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{D0B3E49D-2BC1-6E4D-9735-2E4B121876A2}">
@@ -61367,19 +61366,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -61389,6 +61375,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{60ADF05C-298C-944D-B683-D8C73BF6553D}">
@@ -61404,10 +61403,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CA3D3A-5644-1847-8D60-65D782BB1346}">
   <dimension ref="A1:BJ51"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="P54" sqref="P54"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -61667,7 +61666,7 @@
         <f>'James W'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH2" s="85">
+      <c r="AH2" s="39">
         <f>'James W'!E87</f>
         <v>1</v>
       </c>
@@ -61690,7 +61689,7 @@
         <f>'James W'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO2" s="85">
+      <c r="AO2" s="39">
         <f>'James W'!E90</f>
         <v>2</v>
       </c>
@@ -61705,15 +61704,15 @@
         <f>'James W'!B93</f>
         <v>0</v>
       </c>
-      <c r="AT2" s="38">
+      <c r="AT2" s="57">
         <f>'James W'!C93</f>
         <v>2</v>
       </c>
-      <c r="AU2" s="39" t="str">
+      <c r="AU2" s="56" t="str">
         <f>'James W'!D93</f>
         <v>Brazil</v>
       </c>
-      <c r="AV2" s="39">
+      <c r="AV2" s="56">
         <f>'James W'!E93</f>
         <v>0</v>
       </c>
@@ -61865,7 +61864,7 @@
         <f>'James W'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH3" s="85">
+      <c r="AH3" s="39">
         <f>'James W'!E88</f>
         <v>0</v>
       </c>
@@ -61901,15 +61900,15 @@
         <f>'Mother B'!B93</f>
         <v>2</v>
       </c>
-      <c r="AT3" s="38">
+      <c r="AT3" s="57">
         <f>'Mother B'!C93</f>
         <v>4</v>
       </c>
-      <c r="AU3" s="39" t="str">
+      <c r="AU3" s="56" t="str">
         <f>'Mother B'!D93</f>
         <v>Brazil</v>
       </c>
-      <c r="AV3" s="39">
+      <c r="AV3" s="56">
         <f>'Mother B'!E93</f>
         <v>0</v>
       </c>
@@ -62072,7 +62071,7 @@
         <f>'Mother B'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH4" s="85">
+      <c r="AH4" s="39">
         <f>'Mother B'!E87</f>
         <v>3</v>
       </c>
@@ -62095,7 +62094,7 @@
         <f>'Mother B'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO4" s="85">
+      <c r="AO4" s="39">
         <f>'Mother B'!E90</f>
         <v>0</v>
       </c>
@@ -62110,15 +62109,15 @@
         <f>'Derek b'!B93</f>
         <v>1</v>
       </c>
-      <c r="AT4" s="38">
+      <c r="AT4" s="57">
         <f>'Derek b'!C93</f>
         <v>2</v>
       </c>
-      <c r="AU4" s="39" t="str">
+      <c r="AU4" s="56" t="str">
         <f>'Derek b'!D93</f>
         <v>Brazil</v>
       </c>
-      <c r="AV4" s="39">
+      <c r="AV4" s="56">
         <f>'Derek b'!E93</f>
         <v>0</v>
       </c>
@@ -62271,7 +62270,7 @@
         <f>'Mother B'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH5" s="85">
+      <c r="AH5" s="39">
         <f>'Mother B'!E88</f>
         <v>0</v>
       </c>
@@ -62307,15 +62306,15 @@
         <f>'Bernie R'!B93</f>
         <v>0</v>
       </c>
-      <c r="AT5" s="38">
+      <c r="AT5" s="57">
         <f>'Bernie R'!C93</f>
         <v>2</v>
       </c>
-      <c r="AU5" s="39" t="str">
+      <c r="AU5" s="56" t="str">
         <f>'Bernie R'!D93</f>
         <v>Brazil</v>
       </c>
-      <c r="AV5" s="39">
+      <c r="AV5" s="56">
         <f>'Bernie R'!E93</f>
         <v>0</v>
       </c>
@@ -62478,7 +62477,7 @@
         <f>'Derek b'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH6" s="85">
+      <c r="AH6" s="39">
         <f>'Derek b'!E87</f>
         <v>1</v>
       </c>
@@ -62501,7 +62500,7 @@
         <f>'Derek b'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO6" s="85">
+      <c r="AO6" s="39">
         <f>'Derek b'!E90</f>
         <v>0</v>
       </c>
@@ -62516,11 +62515,11 @@
         <f>'Nathan W'!B81</f>
         <v>2</v>
       </c>
-      <c r="AT6" s="38">
+      <c r="AT6" s="57">
         <f>'Nathan W'!C81</f>
         <v>1</v>
       </c>
-      <c r="AU6" s="39" t="str">
+      <c r="AU6" s="56" t="str">
         <f>'Nathan W'!D81</f>
         <v>Japan</v>
       </c>
@@ -62677,7 +62676,7 @@
         <f>'Derek b'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH7" s="85">
+      <c r="AH7" s="39">
         <f>'Derek b'!E88</f>
         <v>0</v>
       </c>
@@ -62883,7 +62882,7 @@
         <f>'Bernie R'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH8" s="85">
+      <c r="AH8" s="39">
         <f>'Bernie R'!E87</f>
         <v>1</v>
       </c>
@@ -62906,18 +62905,18 @@
         <f>'Bernie R'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO8" s="85">
+      <c r="AO8" s="39">
         <f>'Bernie R'!E90</f>
         <v>0</v>
       </c>
       <c r="AQ8" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AR8" s="39" t="str">
+      <c r="AR8" s="56" t="str">
         <f>'Marjorie L'!A93</f>
         <v>Netherlands</v>
       </c>
-      <c r="AS8" s="38">
+      <c r="AS8" s="57">
         <f>'Marjorie L'!B93</f>
         <v>2</v>
       </c>
@@ -62929,7 +62928,7 @@
         <f>'Marjorie L'!D93</f>
         <v>Croatia</v>
       </c>
-      <c r="AV8" s="39">
+      <c r="AV8" s="56">
         <f>'Marjorie L'!E93</f>
         <v>0</v>
       </c>
@@ -63082,7 +63081,7 @@
         <f>'Bernie R'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH9" s="85">
+      <c r="AH9" s="39">
         <f>'Bernie R'!E88</f>
         <v>0</v>
       </c>
@@ -63117,15 +63116,15 @@
         <f>'Keith W'!B93</f>
         <v>0</v>
       </c>
-      <c r="AT9" s="38">
+      <c r="AT9" s="57">
         <f>'Keith W'!C93</f>
         <v>2</v>
       </c>
-      <c r="AU9" s="39" t="str">
+      <c r="AU9" s="56" t="str">
         <f>'Keith W'!D93</f>
         <v>Brazil</v>
       </c>
-      <c r="AV9" s="39">
+      <c r="AV9" s="56">
         <f>'Keith W'!E93</f>
         <v>0</v>
       </c>
@@ -63288,7 +63287,7 @@
         <f>'Nathan W'!D75</f>
         <v>Argentina</v>
       </c>
-      <c r="AH10" s="85">
+      <c r="AH10" s="39">
         <f>'Nathan W'!E75</f>
         <v>1</v>
       </c>
@@ -63311,7 +63310,7 @@
         <f>'Nathan W'!D78</f>
         <v>England</v>
       </c>
-      <c r="AO10" s="85">
+      <c r="AO10" s="39">
         <f>'Nathan W'!E78</f>
         <v>0</v>
       </c>
@@ -63326,15 +63325,15 @@
         <f>'Liz W'!B93</f>
         <v>1</v>
       </c>
-      <c r="AT10" s="38">
+      <c r="AT10" s="57">
         <f>'Liz W'!C93</f>
         <v>2</v>
       </c>
-      <c r="AU10" s="39" t="str">
+      <c r="AU10" s="56" t="str">
         <f>'Liz W'!D93</f>
         <v>Brazil</v>
       </c>
-      <c r="AV10" s="39">
+      <c r="AV10" s="56">
         <f>'Liz W'!E93</f>
         <v>0</v>
       </c>
@@ -63523,15 +63522,15 @@
         <f>'Alice D'!B93</f>
         <v>0</v>
       </c>
-      <c r="AT11" s="38">
+      <c r="AT11" s="57">
         <f>'Alice D'!C93</f>
         <v>2</v>
       </c>
-      <c r="AU11" s="39" t="str">
+      <c r="AU11" s="56" t="str">
         <f>'Alice D'!D93</f>
         <v>Brazil</v>
       </c>
-      <c r="AV11" s="39">
+      <c r="AV11" s="56">
         <f>'Alice D'!E93</f>
         <v>0</v>
       </c>
@@ -63694,7 +63693,7 @@
         <f>'Martin L'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH12" s="85">
+      <c r="AH12" s="39">
         <f>'Martin L'!E87</f>
         <v>1</v>
       </c>
@@ -63717,7 +63716,7 @@
         <f>'Martin L'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO12" s="85">
+      <c r="AO12" s="39">
         <f>'Martin L'!E90</f>
         <v>0</v>
       </c>
@@ -63732,15 +63731,15 @@
         <f>'Rob TH'!B93</f>
         <v>0</v>
       </c>
-      <c r="AT12" s="38">
+      <c r="AT12" s="57">
         <f>'Rob TH'!C93</f>
         <v>2</v>
       </c>
-      <c r="AU12" s="39" t="str">
+      <c r="AU12" s="56" t="str">
         <f>'Rob TH'!D93</f>
         <v>Brazil</v>
       </c>
-      <c r="AV12" s="39">
+      <c r="AV12" s="56">
         <f>'Rob TH'!E93</f>
         <v>0</v>
       </c>
@@ -63892,7 +63891,7 @@
         <f>'Martin L'!D88</f>
         <v>South Korea</v>
       </c>
-      <c r="AH13" s="85">
+      <c r="AH13" s="39">
         <f>'Martin L'!E88</f>
         <v>2</v>
       </c>
@@ -64098,7 +64097,7 @@
         <f>'Marjorie L'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH14" s="85">
+      <c r="AH14" s="39">
         <f>'Marjorie L'!E87</f>
         <v>0</v>
       </c>
@@ -64121,7 +64120,7 @@
         <f>'Marjorie L'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO14" s="85">
+      <c r="AO14" s="39">
         <f>'Marjorie L'!E90</f>
         <v>0</v>
       </c>
@@ -64136,15 +64135,15 @@
         <f>'Alison S'!B93</f>
         <v>1</v>
       </c>
-      <c r="AT14" s="38">
+      <c r="AT14" s="57">
         <f>'Alison S'!C93</f>
         <v>2</v>
       </c>
-      <c r="AU14" s="39" t="str">
+      <c r="AU14" s="56" t="str">
         <f>'Alison S'!D93</f>
         <v>Brazil</v>
       </c>
-      <c r="AV14" s="39">
+      <c r="AV14" s="56">
         <f>'Alison S'!E93</f>
         <v>0</v>
       </c>
@@ -64297,7 +64296,7 @@
         <f>'Marjorie L'!D88</f>
         <v>South Korea</v>
       </c>
-      <c r="AH15" s="85">
+      <c r="AH15" s="39">
         <f>'Marjorie L'!E88</f>
         <v>2</v>
       </c>
@@ -64325,23 +64324,23 @@
       <c r="AQ15" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="AR15" s="39" t="str">
+      <c r="AR15" s="56" t="str">
         <f>'Cathy G'!A93</f>
         <v>Australia</v>
       </c>
-      <c r="AS15" s="38">
+      <c r="AS15" s="57">
         <f>'Cathy G'!B93</f>
         <v>2</v>
       </c>
-      <c r="AT15" s="38">
+      <c r="AT15" s="57">
         <f>'Cathy G'!C93</f>
         <v>1</v>
       </c>
-      <c r="AU15" s="39" t="str">
+      <c r="AU15" s="56" t="str">
         <f>'Cathy G'!D93</f>
         <v>Brazil</v>
       </c>
-      <c r="AV15" s="39">
+      <c r="AV15" s="56">
         <f>'Cathy G'!E93</f>
         <v>0</v>
       </c>
@@ -64504,7 +64503,7 @@
         <f>'Keith W'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH16" s="85">
+      <c r="AH16" s="39">
         <f>'Keith W'!E87</f>
         <v>1</v>
       </c>
@@ -64527,7 +64526,7 @@
         <f>'Keith W'!D90</f>
         <v>Senegal</v>
       </c>
-      <c r="AO16" s="85">
+      <c r="AO16" s="39">
         <f>'Keith W'!E90</f>
         <v>1</v>
       </c>
@@ -64542,15 +64541,15 @@
         <f>'Dave B'!B93</f>
         <v>2</v>
       </c>
-      <c r="AT16" s="38">
+      <c r="AT16" s="57">
         <f>'Dave B'!C93</f>
         <v>3</v>
       </c>
-      <c r="AU16" s="39" t="str">
+      <c r="AU16" s="56" t="str">
         <f>'Dave B'!D93</f>
         <v>Brazil</v>
       </c>
-      <c r="AV16" s="39">
+      <c r="AV16" s="56">
         <f>'Dave B'!E93</f>
         <v>0</v>
       </c>
@@ -64703,7 +64702,7 @@
         <f>'Keith W'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH17" s="85">
+      <c r="AH17" s="39">
         <f>'Keith W'!E88</f>
         <v>0</v>
       </c>
@@ -64739,15 +64738,15 @@
         <f>'Jacques Chi'!B93</f>
         <v>1</v>
       </c>
-      <c r="AT17" s="38">
+      <c r="AT17" s="57">
         <f>'Jacques Chi'!C93</f>
         <v>2</v>
       </c>
-      <c r="AU17" s="39" t="str">
+      <c r="AU17" s="56" t="str">
         <f>'Jacques Chi'!D93</f>
         <v>Japan</v>
       </c>
-      <c r="AV17" s="39">
+      <c r="AV17" s="56">
         <f>'Jacques Chi'!E93</f>
         <v>0</v>
       </c>
@@ -64910,7 +64909,7 @@
         <f>'Liz W'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH18" s="85">
+      <c r="AH18" s="39">
         <f>'Liz W'!E87</f>
         <v>2</v>
       </c>
@@ -64933,7 +64932,7 @@
         <f>'Liz W'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO18" s="85">
+      <c r="AO18" s="39">
         <f>'Liz W'!E90</f>
         <v>2</v>
       </c>
@@ -64948,11 +64947,11 @@
         <f>'Robert L'!B93</f>
         <v>2</v>
       </c>
-      <c r="AT18" s="38">
+      <c r="AT18" s="57">
         <f>'Robert L'!C93</f>
         <v>1</v>
       </c>
-      <c r="AU18" s="39" t="str">
+      <c r="AU18" s="56" t="str">
         <f>'Robert L'!D93</f>
         <v>Brazil</v>
       </c>
@@ -65108,7 +65107,7 @@
         <f>'Liz W'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH19" s="85">
+      <c r="AH19" s="39">
         <f>'Liz W'!E88</f>
         <v>0</v>
       </c>
@@ -65136,25 +65135,25 @@
       <c r="AQ19" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="AR19" s="39" t="str">
-        <f>'Dawn G'!A78</f>
-        <v>France</v>
-      </c>
-      <c r="AS19" s="38">
-        <f>'Dawn G'!B78</f>
-        <v>1</v>
-      </c>
-      <c r="AT19" s="38">
-        <f>'Dawn G'!C78</f>
-        <v>0</v>
-      </c>
-      <c r="AU19" s="39" t="str">
-        <f>'Dawn G'!D78</f>
-        <v>Poland</v>
-      </c>
-      <c r="AV19" s="39">
-        <f>'Dawn G'!E78</f>
-        <v>1</v>
+      <c r="AR19" s="56" t="str">
+        <f>'Dawn G'!A93</f>
+        <v>United States</v>
+      </c>
+      <c r="AS19" s="56">
+        <f>'Dawn G'!B93</f>
+        <v>1</v>
+      </c>
+      <c r="AT19" s="56">
+        <f>'Dawn G'!C93</f>
+        <v>0</v>
+      </c>
+      <c r="AU19" s="56" t="str">
+        <f>'Dawn G'!D93</f>
+        <v>Brazil</v>
+      </c>
+      <c r="AV19" s="56">
+        <f>'Dawn G'!E93</f>
+        <v>0</v>
       </c>
       <c r="AX19" s="39" t="s">
         <v>24</v>
@@ -65315,7 +65314,7 @@
         <f>'Alice D'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH20" s="85">
+      <c r="AH20" s="39">
         <f>'Alice D'!E87</f>
         <v>0</v>
       </c>
@@ -65338,7 +65337,7 @@
         <f>'Alice D'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO20" s="85">
+      <c r="AO20" s="39">
         <f>'Alice D'!E90</f>
         <v>1</v>
       </c>
@@ -65346,23 +65345,23 @@
         <v>23</v>
       </c>
       <c r="AR20" s="39" t="str">
-        <f>'Dawn G'!A93</f>
-        <v>United States</v>
-      </c>
-      <c r="AS20" s="38">
-        <f>'Dawn G'!B93</f>
-        <v>1</v>
-      </c>
-      <c r="AT20" s="38">
-        <f>'Dawn G'!C93</f>
-        <v>0</v>
-      </c>
-      <c r="AU20" s="39" t="str">
-        <f>'Dawn G'!D93</f>
+        <f>'John B'!A93</f>
+        <v>Argentina</v>
+      </c>
+      <c r="AS20" s="39">
+        <f>'John B'!B93</f>
+        <v>1</v>
+      </c>
+      <c r="AT20" s="56">
+        <f>'John B'!C93</f>
+        <v>2</v>
+      </c>
+      <c r="AU20" s="56" t="str">
+        <f>'John B'!D93</f>
         <v>Brazil</v>
       </c>
-      <c r="AV20" s="39">
-        <f>'Dawn G'!E93</f>
+      <c r="AV20" s="56">
+        <f>'John B'!E93</f>
         <v>0</v>
       </c>
       <c r="AX20" s="39" t="s">
@@ -65514,7 +65513,7 @@
         <f>'Alice D'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH21" s="85">
+      <c r="AH21" s="39">
         <f>'Alice D'!E88</f>
         <v>0</v>
       </c>
@@ -65546,19 +65545,19 @@
         <f>'Mandy B'!A93</f>
         <v>Argentina</v>
       </c>
-      <c r="AS21" s="38">
+      <c r="AS21" s="39">
         <f>'Mandy B'!B93</f>
         <v>2</v>
       </c>
-      <c r="AT21" s="38">
+      <c r="AT21" s="56">
         <f>'Mandy B'!C93</f>
         <v>3</v>
       </c>
-      <c r="AU21" s="39" t="str">
+      <c r="AU21" s="56" t="str">
         <f>'Mandy B'!D93</f>
         <v>Brazil</v>
       </c>
-      <c r="AV21" s="39">
+      <c r="AV21" s="56">
         <f>'Mandy B'!E93</f>
         <v>0</v>
       </c>
@@ -65721,7 +65720,7 @@
         <f>'Rob TH'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH22" s="85">
+      <c r="AH22" s="39">
         <f>'Rob TH'!E87</f>
         <v>1</v>
       </c>
@@ -65744,7 +65743,7 @@
         <f>'Rob TH'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO22" s="85">
+      <c r="AO22" s="39">
         <f>'Rob TH'!E90</f>
         <v>0</v>
       </c>
@@ -65759,15 +65758,15 @@
         <f>'Freddie J'!B93</f>
         <v>1</v>
       </c>
-      <c r="AT22" s="38">
+      <c r="AT22" s="57">
         <f>'Freddie J'!C93</f>
         <v>2</v>
       </c>
-      <c r="AU22" s="39" t="str">
+      <c r="AU22" s="56" t="str">
         <f>'Freddie J'!D93</f>
         <v>Brazil</v>
       </c>
-      <c r="AV22" s="39">
+      <c r="AV22" s="56">
         <f>'Freddie J'!E93</f>
         <v>0</v>
       </c>
@@ -65919,7 +65918,7 @@
         <f>'Rob TH'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH23" s="85">
+      <c r="AH23" s="39">
         <f>'Rob TH'!E88</f>
         <v>0</v>
       </c>
@@ -65955,15 +65954,15 @@
         <f>'Stuart L'!B93</f>
         <v>0</v>
       </c>
-      <c r="AT23" s="38">
+      <c r="AT23" s="57">
         <f>'Stuart L'!C93</f>
         <v>1</v>
       </c>
-      <c r="AU23" s="39" t="str">
+      <c r="AU23" s="56" t="str">
         <f>'Stuart L'!D93</f>
         <v>Brazil</v>
       </c>
-      <c r="AV23" s="39">
+      <c r="AV23" s="56">
         <f>'Stuart L'!E93</f>
         <v>0</v>
       </c>
@@ -66126,7 +66125,7 @@
         <f>'Evan A'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH24" s="85">
+      <c r="AH24" s="39">
         <f>'Evan A'!E87</f>
         <v>1</v>
       </c>
@@ -66149,7 +66148,7 @@
         <f>'Evan A'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO24" s="85">
+      <c r="AO24" s="39">
         <f>'Evan A'!E90</f>
         <v>2</v>
       </c>
@@ -66164,11 +66163,11 @@
         <f>'Barbara L'!B93</f>
         <v>2</v>
       </c>
-      <c r="AT24" s="38">
+      <c r="AT24" s="57">
         <f>'Barbara L'!C93</f>
         <v>1</v>
       </c>
-      <c r="AU24" s="39" t="str">
+      <c r="AU24" s="56" t="str">
         <f>'Barbara L'!D93</f>
         <v>Brazil</v>
       </c>
@@ -66325,7 +66324,7 @@
         <f>'Evan A'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH25" s="85">
+      <c r="AH25" s="39">
         <f>'Evan A'!E88</f>
         <v>2</v>
       </c>
@@ -66361,15 +66360,15 @@
         <f>'Andy B'!B93</f>
         <v>2</v>
       </c>
-      <c r="AT25" s="38">
+      <c r="AT25" s="57">
         <f>'Andy B'!C93</f>
         <v>4</v>
       </c>
-      <c r="AU25" s="39" t="str">
+      <c r="AU25" s="56" t="str">
         <f>'Andy B'!D93</f>
         <v>Brazil</v>
       </c>
-      <c r="AV25" s="39">
+      <c r="AV25" s="56">
         <f>'Andy B'!E93</f>
         <v>0</v>
       </c>
@@ -66532,7 +66531,7 @@
         <f>'Alison S'!D87</f>
         <v>Argentina</v>
       </c>
-      <c r="AH26" s="85">
+      <c r="AH26" s="39">
         <f>'Alison S'!E87</f>
         <v>2</v>
       </c>
@@ -66555,7 +66554,7 @@
         <f>'Alison S'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO26" s="85">
+      <c r="AO26" s="39">
         <f>'Alison S'!E90</f>
         <v>1</v>
       </c>
@@ -66570,15 +66569,15 @@
         <f>'Keith G'!B93</f>
         <v>1</v>
       </c>
-      <c r="AT26" s="38">
+      <c r="AT26" s="57">
         <f>'Keith G'!C93</f>
         <v>3</v>
       </c>
-      <c r="AU26" s="39" t="str">
+      <c r="AU26" s="56" t="str">
         <f>'Keith G'!D93</f>
         <v>Brazil</v>
       </c>
-      <c r="AV26" s="39">
+      <c r="AV26" s="56">
         <f>'Keith G'!E93</f>
         <v>0</v>
       </c>
@@ -66731,7 +66730,7 @@
         <f>'Alison S'!D88</f>
         <v>Brazil</v>
       </c>
-      <c r="AH27" s="85">
+      <c r="AH27" s="39">
         <f>'Alison S'!E88</f>
         <v>0</v>
       </c>
@@ -66892,7 +66891,7 @@
         <f>'Cathy G'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO28" s="85">
+      <c r="AO28" s="39">
         <f>'Cathy G'!E90</f>
         <v>0</v>
       </c>
@@ -67160,7 +67159,7 @@
         <f>'Dave B'!D90</f>
         <v>Senegal</v>
       </c>
-      <c r="AO30" s="85">
+      <c r="AO30" s="39">
         <f>'Dave B'!E90</f>
         <v>0</v>
       </c>
@@ -67427,7 +67426,7 @@
         <f>'Jacques Chi'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO32" s="85">
+      <c r="AO32" s="39">
         <f>'Jacques Chi'!E90</f>
         <v>0</v>
       </c>
@@ -67555,7 +67554,7 @@
         <f>'Jacques Chi'!D91</f>
         <v>Portugal</v>
       </c>
-      <c r="AO33" s="85">
+      <c r="AO33" s="39">
         <f>'Jacques Chi'!E91</f>
         <v>3</v>
       </c>
@@ -67695,7 +67694,7 @@
         <f>'Robert L'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO34" s="85">
+      <c r="AO34" s="39">
         <f>'Robert L'!E90</f>
         <v>0</v>
       </c>
@@ -67962,7 +67961,7 @@
         <f>'Dawn G'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO36" s="85">
+      <c r="AO36" s="39">
         <f>'Dawn G'!E90</f>
         <v>0</v>
       </c>
@@ -68088,7 +68087,7 @@
         <f>'Dawn G'!D91</f>
         <v>Portugal</v>
       </c>
-      <c r="AO37" s="85">
+      <c r="AO37" s="39">
         <f>'Dawn G'!E91</f>
         <v>0</v>
       </c>
@@ -68228,7 +68227,7 @@
         <f>'John B'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO38" s="85">
+      <c r="AO38" s="39">
         <f>'John B'!E90</f>
         <v>0</v>
       </c>
@@ -68496,7 +68495,7 @@
         <f>'Mandy B'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO40" s="85">
+      <c r="AO40" s="39">
         <f>'Mandy B'!E90</f>
         <v>3</v>
       </c>
@@ -68764,7 +68763,7 @@
         <f>'Freddie J'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO42" s="85">
+      <c r="AO42" s="39">
         <f>'Freddie J'!E90</f>
         <v>0</v>
       </c>
@@ -69032,7 +69031,7 @@
         <f>'Stuart L'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO44" s="85">
+      <c r="AO44" s="39">
         <f>'Stuart L'!E90</f>
         <v>3</v>
       </c>
@@ -69300,7 +69299,7 @@
         <f>'Barbara L'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO46" s="85">
+      <c r="AO46" s="39">
         <f>'Barbara L'!E90</f>
         <v>0</v>
       </c>
@@ -69568,7 +69567,7 @@
         <f>'Andy B'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO48" s="85">
+      <c r="AO48" s="39">
         <f>'Andy B'!E90</f>
         <v>0</v>
       </c>
@@ -69836,7 +69835,7 @@
         <f>'Keith G'!D90</f>
         <v>England</v>
       </c>
-      <c r="AO50" s="85">
+      <c r="AO50" s="39">
         <f>'Keith G'!E90</f>
         <v>0</v>
       </c>
@@ -71321,19 +71320,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -71343,6 +71329,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C98" xr:uid="{F68D3FFC-EF79-CC40-8F53-8BF21A5E1341}">
@@ -72688,19 +72687,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -72710,6 +72696,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C97" xr:uid="{11A7353F-6A05-F048-B4B5-2330C623E382}">
@@ -73922,19 +73921,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -73944,6 +73930,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{9D4EDCA2-2FFE-E64B-A34E-466DD99F6343}">
@@ -75135,6 +75134,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A86:D86"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
@@ -75148,15 +75156,6 @@
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{55CBA0EA-03DF-D446-B217-F70483C49D17}">
@@ -76370,19 +76369,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -76392,6 +76378,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66 B1:C65 B67:C97" xr:uid="{156C7248-1706-4E17-9BB6-079B78DEF479}">
@@ -77583,6 +77582,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A86:D86"/>
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
@@ -77596,15 +77604,6 @@
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A86:D86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C97" xr:uid="{977686BA-C9F0-5F4E-89D6-CE94966C1FE0}">
@@ -78793,19 +78792,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -78815,6 +78801,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{BE5067DB-A56D-FF40-9C9A-839412CFE3CC}">
@@ -79381,18 +79380,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B58:E58"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B58:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -80958,19 +80957,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -80980,6 +80966,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{8A242A5A-737B-3248-9203-1E18FA7E8CAD}">
@@ -82322,19 +82321,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -82344,6 +82330,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C96" xr:uid="{79F4B324-FC19-7044-8ECD-3029BC735257}">
@@ -83686,19 +83685,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -83708,6 +83694,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{F1AA318D-CFEE-E945-8C0E-235E3838BA82}">
@@ -85050,19 +85049,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A94:D94"/>
@@ -85072,6 +85058,19 @@
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:C96" xr:uid="{446CEEDB-BF43-854D-95D2-80CA6EE53C2C}">

--- a/resources/Forms/Excel/Big Sheet.xlsx
+++ b/resources/Forms/Excel/Big Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dabaxter/Projects/Footie/FootieTake2/resources/Forms/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DD4573-F2E3-EC48-8485-A2EF89FC62CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6507FECD-5E18-F244-90D9-135CD7E75A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" tabRatio="800" firstSheet="1" activeTab="2" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" tabRatio="800" activeTab="2" xr2:uid="{ACDD4B4B-6B95-D34B-BAB9-FF7DBF2FABF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Ranking" sheetId="5" r:id="rId1"/>
@@ -1094,23 +1094,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>838199</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>389466</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>30070</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>142314</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99131B25-0BAD-3CF5-1BAA-59125F2EF782}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BB6E7C6-CD21-DA2D-52F6-49F06825667B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1126,8 +1126,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2556932" y="0"/>
-          <a:ext cx="6256867" cy="23601270"/>
+          <a:off x="2556933" y="0"/>
+          <a:ext cx="4724400" cy="17820714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1145,21 +1145,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>198782</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>33130</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>128607</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>474870</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>170609</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{607D0782-DA45-6F33-C5AE-E9612478405A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F57AC2D-9BEA-DC94-BF59-E7AB293320F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1175,8 +1175,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10933043"/>
-          <a:ext cx="10491304" cy="17223912"/>
+          <a:off x="0" y="10535478"/>
+          <a:ext cx="8216348" cy="13489044"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1487,7 +1487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88DB2AD-0B7A-2B40-B11D-A4AE4E9DB3F2}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A32" si="0">RANK(C2,($C$2:$C$32),0)</f>
+        <f>RANK(C2,($C$2:$C$32),0)</f>
         <v>1</v>
       </c>
       <c r="B2" s="2" t="str">
@@ -1524,7 +1524,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <f t="shared" si="0"/>
+        <f>RANK(C3,($C$2:$C$32),0)</f>
         <v>2</v>
       </c>
       <c r="B3" s="2"